--- a/Last FM/Will's Last FM.xlsx
+++ b/Last FM/Will's Last FM.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\Last FM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B76D3C-52D5-43FF-8196-457E0200E814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59309B4-4C85-4DEE-9351-25ED45D0C4CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -688,7 +688,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>13</c:v>
@@ -697,7 +697,7 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
@@ -795,28 +795,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.4951983941862492</c:v>
+                  <c:v>4.5721458949356615</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.917042143123455</c:v>
+                  <c:v>11.072200613315742</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.425111638393592</c:v>
+                  <c:v>17.71548443000545</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.28500554680258</c:v>
+                  <c:v>18.732999831378873</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>12.614721661890377</c:v>
+                  <c:v>13.092197916735259</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7202606133233136</c:v>
+                  <c:v>6.0460103263772655</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7040781849808779</c:v>
+                  <c:v>1.8440347100849488</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.33326056555693701</c:v>
+                  <c:v>0.37120593060248797</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,424 +1543,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>1.6502906880549206E-3</c:v>
+                  <c:v>1.6401921183102418E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7640050386529844E-3</c:v>
+                  <c:v>1.7524422166429509E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8835063057502956E-3</c:v>
+                  <c:v>1.8703665432330469E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0089180492667011E-3</c:v>
+                  <c:v>1.9940855020020515E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1403522225122073E-3</c:v>
+                  <c:v>2.1237082728712306E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2779078972311076E-3</c:v>
+                  <c:v>2.2593315860958405E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4216699767623225E-3</c:v>
+                  <c:v>2.4010384851493095E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5717079051936161E-3</c:v>
+                  <c:v>2.5488970856239468E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.728074380929315E-3</c:v>
+                  <c:v>2.7029593381263698E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8908040835924154E-3</c:v>
+                  <c:v>2.8632598036196061E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0599124236350209E-3</c:v>
+                  <c:v>3.0298144500924928E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.235394324428229E-3</c:v>
+                  <c:v>3.202619479813739E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.4172230469364734E-3</c:v>
+                  <c:v>3.3816501967456926E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.6053490673448796E-3</c:v>
+                  <c:v>3.5668599239449738E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7996990181943476E-3</c:v>
+                  <c:v>3.7581789809571719E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.000174703681845E-3</c:v>
+                  <c:v>3.955513731315018E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.206652199796641E-3</c:v>
+                  <c:v>4.1587457102682315E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4189810498820904E-3</c:v>
+                  <c:v>4.3677308428039623E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.636983566032705E-3</c:v>
+                  <c:v>4.5822987618552259E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8604542464540726E-3</c:v>
+                  <c:v>4.8022522363377305E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0891593185262672E-3</c:v>
+                  <c:v>5.0273667183005147E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.3228364168183741E-3</c:v>
+                  <c:v>5.2573900180215606E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.5611944047019727E-3</c:v>
+                  <c:v>5.4920421153252979E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.8039133475060846E-3</c:v>
+                  <c:v>5.731015114745646E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.0506446443468632E-3</c:v>
+                  <c:v>5.9739733514073386E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.3010113248556082E-3</c:v>
+                  <c:v>6.2205536536529635E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.5546085160231729E-3</c:v>
+                  <c:v>6.4703657675071607E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.8110040832829984E-3</c:v>
+                  <c:v>6.7229929470483734E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7.0697394487761736E-3</c:v>
+                  <c:v>6.9779927136583613E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.3303305884882715E-3</c:v>
+                  <c:v>7.2348977859484328E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.5922692086286287E-3</c:v>
+                  <c:v>7.493217180927117E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.8550241002488096E-3</c:v>
+                  <c:v>7.7524374856868406E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.118042669679873E-3</c:v>
+                  <c:v>8.0120242975574608E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.3807526409200063E-3</c:v>
+                  <c:v>8.2714238293138519E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.6425639246386771E-3</c:v>
+                  <c:v>8.5300646746451683E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.9028706469942969E-3</c:v>
+                  <c:v>8.787359727708121E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.1610533300043439E-3</c:v>
+                  <c:v>9.0427082492086329E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.416481213774348E-3</c:v>
+                  <c:v>9.2954980700995279E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.6685147095005516E-3</c:v>
+                  <c:v>9.5451079226604434E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.91650797082517E-3</c:v>
+                  <c:v>9.7909098874537394E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0159811569858063E-2</c:v>
+                  <c:v>1.0032271943441031E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0397775262998659E-2</c:v>
+                  <c:v>1.0268560607412347E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.0629750830611375E-2</c:v>
+                  <c:v>1.049914364783737E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0855094973639581E-2</c:v>
+                  <c:v>1.0723392857307877E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.1073172249400036E-2</c:v>
+                  <c:v>1.094068686691458E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1283358028092784E-2</c:v>
+                  <c:v>1.1150413985200338E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.148504145100083E-2</c:v>
+                  <c:v>1.1351975043765554E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.167762837094862E-2</c:v>
+                  <c:v>1.1544786231178194E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1860544255344913E-2</c:v>
+                  <c:v>1.1728281896568027E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2033237032060379E-2</c:v>
+                  <c:v>1.1901917304167592E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2195179858486555E-2</c:v>
+                  <c:v>1.2065171320105317E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2345873794392673E-2</c:v>
+                  <c:v>1.2217549012961263E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.2484850359640835E-2</c:v>
+                  <c:v>1.2358584149964269E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2611673958435867E-2</c:v>
+                  <c:v>1.2487841571239193E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.2725944152570673E-2</c:v>
+                  <c:v>1.2604919425202083E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2827297767075136E-2</c:v>
+                  <c:v>1.270945124904475E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2915410812779606E-2</c:v>
+                  <c:v>1.2801107879241802E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2990000211553143E-2</c:v>
+                  <c:v>1.2879599178145231E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.3050825311361538E-2</c:v>
+                  <c:v>1.294467556399405E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.3097689179797881E-2</c:v>
+                  <c:v>1.2996129333048468E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.3130439666355622E-2</c:v>
+                  <c:v>1.303379576404722E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.3148970225425124E-2</c:v>
+                  <c:v>1.3057553996769106E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.3153220493783646E-2</c:v>
+                  <c:v>1.3067327678140808E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3143176618198261E-2</c:v>
+                  <c:v>1.3063085371057118E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3118871330653514E-2</c:v>
+                  <c:v>1.3044840722850105E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.3080383770631997E-2</c:v>
+                  <c:v>1.3012652392143734E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.30278390557984E-2</c:v>
+                  <c:v>1.2966623734642593E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.2961407604346267E-2</c:v>
+                  <c:v>1.2906902250210238E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.2881304214144011E-2</c:v>
+                  <c:v>1.2833678795376812E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.2787786905643781E-2</c:v>
+                  <c:v>1.274718656715995E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.2681155537276135E-2</c:v>
+                  <c:v>1.2647699865770747E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.256175020372844E-2</c:v>
+                  <c:v>1.253553264539191E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.2429949429079446E-2</c:v>
+                  <c:v>1.2411036863742887E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.2286168168222018E-2</c:v>
+                  <c:v>1.2274600642572466E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.2130855631337202E-2</c:v>
+                  <c:v>1.2126646252530576E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.1964492947374028E-2</c:v>
+                  <c:v>1.1967627937055513E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.1787590683530117E-2</c:v>
+                  <c:v>1.1798029590961078E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.160068623861037E-2</c:v>
+                  <c:v>1.1618362310310867E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.1404341128857607E-2</c:v>
+                  <c:v>1.1429161830917798E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1199138185395554E-2</c:v>
+                  <c:v>1.1230985873400115E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.0985678682798043E-2</c:v>
+                  <c:v>1.1024411413157525E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.0764579418497738E-2</c:v>
+                  <c:v>1.0810031893900483E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.053646976277401E-2</c:v>
+                  <c:v>1.0588454403472499E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.0301988698915682E-2</c:v>
+                  <c:v>1.0360296830650999E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.0061781872844447E-2</c:v>
+                  <c:v>1.0126185021400225E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.8164986710156284E-3</c:v>
+                  <c:v>9.8867499526850647E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.5667893447917551E-3</c:v>
+                  <c:v>9.6426249414439079E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.3133021987210299E-3</c:v>
+                  <c:v>9.3944429056696116E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.056680859257555E-3</c:v>
+                  <c:v>9.1428336937697356E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.7975616394447599E-3</c:v>
+                  <c:v>8.8884214974807186E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.5365710139610473E-3</c:v>
+                  <c:v>8.6318223626069192E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.2743232177104314E-3</c:v>
+                  <c:v>8.373641810756954E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.0114179798453262E-3</c:v>
+                  <c:v>8.1144725840691049E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.7484384037484104E-3</c:v>
+                  <c:v>7.8548925236685517E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.4859490020904602E-3</c:v>
+                  <c:v>7.5954625912953841E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7.2244938946363609E-3</c:v>
+                  <c:v>7.3367250421978612E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>6.9645951750071924E-3</c:v>
+                  <c:v>7.0792017560142133E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.7067514511369086E-3</c:v>
+                  <c:v>6.8233927309821621E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.451436562702131E-3</c:v>
+                  <c:v>6.56977474543201E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.1990984773664911E-3</c:v>
+                  <c:v>6.3188001891495088E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>5.9501583662798733E-3</c:v>
+                  <c:v>6.0708960658513748E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.7050098579199361E-3</c:v>
+                  <c:v>5.8264631667110421E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.4640184680694592E-3</c:v>
+                  <c:v>5.5858754136159112E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.2275212024986946E-3</c:v>
+                  <c:v>5.3494793696401569E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.9958263277758127E-3</c:v>
+                  <c:v>5.1175939130879561E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.7692133045684915E-3</c:v>
+                  <c:v>4.8905100704088617E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.5479328768324445E-3</c:v>
+                  <c:v>4.6684910023168623E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.3322073094131759E-3</c:v>
+                  <c:v>4.4517721365628813E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.122230765819945E-3</c:v>
+                  <c:v>4.2405614400220617E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>3.9181698172680223E-3</c:v>
+                  <c:v>4.0350398220649307E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.7201640735289774E-3</c:v>
+                  <c:v>3.8353616605882068E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.528326925678703E-3</c:v>
+                  <c:v>3.6416554415871659E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.3427463904887218E-3</c:v>
+                  <c:v>3.4540245027575409E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.1634860459659997E-3</c:v>
+                  <c:v>3.2725478713194101E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>2.9905860474070478E-3</c:v>
+                  <c:v>3.0972811860567068E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.8240642132898682E-3</c:v>
+                  <c:v>2.9282576934607164E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.6639171703774604E-3</c:v>
+                  <c:v>2.7654893078505123E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.5101215475439062E-3</c:v>
+                  <c:v>2.6089677254131495E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.3626352080524083E-3</c:v>
+                  <c:v>2.4586655822564536E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.2213985103075209E-3</c:v>
+                  <c:v>2.3145376467916426E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.0863355874642703E-3</c:v>
+                  <c:v>2.176522037055591E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.9573556366976005E-3</c:v>
+                  <c:v>2.0445414539367987E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.8343542094090598E-3</c:v>
+                  <c:v>1.9185044216781222E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.7172144941663765E-3</c:v>
+                  <c:v>1.798306527486153E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.6058085847277556E-3</c:v>
+                  <c:v>1.6838316525746193E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.499998726088963E-3</c:v>
+                  <c:v>1.5749531875003037E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.3996385320999933E-3</c:v>
+                  <c:v>1.4715352252076309E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.3045741688223179E-3</c:v>
+                  <c:v>1.3734337257755014E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.2146454984302783E-3</c:v>
+                  <c:v>1.2804976474504683E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.1296871790948465E-3</c:v>
+                  <c:v>1.192570039147535E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.0495297169183838E-3</c:v>
+                  <c:v>1.1094890901979292E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>9.7400046660967726E-4</c:v>
+                  <c:v>1.0310891337162043E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>9.0292457819410397E-4</c:v>
+                  <c:v>9.572016005421249E-4</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>8.3612588763975657E-4</c:v>
+                  <c:v>8.8765592128094617E-4</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>7.7342774984247146E-4</c:v>
+                  <c:v>8.2228037451481922E-4</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>7.1465381294746476E-4</c:v>
+                  <c:v>7.6090287978436107E-4</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>6.5962873348953646E-4</c:v>
+                  <c:v>7.0335173443953312E-4</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6.0817883230518237E-4</c:v>
+                  <c:v>6.4945629393029999E-4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>5.6013269160635018E-4</c:v>
+                  <c:v>5.9904759554764105E-4</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>5.1532169400558142E-4</c:v>
+                  <c:v>5.5195892603273158E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,7 +2332,7 @@
                   <c:v>48.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.0">
-                  <c:v>39</c:v>
+                  <c:v>51.666666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2374,7 +2374,7 @@
                   <c:v>22.682067597028947</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.0">
-                  <c:v>8.1240384046359608</c:v>
+                  <c:v>29.783664426437973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2761,7 +2761,7 @@
                   <c:v>48.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.0">
-                  <c:v>39</c:v>
+                  <c:v>51.666666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3610,6 +3610,12 @@
                 <c:pt idx="73">
                   <c:v>4573</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>4684</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4727</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4313,6 +4319,12 @@
                 <c:pt idx="73">
                   <c:v>61.797297297297298</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>62.453333333333333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>62.19736842105263</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4837,6 +4849,12 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>30.329710582970446</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30.65084809412113</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30.529114549558351</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5208,10 +5226,10 @@
                   <c:v>62.636363636363633</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78.400000000000006</c:v>
+                  <c:v>81.36363636363636</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>59.9</c:v>
+                  <c:v>58.363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>58.8</c:v>
@@ -5889,424 +5907,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>1.4513587890690848E-27</c:v>
+                  <c:v>9.728056982479808E-28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9690050573147592E-26</c:v>
+                  <c:v>6.0505954416028991E-26</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7713013599392012E-24</c:v>
+                  <c:v>1.8816555692405862E-24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7086311346856158E-23</c:v>
+                  <c:v>3.9011341560527415E-23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.8194493847693632E-22</c:v>
+                  <c:v>6.0660069590991084E-22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0900362712581206E-20</c:v>
+                  <c:v>7.5457933935951529E-21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1226882586629161E-19</c:v>
+                  <c:v>7.8221415288430354E-20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9113000132538537E-19</c:v>
+                  <c:v>6.9502374073009138E-19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6561444190219947E-18</c:v>
+                  <c:v>5.4035809579459549E-18</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2569892534815819E-17</c:v>
+                  <c:v>3.7343168403816795E-17</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.2486772778610078E-16</c:v>
+                  <c:v>2.3226468032216039E-16</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.8250861414813756E-15</c:v>
+                  <c:v>1.3132956266541296E-15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>9.3987825731917718E-15</c:v>
+                  <c:v>6.8069609947303282E-15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.467841237755314E-14</c:v>
+                  <c:v>3.2567312370536668E-14</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.9721465231906394E-13</c:v>
+                  <c:v>1.4468579471384124E-13</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.124888333829532E-13</c:v>
+                  <c:v>5.9993837860730349E-13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1381008742062998E-12</c:v>
+                  <c:v>2.3321617727604701E-12</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.1407420745425591E-11</c:v>
+                  <c:v>8.5326073528163783E-12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.9163765066689988E-11</c:v>
+                  <c:v>2.9483651284183482E-11</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2737972805830264E-10</c:v>
+                  <c:v>9.651608006948434E-11</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.9358614622339048E-10</c:v>
+                  <c:v>3.0015230953187636E-10</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.1582171471554482E-9</c:v>
+                  <c:v>8.8898494182780378E-10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.2533949717087704E-9</c:v>
+                  <c:v>2.5132965430741835E-9</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.7413485344442926E-9</c:v>
+                  <c:v>6.7965404800409833E-9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.2507988090097804E-8</c:v>
+                  <c:v>1.7613622176071151E-8</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.5637313262712014E-8</c:v>
+                  <c:v>4.382083790857276E-8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3223983032764149E-7</c:v>
+                  <c:v>1.0482849230456686E-7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>3.0266904108523741E-7</c:v>
+                  <c:v>2.4148356877372663E-7</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.6800459695115103E-7</c:v>
+                  <c:v>5.3641580338035718E-7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.423478574956956E-6</c:v>
+                  <c:v>1.1504707361973453E-6</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.9322376230982726E-6</c:v>
+                  <c:v>2.3852084078968729E-6</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.845301940029805E-6</c:v>
+                  <c:v>4.7856027776436864E-6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.1288245680640346E-5</c:v>
+                  <c:v>9.3016218461848877E-6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.1138881039135212E-5</c:v>
+                  <c:v>1.7531406087287138E-5</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.8421344591401139E-5</c:v>
+                  <c:v>3.207080362794368E-5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.7838150122192424E-5</c:v>
+                  <c:v>5.699198825161237E-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.1645039808888264E-4</c:v>
+                  <c:v>9.8465324731495627E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.9449513165100909E-4</c:v>
+                  <c:v>1.6552119132495674E-4</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>3.162966703556431E-4</c:v>
+                  <c:v>2.7092059258762932E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.0118665056699354E-4</c:v>
+                  <c:v>4.3206533102622144E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>7.7429951116313189E-4</c:v>
+                  <c:v>6.71833164395051E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.1670638314268326E-3</c:v>
+                  <c:v>1.0191769473990404E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.7171759656096834E-3</c:v>
+                  <c:v>1.5092886686576561E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.4678333408966291E-3</c:v>
+                  <c:v>2.1831112413539674E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.4660325147175312E-3</c:v>
+                  <c:v>3.0859948677871376E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.7598098167577494E-3</c:v>
+                  <c:v>4.2653502163829847E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6.3944213548863538E-3</c:v>
+                  <c:v>5.7672512794171562E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>8.4076161172786934E-3</c:v>
+                  <c:v>7.6320819702701288E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.0824332349187914E-2</c:v>
+                  <c:v>9.8894877942617716E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.3651316004643215E-2</c:v>
+                  <c:v>1.2553063588473499E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.6872288672765832E-2</c:v>
+                  <c:v>1.5615350416503738E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.0444349788171209E-2</c:v>
+                  <c:v>1.9043798095669043E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.4296260805952961E-2</c:v>
+                  <c:v>2.2778348582547452E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.8329117966757432E-2</c:v>
+                  <c:v>2.673119507192203E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.241968379929476E-2</c:v>
+                  <c:v>3.0789073855988145E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.6426342509625245E-2</c:v>
+                  <c:v>3.4818170362979912E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>4.0197312812865926E-2</c:v>
+                  <c:v>3.8671403032379231E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.3580443692090062E-2</c:v>
+                  <c:v>4.2197535118664961E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.6433683365314067E-2</c:v>
+                  <c:v>4.5251304107515718E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.8635188737879316E-2</c:v>
+                  <c:v>4.7703593781495711E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.0092053625748242E-2</c:v>
+                  <c:v>4.9450633290598726E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.0746779182664306E-2</c:v>
+                  <c:v>5.0421299302126875E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.0580867742441998E-2</c:v>
+                  <c:v>5.0581808531654011E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.9615252721189891E-2</c:v>
+                  <c:v>4.9937386994387732E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.7907633170186086E-2</c:v>
+                  <c:v>4.8530844638665881E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.554711153581309E-2</c:v>
+                  <c:v>4.643832036578413E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.2646793827451498E-2</c:v>
+                  <c:v>4.3762747282508285E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>3.9335173088530809E-2</c:v>
+                  <c:v>4.0625786803695378E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.5747167435185107E-2</c:v>
+                  <c:v>3.7159073959184941E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.2015628022150709E-2</c:v>
+                  <c:v>3.3495603090211157E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.8263989757779009E-2</c:v>
+                  <c:v>2.976197665553159E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.4600537716468123E-2</c:v>
+                  <c:v>2.6072065168772786E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.1114538096360467E-2</c:v>
+                  <c:v>2.2522414483331286E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.7874265589532853E-2</c:v>
+                  <c:v>1.9189519333580953E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.4926774386583951E-2</c:v>
+                  <c:v>1.612888653802225E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.2299124192765467E-2</c:v>
+                  <c:v>1.3375657309689679E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0000692555746166E-2</c:v>
+                  <c:v>1.0946456389006777E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.0261788447573111E-3</c:v>
+                  <c:v>8.8420880640524713E-3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>6.358925131163414E-3</c:v>
+                  <c:v>7.0507001145033599E-3</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.9742327445792692E-3</c:v>
+                  <c:v>5.5510758563053746E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3.8424267467839449E-3</c:v>
+                  <c:v>4.3157788770979456E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.9315010865937638E-3</c:v>
+                  <c:v>3.3139517141068707E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.2092541972632304E-3</c:v>
+                  <c:v>2.5136472645351719E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.6448908245009371E-3</c:v>
+                  <c:v>1.8836415059381411E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.2101167536104863E-3</c:v>
+                  <c:v>1.394732675214533E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>8.7978758573302842E-4</c:v>
+                  <c:v>1.0205729652846907E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.321918022559928E-4</c:v>
+                  <c:v>7.3810410142300103E-4</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>4.4905453738997312E-4</c:v>
+                  <c:v>5.2767968654363615E-4</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.1534496306577796E-4</c:v>
+                  <c:v>3.7295781673022857E-4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.1896029700877741E-4</c:v>
+                  <c:v>2.6064039025484794E-4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.5034616189506681E-4</c:v>
+                  <c:v>1.8012384864542059E-4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.0209875235315341E-4</c:v>
+                  <c:v>1.2311241072106708E-4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.8580727748379893E-5</c:v>
+                  <c:v>8.3231173552414617E-5</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.5571006683136237E-5</c:v>
+                  <c:v>5.5664085651140519E-5</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.9959202639732491E-5</c:v>
+                  <c:v>3.6831485564521547E-5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.9488397392816022E-5</c:v>
+                  <c:v>2.4113910285802547E-5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.2545107161788918E-5</c:v>
+                  <c:v>1.5623143355398694E-5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.9923063598301003E-6</c:v>
+                  <c:v>1.0017715496604536E-5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>5.0398258388724968E-6</c:v>
+                  <c:v>6.3579136885673997E-6</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.1459355120343907E-6</c:v>
+                  <c:v>3.9943989906775774E-6</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.9441031211531147E-6</c:v>
+                  <c:v>2.484411056438554E-6</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.18950810450003E-6</c:v>
+                  <c:v>1.5299389087786489E-6</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>7.2067045069934862E-7</c:v>
+                  <c:v>9.3292327422557762E-7</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.3238336014801141E-7</c:v>
+                  <c:v>5.6335313199595023E-7</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>2.5692426012952626E-7</c:v>
+                  <c:v>3.3691425290294563E-7</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.5121166558202608E-7</c:v>
+                  <c:v>1.9957314203912463E-7</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>8.8155398611243273E-8</c:v>
+                  <c:v>1.1710305889013618E-7</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.091369510598832E-8</c:v>
+                  <c:v>6.8070113056281011E-8</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>2.9132673638599489E-8</c:v>
+                  <c:v>3.920168426133544E-8</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.6516701778987805E-8</c:v>
+                  <c:v>2.2369188979156694E-8</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>9.2789775473355158E-9</c:v>
+                  <c:v>1.2648224438334139E-8</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>5.1659075144831335E-9</c:v>
+                  <c:v>7.0872637411101342E-9</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.8503493078826763E-9</c:v>
+                  <c:v>3.9357960178838648E-9</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.5587954299147979E-9</c:v>
+                  <c:v>2.1663376544640306E-9</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>8.4499425094836196E-10</c:v>
+                  <c:v>1.1819342212201787E-9</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>4.5407270382924415E-10</c:v>
+                  <c:v>6.3924520179722107E-10</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.419005678717555E-10</c:v>
+                  <c:v>3.4275318385837588E-10</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.2776753255688558E-10</c:v>
+                  <c:v>1.8220808593101151E-10</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>6.691261181661031E-11</c:v>
+                  <c:v>9.6041215677508467E-11</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3.4748055171174124E-11</c:v>
+                  <c:v>5.0197570378989669E-11</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.7894465799299506E-11</c:v>
+                  <c:v>2.6017973155863795E-11</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9.13908779318705E-12</c:v>
+                  <c:v>1.3373962495407798E-11</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>4.6292698801777108E-12</c:v>
+                  <c:v>6.8182399391493313E-12</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.3258241223964509E-12</c:v>
+                  <c:v>3.4477770851903142E-12</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.1591100383303087E-12</c:v>
+                  <c:v>1.72937630323586E-12</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>5.730389411118442E-13</c:v>
+                  <c:v>8.6050124056799919E-13</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>2.8104966513347186E-13</c:v>
+                  <c:v>4.247691483046038E-13</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.3675676938235468E-13</c:v>
+                  <c:v>2.0802774181888063E-13</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>6.602499011671364E-14</c:v>
+                  <c:v>1.01084203903972E-13</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.1629193358865725E-14</c:v>
+                  <c:v>4.8737763347009715E-14</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.5035374348242455E-14</c:v>
+                  <c:v>2.3318158637784805E-14</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>7.092713729576105E-15</c:v>
+                  <c:v>1.1071206898433972E-14</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>3.32053438629726E-15</c:v>
+                  <c:v>5.2166661691484762E-15</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.5428575237286783E-15</c:v>
+                  <c:v>2.4395707342268439E-15</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>7.1152556030770679E-16</c:v>
+                  <c:v>1.1323498488501969E-15</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>3.2570634507378599E-16</c:v>
+                  <c:v>5.2169763504044037E-16</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>1.479983223392718E-16</c:v>
+                  <c:v>2.3858985302207557E-16</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6.675836733650537E-17</c:v>
+                  <c:v>1.0831869335721325E-16</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>2.9894830966494105E-17</c:v>
+                  <c:v>4.8819838243664354E-17</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>1.329078961790591E-17</c:v>
+                  <c:v>2.184507529134821E-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11540,8 +11558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="76" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11696,11 +11714,11 @@
       </c>
       <c r="M4" s="26">
         <f>SUM('Dist Calc'!B2:B21)*L12</f>
-        <v>4.4951983941862492</v>
+        <v>4.5721458949356615</v>
       </c>
       <c r="N4" s="27">
         <f>SUM('Dist Calc'!C2:C21)*L12</f>
-        <v>1.3297315490590994E-8</v>
+        <v>1.0323756601081943E-8</v>
       </c>
       <c r="Q4" s="34" t="s">
         <v>20</v>
@@ -11741,18 +11759,18 @@
       </c>
       <c r="M5" s="26">
         <f>SUM('Dist Calc'!B22:B41)*L12</f>
-        <v>10.917042143123455</v>
+        <v>11.072200613315742</v>
       </c>
       <c r="N5" s="27">
         <f>SUM('Dist Calc'!C22:C41)*L12</f>
-        <v>9.3331309975186419E-2</v>
+        <v>8.1910815202791518E-2</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="R5" s="30">
         <f ca="1">TODAY()</f>
-        <v>43613</v>
+        <v>43615</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -11785,22 +11803,22 @@
       </c>
       <c r="L6" s="26">
         <f>SUM(Calc!M2:M406)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M6" s="26">
         <f>SUM('Dist Calc'!B42:B61)*L12</f>
-        <v>17.425111638393592</v>
+        <v>17.71548443000545</v>
       </c>
       <c r="N6" s="27">
         <f>SUM('Dist Calc'!C42:C61)*L12</f>
-        <v>28.56231382588177</v>
+        <v>27.913230912304819</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="R6" s="5">
         <f ca="1">R5-E2</f>
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -11837,11 +11855,11 @@
       </c>
       <c r="M7" s="26">
         <f>SUM('Dist Calc'!B62:B81)*L12</f>
-        <v>18.28500554680258</v>
+        <v>18.732999831378873</v>
       </c>
       <c r="N7" s="27">
         <f>SUM('Dist Calc'!C62:C81)*L12</f>
-        <v>43.26518151379814</v>
+        <v>45.738325812871025</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
@@ -11888,18 +11906,18 @@
       </c>
       <c r="M8" s="26">
         <f>SUM('Dist Calc'!B82:B101)*L12</f>
-        <v>12.614721661890377</v>
+        <v>13.092197916735259</v>
       </c>
       <c r="N8" s="27">
         <f>SUM('Dist Calc'!C82:C101)*L12</f>
-        <v>1.078815623898723</v>
+        <v>1.266058281231051</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="R8" s="6">
         <f>_xlfn.STDEV.P(F:F)</f>
-        <v>30.329710582970446</v>
+        <v>30.529114549558351</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -11932,22 +11950,22 @@
       </c>
       <c r="L9" s="26">
         <f>SUM(Calc!P2:P406)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" s="26">
         <f>SUM('Dist Calc'!B102:B121)*L12</f>
-        <v>5.7202606133233136</v>
+        <v>6.0460103263772655</v>
       </c>
       <c r="N9" s="27">
         <f>SUM('Dist Calc'!C102:C121)*L12</f>
-        <v>3.5771050155141397E-4</v>
+        <v>4.7416408596737738E-4</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="R9" s="6">
         <f>AVERAGE(F:F)</f>
-        <v>61.797297297297298</v>
+        <v>62.19736842105263</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -11984,18 +12002,18 @@
       </c>
       <c r="M10" s="26">
         <f>SUM('Dist Calc'!B122:B141)*L12</f>
-        <v>1.7040781849808779</v>
+        <v>1.8440347100849488</v>
       </c>
       <c r="N10" s="27">
         <f>SUM('Dist Calc'!C122:C141)*L12</f>
-        <v>2.6473117008089373E-9</v>
+        <v>3.9805924725129721E-9</v>
       </c>
       <c r="Q10" s="31" t="s">
         <v>15</v>
       </c>
       <c r="R10" s="5">
         <f>SUM(F:F)</f>
-        <v>4573</v>
+        <v>4727</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12032,18 +12050,18 @@
       </c>
       <c r="M11" s="26">
         <f>SUM('Dist Calc'!B142:B161)*L12</f>
-        <v>0.33326056555693701</v>
+        <v>0.37120593060248797</v>
       </c>
       <c r="N11" s="27">
         <f>SUM('Dist Calc'!C142:C161)*L12</f>
-        <v>7.5925827348674188E-16</v>
+        <v>1.296854669632524E-15</v>
       </c>
       <c r="Q11" s="20" t="s">
         <v>46</v>
       </c>
       <c r="R11" s="25">
         <f ca="1">SUM(Calc!T2:T406)/Scrobbles!R6</f>
-        <v>0.98648648648648651</v>
+        <v>0.98684210526315785</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -12076,15 +12094,15 @@
       </c>
       <c r="L12" s="26">
         <f>SUM(L4:L10)</f>
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="26">
         <f>SUM(M4:M10)</f>
-        <v>71.161418182700444</v>
+        <v>73.07507372283321</v>
       </c>
       <c r="N12" s="27">
         <f>SUM(N4:N10)</f>
-        <v>72.999999999999986</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -12151,7 +12169,7 @@
       </c>
       <c r="M14" s="24">
         <f>_xlfn.CHISQ.TEST(L4:L12,M4:M12)</f>
-        <v>0.24270276615167141</v>
+        <v>0.35791488626912293</v>
       </c>
       <c r="N14" s="25">
         <f>_xlfn.CHISQ.TEST(L4:L12,N4:N12)</f>
@@ -12199,7 +12217,7 @@
       </c>
       <c r="Q15" s="29">
         <f>294*R9</f>
-        <v>18168.405405405407</v>
+        <v>18286.026315789473</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -12232,7 +12250,7 @@
       </c>
       <c r="Q16" s="29">
         <f>Q20*294+Q21</f>
-        <v>19631.551988152536</v>
+        <v>19564.158564593297</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -12346,7 +12364,7 @@
       </c>
       <c r="Q20">
         <f>SLOPE(I2:I85,A2:A85)</f>
-        <v>67.744420584968523</v>
+        <v>67.493410799726576</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12379,7 +12397,7 @@
       </c>
       <c r="Q21">
         <f>INTERCEPT(I2:I85,A2:A85)</f>
-        <v>-285.30766382821184</v>
+        <v>-278.90421052631518</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -13881,6 +13899,21 @@
       <c r="E76" s="1">
         <v>43613</v>
       </c>
+      <c r="F76">
+        <v>111</v>
+      </c>
+      <c r="G76" s="3">
+        <f>AVERAGE(F$2:F76)</f>
+        <v>62.453333333333333</v>
+      </c>
+      <c r="H76" s="3">
+        <f>_xlfn.STDEV.P($F$2:F76)</f>
+        <v>30.65084809412113</v>
+      </c>
+      <c r="I76">
+        <f>SUM($F$2:F76)</f>
+        <v>4684</v>
+      </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
@@ -13892,6 +13925,21 @@
       <c r="E77" s="1">
         <v>43614</v>
       </c>
+      <c r="F77">
+        <v>43</v>
+      </c>
+      <c r="G77" s="3">
+        <f>AVERAGE(F$2:F77)</f>
+        <v>62.19736842105263</v>
+      </c>
+      <c r="H77" s="3">
+        <f>_xlfn.STDEV.P($F$2:F77)</f>
+        <v>30.529114549558351</v>
+      </c>
+      <c r="I77">
+        <f>SUM($F$2:F77)</f>
+        <v>4727</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
@@ -13902,11 +13950,11 @@
       </c>
       <c r="C78" s="33">
         <f>AVERAGE(F72:F78)</f>
-        <v>39</v>
+        <v>51.666666666666664</v>
       </c>
       <c r="D78" s="33">
         <f>_xlfn.STDEV.S(F72:F78)</f>
-        <v>8.1240384046359608</v>
+        <v>29.783664426437973</v>
       </c>
       <c r="E78" s="1">
         <v>43615</v>
@@ -14042,7 +14090,7 @@
     <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D2">
         <f ca="1">Scrobbles!R6</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E2">
         <f ca="1">ROUNDDOWN(D2/7,0)</f>
@@ -14050,7 +14098,7 @@
       </c>
       <c r="F2">
         <f ca="1">MOD(D2,7)</f>
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
@@ -14091,11 +14139,11 @@
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G11" ca="1" si="1">F5-F$13</f>
-        <v>0.83906633906633488</v>
+        <v>0.43899521531100305</v>
       </c>
       <c r="H5" s="13">
         <f ca="1">F5/$F$13</f>
-        <v>1.0135777190227222</v>
+        <v>1.0070580995057408</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
@@ -14104,23 +14152,23 @@
       </c>
       <c r="D6" s="11">
         <f>SUM(Calc!D2:D1000)</f>
-        <v>784</v>
+        <v>895</v>
       </c>
       <c r="E6" s="11">
         <f ca="1">$E$2+IF($F$2&gt;4,1,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>78.400000000000006</v>
+        <v>81.36363636363636</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>16.602702702702707</v>
+        <v>19.16626794258373</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" ref="H6:H11" ca="1" si="2">F6/$F$13</f>
-        <v>1.26866389678548</v>
+        <v>1.3081523934073118</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
@@ -14129,23 +14177,23 @@
       </c>
       <c r="D7" s="11">
         <f>SUM(Calc!E2:E1000)</f>
-        <v>599</v>
+        <v>642</v>
       </c>
       <c r="E7" s="11">
         <f ca="1">$E$2+IF($F$2&gt;5,1,0)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>59.9</v>
+        <v>58.363636363636367</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.8972972972972997</v>
+        <v>-3.8337320574162632</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96929805379400824</v>
+        <v>0.93836182856703276</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
@@ -14166,11 +14214,11 @@
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.9972972972973011</v>
+        <v>-3.3973684210526329</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95149792258910992</v>
+        <v>0.94537761793949648</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -14191,11 +14239,11 @@
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.4336609336609314</v>
+        <v>-2.8337320574162632</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96061865097509103</v>
+        <v>0.95443967921226236</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
@@ -14216,11 +14264,11 @@
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>8.657248157248155</v>
+        <v>8.2571770334928232</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1400910482476194</v>
+        <v>1.1327576590957171</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
@@ -14241,11 +14289,11 @@
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-17.706388206388205</v>
+        <v>-18.106459330143537</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71347633341947803</v>
+        <v>0.70888705117602946</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
@@ -14262,15 +14310,15 @@
       </c>
       <c r="D13" s="11">
         <f>SUM(D5:D11)</f>
-        <v>4573</v>
+        <v>4727</v>
       </c>
       <c r="E13" s="11">
         <f ca="1">SUM(E5:E11)</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F13" s="12">
         <f ca="1">D13/E13</f>
-        <v>61.797297297297298</v>
+        <v>62.19736842105263</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="18"/>
@@ -14289,12 +14337,12 @@
       </c>
       <c r="D15" s="16">
         <f>_xlfn.STDEV.P(D5:D11)</f>
-        <v>99.070990832280444</v>
+        <v>121.79457445776038</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16">
         <f ca="1">_xlfn.STDEV.P(F5:F11)</f>
-        <v>9.8789985787805676</v>
+        <v>10.675870052741919</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
@@ -14349,7 +14397,7 @@
       </c>
       <c r="E23" s="18">
         <f t="shared" ref="E23:E29" ca="1" si="4">$D$13/$E$13*E5</f>
-        <v>679.77027027027032</v>
+        <v>684.17105263157896</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>7</v>
@@ -14360,7 +14408,7 @@
       </c>
       <c r="I23" s="18">
         <f ca="1">E23/E5</f>
-        <v>61.797297297297298</v>
+        <v>62.19736842105263</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.3">
@@ -14369,22 +14417,22 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="3"/>
-        <v>784</v>
+        <v>895</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>617.97297297297303</v>
+        <v>684.17105263157896</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>78.400000000000006</v>
+        <v>81.36363636363636</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" ref="I24:I29" ca="1" si="6">E24/E6</f>
-        <v>61.797297297297305</v>
+        <v>62.19736842105263</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">
@@ -14393,22 +14441,22 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="3"/>
-        <v>599</v>
+        <v>642</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>617.97297297297303</v>
+        <v>684.17105263157896</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>59.9</v>
+        <v>58.363636363636367</v>
       </c>
       <c r="I25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>61.797297297297305</v>
+        <v>62.19736842105263</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.3">
@@ -14421,7 +14469,7 @@
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>617.97297297297303</v>
+        <v>621.97368421052624</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>10</v>
@@ -14432,7 +14480,7 @@
       </c>
       <c r="I26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>61.797297297297305</v>
+        <v>62.197368421052623</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.3">
@@ -14445,7 +14493,7 @@
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>679.77027027027032</v>
+        <v>684.17105263157896</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>3</v>
@@ -14456,7 +14504,7 @@
       </c>
       <c r="I27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>61.797297297297298</v>
+        <v>62.19736842105263</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.3">
@@ -14469,7 +14517,7 @@
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>679.77027027027032</v>
+        <v>684.17105263157896</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>4</v>
@@ -14480,7 +14528,7 @@
       </c>
       <c r="I28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>61.797297297297298</v>
+        <v>62.19736842105263</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.3">
@@ -14493,7 +14541,7 @@
       </c>
       <c r="E29" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>679.77027027027032</v>
+        <v>684.17105263157896</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>6</v>
@@ -14504,7 +14552,7 @@
       </c>
       <c r="I29" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>61.797297297297298</v>
+        <v>62.19736842105263</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.3">
@@ -14521,7 +14569,7 @@
       </c>
       <c r="D31" s="32">
         <f ca="1">_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
-        <v>7.0554800922468377E-23</v>
+        <v>6.4206459788586235E-28</v>
       </c>
       <c r="E31" s="17"/>
       <c r="G31" s="15" t="s">
@@ -14529,7 +14577,7 @@
       </c>
       <c r="H31" s="32">
         <f ca="1">_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
-        <v>8.661524513531596E-2</v>
+        <v>4.5859531988107917E-2</v>
       </c>
       <c r="I31" s="17"/>
       <c r="N31" s="28"/>
@@ -14544,7 +14592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0C1144C-9D2E-4C2D-A74C-B7125D4E5999}">
   <dimension ref="A1:C181"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="104" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -14567,11 +14615,11 @@
       </c>
       <c r="B2">
         <f>_xlfn.NORM.DIST(A2,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.6502906880549206E-3</v>
+        <v>1.6401921183102418E-3</v>
       </c>
       <c r="C2">
         <f>_xlfn.POISSON.DIST(A2,Scrobbles!$R$9,FALSE)</f>
-        <v>1.4513587890690848E-27</v>
+        <v>9.728056982479808E-28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -14580,11 +14628,11 @@
       </c>
       <c r="B3">
         <f>_xlfn.NORM.DIST(A3,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.7640050386529844E-3</v>
+        <v>1.7524422166429509E-3</v>
       </c>
       <c r="C3">
         <f>_xlfn.POISSON.DIST(A3,Scrobbles!$R$9,FALSE)</f>
-        <v>8.9690050573147592E-26</v>
+        <v>6.0505954416028991E-26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -14593,11 +14641,11 @@
       </c>
       <c r="B4">
         <f>_xlfn.NORM.DIST(A4,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.8835063057502956E-3</v>
+        <v>1.8703665432330469E-3</v>
       </c>
       <c r="C4">
         <f>_xlfn.POISSON.DIST(A4,Scrobbles!$R$9,FALSE)</f>
-        <v>2.7713013599392012E-24</v>
+        <v>1.8816555692405862E-24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -14606,11 +14654,11 @@
       </c>
       <c r="B5">
         <f>_xlfn.NORM.DIST(A5,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.0089180492667011E-3</v>
+        <v>1.9940855020020515E-3</v>
       </c>
       <c r="C5">
         <f>_xlfn.POISSON.DIST(A5,Scrobbles!$R$9,FALSE)</f>
-        <v>5.7086311346856158E-23</v>
+        <v>3.9011341560527415E-23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -14619,11 +14667,11 @@
       </c>
       <c r="B6">
         <f>_xlfn.NORM.DIST(A6,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.1403522225122073E-3</v>
+        <v>2.1237082728712306E-3</v>
       </c>
       <c r="C6">
         <f>_xlfn.POISSON.DIST(A6,Scrobbles!$R$9,FALSE)</f>
-        <v>8.8194493847693632E-22</v>
+        <v>6.0660069590991084E-22</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -14632,11 +14680,11 @@
       </c>
       <c r="B7">
         <f>_xlfn.NORM.DIST(A7,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.2779078972311076E-3</v>
+        <v>2.2593315860958405E-3</v>
       </c>
       <c r="C7">
         <f>_xlfn.POISSON.DIST(A7,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0900362712581206E-20</v>
+        <v>7.5457933935951529E-21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -14645,11 +14693,11 @@
       </c>
       <c r="B8">
         <f>_xlfn.NORM.DIST(A8,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.4216699767623225E-3</v>
+        <v>2.4010384851493095E-3</v>
       </c>
       <c r="C8">
         <f>_xlfn.POISSON.DIST(A8,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1226882586629161E-19</v>
+        <v>7.8221415288430354E-20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -14658,11 +14706,11 @@
       </c>
       <c r="B9">
         <f>_xlfn.NORM.DIST(A9,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.5717079051936161E-3</v>
+        <v>2.5488970856239468E-3</v>
       </c>
       <c r="C9">
         <f>_xlfn.POISSON.DIST(A9,Scrobbles!$R$9,FALSE)</f>
-        <v>9.9113000132538537E-19</v>
+        <v>6.9502374073009138E-19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -14671,11 +14719,11 @@
       </c>
       <c r="B10">
         <f>_xlfn.NORM.DIST(A10,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.728074380929315E-3</v>
+        <v>2.7029593381263698E-3</v>
       </c>
       <c r="C10">
         <f>_xlfn.POISSON.DIST(A10,Scrobbles!$R$9,FALSE)</f>
-        <v>7.6561444190219947E-18</v>
+        <v>5.4035809579459549E-18</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -14684,11 +14732,11 @@
       </c>
       <c r="B11">
         <f>_xlfn.NORM.DIST(A11,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.8908040835924154E-3</v>
+        <v>2.8632598036196061E-3</v>
       </c>
       <c r="C11">
         <f>_xlfn.POISSON.DIST(A11,Scrobbles!$R$9,FALSE)</f>
-        <v>5.2569892534815819E-17</v>
+        <v>3.7343168403816795E-17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -14697,11 +14745,11 @@
       </c>
       <c r="B12">
         <f>_xlfn.NORM.DIST(A12,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.0599124236350209E-3</v>
+        <v>3.0298144500924928E-3</v>
       </c>
       <c r="C12">
         <f>_xlfn.POISSON.DIST(A12,Scrobbles!$R$9,FALSE)</f>
-        <v>3.2486772778610078E-16</v>
+        <v>2.3226468032216039E-16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -14710,11 +14758,11 @@
       </c>
       <c r="B13">
         <f>_xlfn.NORM.DIST(A13,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.235394324428229E-3</v>
+        <v>3.202619479813739E-3</v>
       </c>
       <c r="C13">
         <f>_xlfn.POISSON.DIST(A13,Scrobbles!$R$9,FALSE)</f>
-        <v>1.8250861414813756E-15</v>
+        <v>1.3132956266541296E-15</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -14723,11 +14771,11 @@
       </c>
       <c r="B14">
         <f>_xlfn.NORM.DIST(A14,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.4172230469364734E-3</v>
+        <v>3.3816501967456926E-3</v>
       </c>
       <c r="C14">
         <f>_xlfn.POISSON.DIST(A14,Scrobbles!$R$9,FALSE)</f>
-        <v>9.3987825731917718E-15</v>
+        <v>6.8069609947303282E-15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -14736,11 +14784,11 @@
       </c>
       <c r="B15">
         <f>_xlfn.NORM.DIST(A15,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.6053490673448796E-3</v>
+        <v>3.5668599239449738E-3</v>
       </c>
       <c r="C15">
         <f>_xlfn.POISSON.DIST(A15,Scrobbles!$R$9,FALSE)</f>
-        <v>4.467841237755314E-14</v>
+        <v>3.2567312370536668E-14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -14749,11 +14797,11 @@
       </c>
       <c r="B16">
         <f>_xlfn.NORM.DIST(A16,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.7996990181943476E-3</v>
+        <v>3.7581789809571719E-3</v>
       </c>
       <c r="C16">
         <f>_xlfn.POISSON.DIST(A16,Scrobbles!$R$9,FALSE)</f>
-        <v>1.9721465231906394E-13</v>
+        <v>1.4468579471384124E-13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -14762,11 +14810,11 @@
       </c>
       <c r="B17">
         <f>_xlfn.NORM.DIST(A17,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.000174703681845E-3</v>
+        <v>3.955513731315018E-3</v>
       </c>
       <c r="C17">
         <f>_xlfn.POISSON.DIST(A17,Scrobbles!$R$9,FALSE)</f>
-        <v>8.124888333829532E-13</v>
+        <v>5.9993837860730349E-13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -14775,11 +14823,11 @@
       </c>
       <c r="B18">
         <f>_xlfn.NORM.DIST(A18,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.206652199796641E-3</v>
+        <v>4.1587457102682315E-3</v>
       </c>
       <c r="C18">
         <f>_xlfn.POISSON.DIST(A18,Scrobbles!$R$9,FALSE)</f>
-        <v>3.1381008742062998E-12</v>
+        <v>2.3321617727604701E-12</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -14788,11 +14836,11 @@
       </c>
       <c r="B19">
         <f>_xlfn.NORM.DIST(A19,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.4189810498820904E-3</v>
+        <v>4.3677308428039623E-3</v>
       </c>
       <c r="C19">
         <f>_xlfn.POISSON.DIST(A19,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1407420745425591E-11</v>
+        <v>8.5326073528163783E-12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -14801,11 +14849,11 @@
       </c>
       <c r="B20">
         <f>_xlfn.NORM.DIST(A20,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.636983566032705E-3</v>
+        <v>4.5822987618552259E-3</v>
       </c>
       <c r="C20">
         <f>_xlfn.POISSON.DIST(A20,Scrobbles!$R$9,FALSE)</f>
-        <v>3.9163765066689988E-11</v>
+        <v>2.9483651284183482E-11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -14814,11 +14862,11 @@
       </c>
       <c r="B21">
         <f>_xlfn.NORM.DIST(A21,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.8604542464540726E-3</v>
+        <v>4.8022522363377305E-3</v>
       </c>
       <c r="C21">
         <f>_xlfn.POISSON.DIST(A21,Scrobbles!$R$9,FALSE)</f>
-        <v>1.2737972805830264E-10</v>
+        <v>9.651608006948434E-11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -14827,11 +14875,11 @@
       </c>
       <c r="B22">
         <f>_xlfn.NORM.DIST(A22,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.0891593185262672E-3</v>
+        <v>5.0273667183005147E-3</v>
       </c>
       <c r="C22">
         <f>_xlfn.POISSON.DIST(A22,Scrobbles!$R$9,FALSE)</f>
-        <v>3.9358614622339048E-10</v>
+        <v>3.0015230953187636E-10</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -14840,11 +14888,11 @@
       </c>
       <c r="B23">
         <f>_xlfn.NORM.DIST(A23,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.3228364168183741E-3</v>
+        <v>5.2573900180215606E-3</v>
       </c>
       <c r="C23">
         <f>_xlfn.POISSON.DIST(A23,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1582171471554482E-9</v>
+        <v>8.8898494182780378E-10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -14853,11 +14901,11 @@
       </c>
       <c r="B24">
         <f>_xlfn.NORM.DIST(A24,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.5611944047019727E-3</v>
+        <v>5.4920421153252979E-3</v>
       </c>
       <c r="C24">
         <f>_xlfn.POISSON.DIST(A24,Scrobbles!$R$9,FALSE)</f>
-        <v>3.2533949717087704E-9</v>
+        <v>2.5132965430741835E-9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -14866,11 +14914,11 @@
       </c>
       <c r="B25">
         <f>_xlfn.NORM.DIST(A25,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.8039133475060846E-3</v>
+        <v>5.731015114745646E-3</v>
       </c>
       <c r="C25">
         <f>_xlfn.POISSON.DIST(A25,Scrobbles!$R$9,FALSE)</f>
-        <v>8.7413485344442926E-9</v>
+        <v>6.7965404800409833E-9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -14879,11 +14927,11 @@
       </c>
       <c r="B26">
         <f>_xlfn.NORM.DIST(A26,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.0506446443468632E-3</v>
+        <v>5.9739733514073386E-3</v>
       </c>
       <c r="C26">
         <f>_xlfn.POISSON.DIST(A26,Scrobbles!$R$9,FALSE)</f>
-        <v>2.2507988090097804E-8</v>
+        <v>1.7613622176071151E-8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -14892,11 +14940,11 @@
       </c>
       <c r="B27">
         <f>_xlfn.NORM.DIST(A27,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.3010113248556082E-3</v>
+        <v>6.2205536536529635E-3</v>
       </c>
       <c r="C27">
         <f>_xlfn.POISSON.DIST(A27,Scrobbles!$R$9,FALSE)</f>
-        <v>5.5637313262712014E-8</v>
+        <v>4.382083790857276E-8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -14905,11 +14953,11 @@
       </c>
       <c r="B28">
         <f>_xlfn.NORM.DIST(A28,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.5546085160231729E-3</v>
+        <v>6.4703657675071607E-3</v>
       </c>
       <c r="C28">
         <f>_xlfn.POISSON.DIST(A28,Scrobbles!$R$9,FALSE)</f>
-        <v>1.3223983032764149E-7</v>
+        <v>1.0482849230456686E-7</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -14918,11 +14966,11 @@
       </c>
       <c r="B29">
         <f>_xlfn.NORM.DIST(A29,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.8110040832829984E-3</v>
+        <v>6.7229929470483734E-3</v>
       </c>
       <c r="C29">
         <f>_xlfn.POISSON.DIST(A29,Scrobbles!$R$9,FALSE)</f>
-        <v>3.0266904108523741E-7</v>
+        <v>2.4148356877372663E-7</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -14931,11 +14979,11 @@
       </c>
       <c r="B30">
         <f>_xlfn.NORM.DIST(A30,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.0697394487761736E-3</v>
+        <v>6.9779927136583613E-3</v>
       </c>
       <c r="C30">
         <f>_xlfn.POISSON.DIST(A30,Scrobbles!$R$9,FALSE)</f>
-        <v>6.6800459695115103E-7</v>
+        <v>5.3641580338035718E-7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -14944,11 +14992,11 @@
       </c>
       <c r="B31">
         <f>_xlfn.NORM.DIST(A31,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.3303305884882715E-3</v>
+        <v>7.2348977859484328E-3</v>
       </c>
       <c r="C31">
         <f>_xlfn.POISSON.DIST(A31,Scrobbles!$R$9,FALSE)</f>
-        <v>1.423478574956956E-6</v>
+        <v>1.1504707361973453E-6</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -14957,11 +15005,11 @@
       </c>
       <c r="B32">
         <f>_xlfn.NORM.DIST(A32,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.5922692086286287E-3</v>
+        <v>7.493217180927117E-3</v>
       </c>
       <c r="C32">
         <f>_xlfn.POISSON.DIST(A32,Scrobbles!$R$9,FALSE)</f>
-        <v>2.9322376230982726E-6</v>
+        <v>2.3852084078968729E-6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -14970,11 +15018,11 @@
       </c>
       <c r="B33">
         <f>_xlfn.NORM.DIST(A33,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.8550241002488096E-3</v>
+        <v>7.7524374856868406E-3</v>
       </c>
       <c r="C33">
         <f>_xlfn.POISSON.DIST(A33,Scrobbles!$R$9,FALSE)</f>
-        <v>5.845301940029805E-6</v>
+        <v>4.7856027776436864E-6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -14983,11 +15031,11 @@
       </c>
       <c r="B34">
         <f>_xlfn.NORM.DIST(A34,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.118042669679873E-3</v>
+        <v>8.0120242975574608E-3</v>
       </c>
       <c r="C34">
         <f>_xlfn.POISSON.DIST(A34,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1288245680640346E-5</v>
+        <v>9.3016218461848877E-6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -14996,11 +15044,11 @@
       </c>
       <c r="B35">
         <f>_xlfn.NORM.DIST(A35,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.3807526409200063E-3</v>
+        <v>8.2714238293138519E-3</v>
       </c>
       <c r="C35">
         <f>_xlfn.POISSON.DIST(A35,Scrobbles!$R$9,FALSE)</f>
-        <v>2.1138881039135212E-5</v>
+        <v>1.7531406087287138E-5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -15009,11 +15057,11 @@
       </c>
       <c r="B36">
         <f>_xlfn.NORM.DIST(A36,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.6425639246386771E-3</v>
+        <v>8.5300646746451683E-3</v>
       </c>
       <c r="C36">
         <f>_xlfn.POISSON.DIST(A36,Scrobbles!$R$9,FALSE)</f>
-        <v>3.8421344591401139E-5</v>
+        <v>3.207080362794368E-5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -15022,11 +15070,11 @@
       </c>
       <c r="B37">
         <f>_xlfn.NORM.DIST(A37,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.9028706469942969E-3</v>
+        <v>8.787359727708121E-3</v>
       </c>
       <c r="C37">
         <f>_xlfn.POISSON.DIST(A37,Scrobbles!$R$9,FALSE)</f>
-        <v>6.7838150122192424E-5</v>
+        <v>5.699198825161237E-5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -15035,11 +15083,11 @@
       </c>
       <c r="B38">
         <f>_xlfn.NORM.DIST(A38,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.1610533300043439E-3</v>
+        <v>9.0427082492086329E-3</v>
       </c>
       <c r="C38">
         <f>_xlfn.POISSON.DIST(A38,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1645039808888264E-4</v>
+        <v>9.8465324731495627E-5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -15048,11 +15096,11 @@
       </c>
       <c r="B39">
         <f>_xlfn.NORM.DIST(A39,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.416481213774348E-3</v>
+        <v>9.2954980700995279E-3</v>
       </c>
       <c r="C39">
         <f>_xlfn.POISSON.DIST(A39,Scrobbles!$R$9,FALSE)</f>
-        <v>1.9449513165100909E-4</v>
+        <v>1.6552119132495674E-4</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -15061,11 +15109,11 @@
       </c>
       <c r="B40">
         <f>_xlfn.NORM.DIST(A40,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.6685147095005516E-3</v>
+        <v>9.5451079226604434E-3</v>
       </c>
       <c r="C40">
         <f>_xlfn.POISSON.DIST(A40,Scrobbles!$R$9,FALSE)</f>
-        <v>3.162966703556431E-4</v>
+        <v>2.7092059258762932E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -15074,11 +15122,11 @@
       </c>
       <c r="B41">
         <f>_xlfn.NORM.DIST(A41,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.91650797082517E-3</v>
+        <v>9.7909098874537394E-3</v>
       </c>
       <c r="C41">
         <f>_xlfn.POISSON.DIST(A41,Scrobbles!$R$9,FALSE)</f>
-        <v>5.0118665056699354E-4</v>
+        <v>4.3206533102622144E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -15087,11 +15135,11 @@
       </c>
       <c r="B42">
         <f>_xlfn.NORM.DIST(A42,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0159811569858063E-2</v>
+        <v>1.0032271943441031E-2</v>
       </c>
       <c r="C42">
         <f>_xlfn.POISSON.DIST(A42,Scrobbles!$R$9,FALSE)</f>
-        <v>7.7429951116313189E-4</v>
+        <v>6.71833164395051E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -15100,11 +15148,11 @@
       </c>
       <c r="B43">
         <f>_xlfn.NORM.DIST(A43,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0397775262998659E-2</v>
+        <v>1.0268560607412347E-2</v>
       </c>
       <c r="C43">
         <f>_xlfn.POISSON.DIST(A43,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1670638314268326E-3</v>
+        <v>1.0191769473990404E-3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -15113,11 +15161,11 @@
       </c>
       <c r="B44">
         <f>_xlfn.NORM.DIST(A44,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0629750830611375E-2</v>
+        <v>1.049914364783737E-2</v>
       </c>
       <c r="C44">
         <f>_xlfn.POISSON.DIST(A44,Scrobbles!$R$9,FALSE)</f>
-        <v>1.7171759656096834E-3</v>
+        <v>1.5092886686576561E-3</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -15126,11 +15174,11 @@
       </c>
       <c r="B45">
         <f>_xlfn.NORM.DIST(A45,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0855094973639581E-2</v>
+        <v>1.0723392857307877E-2</v>
       </c>
       <c r="C45">
         <f>_xlfn.POISSON.DIST(A45,Scrobbles!$R$9,FALSE)</f>
-        <v>2.4678333408966291E-3</v>
+        <v>2.1831112413539674E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -15139,11 +15187,11 @@
       </c>
       <c r="B46">
         <f>_xlfn.NORM.DIST(A46,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1073172249400036E-2</v>
+        <v>1.094068686691458E-2</v>
       </c>
       <c r="C46">
         <f>_xlfn.POISSON.DIST(A46,Scrobbles!$R$9,FALSE)</f>
-        <v>3.4660325147175312E-3</v>
+        <v>3.0859948677871376E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -15152,11 +15200,11 @@
       </c>
       <c r="B47">
         <f>_xlfn.NORM.DIST(A47,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1283358028092784E-2</v>
+        <v>1.1150413985200338E-2</v>
       </c>
       <c r="C47">
         <f>_xlfn.POISSON.DIST(A47,Scrobbles!$R$9,FALSE)</f>
-        <v>4.7598098167577494E-3</v>
+        <v>4.2653502163829847E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -15165,11 +15213,11 @@
       </c>
       <c r="B48">
         <f>_xlfn.NORM.DIST(A48,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.148504145100083E-2</v>
+        <v>1.1351975043765554E-2</v>
       </c>
       <c r="C48">
         <f>_xlfn.POISSON.DIST(A48,Scrobbles!$R$9,FALSE)</f>
-        <v>6.3944213548863538E-3</v>
+        <v>5.7672512794171562E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -15178,11 +15226,11 @@
       </c>
       <c r="B49">
         <f>_xlfn.NORM.DIST(A49,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.167762837094862E-2</v>
+        <v>1.1544786231178194E-2</v>
       </c>
       <c r="C49">
         <f>_xlfn.POISSON.DIST(A49,Scrobbles!$R$9,FALSE)</f>
-        <v>8.4076161172786934E-3</v>
+        <v>7.6320819702701288E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -15191,11 +15239,11 @@
       </c>
       <c r="B50">
         <f>_xlfn.NORM.DIST(A50,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1860544255344913E-2</v>
+        <v>1.1728281896568027E-2</v>
       </c>
       <c r="C50">
         <f>_xlfn.POISSON.DIST(A50,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0824332349187914E-2</v>
+        <v>9.8894877942617716E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -15204,11 +15252,11 @@
       </c>
       <c r="B51">
         <f>_xlfn.NORM.DIST(A51,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2033237032060379E-2</v>
+        <v>1.1901917304167592E-2</v>
       </c>
       <c r="C51">
         <f>_xlfn.POISSON.DIST(A51,Scrobbles!$R$9,FALSE)</f>
-        <v>1.3651316004643215E-2</v>
+        <v>1.2553063588473499E-2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -15217,11 +15265,11 @@
       </c>
       <c r="B52">
         <f>_xlfn.NORM.DIST(A52,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2195179858486555E-2</v>
+        <v>1.2065171320105317E-2</v>
       </c>
       <c r="C52">
         <f>_xlfn.POISSON.DIST(A52,Scrobbles!$R$9,FALSE)</f>
-        <v>1.6872288672765832E-2</v>
+        <v>1.5615350416503738E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -15230,11 +15278,11 @@
       </c>
       <c r="B53">
         <f>_xlfn.NORM.DIST(A53,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2345873794392673E-2</v>
+        <v>1.2217549012961263E-2</v>
       </c>
       <c r="C53">
         <f>_xlfn.POISSON.DIST(A53,Scrobbles!$R$9,FALSE)</f>
-        <v>2.0444349788171209E-2</v>
+        <v>1.9043798095669043E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -15243,11 +15291,11 @@
       </c>
       <c r="B54">
         <f>_xlfn.NORM.DIST(A54,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2484850359640835E-2</v>
+        <v>1.2358584149964269E-2</v>
       </c>
       <c r="C54">
         <f>_xlfn.POISSON.DIST(A54,Scrobbles!$R$9,FALSE)</f>
-        <v>2.4296260805952961E-2</v>
+        <v>2.2778348582547452E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -15256,11 +15304,11 @@
       </c>
       <c r="B55">
         <f>_xlfn.NORM.DIST(A55,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2611673958435867E-2</v>
+        <v>1.2487841571239193E-2</v>
       </c>
       <c r="C55">
         <f>_xlfn.POISSON.DIST(A55,Scrobbles!$R$9,FALSE)</f>
-        <v>2.8329117966757432E-2</v>
+        <v>2.673119507192203E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -15269,11 +15317,11 @@
       </c>
       <c r="B56">
         <f>_xlfn.NORM.DIST(A56,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2725944152570673E-2</v>
+        <v>1.2604919425202083E-2</v>
       </c>
       <c r="C56">
         <f>_xlfn.POISSON.DIST(A56,Scrobbles!$R$9,FALSE)</f>
-        <v>3.241968379929476E-2</v>
+        <v>3.0789073855988145E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -15282,11 +15330,11 @@
       </c>
       <c r="B57">
         <f>_xlfn.NORM.DIST(A57,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2827297767075136E-2</v>
+        <v>1.270945124904475E-2</v>
       </c>
       <c r="C57">
         <f>_xlfn.POISSON.DIST(A57,Scrobbles!$R$9,FALSE)</f>
-        <v>3.6426342509625245E-2</v>
+        <v>3.4818170362979912E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -15295,11 +15343,11 @@
       </c>
       <c r="B58">
         <f>_xlfn.NORM.DIST(A58,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2915410812779606E-2</v>
+        <v>1.2801107879241802E-2</v>
       </c>
       <c r="C58">
         <f>_xlfn.POISSON.DIST(A58,Scrobbles!$R$9,FALSE)</f>
-        <v>4.0197312812865926E-2</v>
+        <v>3.8671403032379231E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -15308,11 +15356,11 @@
       </c>
       <c r="B59">
         <f>_xlfn.NORM.DIST(A59,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2990000211553143E-2</v>
+        <v>1.2879599178145231E-2</v>
       </c>
       <c r="C59">
         <f>_xlfn.POISSON.DIST(A59,Scrobbles!$R$9,FALSE)</f>
-        <v>4.3580443692090062E-2</v>
+        <v>4.2197535118664961E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -15321,11 +15369,11 @@
       </c>
       <c r="B60">
         <f>_xlfn.NORM.DIST(A60,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3050825311361538E-2</v>
+        <v>1.294467556399405E-2</v>
       </c>
       <c r="C60">
         <f>_xlfn.POISSON.DIST(A60,Scrobbles!$R$9,FALSE)</f>
-        <v>4.6433683365314067E-2</v>
+        <v>4.5251304107515718E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -15334,11 +15382,11 @@
       </c>
       <c r="B61">
         <f>_xlfn.NORM.DIST(A61,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3097689179797881E-2</v>
+        <v>1.2996129333048468E-2</v>
       </c>
       <c r="C61">
         <f>_xlfn.POISSON.DIST(A61,Scrobbles!$R$9,FALSE)</f>
-        <v>4.8635188737879316E-2</v>
+        <v>4.7703593781495711E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -15347,11 +15395,11 @@
       </c>
       <c r="B62">
         <f>_xlfn.NORM.DIST(A62,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3130439666355622E-2</v>
+        <v>1.303379576404722E-2</v>
       </c>
       <c r="C62">
         <f>_xlfn.POISSON.DIST(A62,Scrobbles!$R$9,FALSE)</f>
-        <v>5.0092053625748242E-2</v>
+        <v>4.9450633290598726E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -15360,11 +15408,11 @@
       </c>
       <c r="B63">
         <f>_xlfn.NORM.DIST(A63,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3148970225425124E-2</v>
+        <v>1.3057553996769106E-2</v>
       </c>
       <c r="C63">
         <f>_xlfn.POISSON.DIST(A63,Scrobbles!$R$9,FALSE)</f>
-        <v>5.0746779182664306E-2</v>
+        <v>5.0421299302126875E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -15373,11 +15421,11 @@
       </c>
       <c r="B64">
         <f>_xlfn.NORM.DIST(A64,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3153220493783646E-2</v>
+        <v>1.3067327678140808E-2</v>
       </c>
       <c r="C64">
         <f>_xlfn.POISSON.DIST(A64,Scrobbles!$R$9,FALSE)</f>
-        <v>5.0580867742441998E-2</v>
+        <v>5.0581808531654011E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -15386,11 +15434,11 @@
       </c>
       <c r="B65">
         <f>_xlfn.NORM.DIST(A65,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3143176618198261E-2</v>
+        <v>1.3063085371057118E-2</v>
       </c>
       <c r="C65">
         <f>_xlfn.POISSON.DIST(A65,Scrobbles!$R$9,FALSE)</f>
-        <v>4.9615252721189891E-2</v>
+        <v>4.9937386994387732E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -15399,11 +15447,11 @@
       </c>
       <c r="B66">
         <f>_xlfn.NORM.DIST(A66,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3118871330653514E-2</v>
+        <v>1.3044840722850105E-2</v>
       </c>
       <c r="C66">
         <f>_xlfn.POISSON.DIST(A66,Scrobbles!$R$9,FALSE)</f>
-        <v>4.7907633170186086E-2</v>
+        <v>4.8530844638665881E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -15412,11 +15460,11 @@
       </c>
       <c r="B67">
         <f>_xlfn.NORM.DIST(A67,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3080383770631997E-2</v>
+        <v>1.3012652392143734E-2</v>
       </c>
       <c r="C67">
         <f>_xlfn.POISSON.DIST(A67,Scrobbles!$R$9,FALSE)</f>
-        <v>4.554711153581309E-2</v>
+        <v>4.643832036578413E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -15425,11 +15473,11 @@
       </c>
       <c r="B68">
         <f>_xlfn.NORM.DIST(A68,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.30278390557984E-2</v>
+        <v>1.2966623734642593E-2</v>
       </c>
       <c r="C68">
         <f>_xlfn.POISSON.DIST(A68,Scrobbles!$R$9,FALSE)</f>
-        <v>4.2646793827451498E-2</v>
+        <v>4.3762747282508285E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -15438,11 +15486,11 @@
       </c>
       <c r="B69">
         <f>_xlfn.NORM.DIST(A69,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2961407604346267E-2</v>
+        <v>1.2906902250210238E-2</v>
       </c>
       <c r="C69">
         <f>_xlfn.POISSON.DIST(A69,Scrobbles!$R$9,FALSE)</f>
-        <v>3.9335173088530809E-2</v>
+        <v>4.0625786803695378E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -15451,11 +15499,11 @@
       </c>
       <c r="B70">
         <f>_xlfn.NORM.DIST(A70,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2881304214144011E-2</v>
+        <v>1.2833678795376812E-2</v>
       </c>
       <c r="C70">
         <f>_xlfn.POISSON.DIST(A70,Scrobbles!$R$9,FALSE)</f>
-        <v>3.5747167435185107E-2</v>
+        <v>3.7159073959184941E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -15464,11 +15512,11 @@
       </c>
       <c r="B71">
         <f>_xlfn.NORM.DIST(A71,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2787786905643781E-2</v>
+        <v>1.274718656715995E-2</v>
       </c>
       <c r="C71">
         <f>_xlfn.POISSON.DIST(A71,Scrobbles!$R$9,FALSE)</f>
-        <v>3.2015628022150709E-2</v>
+        <v>3.3495603090211157E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -15477,11 +15525,11 @@
       </c>
       <c r="B72">
         <f>_xlfn.NORM.DIST(A72,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2681155537276135E-2</v>
+        <v>1.2647699865770747E-2</v>
       </c>
       <c r="C72">
         <f>_xlfn.POISSON.DIST(A72,Scrobbles!$R$9,FALSE)</f>
-        <v>2.8263989757779009E-2</v>
+        <v>2.976197665553159E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -15490,11 +15538,11 @@
       </c>
       <c r="B73">
         <f>_xlfn.NORM.DIST(A73,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.256175020372844E-2</v>
+        <v>1.253553264539191E-2</v>
       </c>
       <c r="C73">
         <f>_xlfn.POISSON.DIST(A73,Scrobbles!$R$9,FALSE)</f>
-        <v>2.4600537716468123E-2</v>
+        <v>2.6072065168772786E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -15503,11 +15551,11 @@
       </c>
       <c r="B74">
         <f>_xlfn.NORM.DIST(A74,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2429949429079446E-2</v>
+        <v>1.2411036863742887E-2</v>
       </c>
       <c r="C74">
         <f>_xlfn.POISSON.DIST(A74,Scrobbles!$R$9,FALSE)</f>
-        <v>2.1114538096360467E-2</v>
+        <v>2.2522414483331286E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -15516,11 +15564,11 @@
       </c>
       <c r="B75">
         <f>_xlfn.NORM.DIST(A75,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2286168168222018E-2</v>
+        <v>1.2274600642572466E-2</v>
       </c>
       <c r="C75">
         <f>_xlfn.POISSON.DIST(A75,Scrobbles!$R$9,FALSE)</f>
-        <v>1.7874265589532853E-2</v>
+        <v>1.9189519333580953E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -15529,11 +15577,11 @@
       </c>
       <c r="B76">
         <f>_xlfn.NORM.DIST(A76,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2130855631337202E-2</v>
+        <v>1.2126646252530576E-2</v>
       </c>
       <c r="C76">
         <f>_xlfn.POISSON.DIST(A76,Scrobbles!$R$9,FALSE)</f>
-        <v>1.4926774386583951E-2</v>
+        <v>1.612888653802225E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -15542,11 +15590,11 @@
       </c>
       <c r="B77">
         <f>_xlfn.NORM.DIST(A77,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1964492947374028E-2</v>
+        <v>1.1967627937055513E-2</v>
       </c>
       <c r="C77">
         <f>_xlfn.POISSON.DIST(A77,Scrobbles!$R$9,FALSE)</f>
-        <v>1.2299124192765467E-2</v>
+        <v>1.3375657309689679E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -15555,11 +15603,11 @@
       </c>
       <c r="B78">
         <f>_xlfn.NORM.DIST(A78,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1787590683530117E-2</v>
+        <v>1.1798029590961078E-2</v>
       </c>
       <c r="C78">
         <f>_xlfn.POISSON.DIST(A78,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0000692555746166E-2</v>
+        <v>1.0946456389006777E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -15568,11 +15616,11 @@
       </c>
       <c r="B79">
         <f>_xlfn.NORM.DIST(A79,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.160068623861037E-2</v>
+        <v>1.1618362310310867E-2</v>
       </c>
       <c r="C79">
         <f>_xlfn.POISSON.DIST(A79,Scrobbles!$R$9,FALSE)</f>
-        <v>8.0261788447573111E-3</v>
+        <v>8.8420880640524713E-3</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -15581,11 +15629,11 @@
       </c>
       <c r="B80">
         <f>_xlfn.NORM.DIST(A80,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1404341128857607E-2</v>
+        <v>1.1429161830917798E-2</v>
       </c>
       <c r="C80">
         <f>_xlfn.POISSON.DIST(A80,Scrobbles!$R$9,FALSE)</f>
-        <v>6.358925131163414E-3</v>
+        <v>7.0507001145033599E-3</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -15594,11 +15642,11 @@
       </c>
       <c r="B81">
         <f>_xlfn.NORM.DIST(A81,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1199138185395554E-2</v>
+        <v>1.1230985873400115E-2</v>
       </c>
       <c r="C81">
         <f>_xlfn.POISSON.DIST(A81,Scrobbles!$R$9,FALSE)</f>
-        <v>4.9742327445792692E-3</v>
+        <v>5.5510758563053746E-3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -15607,11 +15655,11 @@
       </c>
       <c r="B82">
         <f>_xlfn.NORM.DIST(A82,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0985678682798043E-2</v>
+        <v>1.1024411413157525E-2</v>
       </c>
       <c r="C82">
         <f>_xlfn.POISSON.DIST(A82,Scrobbles!$R$9,FALSE)</f>
-        <v>3.8424267467839449E-3</v>
+        <v>4.3157788770979456E-3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -15620,11 +15668,11 @@
       </c>
       <c r="B83">
         <f>_xlfn.NORM.DIST(A83,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0764579418497738E-2</v>
+        <v>1.0810031893900483E-2</v>
       </c>
       <c r="C83">
         <f>_xlfn.POISSON.DIST(A83,Scrobbles!$R$9,FALSE)</f>
-        <v>2.9315010865937638E-3</v>
+        <v>3.3139517141068707E-3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -15633,11 +15681,11 @@
       </c>
       <c r="B84">
         <f>_xlfn.NORM.DIST(A84,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.053646976277401E-2</v>
+        <v>1.0588454403472499E-2</v>
       </c>
       <c r="C84">
         <f>_xlfn.POISSON.DIST(A84,Scrobbles!$R$9,FALSE)</f>
-        <v>2.2092541972632304E-3</v>
+        <v>2.5136472645351719E-3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -15646,11 +15694,11 @@
       </c>
       <c r="B85">
         <f>_xlfn.NORM.DIST(A85,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0301988698915682E-2</v>
+        <v>1.0360296830650999E-2</v>
       </c>
       <c r="C85">
         <f>_xlfn.POISSON.DIST(A85,Scrobbles!$R$9,FALSE)</f>
-        <v>1.6448908245009371E-3</v>
+        <v>1.8836415059381411E-3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -15659,11 +15707,11 @@
       </c>
       <c r="B86">
         <f>_xlfn.NORM.DIST(A86,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0061781872844447E-2</v>
+        <v>1.0126185021400225E-2</v>
       </c>
       <c r="C86">
         <f>_xlfn.POISSON.DIST(A86,Scrobbles!$R$9,FALSE)</f>
-        <v>1.2101167536104863E-3</v>
+        <v>1.394732675214533E-3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -15672,11 +15720,11 @@
       </c>
       <c r="B87">
         <f>_xlfn.NORM.DIST(A87,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.8164986710156284E-3</v>
+        <v>9.8867499526850647E-3</v>
       </c>
       <c r="C87">
         <f>_xlfn.POISSON.DIST(A87,Scrobbles!$R$9,FALSE)</f>
-        <v>8.7978758573302842E-4</v>
+        <v>1.0205729652846907E-3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -15685,11 +15733,11 @@
       </c>
       <c r="B88">
         <f>_xlfn.NORM.DIST(A88,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.5667893447917551E-3</v>
+        <v>9.6426249414439079E-3</v>
       </c>
       <c r="C88">
         <f>_xlfn.POISSON.DIST(A88,Scrobbles!$R$9,FALSE)</f>
-        <v>6.321918022559928E-4</v>
+        <v>7.3810410142300103E-4</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -15698,11 +15746,11 @@
       </c>
       <c r="B89">
         <f>_xlfn.NORM.DIST(A89,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.3133021987210299E-3</v>
+        <v>9.3944429056696116E-3</v>
       </c>
       <c r="C89">
         <f>_xlfn.POISSON.DIST(A89,Scrobbles!$R$9,FALSE)</f>
-        <v>4.4905453738997312E-4</v>
+        <v>5.2767968654363615E-4</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -15711,11 +15759,11 @@
       </c>
       <c r="B90">
         <f>_xlfn.NORM.DIST(A90,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.056680859257555E-3</v>
+        <v>9.1428336937697356E-3</v>
       </c>
       <c r="C90">
         <f>_xlfn.POISSON.DIST(A90,Scrobbles!$R$9,FALSE)</f>
-        <v>3.1534496306577796E-4</v>
+        <v>3.7295781673022857E-4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -15724,11 +15772,11 @@
       </c>
       <c r="B91">
         <f>_xlfn.NORM.DIST(A91,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.7975616394447599E-3</v>
+        <v>8.8884214974807186E-3</v>
       </c>
       <c r="C91">
         <f>_xlfn.POISSON.DIST(A91,Scrobbles!$R$9,FALSE)</f>
-        <v>2.1896029700877741E-4</v>
+        <v>2.6064039025484794E-4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -15737,11 +15785,11 @@
       </c>
       <c r="B92">
         <f>_xlfn.NORM.DIST(A92,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.5365710139610473E-3</v>
+        <v>8.6318223626069192E-3</v>
       </c>
       <c r="C92">
         <f>_xlfn.POISSON.DIST(A92,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5034616189506681E-4</v>
+        <v>1.8012384864542059E-4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -15750,11 +15798,11 @@
       </c>
       <c r="B93">
         <f>_xlfn.NORM.DIST(A93,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.2743232177104314E-3</v>
+        <v>8.373641810756954E-3</v>
       </c>
       <c r="C93">
         <f>_xlfn.POISSON.DIST(A93,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0209875235315341E-4</v>
+        <v>1.2311241072106708E-4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -15763,11 +15811,11 @@
       </c>
       <c r="B94">
         <f>_xlfn.NORM.DIST(A94,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.0114179798453262E-3</v>
+        <v>8.1144725840691049E-3</v>
       </c>
       <c r="C94">
         <f>_xlfn.POISSON.DIST(A94,Scrobbles!$R$9,FALSE)</f>
-        <v>6.8580727748379893E-5</v>
+        <v>8.3231173552414617E-5</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -15776,11 +15824,11 @@
       </c>
       <c r="B95">
         <f>_xlfn.NORM.DIST(A95,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.7484384037484104E-3</v>
+        <v>7.8548925236685517E-3</v>
       </c>
       <c r="C95">
         <f>_xlfn.POISSON.DIST(A95,Scrobbles!$R$9,FALSE)</f>
-        <v>4.5571006683136237E-5</v>
+        <v>5.5664085651140519E-5</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -15789,11 +15837,11 @@
       </c>
       <c r="B96">
         <f>_xlfn.NORM.DIST(A96,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.4859490020904602E-3</v>
+        <v>7.5954625912953841E-3</v>
       </c>
       <c r="C96">
         <f>_xlfn.POISSON.DIST(A96,Scrobbles!$R$9,FALSE)</f>
-        <v>2.9959202639732491E-5</v>
+        <v>3.6831485564521547E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -15802,11 +15850,11 @@
       </c>
       <c r="B97">
         <f>_xlfn.NORM.DIST(A97,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.2244938946363609E-3</v>
+        <v>7.3367250421978612E-3</v>
       </c>
       <c r="C97">
         <f>_xlfn.POISSON.DIST(A97,Scrobbles!$R$9,FALSE)</f>
-        <v>1.9488397392816022E-5</v>
+        <v>2.4113910285802547E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -15815,11 +15863,11 @@
       </c>
       <c r="B98">
         <f>_xlfn.NORM.DIST(A98,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.9645951750071924E-3</v>
+        <v>7.0792017560142133E-3</v>
       </c>
       <c r="C98">
         <f>_xlfn.POISSON.DIST(A98,Scrobbles!$R$9,FALSE)</f>
-        <v>1.2545107161788918E-5</v>
+        <v>1.5623143355398694E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -15828,11 +15876,11 @@
       </c>
       <c r="B99">
         <f>_xlfn.NORM.DIST(A99,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.7067514511369086E-3</v>
+        <v>6.8233927309821621E-3</v>
       </c>
       <c r="C99">
         <f>_xlfn.POISSON.DIST(A99,Scrobbles!$R$9,FALSE)</f>
-        <v>7.9923063598301003E-6</v>
+        <v>1.0017715496604536E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -15841,11 +15889,11 @@
       </c>
       <c r="B100">
         <f>_xlfn.NORM.DIST(A100,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.451436562702131E-3</v>
+        <v>6.56977474543201E-3</v>
       </c>
       <c r="C100">
         <f>_xlfn.POISSON.DIST(A100,Scrobbles!$R$9,FALSE)</f>
-        <v>5.0398258388724968E-6</v>
+        <v>6.3579136885673997E-6</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -15854,11 +15902,11 @@
       </c>
       <c r="B101">
         <f>_xlfn.NORM.DIST(A101,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.1990984773664911E-3</v>
+        <v>6.3188001891495088E-3</v>
       </c>
       <c r="C101">
         <f>_xlfn.POISSON.DIST(A101,Scrobbles!$R$9,FALSE)</f>
-        <v>3.1459355120343907E-6</v>
+        <v>3.9943989906775774E-6</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -15867,11 +15915,11 @@
       </c>
       <c r="B102">
         <f>_xlfn.NORM.DIST(A102,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.9501583662798733E-3</v>
+        <v>6.0708960658513748E-3</v>
       </c>
       <c r="C102">
         <f>_xlfn.POISSON.DIST(A102,Scrobbles!$R$9,FALSE)</f>
-        <v>1.9441031211531147E-6</v>
+        <v>2.484411056438554E-6</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -15880,11 +15928,11 @@
       </c>
       <c r="B103">
         <f>_xlfn.NORM.DIST(A103,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.7050098579199361E-3</v>
+        <v>5.8264631667110421E-3</v>
       </c>
       <c r="C103">
         <f>_xlfn.POISSON.DIST(A103,Scrobbles!$R$9,FALSE)</f>
-        <v>1.18950810450003E-6</v>
+        <v>1.5299389087786489E-6</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -15893,11 +15941,11 @@
       </c>
       <c r="B104">
         <f>_xlfn.NORM.DIST(A104,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.4640184680694592E-3</v>
+        <v>5.5858754136159112E-3</v>
       </c>
       <c r="C104">
         <f>_xlfn.POISSON.DIST(A104,Scrobbles!$R$9,FALSE)</f>
-        <v>7.2067045069934862E-7</v>
+        <v>9.3292327422557762E-7</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -15906,11 +15954,11 @@
       </c>
       <c r="B105">
         <f>_xlfn.NORM.DIST(A105,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.2275212024986946E-3</v>
+        <v>5.3494793696401569E-3</v>
       </c>
       <c r="C105">
         <f>_xlfn.POISSON.DIST(A105,Scrobbles!$R$9,FALSE)</f>
-        <v>4.3238336014801141E-7</v>
+        <v>5.6335313199595023E-7</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -15919,11 +15967,11 @@
       </c>
       <c r="B106">
         <f>_xlfn.NORM.DIST(A106,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.9958263277758127E-3</v>
+        <v>5.1175939130879561E-3</v>
       </c>
       <c r="C106">
         <f>_xlfn.POISSON.DIST(A106,Scrobbles!$R$9,FALSE)</f>
-        <v>2.5692426012952626E-7</v>
+        <v>3.3691425290294563E-7</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -15932,11 +15980,11 @@
       </c>
       <c r="B107">
         <f>_xlfn.NORM.DIST(A107,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.7692133045684915E-3</v>
+        <v>4.8905100704088617E-3</v>
       </c>
       <c r="C107">
         <f>_xlfn.POISSON.DIST(A107,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5121166558202608E-7</v>
+        <v>1.9957314203912463E-7</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -15945,11 +15993,11 @@
       </c>
       <c r="B108">
         <f>_xlfn.NORM.DIST(A108,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.5479328768324445E-3</v>
+        <v>4.6684910023168623E-3</v>
       </c>
       <c r="C108">
         <f>_xlfn.POISSON.DIST(A108,Scrobbles!$R$9,FALSE)</f>
-        <v>8.8155398611243273E-8</v>
+        <v>1.1710305889013618E-7</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -15958,11 +16006,11 @@
       </c>
       <c r="B109">
         <f>_xlfn.NORM.DIST(A109,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.3322073094131759E-3</v>
+        <v>4.4517721365628813E-3</v>
       </c>
       <c r="C109">
         <f>_xlfn.POISSON.DIST(A109,Scrobbles!$R$9,FALSE)</f>
-        <v>5.091369510598832E-8</v>
+        <v>6.8070113056281011E-8</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -15971,11 +16019,11 @@
       </c>
       <c r="B110">
         <f>_xlfn.NORM.DIST(A110,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.122230765819945E-3</v>
+        <v>4.2405614400220617E-3</v>
       </c>
       <c r="C110">
         <f>_xlfn.POISSON.DIST(A110,Scrobbles!$R$9,FALSE)</f>
-        <v>2.9132673638599489E-8</v>
+        <v>3.920168426133544E-8</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -15984,11 +16032,11 @@
       </c>
       <c r="B111">
         <f>_xlfn.NORM.DIST(A111,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.9181698172680223E-3</v>
+        <v>4.0350398220649307E-3</v>
       </c>
       <c r="C111">
         <f>_xlfn.POISSON.DIST(A111,Scrobbles!$R$9,FALSE)</f>
-        <v>1.6516701778987805E-8</v>
+        <v>2.2369188979156694E-8</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -15997,11 +16045,11 @@
       </c>
       <c r="B112">
         <f>_xlfn.NORM.DIST(A112,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.7201640735289774E-3</v>
+        <v>3.8353616605882068E-3</v>
       </c>
       <c r="C112">
         <f>_xlfn.POISSON.DIST(A112,Scrobbles!$R$9,FALSE)</f>
-        <v>9.2789775473355158E-9</v>
+        <v>1.2648224438334139E-8</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -16010,11 +16058,11 @@
       </c>
       <c r="B113">
         <f>_xlfn.NORM.DIST(A113,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.528326925678703E-3</v>
+        <v>3.6416554415871659E-3</v>
       </c>
       <c r="C113">
         <f>_xlfn.POISSON.DIST(A113,Scrobbles!$R$9,FALSE)</f>
-        <v>5.1659075144831335E-9</v>
+        <v>7.0872637411101342E-9</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -16023,11 +16071,11 @@
       </c>
       <c r="B114">
         <f>_xlfn.NORM.DIST(A114,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.3427463904887218E-3</v>
+        <v>3.4540245027575409E-3</v>
       </c>
       <c r="C114">
         <f>_xlfn.POISSON.DIST(A114,Scrobbles!$R$9,FALSE)</f>
-        <v>2.8503493078826763E-9</v>
+        <v>3.9357960178838648E-9</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -16036,11 +16084,11 @@
       </c>
       <c r="B115">
         <f>_xlfn.NORM.DIST(A115,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.1634860459659997E-3</v>
+        <v>3.2725478713194101E-3</v>
       </c>
       <c r="C115">
         <f>_xlfn.POISSON.DIST(A115,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5587954299147979E-9</v>
+        <v>2.1663376544640306E-9</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -16049,11 +16097,11 @@
       </c>
       <c r="B116">
         <f>_xlfn.NORM.DIST(A116,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.9905860474070478E-3</v>
+        <v>3.0972811860567068E-3</v>
       </c>
       <c r="C116">
         <f>_xlfn.POISSON.DIST(A116,Scrobbles!$R$9,FALSE)</f>
-        <v>8.4499425094836196E-10</v>
+        <v>1.1819342212201787E-9</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -16062,11 +16110,11 @@
       </c>
       <c r="B117">
         <f>_xlfn.NORM.DIST(A117,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.8240642132898682E-3</v>
+        <v>2.9282576934607164E-3</v>
       </c>
       <c r="C117">
         <f>_xlfn.POISSON.DIST(A117,Scrobbles!$R$9,FALSE)</f>
-        <v>4.5407270382924415E-10</v>
+        <v>6.3924520179722107E-10</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -16075,11 +16123,11 @@
       </c>
       <c r="B118">
         <f>_xlfn.NORM.DIST(A118,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.6639171703774604E-3</v>
+        <v>2.7654893078505123E-3</v>
       </c>
       <c r="C118">
         <f>_xlfn.POISSON.DIST(A118,Scrobbles!$R$9,FALSE)</f>
-        <v>2.419005678717555E-10</v>
+        <v>3.4275318385837588E-10</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -16088,11 +16136,11 @@
       </c>
       <c r="B119">
         <f>_xlfn.NORM.DIST(A119,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.5101215475439062E-3</v>
+        <v>2.6089677254131495E-3</v>
       </c>
       <c r="C119">
         <f>_xlfn.POISSON.DIST(A119,Scrobbles!$R$9,FALSE)</f>
-        <v>1.2776753255688558E-10</v>
+        <v>1.8220808593101151E-10</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -16101,11 +16149,11 @@
       </c>
       <c r="B120">
         <f>_xlfn.NORM.DIST(A120,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.3626352080524083E-3</v>
+        <v>2.4586655822564536E-3</v>
       </c>
       <c r="C120">
         <f>_xlfn.POISSON.DIST(A120,Scrobbles!$R$9,FALSE)</f>
-        <v>6.691261181661031E-11</v>
+        <v>9.6041215677508467E-11</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -16114,11 +16162,11 @@
       </c>
       <c r="B121">
         <f>_xlfn.NORM.DIST(A121,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.2213985103075209E-3</v>
+        <v>2.3145376467916426E-3</v>
       </c>
       <c r="C121">
         <f>_xlfn.POISSON.DIST(A121,Scrobbles!$R$9,FALSE)</f>
-        <v>3.4748055171174124E-11</v>
+        <v>5.0197570378989669E-11</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -16127,11 +16175,11 @@
       </c>
       <c r="B122">
         <f>_xlfn.NORM.DIST(A122,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.0863355874642703E-3</v>
+        <v>2.176522037055591E-3</v>
       </c>
       <c r="C122">
         <f>_xlfn.POISSON.DIST(A122,Scrobbles!$R$9,FALSE)</f>
-        <v>1.7894465799299506E-11</v>
+        <v>2.6017973155863795E-11</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -16140,11 +16188,11 @@
       </c>
       <c r="B123">
         <f>_xlfn.NORM.DIST(A123,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.9573556366976005E-3</v>
+        <v>2.0445414539367987E-3</v>
       </c>
       <c r="C123">
         <f>_xlfn.POISSON.DIST(A123,Scrobbles!$R$9,FALSE)</f>
-        <v>9.13908779318705E-12</v>
+        <v>1.3373962495407798E-11</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -16153,11 +16201,11 @@
       </c>
       <c r="B124">
         <f>_xlfn.NORM.DIST(A124,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.8343542094090598E-3</v>
+        <v>1.9185044216781222E-3</v>
       </c>
       <c r="C124">
         <f>_xlfn.POISSON.DIST(A124,Scrobbles!$R$9,FALSE)</f>
-        <v>4.6292698801777108E-12</v>
+        <v>6.8182399391493313E-12</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -16166,11 +16214,11 @@
       </c>
       <c r="B125">
         <f>_xlfn.NORM.DIST(A125,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.7172144941663765E-3</v>
+        <v>1.798306527486153E-3</v>
       </c>
       <c r="C125">
         <f>_xlfn.POISSON.DIST(A125,Scrobbles!$R$9,FALSE)</f>
-        <v>2.3258241223964509E-12</v>
+        <v>3.4477770851903142E-12</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -16179,11 +16227,11 @@
       </c>
       <c r="B126">
         <f>_xlfn.NORM.DIST(A126,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.6058085847277556E-3</v>
+        <v>1.6838316525746193E-3</v>
       </c>
       <c r="C126">
         <f>_xlfn.POISSON.DIST(A126,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1591100383303087E-12</v>
+        <v>1.72937630323586E-12</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -16192,11 +16240,11 @@
       </c>
       <c r="B127">
         <f>_xlfn.NORM.DIST(A127,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.499998726088963E-3</v>
+        <v>1.5749531875003037E-3</v>
       </c>
       <c r="C127">
         <f>_xlfn.POISSON.DIST(A127,Scrobbles!$R$9,FALSE)</f>
-        <v>5.730389411118442E-13</v>
+        <v>8.6050124056799919E-13</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -16205,11 +16253,11 @@
       </c>
       <c r="B128">
         <f>_xlfn.NORM.DIST(A128,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3996385320999933E-3</v>
+        <v>1.4715352252076309E-3</v>
       </c>
       <c r="C128">
         <f>_xlfn.POISSON.DIST(A128,Scrobbles!$R$9,FALSE)</f>
-        <v>2.8104966513347186E-13</v>
+        <v>4.247691483046038E-13</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -16218,11 +16266,11 @@
       </c>
       <c r="B129">
         <f>_xlfn.NORM.DIST(A129,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3045741688223179E-3</v>
+        <v>1.3734337257755014E-3</v>
       </c>
       <c r="C129">
         <f>_xlfn.POISSON.DIST(A129,Scrobbles!$R$9,FALSE)</f>
-        <v>1.3675676938235468E-13</v>
+        <v>2.0802774181888063E-13</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -16231,11 +16279,11 @@
       </c>
       <c r="B130">
         <f>_xlfn.NORM.DIST(A130,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2146454984302783E-3</v>
+        <v>1.2804976474504683E-3</v>
       </c>
       <c r="C130">
         <f>_xlfn.POISSON.DIST(A130,Scrobbles!$R$9,FALSE)</f>
-        <v>6.602499011671364E-14</v>
+        <v>1.01084203903972E-13</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -16244,11 +16292,11 @@
       </c>
       <c r="B131">
         <f>_xlfn.NORM.DIST(A131,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1296871790948465E-3</v>
+        <v>1.192570039147535E-3</v>
       </c>
       <c r="C131">
         <f>_xlfn.POISSON.DIST(A131,Scrobbles!$R$9,FALSE)</f>
-        <v>3.1629193358865725E-14</v>
+        <v>4.8737763347009715E-14</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -16257,11 +16305,11 @@
       </c>
       <c r="B132">
         <f>_xlfn.NORM.DIST(A132,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0495297169183838E-3</v>
+        <v>1.1094890901979292E-3</v>
       </c>
       <c r="C132">
         <f>_xlfn.POISSON.DIST(A132,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5035374348242455E-14</v>
+        <v>2.3318158637784805E-14</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -16270,11 +16318,11 @@
       </c>
       <c r="B133">
         <f>_xlfn.NORM.DIST(A133,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.7400046660967726E-4</v>
+        <v>1.0310891337162043E-3</v>
       </c>
       <c r="C133">
         <f>_xlfn.POISSON.DIST(A133,Scrobbles!$R$9,FALSE)</f>
-        <v>7.092713729576105E-15</v>
+        <v>1.1071206898433972E-14</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -16283,11 +16331,11 @@
       </c>
       <c r="B134">
         <f>_xlfn.NORM.DIST(A134,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.0292457819410397E-4</v>
+        <v>9.572016005421249E-4</v>
       </c>
       <c r="C134">
         <f>_xlfn.POISSON.DIST(A134,Scrobbles!$R$9,FALSE)</f>
-        <v>3.32053438629726E-15</v>
+        <v>5.2166661691484762E-15</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -16296,11 +16344,11 @@
       </c>
       <c r="B135">
         <f>_xlfn.NORM.DIST(A135,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.3612588763975657E-4</v>
+        <v>8.8765592128094617E-4</v>
       </c>
       <c r="C135">
         <f>_xlfn.POISSON.DIST(A135,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5428575237286783E-15</v>
+        <v>2.4395707342268439E-15</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -16309,11 +16357,11 @@
       </c>
       <c r="B136">
         <f>_xlfn.NORM.DIST(A136,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.7342774984247146E-4</v>
+        <v>8.2228037451481922E-4</v>
       </c>
       <c r="C136">
         <f>_xlfn.POISSON.DIST(A136,Scrobbles!$R$9,FALSE)</f>
-        <v>7.1152556030770679E-16</v>
+        <v>1.1323498488501969E-15</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -16322,11 +16370,11 @@
       </c>
       <c r="B137">
         <f>_xlfn.NORM.DIST(A137,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.1465381294746476E-4</v>
+        <v>7.6090287978436107E-4</v>
       </c>
       <c r="C137">
         <f>_xlfn.POISSON.DIST(A137,Scrobbles!$R$9,FALSE)</f>
-        <v>3.2570634507378599E-16</v>
+        <v>5.2169763504044037E-16</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -16335,11 +16383,11 @@
       </c>
       <c r="B138">
         <f>_xlfn.NORM.DIST(A138,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.5962873348953646E-4</v>
+        <v>7.0335173443953312E-4</v>
       </c>
       <c r="C138">
         <f>_xlfn.POISSON.DIST(A138,Scrobbles!$R$9,FALSE)</f>
-        <v>1.479983223392718E-16</v>
+        <v>2.3858985302207557E-16</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -16348,11 +16396,11 @@
       </c>
       <c r="B139">
         <f>_xlfn.NORM.DIST(A139,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.0817883230518237E-4</v>
+        <v>6.4945629393029999E-4</v>
       </c>
       <c r="C139">
         <f>_xlfn.POISSON.DIST(A139,Scrobbles!$R$9,FALSE)</f>
-        <v>6.675836733650537E-17</v>
+        <v>1.0831869335721325E-16</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -16361,11 +16409,11 @@
       </c>
       <c r="B140">
         <f>_xlfn.NORM.DIST(A140,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.6013269160635018E-4</v>
+        <v>5.9904759554764105E-4</v>
       </c>
       <c r="C140">
         <f>_xlfn.POISSON.DIST(A140,Scrobbles!$R$9,FALSE)</f>
-        <v>2.9894830966494105E-17</v>
+        <v>4.8819838243664354E-17</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -16374,11 +16422,11 @@
       </c>
       <c r="B141">
         <f>_xlfn.NORM.DIST(A141,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.1532169400558142E-4</v>
+        <v>5.5195892603273158E-4</v>
       </c>
       <c r="C141">
         <f>_xlfn.POISSON.DIST(A141,Scrobbles!$R$9,FALSE)</f>
-        <v>1.329078961790591E-17</v>
+        <v>2.184507529134821E-17</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -16387,11 +16435,11 @@
       </c>
       <c r="B142">
         <f>_xlfn.NORM.DIST(A142,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.7358050464494587E-4</v>
+        <v>5.080263338451017E-4</v>
       </c>
       <c r="C142">
         <f>_xlfn.POISSON.DIST(A142,Scrobbles!$R$9,FALSE)</f>
-        <v>5.8666776952397052E-18</v>
+        <v>9.7050442577257747E-18</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -16400,11 +16448,11 @@
       </c>
       <c r="B143">
         <f>_xlfn.NORM.DIST(A143,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.3474749790594724E-4</v>
+        <v>4.6708908721848635E-4</v>
       </c>
       <c r="C143">
         <f>_xlfn.POISSON.DIST(A143,Scrobbles!$R$9,FALSE)</f>
-        <v>2.5712398984408025E-18</v>
+        <v>4.2810511577333538E-18</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -16413,11 +16461,11 @@
       </c>
       <c r="B144">
         <f>_xlfn.NORM.DIST(A144,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.986651304643748E-4</v>
+        <v>4.2899007943552784E-4</v>
       </c>
       <c r="C144">
         <f>_xlfn.POISSON.DIST(A144,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1189836368071853E-18</v>
+        <v>1.8751416625839008E-18</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -16426,11 +16474,11 @@
       </c>
       <c r="B145">
         <f>_xlfn.NORM.DIST(A145,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.6518026270329493E-4</v>
+        <v>3.9357618301934314E-4</v>
       </c>
       <c r="C145">
         <f>_xlfn.POISSON.DIST(A145,Scrobbles!$R$9,FALSE)</f>
-        <v>4.8356758373833095E-19</v>
+        <v>8.1558655125451367E-19</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -16439,11 +16487,11 @@
       </c>
       <c r="B146">
         <f>_xlfn.NORM.DIST(A146,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.3414443070962192E-4</v>
+        <v>3.6069855477168259E-4</v>
       </c>
       <c r="C146">
         <f>_xlfn.POISSON.DIST(A146,Scrobbles!$R$9,FALSE)</f>
-        <v>2.0752201205287158E-19</v>
+        <v>3.5227317505301159E-19</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -16452,11 +16500,11 @@
       </c>
       <c r="B147">
         <f>_xlfn.NORM.DIST(A147,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.0541407125604474E-4</v>
+        <v>3.3021289378456966E-4</v>
       </c>
       <c r="C147">
         <f>_xlfn.POISSON.DIST(A147,Scrobbles!$R$9,FALSE)</f>
-        <v>8.8443444652170204E-20</v>
+        <v>1.5110665140431869E-19</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -16465,11 +16513,11 @@
       </c>
       <c r="B148">
         <f>_xlfn.NORM.DIST(A148,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.7885070231183908E-4</v>
+        <v>3.0197965471592721E-4</v>
       </c>
       <c r="C148">
         <f>_xlfn.POISSON.DIST(A148,Scrobbles!$R$9,FALSE)</f>
-        <v>3.7435382487447263E-20</v>
+        <v>6.4372849782641859E-20</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -16478,11 +16526,11 @@
       </c>
       <c r="B149">
         <f>_xlfn.NORM.DIST(A149,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.5432106173478846E-4</v>
+        <v>2.7586421875102951E-4</v>
       </c>
       <c r="C149">
         <f>_xlfn.POISSON.DIST(A149,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5737452115746957E-20</v>
+        <v>2.7236883362204271E-20</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -16491,11 +16539,11 @@
       </c>
       <c r="B150">
         <f>_xlfn.NORM.DIST(A150,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.3169720687385751E-4</v>
+        <v>2.5173702477207353E-4</v>
       </c>
       <c r="C150">
         <f>_xlfn.POISSON.DIST(A150,Scrobbles!$R$9,FALSE)</f>
-        <v>6.5711622101269297E-21</v>
+        <v>1.1446368034596378E-20</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -16504,11 +16552,11 @@
       </c>
       <c r="B151">
         <f>_xlfn.NORM.DIST(A151,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.1085657786037754E-4</v>
+        <v>2.2947366332948856E-4</v>
       </c>
       <c r="C151">
         <f>_xlfn.POISSON.DIST(A151,Scrobbles!$R$9,FALSE)</f>
-        <v>2.7253695616643183E-21</v>
+        <v>4.7780803337634774E-21</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -16517,11 +16565,11 @@
       </c>
       <c r="B152">
         <f>_xlfn.NORM.DIST(A152,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.9168202738637364E-4</v>
+        <v>2.0895493605252159E-4</v>
       </c>
       <c r="C152">
         <f>_xlfn.POISSON.DIST(A152,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1228031536478356E-21</v>
+        <v>1.9812268190964934E-21</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -16530,11 +16578,11 @@
       </c>
       <c r="B153">
         <f>_xlfn.NORM.DIST(A153,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.7406181976446916E-4</v>
+        <v>1.9006688315518721E-4</v>
       </c>
       <c r="C153">
         <f>_xlfn.POISSON.DIST(A153,Scrobbles!$R$9,FALSE)</f>
-        <v>4.5951126021402799E-22</v>
+        <v>8.1607347280142127E-22</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -16543,11 +16591,11 @@
       </c>
       <c r="B154">
         <f>_xlfn.NORM.DIST(A154,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.5788960203684052E-4</v>
+        <v>1.7270078168882036E-4</v>
       </c>
       <c r="C154">
         <f>_xlfn.POISSON.DIST(A154,Scrobbles!$R$9,FALSE)</f>
-        <v>1.8681943394014527E-22</v>
+        <v>3.3393172662156526E-22</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -16556,11 +16604,11 @@
       </c>
       <c r="B155">
         <f>_xlfn.NORM.DIST(A155,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.430643498531894E-4</v>
+        <v>1.5675311716635329E-4</v>
       </c>
       <c r="C155">
         <f>_xlfn.POISSON.DIST(A155,Scrobbles!$R$9,FALSE)</f>
-        <v>7.5457098693542784E-23</v>
+        <v>1.3574950737359401E-22</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -16569,11 +16617,11 @@
       </c>
       <c r="B156">
         <f>_xlfn.NORM.DIST(A156,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2949029077201487E-4</v>
+        <v>1.4212553113818573E-4</v>
       </c>
       <c r="C156">
         <f>_xlfn.POISSON.DIST(A156,Scrobbles!$R$9,FALSE)</f>
-        <v>3.0279511436079404E-23</v>
+        <v>5.4826377422674087E-23</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -16582,11 +16630,11 @@
       </c>
       <c r="B157">
         <f>_xlfn.NORM.DIST(A157,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1707680755781523E-4</v>
+        <v>1.2872474723724082E-4</v>
       </c>
       <c r="C157">
         <f>_xlfn.POISSON.DIST(A157,Scrobbles!$R$9,FALSE)</f>
-        <v>1.207220625956333E-23</v>
+        <v>2.2000363843546752E-23</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -16595,11 +16643,11 @@
       </c>
       <c r="B158">
         <f>_xlfn.NORM.DIST(A158,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.057383239515126E-4</v>
+        <v>1.164624781336457E-4</v>
       </c>
       <c r="C158">
         <f>_xlfn.POISSON.DIST(A158,Scrobbles!$R$9,FALSE)</f>
-        <v>4.782241790105956E-24</v>
+        <v>8.7715688165015636E-24</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -16608,11 +16656,11 @@
       </c>
       <c r="B159">
         <f>_xlfn.NORM.DIST(A159,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.5394175284515555E-5</v>
+        <v>1.0525531574950405E-4</v>
       </c>
       <c r="C159">
         <f>_xlfn.POISSON.DIST(A159,Scrobbles!$R$9,FALSE)</f>
-        <v>1.882354252552455E-24</v>
+        <v>3.4749585815960303E-24</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -16621,11 +16669,11 @@
       </c>
       <c r="B160">
         <f>_xlfn.NORM.DIST(A160,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.5968466190482933E-5</v>
+        <v>9.5024606983448655E-5</v>
       </c>
       <c r="C160">
         <f>_xlfn.POISSON.DIST(A160,Scrobbles!$R$9,FALSE)</f>
-        <v>7.3623041369504207E-25</v>
+        <v>1.3679321465026696E-24</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -16634,11 +16682,11 @@
       </c>
       <c r="B161">
         <f>_xlfn.NORM.DIST(A161,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.7389917545050871E-5</v>
+        <v>8.5696317085036234E-5</v>
       </c>
       <c r="C161">
         <f>_xlfn.POISSON.DIST(A161,Scrobbles!$R$9,FALSE)</f>
-        <v>2.8614496700896976E-25</v>
+        <v>5.3510553264797608E-25</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -16647,11 +16695,11 @@
       </c>
       <c r="B162">
         <f>_xlfn.NORM.DIST(A162,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.9591704634359086E-5</v>
+        <v>7.7200882702384052E-5</v>
       </c>
       <c r="C162">
         <f>_xlfn.POISSON.DIST(A162,Scrobbles!$R$9,FALSE)</f>
-        <v>1.105186599773662E-25</v>
+        <v>2.0801347473906641E-25</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -16660,11 +16708,11 @@
       </c>
       <c r="B163">
         <f>_xlfn.NORM.DIST(A163,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.2511288419938592E-5</v>
+        <v>6.9473056504531431E-5</v>
       </c>
       <c r="C163">
         <f>_xlfn.POISSON.DIST(A163,Scrobbles!$R$9,FALSE)</f>
-        <v>4.242083532621132E-26</v>
+        <v>8.0359569719807688E-26</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -16673,11 +16721,11 @@
       </c>
       <c r="B164">
         <f>_xlfn.NORM.DIST(A164,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.6090241632001801E-5</v>
+        <v>6.2451745154423329E-5</v>
       </c>
       <c r="C164">
         <f>_xlfn.POISSON.DIST(A164,Scrobbles!$R$9,FALSE)</f>
-        <v>1.6182055384281595E-26</v>
+        <v>3.0852801012469654E-26</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -16686,11 +16734,11 @@
       </c>
       <c r="B165">
         <f>_xlfn.NORM.DIST(A165,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.0274071286898964E-5</v>
+        <v>5.6079842280701473E-5</v>
       </c>
       <c r="C165">
         <f>_xlfn.POISSON.DIST(A165,Scrobbles!$R$9,FALSE)</f>
-        <v>6.1350140335200935E-27</v>
+        <v>1.1772779333705792E-26</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -16699,11 +16747,11 @@
       </c>
       <c r="B166">
         <f>_xlfn.NORM.DIST(A166,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.5012039088791999E-5</v>
+        <v>5.0304057968008748E-5</v>
       </c>
       <c r="C166">
         <f>_xlfn.POISSON.DIST(A166,Scrobbles!$R$9,FALSE)</f>
-        <v>2.3117517448325288E-27</v>
+        <v>4.4648530095014457E-27</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -16712,11 +16760,11 @@
       </c>
       <c r="B167">
         <f>_xlfn.NORM.DIST(A167,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.0256981041672915E-5</v>
+        <v>4.50747461575198E-5</v>
       </c>
       <c r="C167">
         <f>_xlfn.POISSON.DIST(A167,Scrobbles!$R$9,FALSE)</f>
-        <v>8.6581824153307295E-28</v>
+        <v>1.6830430762291269E-27</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -16725,11 +16773,11 @@
       </c>
       <c r="B168">
         <f>_xlfn.NORM.DIST(A168,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.5965127466756272E-5</v>
+        <v>4.0345731223041631E-5</v>
       </c>
       <c r="C168">
         <f>_xlfn.POISSON.DIST(A168,Scrobbles!$R$9,FALSE)</f>
-        <v>3.2232064624965885E-28</v>
+        <v>6.3060753181158736E-28</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -16738,11 +16786,11 @@
       </c>
       <c r="B169">
         <f>_xlfn.NORM.DIST(A169,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.2095924492931973E-5</v>
+        <v>3.6074134864247029E-5</v>
       </c>
       <c r="C169">
         <f>_xlfn.POISSON.DIST(A169,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1927272336135938E-28</v>
+        <v>2.3486304781542965E-28</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -16751,11 +16799,11 @@
       </c>
       <c r="B170">
         <f>_xlfn.NORM.DIST(A170,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.8611857965168794E-5</v>
+        <v>3.2220204338304259E-5</v>
       </c>
       <c r="C170">
         <f>_xlfn.POISSON.DIST(A170,Scrobbles!$R$9,FALSE)</f>
-        <v>4.3873404434645145E-29</v>
+        <v>8.6951568532544503E-29</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -16764,11 +16812,11 @@
       </c>
       <c r="B171">
         <f>_xlfn.NORM.DIST(A171,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.547828059815948E-5</v>
+        <v>2.8747142935067419E-5</v>
       </c>
       <c r="C171">
         <f>_xlfn.POISSON.DIST(A171,Scrobbles!$R$9,FALSE)</f>
-        <v>1.6042945664451445E-29</v>
+        <v>3.2000939306551242E-29</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -16777,11 +16825,11 @@
       </c>
       <c r="B172">
         <f>_xlfn.NORM.DIST(A172,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.2663243090632306E-5</v>
+        <v>2.5620943489722139E-5</v>
       </c>
       <c r="C172">
         <f>_xlfn.POISSON.DIST(A172,Scrobbles!$R$9,FALSE)</f>
-        <v>5.8318275455911585E-30</v>
+        <v>1.1708083599231288E-29</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -16790,11 +16838,11 @@
       </c>
       <c r="B173">
         <f>_xlfn.NORM.DIST(A173,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.0137329810046905E-5</v>
+        <v>2.2810225620851243E-5</v>
       </c>
       <c r="C173">
         <f>_xlfn.POISSON.DIST(A173,Scrobbles!$R$9,FALSE)</f>
-        <v>2.1075507638682471E-30</v>
+        <v>4.2585496440108945E-30</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -16803,11 +16851,11 @@
       </c>
       <c r="B174">
         <f>_xlfn.NORM.DIST(A174,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.7873499558146562E-5</v>
+        <v>2.0286077281682127E-5</v>
       </c>
       <c r="C174">
         <f>_xlfn.POISSON.DIST(A174,Scrobbles!$R$9,FALSE)</f>
-        <v>7.5721477397622803E-31</v>
+        <v>1.53994523923194E-30</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -16816,11 +16864,11 @@
       </c>
       <c r="B175">
         <f>_xlfn.NORM.DIST(A175,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.5846931835271949E-5</v>
+        <v>1.8021901118114557E-5</v>
       </c>
       <c r="C175">
         <f>_xlfn.POISSON.DIST(A175,Scrobbles!$R$9,FALSE)</f>
-        <v>2.7048454627349899E-31</v>
+        <v>5.5364474793499063E-31</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -16829,11 +16877,11 @@
       </c>
       <c r="B176">
         <f>_xlfn.NORM.DIST(A176,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.4034878935569149E-5</v>
+        <v>1.599326603919531E-5</v>
       </c>
       <c r="C176">
         <f>_xlfn.POISSON.DIST(A176,Scrobbles!$R$9,FALSE)</f>
-        <v>9.606444781831934E-32</v>
+        <v>1.979037147223709E-31</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -16842,11 +16890,11 @@
       </c>
       <c r="B177">
         <f>_xlfn.NORM.DIST(A177,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2416524126286593E-5</v>
+        <v>1.4177764324136122E-5</v>
       </c>
       <c r="C177">
         <f>_xlfn.POISSON.DIST(A177,Scrobbles!$R$9,FALSE)</f>
-        <v>3.3922989951597209E-32</v>
+        <v>7.0337658608471199E-32</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -16855,11 +16903,11 @@
       </c>
       <c r="B178">
         <f>_xlfn.NORM.DIST(A178,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0972846092212134E-5</v>
+        <v>1.2554874514798175E-5</v>
       </c>
       <c r="C178">
         <f>_xlfn.POISSON.DIST(A178,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1911074404841195E-32</v>
+        <v>2.4856916286052487E-32</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -16868,11 +16916,11 @@
       </c>
       <c r="B179">
         <f>_xlfn.NORM.DIST(A179,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.6864897608508222E-6</v>
+        <v>1.11058302737657E-5</v>
       </c>
       <c r="C179">
         <f>_xlfn.POISSON.DIST(A179,Scrobbles!$R$9,FALSE)</f>
-        <v>4.1586000346112566E-33</v>
+        <v>8.734659774321454E-33</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -16881,11 +16929,11 @@
       </c>
       <c r="B180">
         <f>_xlfn.NORM.DIST(A180,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.5416435650280495E-6</v>
+        <v>9.8134953256169221E-6</v>
       </c>
       <c r="C180">
         <f>_xlfn.POISSON.DIST(A180,Scrobbles!$R$9,FALSE)</f>
-        <v>1.4437654083113432E-33</v>
+        <v>3.0520946742473447E-33</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -16894,11 +16942,11 @@
       </c>
       <c r="B181">
         <f>_xlfn.NORM.DIST(A181,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.5239231470118952E-6</v>
+        <v>8.6622445426249577E-6</v>
       </c>
       <c r="C181">
         <f>_xlfn.POISSON.DIST(A181,Scrobbles!$R$9,FALSE)</f>
-        <v>4.9844022438530601E-34</v>
+        <v>1.0605154017323402E-33</v>
       </c>
     </row>
   </sheetData>
@@ -21870,7 +21918,7 @@
       </c>
       <c r="D76">
         <f>IF(Scrobbles!$B76=D$1,Scrobbles!$F76,0)</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="E76">
         <f>IF(Scrobbles!$B76=E$1,Scrobbles!$F76,0)</f>
@@ -21914,7 +21962,7 @@
       </c>
       <c r="P76">
         <f>IF(AND(Scrobbles!$F76&gt;=Calc!O$1+1,Scrobbles!$F76&lt;=Calc!P$1,ISBLANK(Scrobbles!$F76)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
         <f>IF(AND(Scrobbles!$F76&gt;=Calc!P$1+1,Scrobbles!$F76&lt;=Calc!Q$1,ISBLANK(Scrobbles!$F76)=FALSE),1,0)</f>
@@ -21926,7 +21974,7 @@
       </c>
       <c r="T76">
         <f>IF(Scrobbles!F76&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="3:20" x14ac:dyDescent="0.3">
@@ -21940,7 +21988,7 @@
       </c>
       <c r="E77">
         <f>IF(Scrobbles!$B77=E$1,Scrobbles!$F77,0)</f>
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="F77">
         <f>IF(Scrobbles!$B77=F$1,Scrobbles!$F77,0)</f>
@@ -21968,7 +22016,7 @@
       </c>
       <c r="M77">
         <f>IF(AND(Scrobbles!$F77&gt;=Calc!L$1+1,Scrobbles!$F77&lt;=Calc!M$1,ISBLANK(Scrobbles!$F77)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
         <f>IF(AND(Scrobbles!$F77&gt;=Calc!M$1+1,Scrobbles!$F77&lt;=Calc!N$1,ISBLANK(Scrobbles!$F77)=FALSE),1,0)</f>
@@ -21992,7 +22040,7 @@
       </c>
       <c r="T77">
         <f>IF(Scrobbles!F77&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="3:20" x14ac:dyDescent="0.3">

--- a/Last FM/Will's Last FM.xlsx
+++ b/Last FM/Will's Last FM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\Last FM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59309B4-4C85-4DEE-9351-25ED45D0C4CB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E40C81-A0E3-4EEB-9F2E-FCE21D9A4D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="64">
   <si>
     <t>Freq</t>
   </si>
@@ -222,6 +222,12 @@
   <si>
     <t>Out of Data</t>
   </si>
+  <si>
+    <t>P=(with Total)</t>
+  </si>
+  <si>
+    <t>P=(without Total)</t>
+  </si>
 </sst>
 </file>
 
@@ -272,7 +278,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -470,6 +476,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -477,7 +509,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1"/>
@@ -518,6 +550,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -685,22 +719,22 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>1</c:v>
@@ -795,28 +829,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.5721458949356615</c:v>
+                  <c:v>4.8421915098107933</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.072200613315742</c:v>
+                  <c:v>11.819381347534033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.71548443000545</c:v>
+                  <c:v>19.380662743108523</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18.732999831378873</c:v>
+                  <c:v>21.354230803765116</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.092197916735259</c:v>
+                  <c:v>15.811196217924008</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0460103263772655</c:v>
+                  <c:v>7.8656922387306887</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.8440347100849488</c:v>
+                  <c:v>2.6280525783632354</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.37120593060248797</c:v>
+                  <c:v>0.58939872389234638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1543,424 +1577,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>1.6401921183102418E-3</c:v>
+                  <c:v>1.5185546125234661E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7524422166429509E-3</c:v>
+                  <c:v>1.621662142521048E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8703665432330469E-3</c:v>
+                  <c:v>1.7299905004570721E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9940855020020515E-3</c:v>
+                  <c:v>1.8436583114147575E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1237082728712306E-3</c:v>
+                  <c:v>1.9627750549998249E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.2593315860958405E-3</c:v>
+                  <c:v>2.0874400000316456E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.4010384851493095E-3</c:v>
+                  <c:v>2.2177411239972084E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5488970856239468E-3</c:v>
+                  <c:v>2.3537540231566693E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.7029593381263698E-3</c:v>
+                  <c:v>2.4955408196355527E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.8632598036196061E-3</c:v>
+                  <c:v>2.643149072259739E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.0298144500924928E-3</c:v>
+                  <c:v>2.7966106982793429E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.202619479813739E-3</c:v>
+                  <c:v>2.955940913481136E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.3816501967456926E-3</c:v>
+                  <c:v>3.1211371985003632E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5668599239449738E-3</c:v>
+                  <c:v>3.2921782994065479E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.7581789809571719E-3</c:v>
+                  <c:v>3.4690232708484928E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.955513731315018E-3</c:v>
+                  <c:v>3.6516105701964795E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.1587457102682315E-3</c:v>
+                  <c:v>3.8398572112096057E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.3677308428039623E-3</c:v>
+                  <c:v>4.0336579857792433E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.5822987618552259E-3</c:v>
+                  <c:v>4.23288476225163E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.8022522363377305E-3</c:v>
+                  <c:v>4.4373858687105534E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.0273667183005147E-3</c:v>
+                  <c:v>4.6469855694020699E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.2573900180215606E-3</c:v>
+                  <c:v>4.8614836422052653E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.4920421153252979E-3</c:v>
+                  <c:v>5.080655064694883E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.731015114745646E-3</c:v>
+                  <c:v>5.3042498159027373E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.9739733514073386E-3</c:v>
+                  <c:v>5.5319928003653672E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.2205536536529635E-3</c:v>
+                  <c:v>5.7635839004467372E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.4703657675071607E-3</c:v>
+                  <c:v>5.9986981622486869E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.7229929470483734E-3</c:v>
+                  <c:v>6.2369861196716484E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.9779927136583613E-3</c:v>
+                  <c:v>6.4780742603672004E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.2348977859484328E-3</c:v>
+                  <c:v>6.7215656364376592E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.493217180927117E-3</c:v>
+                  <c:v>6.9670406217912191E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.7524374856868406E-3</c:v>
+                  <c:v>7.214057817061084E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.0120242975574608E-3</c:v>
+                  <c:v>7.4621551019506058E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.2714238293138519E-3</c:v>
+                  <c:v>7.710850833781961E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.5300646746451683E-3</c:v>
+                  <c:v>7.9596451899119399E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.787359727708121E-3</c:v>
+                  <c:v>8.2080216505447043E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.0427082492086329E-3</c:v>
+                  <c:v>8.4554486173275024E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>9.2954980700995279E-3</c:v>
+                  <c:v>8.7013811619719907E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.5451079226604434E-3</c:v>
+                  <c:v>8.9452628980117004E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.7909098874537394E-3</c:v>
+                  <c:v>9.1865279676961731E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.0032271943441031E-2</c:v>
+                  <c:v>9.4246031349454994E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0268560607412347E-2</c:v>
+                  <c:v>9.6589099742567883E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.049914364783737E-2</c:v>
+                  <c:v>9.8888671444768064E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0723392857307877E-2</c:v>
+                  <c:v>1.011389273544403E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.094068686691458E-2</c:v>
+                  <c:v>1.0333406674668415E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.1150413985200338E-2</c:v>
+                  <c:v>1.0546833180468188E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.1351975043765554E-2</c:v>
+                  <c:v>1.0753603247329267E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.1544786231178194E-2</c:v>
+                  <c:v>1.0953157148702253E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1728281896568027E-2</c:v>
+                  <c:v>1.1144946942012479E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1901917304167592E-2</c:v>
+                  <c:v>1.1328438960336151E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.2065171320105317E-2</c:v>
+                  <c:v>1.1503116274995962E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.2217549012961263E-2</c:v>
+                  <c:v>1.1668481113256747E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.2358584149964269E-2</c:v>
+                  <c:v>1.1824057215358622E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.2487841571239193E-2</c:v>
+                  <c:v>1.1969392115313665E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.2604919425202083E-2</c:v>
+                  <c:v>1.210405933021237E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.270945124904475E-2</c:v>
+                  <c:v>1.2227660443237262E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2801107879241802E-2</c:v>
+                  <c:v>1.2339827066160649E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2879599178145231E-2</c:v>
+                  <c:v>1.2440222667807532E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.294467556399405E-2</c:v>
+                  <c:v>1.2528544255788763E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.2996129333048468E-2</c:v>
+                  <c:v>1.2604523899746282E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.303379576404722E-2</c:v>
+                  <c:v>1.2667930085395209E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.3057553996769106E-2</c:v>
+                  <c:v>1.2718568889786895E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.3067327678140808E-2</c:v>
+                  <c:v>1.2756284969443699E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3063085371057118E-2</c:v>
+                  <c:v>1.2780962354318999E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3044840722850105E-2</c:v>
+                  <c:v>1.279252504190337E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.3012652392143734E-2</c:v>
+                  <c:v>1.2790937387217366E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2966623734642593E-2</c:v>
+                  <c:v>1.2776204285890266E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.2906902250210238E-2</c:v>
+                  <c:v>1.2748371149008723E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.2833678795376812E-2</c:v>
+                  <c:v>1.2707523669916244E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.274718656715995E-2</c:v>
+                  <c:v>1.2653787384639407E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.2647699865770747E-2</c:v>
+                  <c:v>1.258732702909658E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.253553264539191E-2</c:v>
+                  <c:v>1.2508345697695419E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.2411036863742887E-2</c:v>
+                  <c:v>1.2417083809333491E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.2274600642572466E-2</c:v>
+                  <c:v>1.2313817888169426E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.2126646252530576E-2</c:v>
+                  <c:v>1.2198859167817237E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.1967627937055513E-2</c:v>
+                  <c:v>1.2072552028823107E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.1798029590961078E-2</c:v>
+                  <c:v>1.193527228040088E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.1618362310310867E-2</c:v>
+                  <c:v>1.1787425298420392E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.1429161830917798E-2</c:v>
+                  <c:v>1.1629444032553251E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1230985873400115E-2</c:v>
+                  <c:v>1.1461786896276013E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.1024411413157525E-2</c:v>
+                  <c:v>1.1284935554105332E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.0810031893900483E-2</c:v>
+                  <c:v>1.1099392620988476E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.0588454403472499E-2</c:v>
+                  <c:v>1.0905679289192219E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.0360296830650999E-2</c:v>
+                  <c:v>1.0704332898321777E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.0126185021400225E-2</c:v>
+                  <c:v>1.0495904464257966E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>9.8867499526850647E-3</c:v>
+                  <c:v>1.028095618282629E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>9.6426249414439079E-3</c:v>
+                  <c:v>1.0060058923907834E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.3944429056696116E-3</c:v>
+                  <c:v>9.8337897314721735E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.1428336937697356E-3</c:v>
+                  <c:v>9.6027293446612101E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>8.8884214974807186E-3</c:v>
+                  <c:v>9.3674597545859717E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>8.6318223626069192E-3</c:v>
+                  <c:v>9.1285618109221579E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.373641810756954E-3</c:v>
+                  <c:v>8.8866128917126763E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.1144725840691049E-3</c:v>
+                  <c:v>8.6421846490148703E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>7.8548925236685517E-3</c:v>
+                  <c:v>8.3958408421758932E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>7.5954625912953841E-3</c:v>
+                  <c:v>8.1481352695916814E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7.3367250421978612E-3</c:v>
+                  <c:v>7.899609808813603E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.0792017560142133E-3</c:v>
+                  <c:v>7.6507925738226509E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>6.8233927309821621E-3</c:v>
+                  <c:v>7.4021961972054497E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.56977474543201E-3</c:v>
+                  <c:v>7.1543162438498049E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.3188001891495088E-3</c:v>
+                  <c:v>6.9076297616418461E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.0708960658513748E-3</c:v>
+                  <c:v>6.6625939735022498E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.8264631667110421E-3</c:v>
+                  <c:v>6.4196451139567493E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>5.5858754136159112E-3</c:v>
+                  <c:v>6.179197412306328E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.3494793696401569E-3</c:v>
+                  <c:v>5.9416422233546651E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.1175939130879561E-3</c:v>
+                  <c:v>5.7073473055745229E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.8905100704088617E-3</c:v>
+                  <c:v>5.4766562455586297E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.6684910023168623E-3</c:v>
+                  <c:v>5.2498880266129283E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.4517721365628813E-3</c:v>
+                  <c:v>5.0273367384172799E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.2405614400220617E-3</c:v>
+                  <c:v>4.8092714238076924E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4.0350398220649307E-3</c:v>
+                  <c:v>4.5959360579298581E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>3.8353616605882068E-3</c:v>
+                  <c:v>4.3875496542811771E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.6416554415871659E-3</c:v>
+                  <c:v>4.1843064915007798E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.4540245027575409E-3</c:v>
+                  <c:v>3.9863764541873984E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.2725478713194101E-3</c:v>
+                  <c:v>3.7939054805248189E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.0972811860567068E-3</c:v>
+                  <c:v>3.6070161090752595E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>2.9282576934607164E-3</c:v>
+                  <c:v>3.4258081167622481E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.7654893078505123E-3</c:v>
+                  <c:v>3.2503592398058869E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>2.6089677254131495E-3</c:v>
+                  <c:v>3.0807259691931002E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.4586655822564536E-3</c:v>
+                  <c:v>2.9169444121616281E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.3145376467916426E-3</c:v>
+                  <c:v>2.7590312111459678E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.176522037055591E-3</c:v>
+                  <c:v>2.6069845116730699E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.0445414539367987E-3</c:v>
+                  <c:v>2.4607849708010894E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.9185044216781222E-3</c:v>
+                  <c:v>2.3203967978617018E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.798306527486153E-3</c:v>
+                  <c:v>2.1857688194904033E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.6838316525746193E-3</c:v>
+                  <c:v>2.0568355612048997E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.5749531875003037E-3</c:v>
+                  <c:v>1.9335183381136232E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.4715352252076309E-3</c:v>
+                  <c:v>1.8157263476992732E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.3734337257755014E-3</c:v>
+                  <c:v>1.703357758020242E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.2804976474504683E-3</c:v>
+                  <c:v>1.5963007851005049E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.192570039147535E-3</c:v>
+                  <c:v>1.4944347537300927E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.1094890901979292E-3</c:v>
+                  <c:v>1.397631136368493E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.0310891337162043E-3</c:v>
+                  <c:v>1.3057545653265962E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>9.572016005421249E-4</c:v>
+                  <c:v>1.2186638138941214E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>8.8765592128094617E-4</c:v>
+                  <c:v>1.1362127425739311E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>8.2228037451481922E-4</c:v>
+                  <c:v>1.0582512070775659E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>7.6090287978436107E-4</c:v>
+                  <c:v>9.8462592522347275E-4</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>7.0335173443953312E-4</c:v>
+                  <c:v>9.151813003567289E-4</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>6.4945629393029999E-4</c:v>
+                  <c:v>8.4976019937305699E-4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>5.9904759554764105E-4</c:v>
+                  <c:v>7.8820468387727971E-4</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>5.5195892603273158E-4</c:v>
+                  <c:v>7.3035669343426285E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2332,7 +2366,7 @@
                   <c:v>48.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.0">
-                  <c:v>51.666666666666664</c:v>
+                  <c:v>54.571428571428569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2374,7 +2408,7 @@
                   <c:v>22.682067597028947</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.0">
-                  <c:v>29.783664426437973</c:v>
+                  <c:v>28.25395041911333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2761,7 +2795,7 @@
                   <c:v>48.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="76" formatCode="0.0">
-                  <c:v>51.666666666666664</c:v>
+                  <c:v>54.571428571428569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3616,6 +3650,30 @@
                 <c:pt idx="75">
                   <c:v>4727</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>4799</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>4938</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5099</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5156</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5271</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5376</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5417</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4325,6 +4383,30 @@
                 <c:pt idx="75">
                   <c:v>62.19736842105263</c:v>
                 </c:pt>
+                <c:pt idx="76">
+                  <c:v>62.324675324675326</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>63.307692307692307</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>63.303797468354432</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>63.737499999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>63.654320987654323</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>64.280487804878049</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>64.771084337349393</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>64.488095238095241</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4855,6 +4937,30 @@
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>30.529114549558351</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>30.350524314965092</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>31.364812757131848</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>31.165688058528609</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>31.209270958322627</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>31.024944362352858</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>31.345935431164428</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>31.471664555732509</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>31.389827760726444</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5223,25 +5329,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>62.636363636363633</c:v>
+                  <c:v>57.384615384615387</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81.36363636363636</c:v>
+                  <c:v>77.692307692307693</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58.363636363636367</c:v>
+                  <c:v>57.46153846153846</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.8</c:v>
+                  <c:v>58.416666666666664</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.363636363636367</c:v>
+                  <c:v>63.384615384615387</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>70.454545454545453</c:v>
+                  <c:v>71.538461538461533</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>44.090909090909093</c:v>
+                  <c:v>49.46153846153846</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5907,424 +6013,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>9.728056982479808E-28</c:v>
+                  <c:v>1.0975410396270501E-28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0505954416028991E-26</c:v>
+                  <c:v>7.0658935206334567E-27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8816555692405862E-24</c:v>
+                  <c:v>2.2744867591418278E-25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9011341560527415E-23</c:v>
+                  <c:v>4.8809962980664513E-24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.0660069590991084E-22</c:v>
+                  <c:v>7.8558793866293974E-23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5457933935951529E-21</c:v>
+                  <c:v>1.0115121941266967E-21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8221415288430354E-20</c:v>
+                  <c:v>1.0853409577209975E-20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.9502374073009138E-19</c:v>
+                  <c:v>9.9819289067245755E-20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4035809579459549E-18</c:v>
+                  <c:v>8.032871236575372E-19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7343168403816795E-17</c:v>
+                  <c:v>5.746119003328036E-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.3226468032216039E-16</c:v>
+                  <c:v>3.6993117859356869E-17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3132956266541296E-15</c:v>
+                  <c:v>2.1650831048093765E-16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.8069609947303282E-15</c:v>
+                  <c:v>1.1615546427238888E-15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2567312370536668E-14</c:v>
+                  <c:v>5.7523143712612558E-15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4468579471384124E-13</c:v>
+                  <c:v>2.6452145150602851E-14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.9993837860730349E-13</c:v>
+                  <c:v>1.1353139079580529E-13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.3321617727604701E-12</c:v>
+                  <c:v>4.5681704012019261E-13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.5326073528163783E-12</c:v>
+                  <c:v>1.7299744703943247E-12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9483651284183482E-11</c:v>
+                  <c:v>6.1874757398969277E-12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>9.651608006948434E-11</c:v>
+                  <c:v>2.0965548468942831E-11</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3.0015230953187636E-10</c:v>
+                  <c:v>6.7487377571580028E-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.8898494182780378E-10</c:v>
+                  <c:v>2.0689480119234756E-10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.5132965430741835E-9</c:v>
+                  <c:v>6.0544293703152888E-10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.7965404800409833E-9</c:v>
+                  <c:v>1.694695597358116E-9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.7613622176071151E-8</c:v>
+                  <c:v>4.5459722417637784E-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.382083790857276E-8</c:v>
+                  <c:v>1.1706662310859317E-8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.0482849230456686E-7</c:v>
+                  <c:v>2.8987186385111791E-8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4148356877372663E-7</c:v>
+                  <c:v>6.9117595122609896E-8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.3641580338035718E-7</c:v>
+                  <c:v>1.5891939666738123E-7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.1504707361973453E-6</c:v>
+                  <c:v>3.5279728130558748E-7</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.3852084078968729E-6</c:v>
+                  <c:v>7.5709485539946296E-7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.7856027776436864E-6</c:v>
+                  <c:v>1.5722982147172417E-6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>9.3016218461848877E-6</c:v>
+                  <c:v>3.1632335849968599E-6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.7531406087287138E-5</c:v>
+                  <c:v>6.1711150503544082E-6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>3.207080362794368E-5</c:v>
+                  <c:v>1.1685062676482381E-5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.699198825161237E-5</c:v>
+                  <c:v>2.1493607898514881E-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.8465324731495627E-5</c:v>
+                  <c:v>3.8437323703570159E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.6552119132495674E-4</c:v>
+                  <c:v>6.6880226798290174E-5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.7092059258762932E-4</c:v>
+                  <c:v>1.1330797044683076E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4.3206533102622144E-4</c:v>
+                  <c:v>1.8704330753690032E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>6.71833164395051E-4</c:v>
+                  <c:v>3.010429785960286E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.0191769473990404E-3</c:v>
+                  <c:v>4.7270583771134134E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.5092886686576561E-3</c:v>
+                  <c:v>7.2458275780547829E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.1831112413539674E-3</c:v>
+                  <c:v>1.0848404240760444E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.0859948677871376E-3</c:v>
+                  <c:v>1.5873017803683187E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>4.2653502163829847E-3</c:v>
+                  <c:v>2.270875420649545E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.7672512794171562E-3</c:v>
+                  <c:v>3.1782042056616947E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>7.6320819702701288E-3</c:v>
+                  <c:v>4.3534169126708587E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>9.8894877942617716E-3</c:v>
+                  <c:v>5.8389578850262134E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.2553063588473499E-2</c:v>
+                  <c:v>7.6715935055200165E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.5615350416503738E-2</c:v>
+                  <c:v>9.8778379826247251E-3</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.9043798095669043E-2</c:v>
+                  <c:v>1.246918425528086E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.2778348582547452E-2</c:v>
+                  <c:v>1.5437643902260845E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.673119507192203E-2</c:v>
+                  <c:v>1.8752167316539385E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>3.0789073855988145E-2</c:v>
+                  <c:v>2.2356511098326318E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>3.4818170362979912E-2</c:v>
+                  <c:v>2.6169032113213329E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.8671403032379231E-2</c:v>
+                  <c:v>3.0084718568577119E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>4.2197535118664961E-2</c:v>
+                  <c:v>3.3979533918653056E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>4.5251304107515718E-2</c:v>
+                  <c:v>3.7716878612440663E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.7703593781495711E-2</c:v>
+                  <c:v>4.1155705651330643E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.9450633290598726E-2</c:v>
+                  <c:v>4.4159599109789886E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.0421299302126875E-2</c:v>
+                  <c:v>4.6605975996595619E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.0581808531654011E-2</c:v>
+                  <c:v>4.8394525687232529E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.9937386994387732E-2</c:v>
+                  <c:v>4.9454066479509076E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.8530844638665881E-2</c:v>
+                  <c:v>4.9747167089032041E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.643832036578413E-2</c:v>
+                  <c:v>4.9272127827704404E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.3762747282508285E-2</c:v>
+                  <c:v>4.8062206193481782E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.0625786803695378E-2</c:v>
+                  <c:v>4.6182264005779981E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>3.7159073959184941E-2</c:v>
+                  <c:v>4.3723269218453951E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>3.3495603090211157E-2</c:v>
+                  <c:v>4.0795274178337594E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.976197665553159E-2</c:v>
+                  <c:v>3.7519594527564683E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.6072065168772786E-2</c:v>
+                  <c:v>3.4020924226791274E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.2522414483331286E-2</c:v>
+                  <c:v>3.0420050541867513E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.9189519333580953E-2</c:v>
+                  <c:v>2.6827696911509977E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.612888653802225E-2</c:v>
+                  <c:v>2.3339846287879371E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.3375657309689679E-2</c:v>
+                  <c:v>2.0034709434239444E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.0946456389006777E-2</c:v>
+                  <c:v>1.6971326004412434E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>8.8420880640524713E-3</c:v>
+                  <c:v>1.4189639789627426E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>7.0507001145033599E-3</c:v>
+                  <c:v>1.171178491920177E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.5510758563053746E-3</c:v>
+                  <c:v>9.5442612152552165E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.3157788770979456E-3</c:v>
+                  <c:v>7.680661934862722E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>3.3139517141068707E-3</c:v>
+                  <c:v>6.1046384982497599E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.5136472645351719E-3</c:v>
+                  <c:v>4.7928343466073628E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.8836415059381411E-3</c:v>
+                  <c:v>3.7175827690552219E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.394732675214533E-3</c:v>
+                  <c:v>2.8492311288284612E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.0205729652846907E-3</c:v>
+                  <c:v>2.1580180598469454E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>7.3810410142300103E-4</c:v>
+                  <c:v>1.6154850512166163E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.2767968654363615E-4</c:v>
+                  <c:v>1.1954461318356851E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>3.7295781673022857E-4</c:v>
+                  <c:v>8.7456815365878821E-4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.6064039025484794E-4</c:v>
+                  <c:v>6.3263027620339091E-4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.8012384864542059E-4</c:v>
+                  <c:v>4.5253667650257978E-4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.2311241072106708E-4</c:v>
+                  <c:v>3.2015383669204789E-4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.3231173552414617E-5</c:v>
+                  <c:v>2.2403568707048504E-4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>5.5664085651140519E-5</c:v>
+                  <c:v>1.5508884974438125E-4</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>3.6831485564521547E-5</c:v>
+                  <c:v>1.0621822541187075E-4</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>2.4113910285802547E-5</c:v>
+                  <c:v>7.1981643137554335E-5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.5623143355398694E-5</c:v>
+                  <c:v>4.8272172319617242E-5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.0017715496604536E-5</c:v>
+                  <c:v>3.203844497715104E-5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>6.3579136885673997E-6</c:v>
+                  <c:v>2.10470713484659E-5</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>3.9943989906775774E-6</c:v>
+                  <c:v>1.3686827658511402E-5</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>2.484411056438554E-6</c:v>
+                  <c:v>8.8114852546347897E-6</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.5299389087786489E-6</c:v>
+                  <c:v>5.6166073644257566E-6</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>9.3292327422557762E-7</c:v>
+                  <c:v>3.5450324372491359E-6</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.6335313199595023E-7</c:v>
+                  <c:v>2.2157936258266039E-6</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>3.3691425290294563E-7</c:v>
+                  <c:v>1.3716467836267568E-6</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.9957314203912463E-7</c:v>
+                  <c:v>8.4100641872943668E-7</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1.1710305889013618E-7</c:v>
+                  <c:v>5.1078691729598849E-7</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>6.8070113056281011E-8</c:v>
+                  <c:v>3.0732812587547993E-7</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>3.920168426133544E-8</c:v>
+                  <c:v>1.8319974808732996E-7</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>2.2369188979156694E-8</c:v>
+                  <c:v>1.0820434346062855E-7</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>1.2648224438334139E-8</c:v>
+                  <c:v>6.3328372802818975E-8</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>7.0872637411101342E-9</c:v>
+                  <c:v>3.6730062759510309E-8</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.9357960178838648E-9</c:v>
+                  <c:v>2.1113000976602798E-8</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>2.1663376544640306E-9</c:v>
+                  <c:v>1.2028676479498668E-8</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>1.1819342212201787E-9</c:v>
+                  <c:v>6.7929640009751782E-9</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>6.3924520179722107E-10</c:v>
+                  <c:v>3.8028377180871567E-9</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.4275318385837588E-10</c:v>
+                  <c:v>2.1105523245150879E-9</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.8220808593101151E-10</c:v>
+                  <c:v>1.1613325051192549E-9</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>9.6041215677508467E-11</c:v>
+                  <c:v>6.3360835390346452E-10</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>5.0197570378989669E-11</c:v>
+                  <c:v>3.4278377187417643E-10</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.6017973155863795E-11</c:v>
+                  <c:v>1.8390152358881545E-10</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.3373962495407798E-11</c:v>
+                  <c:v>9.7846721157116887E-11</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>6.8182399391493313E-12</c:v>
+                  <c:v>5.1633642849161693E-11</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>3.4477770851903142E-12</c:v>
+                  <c:v>2.7025514774148171E-11</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.72937630323586E-12</c:v>
+                  <c:v>1.40313226038193E-11</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>8.6050124056799919E-13</c:v>
+                  <c:v>7.2266149796773692E-12</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>4.247691483046038E-13</c:v>
+                  <c:v>3.6924165755494941E-12</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>2.0802774181888063E-13</c:v>
+                  <c:v>1.8717734853518328E-12</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.01084203903972E-13</c:v>
+                  <c:v>9.4143348522411912E-13</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>4.8737763347009715E-14</c:v>
+                  <c:v>4.6983595747484752E-13</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.3318158637784805E-14</c:v>
+                  <c:v>2.3267473013409732E-13</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.1071206898433972E-14</c:v>
+                  <c:v>1.1434686000536041E-13</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5.2166661691484762E-15</c:v>
+                  <c:v>5.5769484751830717E-14</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.4395707342268439E-15</c:v>
+                  <c:v>2.6995495989542802E-14</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.1323498488501969E-15</c:v>
+                  <c:v>1.2969786673308309E-14</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>5.2169763504044037E-16</c:v>
+                  <c:v>6.1850808988677059E-15</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.3858985302207557E-16</c:v>
+                  <c:v>2.9278767845299173E-15</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.0831869335721325E-16</c:v>
+                  <c:v>1.3758736362238486E-15</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>4.8819838243664354E-17</c:v>
+                  <c:v>6.418680856646353E-16</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.184507529134821E-17</c:v>
+                  <c:v>2.9728794739168473E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11556,10 +11662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
-  <dimension ref="A1:R85"/>
+  <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="72" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11714,11 +11820,11 @@
       </c>
       <c r="M4" s="26">
         <f>SUM('Dist Calc'!B2:B21)*L12</f>
-        <v>4.5721458949356615</v>
+        <v>4.8421915098107933</v>
       </c>
       <c r="N4" s="27">
         <f>SUM('Dist Calc'!C2:C21)*L12</f>
-        <v>1.0323756601081943E-8</v>
+        <v>2.5358797026748639E-9</v>
       </c>
       <c r="Q4" s="34" t="s">
         <v>20</v>
@@ -11755,22 +11861,22 @@
       </c>
       <c r="L5" s="26">
         <f>SUM(Calc!L2:L406)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M5" s="26">
         <f>SUM('Dist Calc'!B22:B41)*L12</f>
-        <v>11.072200613315742</v>
+        <v>11.819381347534033</v>
       </c>
       <c r="N5" s="27">
         <f>SUM('Dist Calc'!C22:C41)*L12</f>
-        <v>8.1910815202791518E-2</v>
+        <v>3.8798030486749069E-2</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="R5" s="30">
         <f ca="1">TODAY()</f>
-        <v>43615</v>
+        <v>43629</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -11803,22 +11909,22 @@
       </c>
       <c r="L6" s="26">
         <f>SUM(Calc!M2:M406)</f>
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M6" s="26">
         <f>SUM('Dist Calc'!B42:B61)*L12</f>
-        <v>17.71548443000545</v>
+        <v>19.380662743108523</v>
       </c>
       <c r="N6" s="27">
         <f>SUM('Dist Calc'!C42:C61)*L12</f>
-        <v>27.913230912304819</v>
+        <v>23.691515220950592</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="R6" s="5">
         <f ca="1">R5-E2</f>
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -11851,15 +11957,15 @@
       </c>
       <c r="L7" s="26">
         <f>SUM(Calc!N2:N406)</f>
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M7" s="26">
         <f>SUM('Dist Calc'!B62:B81)*L12</f>
-        <v>18.732999831378873</v>
+        <v>21.354230803765116</v>
       </c>
       <c r="N7" s="27">
         <f>SUM('Dist Calc'!C62:C81)*L12</f>
-        <v>45.738325812871025</v>
+        <v>59.423962629406859</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
@@ -11902,22 +12008,22 @@
       </c>
       <c r="L8" s="26">
         <f>SUM(Calc!O2:O406)</f>
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M8" s="26">
         <f>SUM('Dist Calc'!B82:B101)*L12</f>
-        <v>13.092197916735259</v>
+        <v>15.811196217924008</v>
       </c>
       <c r="N8" s="27">
         <f>SUM('Dist Calc'!C82:C101)*L12</f>
-        <v>1.266058281231051</v>
+        <v>2.8436893975295754</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="R8" s="6">
         <f>_xlfn.STDEV.P(F:F)</f>
-        <v>30.529114549558351</v>
+        <v>31.183270411349806</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -11950,22 +12056,22 @@
       </c>
       <c r="L9" s="26">
         <f>SUM(Calc!P2:P406)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M9" s="26">
         <f>SUM('Dist Calc'!B102:B121)*L12</f>
-        <v>6.0460103263772655</v>
+        <v>7.8656922387306887</v>
       </c>
       <c r="N9" s="27">
         <f>SUM('Dist Calc'!C102:C121)*L12</f>
-        <v>4.7416408596737738E-4</v>
+        <v>2.034685628137814E-3</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="R9" s="6">
         <f>AVERAGE(F:F)</f>
-        <v>62.19736842105263</v>
+        <v>64.379310344827587</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -11998,22 +12104,22 @@
       </c>
       <c r="L10" s="26">
         <f>SUM(Calc!Q2:Q406)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M10" s="26">
         <f>SUM('Dist Calc'!B122:B141)*L12</f>
-        <v>1.8440347100849488</v>
+        <v>2.6280525783632354</v>
       </c>
       <c r="N10" s="27">
         <f>SUM('Dist Calc'!C122:C141)*L12</f>
-        <v>3.9805924725129721E-9</v>
+        <v>3.3462168606907146E-8</v>
       </c>
       <c r="Q10" s="31" t="s">
         <v>15</v>
       </c>
       <c r="R10" s="5">
         <f>SUM(F:F)</f>
-        <v>4727</v>
+        <v>5601</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12050,18 +12156,18 @@
       </c>
       <c r="M11" s="26">
         <f>SUM('Dist Calc'!B142:B161)*L12</f>
-        <v>0.37120593060248797</v>
+        <v>0.58939872389234638</v>
       </c>
       <c r="N11" s="27">
         <f>SUM('Dist Calc'!C142:C161)*L12</f>
-        <v>1.296854669632524E-15</v>
+        <v>2.1531819686665384E-14</v>
       </c>
       <c r="Q11" s="20" t="s">
         <v>46</v>
       </c>
       <c r="R11" s="25">
         <f ca="1">SUM(Calc!T2:T406)/Scrobbles!R6</f>
-        <v>0.98684210526315785</v>
+        <v>0.9555555555555556</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -12094,15 +12200,15 @@
       </c>
       <c r="L12" s="26">
         <f>SUM(L4:L10)</f>
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="M12" s="26">
         <f>SUM(M4:M10)</f>
-        <v>73.07507372283321</v>
+        <v>83.701407439236405</v>
       </c>
       <c r="N12" s="27">
         <f>SUM(N4:N10)</f>
-        <v>75</v>
+        <v>85.999999999999957</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -12165,11 +12271,11 @@
         <v>38</v>
       </c>
       <c r="L14" s="22" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="M14" s="24">
         <f>_xlfn.CHISQ.TEST(L4:L12,M4:M12)</f>
-        <v>0.35791488626912293</v>
+        <v>0.57070172345926606</v>
       </c>
       <c r="N14" s="25">
         <f>_xlfn.CHISQ.TEST(L4:L12,N4:N12)</f>
@@ -12179,7 +12285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -12212,12 +12318,19 @@
         <f>SUM($F$2:F15)</f>
         <v>654</v>
       </c>
+      <c r="L15" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="M15" s="37">
+        <f>_xlfn.CHISQ.TEST(L4:L11,M4:M11)</f>
+        <v>0.46901622783676322</v>
+      </c>
       <c r="P15" t="s">
         <v>18</v>
       </c>
       <c r="Q15" s="29">
         <f>294*R9</f>
-        <v>18286.026315789473</v>
+        <v>18927.517241379312</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -12250,7 +12363,7 @@
       </c>
       <c r="Q16" s="29">
         <f>Q20*294+Q21</f>
-        <v>19564.158564593297</v>
+        <v>19532.054172994503</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -12364,7 +12477,7 @@
       </c>
       <c r="Q20">
         <f>SLOPE(I2:I85,A2:A85)</f>
-        <v>67.493410799726576</v>
+        <v>67.37416219499849</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -12397,7 +12510,7 @@
       </c>
       <c r="Q21">
         <f>INTERCEPT(I2:I85,A2:A85)</f>
-        <v>-278.90421052631518</v>
+        <v>-275.94951233505526</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -13950,14 +14063,29 @@
       </c>
       <c r="C78" s="33">
         <f>AVERAGE(F72:F78)</f>
-        <v>51.666666666666664</v>
+        <v>54.571428571428569</v>
       </c>
       <c r="D78" s="33">
         <f>_xlfn.STDEV.S(F72:F78)</f>
-        <v>29.783664426437973</v>
+        <v>28.25395041911333</v>
       </c>
       <c r="E78" s="1">
         <v>43615</v>
+      </c>
+      <c r="F78">
+        <v>72</v>
+      </c>
+      <c r="G78" s="3">
+        <f>AVERAGE(F$2:F78)</f>
+        <v>62.324675324675326</v>
+      </c>
+      <c r="H78" s="3">
+        <f>_xlfn.STDEV.P($F$2:F78)</f>
+        <v>30.350524314965092</v>
+      </c>
+      <c r="I78">
+        <f>SUM($F$2:F78)</f>
+        <v>4799</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -13970,6 +14098,21 @@
       <c r="E79" s="1">
         <v>43616</v>
       </c>
+      <c r="F79">
+        <v>139</v>
+      </c>
+      <c r="G79" s="3">
+        <f>AVERAGE(F$2:F79)</f>
+        <v>63.307692307692307</v>
+      </c>
+      <c r="H79" s="3">
+        <f>_xlfn.STDEV.P($F$2:F79)</f>
+        <v>31.364812757131848</v>
+      </c>
+      <c r="I79">
+        <f>SUM($F$2:F79)</f>
+        <v>4938</v>
+      </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
@@ -13981,8 +14124,23 @@
       <c r="E80" s="1">
         <v>43617</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80">
+        <v>63</v>
+      </c>
+      <c r="G80" s="3">
+        <f>AVERAGE(F$2:F80)</f>
+        <v>63.303797468354432</v>
+      </c>
+      <c r="H80" s="3">
+        <f>_xlfn.STDEV.P($F$2:F80)</f>
+        <v>31.165688058528609</v>
+      </c>
+      <c r="I80">
+        <f>SUM($F$2:F80)</f>
+        <v>5001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -13992,8 +14150,23 @@
       <c r="E81" s="1">
         <v>43618</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81">
+        <v>98</v>
+      </c>
+      <c r="G81" s="3">
+        <f>AVERAGE(F$2:F81)</f>
+        <v>63.737499999999997</v>
+      </c>
+      <c r="H81" s="3">
+        <f>_xlfn.STDEV.P($F$2:F81)</f>
+        <v>31.209270958322627</v>
+      </c>
+      <c r="I81">
+        <f>SUM($F$2:F81)</f>
+        <v>5099</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14003,8 +14176,23 @@
       <c r="E82" s="1">
         <v>43619</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82">
+        <v>57</v>
+      </c>
+      <c r="G82" s="3">
+        <f>AVERAGE(F$2:F82)</f>
+        <v>63.654320987654323</v>
+      </c>
+      <c r="H82" s="3">
+        <f>_xlfn.STDEV.P($F$2:F82)</f>
+        <v>31.024944362352858</v>
+      </c>
+      <c r="I82">
+        <f>SUM($F$2:F82)</f>
+        <v>5156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14014,8 +14202,23 @@
       <c r="E83" s="1">
         <v>43620</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83">
+        <v>115</v>
+      </c>
+      <c r="G83" s="3">
+        <f>AVERAGE(F$2:F83)</f>
+        <v>64.280487804878049</v>
+      </c>
+      <c r="H83" s="3">
+        <f>_xlfn.STDEV.P($F$2:F83)</f>
+        <v>31.345935431164428</v>
+      </c>
+      <c r="I83">
+        <f>SUM($F$2:F83)</f>
+        <v>5271</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14025,8 +14228,23 @@
       <c r="E84" s="1">
         <v>43621</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84">
+        <v>105</v>
+      </c>
+      <c r="G84" s="3">
+        <f>AVERAGE(F$2:F84)</f>
+        <v>64.771084337349393</v>
+      </c>
+      <c r="H84" s="3">
+        <f>_xlfn.STDEV.P($F$2:F84)</f>
+        <v>31.471664555732509</v>
+      </c>
+      <c r="I84">
+        <f>SUM($F$2:F84)</f>
+        <v>5376</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -14038,12 +14256,296 @@
       <c r="E85" s="1">
         <v>43622</v>
       </c>
+      <c r="F85">
+        <v>41</v>
+      </c>
+      <c r="G85" s="3">
+        <f>AVERAGE(F$2:F85)</f>
+        <v>64.488095238095241</v>
+      </c>
+      <c r="H85" s="3">
+        <f>_xlfn.STDEV.P($F$2:F85)</f>
+        <v>31.389827760726444</v>
+      </c>
+      <c r="I85">
+        <f>SUM($F$2:F85)</f>
+        <v>5417</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>3</v>
+      </c>
+      <c r="E86" s="1">
+        <v>43623</v>
+      </c>
+      <c r="F86">
+        <v>32</v>
+      </c>
+      <c r="G86" s="3">
+        <f>AVERAGE(F$2:F86)</f>
+        <v>64.10588235294118</v>
+      </c>
+      <c r="H86" s="3">
+        <f>_xlfn.STDEV.P($F$2:F86)</f>
+        <v>31.400645751850679</v>
+      </c>
+      <c r="I86">
+        <f>SUM($F$2:F86)</f>
+        <v>5449</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1">
+        <v>43624</v>
+      </c>
+      <c r="F87">
+        <v>92</v>
+      </c>
+      <c r="G87" s="3">
+        <f>AVERAGE(F$2:F87)</f>
+        <v>64.430232558139537</v>
+      </c>
+      <c r="H87" s="3">
+        <f>_xlfn.STDEV.P($F$2:F87)</f>
+        <v>31.360447870583595</v>
+      </c>
+      <c r="I87">
+        <f>SUM($F$2:F87)</f>
+        <v>5541</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1">
+        <v>43625</v>
+      </c>
+      <c r="F88">
+        <v>60</v>
+      </c>
+      <c r="G88" s="3">
+        <f>AVERAGE(F$2:F88)</f>
+        <v>64.379310344827587</v>
+      </c>
+      <c r="H88" s="3">
+        <f>_xlfn.STDEV.P($F$2:F88)</f>
+        <v>31.183270411349806</v>
+      </c>
+      <c r="I88">
+        <f>SUM($F$2:F88)</f>
+        <v>5601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="E89" s="1">
+        <v>43626</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="1">
+        <v>43627</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="E91" s="1">
+        <v>43628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="1">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="E93" s="1">
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" s="1">
+        <v>43631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1">
+        <v>43632</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="1">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="1">
+        <v>43634</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" s="1">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" s="1">
+        <v>43636</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="1">
+        <v>43637</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>4</v>
+      </c>
+      <c r="E101" s="1">
+        <v>43638</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="1">
+        <v>43639</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="1">
+        <v>43640</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="1">
+        <v>43641</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="E105" s="1">
+        <v>43642</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="Q4:R4"/>
   </mergeCells>
-  <conditionalFormatting sqref="M14:N14">
+  <conditionalFormatting sqref="M14:N14 M15">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -14055,7 +14557,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="G3 G4:G30 I3:I30 I31 I32 I33 I34 I35 I36:I37 I38:I40 I41 I42 I43 I44:I47 I48:I50 I51 I52:I53 I54 I55:I56 G55:G56 G54 G52:G53 G51 G48:G50 G44:G47 G43 G42 G41 G38:G40 G36:G37 G35 G34 G33 G32 G31 H3:H56 G57:I58 G59:I59 G60:I60 G61:I62 G63:J64 G65:I65 G66:I67 G68:I68 G69:I71 G72:I72 G73:I74" formulaRange="1"/>
+    <ignoredError sqref="G3 G4:G30 I3:I30 I31 I32 I33 I34 I35 I36:I37 I38:I40 I41 I42 I43 I44:I47 I48:I50 I51 I52:I53 I54 I55:I56 G55:G56 G54 G52:G53 G51 G48:G50 G44:G47 G43 G42 G41 G38:G40 G36:G37 G35 G34 G33 G32 G31 H3:H56 G57:I58 G59:I59 G60:I60 G61:I62 G63:J64 G65:I65 G66:I67 G68:I68 G69:I71 G72:I72 G73:I74 G75:I84 G85:I87" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14090,11 +14592,11 @@
     <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D2">
         <f ca="1">Scrobbles!R6</f>
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <f ca="1">ROUNDDOWN(D2/7,0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <f ca="1">MOD(D2,7)</f>
@@ -14127,23 +14629,23 @@
       </c>
       <c r="D5" s="11">
         <f>SUM(Calc!C2:C1000)</f>
-        <v>689</v>
+        <v>746</v>
       </c>
       <c r="E5" s="11">
         <f ca="1">$E$2+IF($F$2&gt;3,1,0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F5" s="12">
         <f t="shared" ref="F5:F11" ca="1" si="0">D5/E5</f>
-        <v>62.636363636363633</v>
+        <v>57.384615384615387</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G11" ca="1" si="1">F5-F$13</f>
-        <v>0.43899521531100305</v>
+        <v>-4.8487179487179475</v>
       </c>
       <c r="H5" s="13">
         <f ca="1">F5/$F$13</f>
-        <v>1.0070580995057408</v>
+        <v>0.92208808866548553</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
@@ -14152,23 +14654,23 @@
       </c>
       <c r="D6" s="11">
         <f>SUM(Calc!D2:D1000)</f>
-        <v>895</v>
+        <v>1010</v>
       </c>
       <c r="E6" s="11">
         <f ca="1">$E$2+IF($F$2&gt;4,1,0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>81.36363636363636</v>
+        <v>77.692307692307693</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>19.16626794258373</v>
+        <v>15.458974358974359</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" ref="H6:H11" ca="1" si="2">F6/$F$13</f>
-        <v>1.3081523934073118</v>
+        <v>1.2484034444398666</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
@@ -14177,23 +14679,23 @@
       </c>
       <c r="D7" s="11">
         <f>SUM(Calc!E2:E1000)</f>
-        <v>642</v>
+        <v>747</v>
       </c>
       <c r="E7" s="11">
         <f ca="1">$E$2+IF($F$2&gt;5,1,0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>58.363636363636367</v>
+        <v>57.46153846153846</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8337320574162632</v>
+        <v>-4.7717948717948744</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93836182856703276</v>
+        <v>0.92332413167978244</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
@@ -14202,23 +14704,23 @@
       </c>
       <c r="D8" s="11">
         <f>SUM(Calc!F2:F1000)</f>
-        <v>588</v>
+        <v>701</v>
       </c>
       <c r="E8" s="11">
         <f ca="1">$E$2+IF($F$2&gt;6,1,0)</f>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>58.8</v>
+        <v>58.416666666666664</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.3973684210526329</v>
+        <v>-3.81666666666667</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94537761793949648</v>
+        <v>0.93867166577396888</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -14227,23 +14729,23 @@
       </c>
       <c r="D9" s="11">
         <f>SUM(Calc!G2:G1000)</f>
-        <v>653</v>
+        <v>824</v>
       </c>
       <c r="E9" s="11">
         <f ca="1">$E$2+IF($F$2&gt;0,1,0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>59.363636363636367</v>
+        <v>63.384615384615387</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-2.8337320574162632</v>
+        <v>1.1512820512820525</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95443967921226236</v>
+        <v>1.0184994437806436</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
@@ -14252,23 +14754,23 @@
       </c>
       <c r="D10" s="11">
         <f>SUM(Calc!H2:H1000)</f>
-        <v>775</v>
+        <v>930</v>
       </c>
       <c r="E10" s="11">
         <f ca="1">$E$2+IF($F$2&gt;1,1,0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>70.454545454545453</v>
+        <v>71.538461538461533</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>8.2571770334928232</v>
+        <v>9.3051282051281987</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1327576590957171</v>
+        <v>1.1495200032961146</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
@@ -14277,23 +14779,23 @@
       </c>
       <c r="D11" s="11">
         <f>SUM(Calc!I2:I1000)</f>
-        <v>485</v>
+        <v>643</v>
       </c>
       <c r="E11" s="11">
         <f ca="1">$E$2+IF($F$2&gt;2,1,0)</f>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>44.090909090909093</v>
+        <v>49.46153846153846</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-18.106459330143537</v>
+        <v>-12.771794871794874</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70888705117602946</v>
+        <v>0.79477565819290508</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
@@ -14310,15 +14812,15 @@
       </c>
       <c r="D13" s="11">
         <f>SUM(D5:D11)</f>
-        <v>4727</v>
+        <v>5601</v>
       </c>
       <c r="E13" s="11">
         <f ca="1">SUM(E5:E11)</f>
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F13" s="12">
         <f ca="1">D13/E13</f>
-        <v>62.19736842105263</v>
+        <v>62.233333333333334</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="18"/>
@@ -14337,12 +14839,12 @@
       </c>
       <c r="D15" s="16">
         <f>_xlfn.STDEV.P(D5:D11)</f>
-        <v>121.79457445776038</v>
+        <v>120.56465790062143</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16">
         <f ca="1">_xlfn.STDEV.P(F5:F11)</f>
-        <v>10.675870052741919</v>
+        <v>8.8708528876536938</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
@@ -14393,22 +14895,22 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" ref="D23:D29" si="3">D5</f>
-        <v>689</v>
+        <v>746</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ref="E23:E29" ca="1" si="4">$D$13/$E$13*E5</f>
-        <v>684.17105263157896</v>
+        <v>809.0333333333333</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="12">
         <f t="shared" ref="H23:H29" ca="1" si="5">F5</f>
-        <v>62.636363636363633</v>
+        <v>57.384615384615387</v>
       </c>
       <c r="I23" s="18">
         <f ca="1">E23/E5</f>
-        <v>62.19736842105263</v>
+        <v>62.233333333333334</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.3">
@@ -14417,22 +14919,22 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="3"/>
-        <v>895</v>
+        <v>1010</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>684.17105263157896</v>
+        <v>809.0333333333333</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>81.36363636363636</v>
+        <v>77.692307692307693</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" ref="I24:I29" ca="1" si="6">E24/E6</f>
-        <v>62.19736842105263</v>
+        <v>62.233333333333334</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">
@@ -14441,22 +14943,22 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="3"/>
-        <v>642</v>
+        <v>747</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>684.17105263157896</v>
+        <v>809.0333333333333</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>58.363636363636367</v>
+        <v>57.46153846153846</v>
       </c>
       <c r="I25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>62.19736842105263</v>
+        <v>62.233333333333334</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.3">
@@ -14465,22 +14967,22 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="3"/>
-        <v>588</v>
+        <v>701</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>621.97368421052624</v>
+        <v>746.8</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>58.8</v>
+        <v>58.416666666666664</v>
       </c>
       <c r="I26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>62.197368421052623</v>
+        <v>62.233333333333327</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.3">
@@ -14489,22 +14991,22 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="3"/>
-        <v>653</v>
+        <v>824</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>684.17105263157896</v>
+        <v>809.0333333333333</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>59.363636363636367</v>
+        <v>63.384615384615387</v>
       </c>
       <c r="I27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>62.19736842105263</v>
+        <v>62.233333333333334</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.3">
@@ -14513,22 +15015,22 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="3"/>
-        <v>775</v>
+        <v>930</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>684.17105263157896</v>
+        <v>809.0333333333333</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H28" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>70.454545454545453</v>
+        <v>71.538461538461533</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>62.19736842105263</v>
+        <v>62.233333333333334</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.3">
@@ -14537,22 +15039,22 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="3"/>
-        <v>485</v>
+        <v>643</v>
       </c>
       <c r="E29" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>684.17105263157896</v>
+        <v>809.0333333333333</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H29" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>44.090909090909093</v>
+        <v>49.46153846153846</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>62.19736842105263</v>
+        <v>62.233333333333334</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.3">
@@ -14569,7 +15071,7 @@
       </c>
       <c r="D31" s="32">
         <f ca="1">_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
-        <v>6.4206459788586235E-28</v>
+        <v>1.9772849878888966E-22</v>
       </c>
       <c r="E31" s="17"/>
       <c r="G31" s="15" t="s">
@@ -14577,7 +15079,7 @@
       </c>
       <c r="H31" s="32">
         <f ca="1">_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
-        <v>4.5859531988107917E-2</v>
+        <v>0.18210517477180105</v>
       </c>
       <c r="I31" s="17"/>
       <c r="N31" s="28"/>
@@ -14615,11 +15117,11 @@
       </c>
       <c r="B2">
         <f>_xlfn.NORM.DIST(A2,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.6401921183102418E-3</v>
+        <v>1.5185546125234661E-3</v>
       </c>
       <c r="C2">
         <f>_xlfn.POISSON.DIST(A2,Scrobbles!$R$9,FALSE)</f>
-        <v>9.728056982479808E-28</v>
+        <v>1.0975410396270501E-28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -14628,11 +15130,11 @@
       </c>
       <c r="B3">
         <f>_xlfn.NORM.DIST(A3,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.7524422166429509E-3</v>
+        <v>1.621662142521048E-3</v>
       </c>
       <c r="C3">
         <f>_xlfn.POISSON.DIST(A3,Scrobbles!$R$9,FALSE)</f>
-        <v>6.0505954416028991E-26</v>
+        <v>7.0658935206334567E-27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -14641,11 +15143,11 @@
       </c>
       <c r="B4">
         <f>_xlfn.NORM.DIST(A4,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.8703665432330469E-3</v>
+        <v>1.7299905004570721E-3</v>
       </c>
       <c r="C4">
         <f>_xlfn.POISSON.DIST(A4,Scrobbles!$R$9,FALSE)</f>
-        <v>1.8816555692405862E-24</v>
+        <v>2.2744867591418278E-25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -14654,11 +15156,11 @@
       </c>
       <c r="B5">
         <f>_xlfn.NORM.DIST(A5,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.9940855020020515E-3</v>
+        <v>1.8436583114147575E-3</v>
       </c>
       <c r="C5">
         <f>_xlfn.POISSON.DIST(A5,Scrobbles!$R$9,FALSE)</f>
-        <v>3.9011341560527415E-23</v>
+        <v>4.8809962980664513E-24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -14667,11 +15169,11 @@
       </c>
       <c r="B6">
         <f>_xlfn.NORM.DIST(A6,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.1237082728712306E-3</v>
+        <v>1.9627750549998249E-3</v>
       </c>
       <c r="C6">
         <f>_xlfn.POISSON.DIST(A6,Scrobbles!$R$9,FALSE)</f>
-        <v>6.0660069590991084E-22</v>
+        <v>7.8558793866293974E-23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -14680,11 +15182,11 @@
       </c>
       <c r="B7">
         <f>_xlfn.NORM.DIST(A7,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.2593315860958405E-3</v>
+        <v>2.0874400000316456E-3</v>
       </c>
       <c r="C7">
         <f>_xlfn.POISSON.DIST(A7,Scrobbles!$R$9,FALSE)</f>
-        <v>7.5457933935951529E-21</v>
+        <v>1.0115121941266967E-21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -14693,11 +15195,11 @@
       </c>
       <c r="B8">
         <f>_xlfn.NORM.DIST(A8,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.4010384851493095E-3</v>
+        <v>2.2177411239972084E-3</v>
       </c>
       <c r="C8">
         <f>_xlfn.POISSON.DIST(A8,Scrobbles!$R$9,FALSE)</f>
-        <v>7.8221415288430354E-20</v>
+        <v>1.0853409577209975E-20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -14706,11 +15208,11 @@
       </c>
       <c r="B9">
         <f>_xlfn.NORM.DIST(A9,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.5488970856239468E-3</v>
+        <v>2.3537540231566693E-3</v>
       </c>
       <c r="C9">
         <f>_xlfn.POISSON.DIST(A9,Scrobbles!$R$9,FALSE)</f>
-        <v>6.9502374073009138E-19</v>
+        <v>9.9819289067245755E-20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -14719,11 +15221,11 @@
       </c>
       <c r="B10">
         <f>_xlfn.NORM.DIST(A10,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.7029593381263698E-3</v>
+        <v>2.4955408196355527E-3</v>
       </c>
       <c r="C10">
         <f>_xlfn.POISSON.DIST(A10,Scrobbles!$R$9,FALSE)</f>
-        <v>5.4035809579459549E-18</v>
+        <v>8.032871236575372E-19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -14732,11 +15234,11 @@
       </c>
       <c r="B11">
         <f>_xlfn.NORM.DIST(A11,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.8632598036196061E-3</v>
+        <v>2.643149072259739E-3</v>
       </c>
       <c r="C11">
         <f>_xlfn.POISSON.DIST(A11,Scrobbles!$R$9,FALSE)</f>
-        <v>3.7343168403816795E-17</v>
+        <v>5.746119003328036E-18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -14745,11 +15247,11 @@
       </c>
       <c r="B12">
         <f>_xlfn.NORM.DIST(A12,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.0298144500924928E-3</v>
+        <v>2.7966106982793429E-3</v>
       </c>
       <c r="C12">
         <f>_xlfn.POISSON.DIST(A12,Scrobbles!$R$9,FALSE)</f>
-        <v>2.3226468032216039E-16</v>
+        <v>3.6993117859356869E-17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -14758,11 +15260,11 @@
       </c>
       <c r="B13">
         <f>_xlfn.NORM.DIST(A13,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.202619479813739E-3</v>
+        <v>2.955940913481136E-3</v>
       </c>
       <c r="C13">
         <f>_xlfn.POISSON.DIST(A13,Scrobbles!$R$9,FALSE)</f>
-        <v>1.3132956266541296E-15</v>
+        <v>2.1650831048093765E-16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -14771,11 +15273,11 @@
       </c>
       <c r="B14">
         <f>_xlfn.NORM.DIST(A14,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.3816501967456926E-3</v>
+        <v>3.1211371985003632E-3</v>
       </c>
       <c r="C14">
         <f>_xlfn.POISSON.DIST(A14,Scrobbles!$R$9,FALSE)</f>
-        <v>6.8069609947303282E-15</v>
+        <v>1.1615546427238888E-15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -14784,11 +15286,11 @@
       </c>
       <c r="B15">
         <f>_xlfn.NORM.DIST(A15,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.5668599239449738E-3</v>
+        <v>3.2921782994065479E-3</v>
       </c>
       <c r="C15">
         <f>_xlfn.POISSON.DIST(A15,Scrobbles!$R$9,FALSE)</f>
-        <v>3.2567312370536668E-14</v>
+        <v>5.7523143712612558E-15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -14797,11 +15299,11 @@
       </c>
       <c r="B16">
         <f>_xlfn.NORM.DIST(A16,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.7581789809571719E-3</v>
+        <v>3.4690232708484928E-3</v>
       </c>
       <c r="C16">
         <f>_xlfn.POISSON.DIST(A16,Scrobbles!$R$9,FALSE)</f>
-        <v>1.4468579471384124E-13</v>
+        <v>2.6452145150602851E-14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -14810,11 +15312,11 @@
       </c>
       <c r="B17">
         <f>_xlfn.NORM.DIST(A17,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.955513731315018E-3</v>
+        <v>3.6516105701964795E-3</v>
       </c>
       <c r="C17">
         <f>_xlfn.POISSON.DIST(A17,Scrobbles!$R$9,FALSE)</f>
-        <v>5.9993837860730349E-13</v>
+        <v>1.1353139079580529E-13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -14823,11 +15325,11 @@
       </c>
       <c r="B18">
         <f>_xlfn.NORM.DIST(A18,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.1587457102682315E-3</v>
+        <v>3.8398572112096057E-3</v>
       </c>
       <c r="C18">
         <f>_xlfn.POISSON.DIST(A18,Scrobbles!$R$9,FALSE)</f>
-        <v>2.3321617727604701E-12</v>
+        <v>4.5681704012019261E-13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -14836,11 +15338,11 @@
       </c>
       <c r="B19">
         <f>_xlfn.NORM.DIST(A19,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.3677308428039623E-3</v>
+        <v>4.0336579857792433E-3</v>
       </c>
       <c r="C19">
         <f>_xlfn.POISSON.DIST(A19,Scrobbles!$R$9,FALSE)</f>
-        <v>8.5326073528163783E-12</v>
+        <v>1.7299744703943247E-12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -14849,11 +15351,11 @@
       </c>
       <c r="B20">
         <f>_xlfn.NORM.DIST(A20,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.5822987618552259E-3</v>
+        <v>4.23288476225163E-3</v>
       </c>
       <c r="C20">
         <f>_xlfn.POISSON.DIST(A20,Scrobbles!$R$9,FALSE)</f>
-        <v>2.9483651284183482E-11</v>
+        <v>6.1874757398969277E-12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -14862,11 +15364,11 @@
       </c>
       <c r="B21">
         <f>_xlfn.NORM.DIST(A21,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.8022522363377305E-3</v>
+        <v>4.4373858687105534E-3</v>
       </c>
       <c r="C21">
         <f>_xlfn.POISSON.DIST(A21,Scrobbles!$R$9,FALSE)</f>
-        <v>9.651608006948434E-11</v>
+        <v>2.0965548468942831E-11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -14875,11 +15377,11 @@
       </c>
       <c r="B22">
         <f>_xlfn.NORM.DIST(A22,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.0273667183005147E-3</v>
+        <v>4.6469855694020699E-3</v>
       </c>
       <c r="C22">
         <f>_xlfn.POISSON.DIST(A22,Scrobbles!$R$9,FALSE)</f>
-        <v>3.0015230953187636E-10</v>
+        <v>6.7487377571580028E-11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -14888,11 +15390,11 @@
       </c>
       <c r="B23">
         <f>_xlfn.NORM.DIST(A23,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.2573900180215606E-3</v>
+        <v>4.8614836422052653E-3</v>
       </c>
       <c r="C23">
         <f>_xlfn.POISSON.DIST(A23,Scrobbles!$R$9,FALSE)</f>
-        <v>8.8898494182780378E-10</v>
+        <v>2.0689480119234756E-10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -14901,11 +15403,11 @@
       </c>
       <c r="B24">
         <f>_xlfn.NORM.DIST(A24,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.4920421153252979E-3</v>
+        <v>5.080655064694883E-3</v>
       </c>
       <c r="C24">
         <f>_xlfn.POISSON.DIST(A24,Scrobbles!$R$9,FALSE)</f>
-        <v>2.5132965430741835E-9</v>
+        <v>6.0544293703152888E-10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -14914,11 +15416,11 @@
       </c>
       <c r="B25">
         <f>_xlfn.NORM.DIST(A25,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.731015114745646E-3</v>
+        <v>5.3042498159027373E-3</v>
       </c>
       <c r="C25">
         <f>_xlfn.POISSON.DIST(A25,Scrobbles!$R$9,FALSE)</f>
-        <v>6.7965404800409833E-9</v>
+        <v>1.694695597358116E-9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -14927,11 +15429,11 @@
       </c>
       <c r="B26">
         <f>_xlfn.NORM.DIST(A26,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.9739733514073386E-3</v>
+        <v>5.5319928003653672E-3</v>
       </c>
       <c r="C26">
         <f>_xlfn.POISSON.DIST(A26,Scrobbles!$R$9,FALSE)</f>
-        <v>1.7613622176071151E-8</v>
+        <v>4.5459722417637784E-9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -14940,11 +15442,11 @@
       </c>
       <c r="B27">
         <f>_xlfn.NORM.DIST(A27,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.2205536536529635E-3</v>
+        <v>5.7635839004467372E-3</v>
       </c>
       <c r="C27">
         <f>_xlfn.POISSON.DIST(A27,Scrobbles!$R$9,FALSE)</f>
-        <v>4.382083790857276E-8</v>
+        <v>1.1706662310859317E-8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -14953,11 +15455,11 @@
       </c>
       <c r="B28">
         <f>_xlfn.NORM.DIST(A28,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.4703657675071607E-3</v>
+        <v>5.9986981622486869E-3</v>
       </c>
       <c r="C28">
         <f>_xlfn.POISSON.DIST(A28,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0482849230456686E-7</v>
+        <v>2.8987186385111791E-8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -14966,11 +15468,11 @@
       </c>
       <c r="B29">
         <f>_xlfn.NORM.DIST(A29,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.7229929470483734E-3</v>
+        <v>6.2369861196716484E-3</v>
       </c>
       <c r="C29">
         <f>_xlfn.POISSON.DIST(A29,Scrobbles!$R$9,FALSE)</f>
-        <v>2.4148356877372663E-7</v>
+        <v>6.9117595122609896E-8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -14979,11 +15481,11 @@
       </c>
       <c r="B30">
         <f>_xlfn.NORM.DIST(A30,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.9779927136583613E-3</v>
+        <v>6.4780742603672004E-3</v>
       </c>
       <c r="C30">
         <f>_xlfn.POISSON.DIST(A30,Scrobbles!$R$9,FALSE)</f>
-        <v>5.3641580338035718E-7</v>
+        <v>1.5891939666738123E-7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -14992,11 +15494,11 @@
       </c>
       <c r="B31">
         <f>_xlfn.NORM.DIST(A31,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.2348977859484328E-3</v>
+        <v>6.7215656364376592E-3</v>
       </c>
       <c r="C31">
         <f>_xlfn.POISSON.DIST(A31,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1504707361973453E-6</v>
+        <v>3.5279728130558748E-7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -15005,11 +15507,11 @@
       </c>
       <c r="B32">
         <f>_xlfn.NORM.DIST(A32,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.493217180927117E-3</v>
+        <v>6.9670406217912191E-3</v>
       </c>
       <c r="C32">
         <f>_xlfn.POISSON.DIST(A32,Scrobbles!$R$9,FALSE)</f>
-        <v>2.3852084078968729E-6</v>
+        <v>7.5709485539946296E-7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -15018,11 +15520,11 @@
       </c>
       <c r="B33">
         <f>_xlfn.NORM.DIST(A33,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.7524374856868406E-3</v>
+        <v>7.214057817061084E-3</v>
       </c>
       <c r="C33">
         <f>_xlfn.POISSON.DIST(A33,Scrobbles!$R$9,FALSE)</f>
-        <v>4.7856027776436864E-6</v>
+        <v>1.5722982147172417E-6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -15031,11 +15533,11 @@
       </c>
       <c r="B34">
         <f>_xlfn.NORM.DIST(A34,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.0120242975574608E-3</v>
+        <v>7.4621551019506058E-3</v>
       </c>
       <c r="C34">
         <f>_xlfn.POISSON.DIST(A34,Scrobbles!$R$9,FALSE)</f>
-        <v>9.3016218461848877E-6</v>
+        <v>3.1632335849968599E-6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -15044,11 +15546,11 @@
       </c>
       <c r="B35">
         <f>_xlfn.NORM.DIST(A35,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.2714238293138519E-3</v>
+        <v>7.710850833781961E-3</v>
       </c>
       <c r="C35">
         <f>_xlfn.POISSON.DIST(A35,Scrobbles!$R$9,FALSE)</f>
-        <v>1.7531406087287138E-5</v>
+        <v>6.1711150503544082E-6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -15057,11 +15559,11 @@
       </c>
       <c r="B36">
         <f>_xlfn.NORM.DIST(A36,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.5300646746451683E-3</v>
+        <v>7.9596451899119399E-3</v>
       </c>
       <c r="C36">
         <f>_xlfn.POISSON.DIST(A36,Scrobbles!$R$9,FALSE)</f>
-        <v>3.207080362794368E-5</v>
+        <v>1.1685062676482381E-5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -15070,11 +15572,11 @@
       </c>
       <c r="B37">
         <f>_xlfn.NORM.DIST(A37,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.787359727708121E-3</v>
+        <v>8.2080216505447043E-3</v>
       </c>
       <c r="C37">
         <f>_xlfn.POISSON.DIST(A37,Scrobbles!$R$9,FALSE)</f>
-        <v>5.699198825161237E-5</v>
+        <v>2.1493607898514881E-5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -15083,11 +15585,11 @@
       </c>
       <c r="B38">
         <f>_xlfn.NORM.DIST(A38,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.0427082492086329E-3</v>
+        <v>8.4554486173275024E-3</v>
       </c>
       <c r="C38">
         <f>_xlfn.POISSON.DIST(A38,Scrobbles!$R$9,FALSE)</f>
-        <v>9.8465324731495627E-5</v>
+        <v>3.8437323703570159E-5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -15096,11 +15598,11 @@
       </c>
       <c r="B39">
         <f>_xlfn.NORM.DIST(A39,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.2954980700995279E-3</v>
+        <v>8.7013811619719907E-3</v>
       </c>
       <c r="C39">
         <f>_xlfn.POISSON.DIST(A39,Scrobbles!$R$9,FALSE)</f>
-        <v>1.6552119132495674E-4</v>
+        <v>6.6880226798290174E-5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -15109,11 +15611,11 @@
       </c>
       <c r="B40">
         <f>_xlfn.NORM.DIST(A40,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.5451079226604434E-3</v>
+        <v>8.9452628980117004E-3</v>
       </c>
       <c r="C40">
         <f>_xlfn.POISSON.DIST(A40,Scrobbles!$R$9,FALSE)</f>
-        <v>2.7092059258762932E-4</v>
+        <v>1.1330797044683076E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -15122,11 +15624,11 @@
       </c>
       <c r="B41">
         <f>_xlfn.NORM.DIST(A41,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.7909098874537394E-3</v>
+        <v>9.1865279676961731E-3</v>
       </c>
       <c r="C41">
         <f>_xlfn.POISSON.DIST(A41,Scrobbles!$R$9,FALSE)</f>
-        <v>4.3206533102622144E-4</v>
+        <v>1.8704330753690032E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -15135,11 +15637,11 @@
       </c>
       <c r="B42">
         <f>_xlfn.NORM.DIST(A42,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0032271943441031E-2</v>
+        <v>9.4246031349454994E-3</v>
       </c>
       <c r="C42">
         <f>_xlfn.POISSON.DIST(A42,Scrobbles!$R$9,FALSE)</f>
-        <v>6.71833164395051E-4</v>
+        <v>3.010429785960286E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -15148,11 +15650,11 @@
       </c>
       <c r="B43">
         <f>_xlfn.NORM.DIST(A43,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0268560607412347E-2</v>
+        <v>9.6589099742567883E-3</v>
       </c>
       <c r="C43">
         <f>_xlfn.POISSON.DIST(A43,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0191769473990404E-3</v>
+        <v>4.7270583771134134E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -15161,11 +15663,11 @@
       </c>
       <c r="B44">
         <f>_xlfn.NORM.DIST(A44,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.049914364783737E-2</v>
+        <v>9.8888671444768064E-3</v>
       </c>
       <c r="C44">
         <f>_xlfn.POISSON.DIST(A44,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5092886686576561E-3</v>
+        <v>7.2458275780547829E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -15174,11 +15676,11 @@
       </c>
       <c r="B45">
         <f>_xlfn.NORM.DIST(A45,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0723392857307877E-2</v>
+        <v>1.011389273544403E-2</v>
       </c>
       <c r="C45">
         <f>_xlfn.POISSON.DIST(A45,Scrobbles!$R$9,FALSE)</f>
-        <v>2.1831112413539674E-3</v>
+        <v>1.0848404240760444E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -15187,11 +15689,11 @@
       </c>
       <c r="B46">
         <f>_xlfn.NORM.DIST(A46,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.094068686691458E-2</v>
+        <v>1.0333406674668415E-2</v>
       </c>
       <c r="C46">
         <f>_xlfn.POISSON.DIST(A46,Scrobbles!$R$9,FALSE)</f>
-        <v>3.0859948677871376E-3</v>
+        <v>1.5873017803683187E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -15200,11 +15702,11 @@
       </c>
       <c r="B47">
         <f>_xlfn.NORM.DIST(A47,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1150413985200338E-2</v>
+        <v>1.0546833180468188E-2</v>
       </c>
       <c r="C47">
         <f>_xlfn.POISSON.DIST(A47,Scrobbles!$R$9,FALSE)</f>
-        <v>4.2653502163829847E-3</v>
+        <v>2.270875420649545E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -15213,11 +15715,11 @@
       </c>
       <c r="B48">
         <f>_xlfn.NORM.DIST(A48,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1351975043765554E-2</v>
+        <v>1.0753603247329267E-2</v>
       </c>
       <c r="C48">
         <f>_xlfn.POISSON.DIST(A48,Scrobbles!$R$9,FALSE)</f>
-        <v>5.7672512794171562E-3</v>
+        <v>3.1782042056616947E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -15226,11 +15728,11 @@
       </c>
       <c r="B49">
         <f>_xlfn.NORM.DIST(A49,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1544786231178194E-2</v>
+        <v>1.0953157148702253E-2</v>
       </c>
       <c r="C49">
         <f>_xlfn.POISSON.DIST(A49,Scrobbles!$R$9,FALSE)</f>
-        <v>7.6320819702701288E-3</v>
+        <v>4.3534169126708587E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -15239,11 +15741,11 @@
       </c>
       <c r="B50">
         <f>_xlfn.NORM.DIST(A50,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1728281896568027E-2</v>
+        <v>1.1144946942012479E-2</v>
       </c>
       <c r="C50">
         <f>_xlfn.POISSON.DIST(A50,Scrobbles!$R$9,FALSE)</f>
-        <v>9.8894877942617716E-3</v>
+        <v>5.8389578850262134E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -15252,11 +15754,11 @@
       </c>
       <c r="B51">
         <f>_xlfn.NORM.DIST(A51,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1901917304167592E-2</v>
+        <v>1.1328438960336151E-2</v>
       </c>
       <c r="C51">
         <f>_xlfn.POISSON.DIST(A51,Scrobbles!$R$9,FALSE)</f>
-        <v>1.2553063588473499E-2</v>
+        <v>7.6715935055200165E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -15265,11 +15767,11 @@
       </c>
       <c r="B52">
         <f>_xlfn.NORM.DIST(A52,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2065171320105317E-2</v>
+        <v>1.1503116274995962E-2</v>
       </c>
       <c r="C52">
         <f>_xlfn.POISSON.DIST(A52,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5615350416503738E-2</v>
+        <v>9.8778379826247251E-3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -15278,11 +15780,11 @@
       </c>
       <c r="B53">
         <f>_xlfn.NORM.DIST(A53,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2217549012961263E-2</v>
+        <v>1.1668481113256747E-2</v>
       </c>
       <c r="C53">
         <f>_xlfn.POISSON.DIST(A53,Scrobbles!$R$9,FALSE)</f>
-        <v>1.9043798095669043E-2</v>
+        <v>1.246918425528086E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -15291,11 +15793,11 @@
       </c>
       <c r="B54">
         <f>_xlfn.NORM.DIST(A54,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2358584149964269E-2</v>
+        <v>1.1824057215358622E-2</v>
       </c>
       <c r="C54">
         <f>_xlfn.POISSON.DIST(A54,Scrobbles!$R$9,FALSE)</f>
-        <v>2.2778348582547452E-2</v>
+        <v>1.5437643902260845E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -15304,11 +15806,11 @@
       </c>
       <c r="B55">
         <f>_xlfn.NORM.DIST(A55,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2487841571239193E-2</v>
+        <v>1.1969392115313665E-2</v>
       </c>
       <c r="C55">
         <f>_xlfn.POISSON.DIST(A55,Scrobbles!$R$9,FALSE)</f>
-        <v>2.673119507192203E-2</v>
+        <v>1.8752167316539385E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -15317,11 +15819,11 @@
       </c>
       <c r="B56">
         <f>_xlfn.NORM.DIST(A56,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2604919425202083E-2</v>
+        <v>1.210405933021237E-2</v>
       </c>
       <c r="C56">
         <f>_xlfn.POISSON.DIST(A56,Scrobbles!$R$9,FALSE)</f>
-        <v>3.0789073855988145E-2</v>
+        <v>2.2356511098326318E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -15330,11 +15832,11 @@
       </c>
       <c r="B57">
         <f>_xlfn.NORM.DIST(A57,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.270945124904475E-2</v>
+        <v>1.2227660443237262E-2</v>
       </c>
       <c r="C57">
         <f>_xlfn.POISSON.DIST(A57,Scrobbles!$R$9,FALSE)</f>
-        <v>3.4818170362979912E-2</v>
+        <v>2.6169032113213329E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -15343,11 +15845,11 @@
       </c>
       <c r="B58">
         <f>_xlfn.NORM.DIST(A58,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2801107879241802E-2</v>
+        <v>1.2339827066160649E-2</v>
       </c>
       <c r="C58">
         <f>_xlfn.POISSON.DIST(A58,Scrobbles!$R$9,FALSE)</f>
-        <v>3.8671403032379231E-2</v>
+        <v>3.0084718568577119E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -15356,11 +15858,11 @@
       </c>
       <c r="B59">
         <f>_xlfn.NORM.DIST(A59,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2879599178145231E-2</v>
+        <v>1.2440222667807532E-2</v>
       </c>
       <c r="C59">
         <f>_xlfn.POISSON.DIST(A59,Scrobbles!$R$9,FALSE)</f>
-        <v>4.2197535118664961E-2</v>
+        <v>3.3979533918653056E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -15369,11 +15871,11 @@
       </c>
       <c r="B60">
         <f>_xlfn.NORM.DIST(A60,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.294467556399405E-2</v>
+        <v>1.2528544255788763E-2</v>
       </c>
       <c r="C60">
         <f>_xlfn.POISSON.DIST(A60,Scrobbles!$R$9,FALSE)</f>
-        <v>4.5251304107515718E-2</v>
+        <v>3.7716878612440663E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -15382,11 +15884,11 @@
       </c>
       <c r="B61">
         <f>_xlfn.NORM.DIST(A61,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2996129333048468E-2</v>
+        <v>1.2604523899746282E-2</v>
       </c>
       <c r="C61">
         <f>_xlfn.POISSON.DIST(A61,Scrobbles!$R$9,FALSE)</f>
-        <v>4.7703593781495711E-2</v>
+        <v>4.1155705651330643E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -15395,11 +15897,11 @@
       </c>
       <c r="B62">
         <f>_xlfn.NORM.DIST(A62,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.303379576404722E-2</v>
+        <v>1.2667930085395209E-2</v>
       </c>
       <c r="C62">
         <f>_xlfn.POISSON.DIST(A62,Scrobbles!$R$9,FALSE)</f>
-        <v>4.9450633290598726E-2</v>
+        <v>4.4159599109789886E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -15408,11 +15910,11 @@
       </c>
       <c r="B63">
         <f>_xlfn.NORM.DIST(A63,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3057553996769106E-2</v>
+        <v>1.2718568889786895E-2</v>
       </c>
       <c r="C63">
         <f>_xlfn.POISSON.DIST(A63,Scrobbles!$R$9,FALSE)</f>
-        <v>5.0421299302126875E-2</v>
+        <v>4.6605975996595619E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -15421,11 +15923,11 @@
       </c>
       <c r="B64">
         <f>_xlfn.NORM.DIST(A64,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3067327678140808E-2</v>
+        <v>1.2756284969443699E-2</v>
       </c>
       <c r="C64">
         <f>_xlfn.POISSON.DIST(A64,Scrobbles!$R$9,FALSE)</f>
-        <v>5.0581808531654011E-2</v>
+        <v>4.8394525687232529E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -15434,11 +15936,11 @@
       </c>
       <c r="B65">
         <f>_xlfn.NORM.DIST(A65,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3063085371057118E-2</v>
+        <v>1.2780962354318999E-2</v>
       </c>
       <c r="C65">
         <f>_xlfn.POISSON.DIST(A65,Scrobbles!$R$9,FALSE)</f>
-        <v>4.9937386994387732E-2</v>
+        <v>4.9454066479509076E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -15447,11 +15949,11 @@
       </c>
       <c r="B66">
         <f>_xlfn.NORM.DIST(A66,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3044840722850105E-2</v>
+        <v>1.279252504190337E-2</v>
       </c>
       <c r="C66">
         <f>_xlfn.POISSON.DIST(A66,Scrobbles!$R$9,FALSE)</f>
-        <v>4.8530844638665881E-2</v>
+        <v>4.9747167089032041E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -15460,11 +15962,11 @@
       </c>
       <c r="B67">
         <f>_xlfn.NORM.DIST(A67,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3012652392143734E-2</v>
+        <v>1.2790937387217366E-2</v>
       </c>
       <c r="C67">
         <f>_xlfn.POISSON.DIST(A67,Scrobbles!$R$9,FALSE)</f>
-        <v>4.643832036578413E-2</v>
+        <v>4.9272127827704404E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -15473,11 +15975,11 @@
       </c>
       <c r="B68">
         <f>_xlfn.NORM.DIST(A68,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2966623734642593E-2</v>
+        <v>1.2776204285890266E-2</v>
       </c>
       <c r="C68">
         <f>_xlfn.POISSON.DIST(A68,Scrobbles!$R$9,FALSE)</f>
-        <v>4.3762747282508285E-2</v>
+        <v>4.8062206193481782E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -15486,11 +15988,11 @@
       </c>
       <c r="B69">
         <f>_xlfn.NORM.DIST(A69,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2906902250210238E-2</v>
+        <v>1.2748371149008723E-2</v>
       </c>
       <c r="C69">
         <f>_xlfn.POISSON.DIST(A69,Scrobbles!$R$9,FALSE)</f>
-        <v>4.0625786803695378E-2</v>
+        <v>4.6182264005779981E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -15499,11 +16001,11 @@
       </c>
       <c r="B70">
         <f>_xlfn.NORM.DIST(A70,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2833678795376812E-2</v>
+        <v>1.2707523669916244E-2</v>
       </c>
       <c r="C70">
         <f>_xlfn.POISSON.DIST(A70,Scrobbles!$R$9,FALSE)</f>
-        <v>3.7159073959184941E-2</v>
+        <v>4.3723269218453951E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -15512,11 +16014,11 @@
       </c>
       <c r="B71">
         <f>_xlfn.NORM.DIST(A71,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.274718656715995E-2</v>
+        <v>1.2653787384639407E-2</v>
       </c>
       <c r="C71">
         <f>_xlfn.POISSON.DIST(A71,Scrobbles!$R$9,FALSE)</f>
-        <v>3.3495603090211157E-2</v>
+        <v>4.0795274178337594E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -15525,11 +16027,11 @@
       </c>
       <c r="B72">
         <f>_xlfn.NORM.DIST(A72,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2647699865770747E-2</v>
+        <v>1.258732702909658E-2</v>
       </c>
       <c r="C72">
         <f>_xlfn.POISSON.DIST(A72,Scrobbles!$R$9,FALSE)</f>
-        <v>2.976197665553159E-2</v>
+        <v>3.7519594527564683E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -15538,11 +16040,11 @@
       </c>
       <c r="B73">
         <f>_xlfn.NORM.DIST(A73,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.253553264539191E-2</v>
+        <v>1.2508345697695419E-2</v>
       </c>
       <c r="C73">
         <f>_xlfn.POISSON.DIST(A73,Scrobbles!$R$9,FALSE)</f>
-        <v>2.6072065168772786E-2</v>
+        <v>3.4020924226791274E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -15551,11 +16053,11 @@
       </c>
       <c r="B74">
         <f>_xlfn.NORM.DIST(A74,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2411036863742887E-2</v>
+        <v>1.2417083809333491E-2</v>
       </c>
       <c r="C74">
         <f>_xlfn.POISSON.DIST(A74,Scrobbles!$R$9,FALSE)</f>
-        <v>2.2522414483331286E-2</v>
+        <v>3.0420050541867513E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -15564,11 +16066,11 @@
       </c>
       <c r="B75">
         <f>_xlfn.NORM.DIST(A75,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2274600642572466E-2</v>
+        <v>1.2313817888169426E-2</v>
       </c>
       <c r="C75">
         <f>_xlfn.POISSON.DIST(A75,Scrobbles!$R$9,FALSE)</f>
-        <v>1.9189519333580953E-2</v>
+        <v>2.6827696911509977E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -15577,11 +16079,11 @@
       </c>
       <c r="B76">
         <f>_xlfn.NORM.DIST(A76,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2126646252530576E-2</v>
+        <v>1.2198859167817237E-2</v>
       </c>
       <c r="C76">
         <f>_xlfn.POISSON.DIST(A76,Scrobbles!$R$9,FALSE)</f>
-        <v>1.612888653802225E-2</v>
+        <v>2.3339846287879371E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -15590,11 +16092,11 @@
       </c>
       <c r="B77">
         <f>_xlfn.NORM.DIST(A77,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1967627937055513E-2</v>
+        <v>1.2072552028823107E-2</v>
       </c>
       <c r="C77">
         <f>_xlfn.POISSON.DIST(A77,Scrobbles!$R$9,FALSE)</f>
-        <v>1.3375657309689679E-2</v>
+        <v>2.0034709434239444E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -15603,11 +16105,11 @@
       </c>
       <c r="B78">
         <f>_xlfn.NORM.DIST(A78,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1798029590961078E-2</v>
+        <v>1.193527228040088E-2</v>
       </c>
       <c r="C78">
         <f>_xlfn.POISSON.DIST(A78,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0946456389006777E-2</v>
+        <v>1.6971326004412434E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -15616,11 +16118,11 @@
       </c>
       <c r="B79">
         <f>_xlfn.NORM.DIST(A79,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1618362310310867E-2</v>
+        <v>1.1787425298420392E-2</v>
       </c>
       <c r="C79">
         <f>_xlfn.POISSON.DIST(A79,Scrobbles!$R$9,FALSE)</f>
-        <v>8.8420880640524713E-3</v>
+        <v>1.4189639789627426E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -15629,11 +16131,11 @@
       </c>
       <c r="B80">
         <f>_xlfn.NORM.DIST(A80,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1429161830917798E-2</v>
+        <v>1.1629444032553251E-2</v>
       </c>
       <c r="C80">
         <f>_xlfn.POISSON.DIST(A80,Scrobbles!$R$9,FALSE)</f>
-        <v>7.0507001145033599E-3</v>
+        <v>1.171178491920177E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -15642,11 +16144,11 @@
       </c>
       <c r="B81">
         <f>_xlfn.NORM.DIST(A81,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1230985873400115E-2</v>
+        <v>1.1461786896276013E-2</v>
       </c>
       <c r="C81">
         <f>_xlfn.POISSON.DIST(A81,Scrobbles!$R$9,FALSE)</f>
-        <v>5.5510758563053746E-3</v>
+        <v>9.5442612152552165E-3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -15655,11 +16157,11 @@
       </c>
       <c r="B82">
         <f>_xlfn.NORM.DIST(A82,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1024411413157525E-2</v>
+        <v>1.1284935554105332E-2</v>
       </c>
       <c r="C82">
         <f>_xlfn.POISSON.DIST(A82,Scrobbles!$R$9,FALSE)</f>
-        <v>4.3157788770979456E-3</v>
+        <v>7.680661934862722E-3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -15668,11 +16170,11 @@
       </c>
       <c r="B83">
         <f>_xlfn.NORM.DIST(A83,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0810031893900483E-2</v>
+        <v>1.1099392620988476E-2</v>
       </c>
       <c r="C83">
         <f>_xlfn.POISSON.DIST(A83,Scrobbles!$R$9,FALSE)</f>
-        <v>3.3139517141068707E-3</v>
+        <v>6.1046384982497599E-3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -15681,11 +16183,11 @@
       </c>
       <c r="B84">
         <f>_xlfn.NORM.DIST(A84,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0588454403472499E-2</v>
+        <v>1.0905679289192219E-2</v>
       </c>
       <c r="C84">
         <f>_xlfn.POISSON.DIST(A84,Scrobbles!$R$9,FALSE)</f>
-        <v>2.5136472645351719E-3</v>
+        <v>4.7928343466073628E-3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -15694,11 +16196,11 @@
       </c>
       <c r="B85">
         <f>_xlfn.NORM.DIST(A85,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0360296830650999E-2</v>
+        <v>1.0704332898321777E-2</v>
       </c>
       <c r="C85">
         <f>_xlfn.POISSON.DIST(A85,Scrobbles!$R$9,FALSE)</f>
-        <v>1.8836415059381411E-3</v>
+        <v>3.7175827690552219E-3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -15707,11 +16209,11 @@
       </c>
       <c r="B86">
         <f>_xlfn.NORM.DIST(A86,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0126185021400225E-2</v>
+        <v>1.0495904464257966E-2</v>
       </c>
       <c r="C86">
         <f>_xlfn.POISSON.DIST(A86,Scrobbles!$R$9,FALSE)</f>
-        <v>1.394732675214533E-3</v>
+        <v>2.8492311288284612E-3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -15720,11 +16222,11 @@
       </c>
       <c r="B87">
         <f>_xlfn.NORM.DIST(A87,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.8867499526850647E-3</v>
+        <v>1.028095618282629E-2</v>
       </c>
       <c r="C87">
         <f>_xlfn.POISSON.DIST(A87,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0205729652846907E-3</v>
+        <v>2.1580180598469454E-3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -15733,11 +16235,11 @@
       </c>
       <c r="B88">
         <f>_xlfn.NORM.DIST(A88,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.6426249414439079E-3</v>
+        <v>1.0060058923907834E-2</v>
       </c>
       <c r="C88">
         <f>_xlfn.POISSON.DIST(A88,Scrobbles!$R$9,FALSE)</f>
-        <v>7.3810410142300103E-4</v>
+        <v>1.6154850512166163E-3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -15746,11 +16248,11 @@
       </c>
       <c r="B89">
         <f>_xlfn.NORM.DIST(A89,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.3944429056696116E-3</v>
+        <v>9.8337897314721735E-3</v>
       </c>
       <c r="C89">
         <f>_xlfn.POISSON.DIST(A89,Scrobbles!$R$9,FALSE)</f>
-        <v>5.2767968654363615E-4</v>
+        <v>1.1954461318356851E-3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -15759,11 +16261,11 @@
       </c>
       <c r="B90">
         <f>_xlfn.NORM.DIST(A90,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.1428336937697356E-3</v>
+        <v>9.6027293446612101E-3</v>
       </c>
       <c r="C90">
         <f>_xlfn.POISSON.DIST(A90,Scrobbles!$R$9,FALSE)</f>
-        <v>3.7295781673022857E-4</v>
+        <v>8.7456815365878821E-4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -15772,11 +16274,11 @@
       </c>
       <c r="B91">
         <f>_xlfn.NORM.DIST(A91,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.8884214974807186E-3</v>
+        <v>9.3674597545859717E-3</v>
       </c>
       <c r="C91">
         <f>_xlfn.POISSON.DIST(A91,Scrobbles!$R$9,FALSE)</f>
-        <v>2.6064039025484794E-4</v>
+        <v>6.3263027620339091E-4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -15785,11 +16287,11 @@
       </c>
       <c r="B92">
         <f>_xlfn.NORM.DIST(A92,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.6318223626069192E-3</v>
+        <v>9.1285618109221579E-3</v>
       </c>
       <c r="C92">
         <f>_xlfn.POISSON.DIST(A92,Scrobbles!$R$9,FALSE)</f>
-        <v>1.8012384864542059E-4</v>
+        <v>4.5253667650257978E-4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -15798,11 +16300,11 @@
       </c>
       <c r="B93">
         <f>_xlfn.NORM.DIST(A93,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.373641810756954E-3</v>
+        <v>8.8866128917126763E-3</v>
       </c>
       <c r="C93">
         <f>_xlfn.POISSON.DIST(A93,Scrobbles!$R$9,FALSE)</f>
-        <v>1.2311241072106708E-4</v>
+        <v>3.2015383669204789E-4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -15811,11 +16313,11 @@
       </c>
       <c r="B94">
         <f>_xlfn.NORM.DIST(A94,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.1144725840691049E-3</v>
+        <v>8.6421846490148703E-3</v>
       </c>
       <c r="C94">
         <f>_xlfn.POISSON.DIST(A94,Scrobbles!$R$9,FALSE)</f>
-        <v>8.3231173552414617E-5</v>
+        <v>2.2403568707048504E-4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -15824,11 +16326,11 @@
       </c>
       <c r="B95">
         <f>_xlfn.NORM.DIST(A95,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.8548925236685517E-3</v>
+        <v>8.3958408421758932E-3</v>
       </c>
       <c r="C95">
         <f>_xlfn.POISSON.DIST(A95,Scrobbles!$R$9,FALSE)</f>
-        <v>5.5664085651140519E-5</v>
+        <v>1.5508884974438125E-4</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -15837,11 +16339,11 @@
       </c>
       <c r="B96">
         <f>_xlfn.NORM.DIST(A96,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.5954625912953841E-3</v>
+        <v>8.1481352695916814E-3</v>
       </c>
       <c r="C96">
         <f>_xlfn.POISSON.DIST(A96,Scrobbles!$R$9,FALSE)</f>
-        <v>3.6831485564521547E-5</v>
+        <v>1.0621822541187075E-4</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -15850,11 +16352,11 @@
       </c>
       <c r="B97">
         <f>_xlfn.NORM.DIST(A97,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.3367250421978612E-3</v>
+        <v>7.899609808813603E-3</v>
       </c>
       <c r="C97">
         <f>_xlfn.POISSON.DIST(A97,Scrobbles!$R$9,FALSE)</f>
-        <v>2.4113910285802547E-5</v>
+        <v>7.1981643137554335E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -15863,11 +16365,11 @@
       </c>
       <c r="B98">
         <f>_xlfn.NORM.DIST(A98,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.0792017560142133E-3</v>
+        <v>7.6507925738226509E-3</v>
       </c>
       <c r="C98">
         <f>_xlfn.POISSON.DIST(A98,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5623143355398694E-5</v>
+        <v>4.8272172319617242E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -15876,11 +16378,11 @@
       </c>
       <c r="B99">
         <f>_xlfn.NORM.DIST(A99,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.8233927309821621E-3</v>
+        <v>7.4021961972054497E-3</v>
       </c>
       <c r="C99">
         <f>_xlfn.POISSON.DIST(A99,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0017715496604536E-5</v>
+        <v>3.203844497715104E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -15889,11 +16391,11 @@
       </c>
       <c r="B100">
         <f>_xlfn.NORM.DIST(A100,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.56977474543201E-3</v>
+        <v>7.1543162438498049E-3</v>
       </c>
       <c r="C100">
         <f>_xlfn.POISSON.DIST(A100,Scrobbles!$R$9,FALSE)</f>
-        <v>6.3579136885673997E-6</v>
+        <v>2.10470713484659E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -15902,11 +16404,11 @@
       </c>
       <c r="B101">
         <f>_xlfn.NORM.DIST(A101,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.3188001891495088E-3</v>
+        <v>6.9076297616418461E-3</v>
       </c>
       <c r="C101">
         <f>_xlfn.POISSON.DIST(A101,Scrobbles!$R$9,FALSE)</f>
-        <v>3.9943989906775774E-6</v>
+        <v>1.3686827658511402E-5</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -15915,11 +16417,11 @@
       </c>
       <c r="B102">
         <f>_xlfn.NORM.DIST(A102,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.0708960658513748E-3</v>
+        <v>6.6625939735022498E-3</v>
       </c>
       <c r="C102">
         <f>_xlfn.POISSON.DIST(A102,Scrobbles!$R$9,FALSE)</f>
-        <v>2.484411056438554E-6</v>
+        <v>8.8114852546347897E-6</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -15928,11 +16430,11 @@
       </c>
       <c r="B103">
         <f>_xlfn.NORM.DIST(A103,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.8264631667110421E-3</v>
+        <v>6.4196451139567493E-3</v>
       </c>
       <c r="C103">
         <f>_xlfn.POISSON.DIST(A103,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5299389087786489E-6</v>
+        <v>5.6166073644257566E-6</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -15941,11 +16443,11 @@
       </c>
       <c r="B104">
         <f>_xlfn.NORM.DIST(A104,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.5858754136159112E-3</v>
+        <v>6.179197412306328E-3</v>
       </c>
       <c r="C104">
         <f>_xlfn.POISSON.DIST(A104,Scrobbles!$R$9,FALSE)</f>
-        <v>9.3292327422557762E-7</v>
+        <v>3.5450324372491359E-6</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -15954,11 +16456,11 @@
       </c>
       <c r="B105">
         <f>_xlfn.NORM.DIST(A105,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.3494793696401569E-3</v>
+        <v>5.9416422233546651E-3</v>
       </c>
       <c r="C105">
         <f>_xlfn.POISSON.DIST(A105,Scrobbles!$R$9,FALSE)</f>
-        <v>5.6335313199595023E-7</v>
+        <v>2.2157936258266039E-6</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -15967,11 +16469,11 @@
       </c>
       <c r="B106">
         <f>_xlfn.NORM.DIST(A106,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.1175939130879561E-3</v>
+        <v>5.7073473055745229E-3</v>
       </c>
       <c r="C106">
         <f>_xlfn.POISSON.DIST(A106,Scrobbles!$R$9,FALSE)</f>
-        <v>3.3691425290294563E-7</v>
+        <v>1.3716467836267568E-6</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -15980,11 +16482,11 @@
       </c>
       <c r="B107">
         <f>_xlfn.NORM.DIST(A107,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.8905100704088617E-3</v>
+        <v>5.4766562455586297E-3</v>
       </c>
       <c r="C107">
         <f>_xlfn.POISSON.DIST(A107,Scrobbles!$R$9,FALSE)</f>
-        <v>1.9957314203912463E-7</v>
+        <v>8.4100641872943668E-7</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -15993,11 +16495,11 @@
       </c>
       <c r="B108">
         <f>_xlfn.NORM.DIST(A108,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.6684910023168623E-3</v>
+        <v>5.2498880266129283E-3</v>
       </c>
       <c r="C108">
         <f>_xlfn.POISSON.DIST(A108,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1710305889013618E-7</v>
+        <v>5.1078691729598849E-7</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -16006,11 +16508,11 @@
       </c>
       <c r="B109">
         <f>_xlfn.NORM.DIST(A109,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.4517721365628813E-3</v>
+        <v>5.0273367384172799E-3</v>
       </c>
       <c r="C109">
         <f>_xlfn.POISSON.DIST(A109,Scrobbles!$R$9,FALSE)</f>
-        <v>6.8070113056281011E-8</v>
+        <v>3.0732812587547993E-7</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -16019,11 +16521,11 @@
       </c>
       <c r="B110">
         <f>_xlfn.NORM.DIST(A110,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.2405614400220617E-3</v>
+        <v>4.8092714238076924E-3</v>
       </c>
       <c r="C110">
         <f>_xlfn.POISSON.DIST(A110,Scrobbles!$R$9,FALSE)</f>
-        <v>3.920168426133544E-8</v>
+        <v>1.8319974808732996E-7</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -16032,11 +16534,11 @@
       </c>
       <c r="B111">
         <f>_xlfn.NORM.DIST(A111,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.0350398220649307E-3</v>
+        <v>4.5959360579298581E-3</v>
       </c>
       <c r="C111">
         <f>_xlfn.POISSON.DIST(A111,Scrobbles!$R$9,FALSE)</f>
-        <v>2.2369188979156694E-8</v>
+        <v>1.0820434346062855E-7</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -16045,11 +16547,11 @@
       </c>
       <c r="B112">
         <f>_xlfn.NORM.DIST(A112,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.8353616605882068E-3</v>
+        <v>4.3875496542811771E-3</v>
       </c>
       <c r="C112">
         <f>_xlfn.POISSON.DIST(A112,Scrobbles!$R$9,FALSE)</f>
-        <v>1.2648224438334139E-8</v>
+        <v>6.3328372802818975E-8</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -16058,11 +16560,11 @@
       </c>
       <c r="B113">
         <f>_xlfn.NORM.DIST(A113,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.6416554415871659E-3</v>
+        <v>4.1843064915007798E-3</v>
       </c>
       <c r="C113">
         <f>_xlfn.POISSON.DIST(A113,Scrobbles!$R$9,FALSE)</f>
-        <v>7.0872637411101342E-9</v>
+        <v>3.6730062759510309E-8</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -16071,11 +16573,11 @@
       </c>
       <c r="B114">
         <f>_xlfn.NORM.DIST(A114,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.4540245027575409E-3</v>
+        <v>3.9863764541873984E-3</v>
       </c>
       <c r="C114">
         <f>_xlfn.POISSON.DIST(A114,Scrobbles!$R$9,FALSE)</f>
-        <v>3.9357960178838648E-9</v>
+        <v>2.1113000976602798E-8</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -16084,11 +16586,11 @@
       </c>
       <c r="B115">
         <f>_xlfn.NORM.DIST(A115,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.2725478713194101E-3</v>
+        <v>3.7939054805248189E-3</v>
       </c>
       <c r="C115">
         <f>_xlfn.POISSON.DIST(A115,Scrobbles!$R$9,FALSE)</f>
-        <v>2.1663376544640306E-9</v>
+        <v>1.2028676479498668E-8</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -16097,11 +16599,11 @@
       </c>
       <c r="B116">
         <f>_xlfn.NORM.DIST(A116,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.0972811860567068E-3</v>
+        <v>3.6070161090752595E-3</v>
       </c>
       <c r="C116">
         <f>_xlfn.POISSON.DIST(A116,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1819342212201787E-9</v>
+        <v>6.7929640009751782E-9</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -16110,11 +16612,11 @@
       </c>
       <c r="B117">
         <f>_xlfn.NORM.DIST(A117,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.9282576934607164E-3</v>
+        <v>3.4258081167622481E-3</v>
       </c>
       <c r="C117">
         <f>_xlfn.POISSON.DIST(A117,Scrobbles!$R$9,FALSE)</f>
-        <v>6.3924520179722107E-10</v>
+        <v>3.8028377180871567E-9</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -16123,11 +16625,11 @@
       </c>
       <c r="B118">
         <f>_xlfn.NORM.DIST(A118,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.7654893078505123E-3</v>
+        <v>3.2503592398058869E-3</v>
       </c>
       <c r="C118">
         <f>_xlfn.POISSON.DIST(A118,Scrobbles!$R$9,FALSE)</f>
-        <v>3.4275318385837588E-10</v>
+        <v>2.1105523245150879E-9</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -16136,11 +16638,11 @@
       </c>
       <c r="B119">
         <f>_xlfn.NORM.DIST(A119,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.6089677254131495E-3</v>
+        <v>3.0807259691931002E-3</v>
       </c>
       <c r="C119">
         <f>_xlfn.POISSON.DIST(A119,Scrobbles!$R$9,FALSE)</f>
-        <v>1.8220808593101151E-10</v>
+        <v>1.1613325051192549E-9</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -16149,11 +16651,11 @@
       </c>
       <c r="B120">
         <f>_xlfn.NORM.DIST(A120,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.4586655822564536E-3</v>
+        <v>2.9169444121616281E-3</v>
       </c>
       <c r="C120">
         <f>_xlfn.POISSON.DIST(A120,Scrobbles!$R$9,FALSE)</f>
-        <v>9.6041215677508467E-11</v>
+        <v>6.3360835390346452E-10</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -16162,11 +16664,11 @@
       </c>
       <c r="B121">
         <f>_xlfn.NORM.DIST(A121,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.3145376467916426E-3</v>
+        <v>2.7590312111459678E-3</v>
       </c>
       <c r="C121">
         <f>_xlfn.POISSON.DIST(A121,Scrobbles!$R$9,FALSE)</f>
-        <v>5.0197570378989669E-11</v>
+        <v>3.4278377187417643E-10</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -16175,11 +16677,11 @@
       </c>
       <c r="B122">
         <f>_xlfn.NORM.DIST(A122,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.176522037055591E-3</v>
+        <v>2.6069845116730699E-3</v>
       </c>
       <c r="C122">
         <f>_xlfn.POISSON.DIST(A122,Scrobbles!$R$9,FALSE)</f>
-        <v>2.6017973155863795E-11</v>
+        <v>1.8390152358881545E-10</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -16188,11 +16690,11 @@
       </c>
       <c r="B123">
         <f>_xlfn.NORM.DIST(A123,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.0445414539367987E-3</v>
+        <v>2.4607849708010894E-3</v>
       </c>
       <c r="C123">
         <f>_xlfn.POISSON.DIST(A123,Scrobbles!$R$9,FALSE)</f>
-        <v>1.3373962495407798E-11</v>
+        <v>9.7846721157116887E-11</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -16201,11 +16703,11 @@
       </c>
       <c r="B124">
         <f>_xlfn.NORM.DIST(A124,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.9185044216781222E-3</v>
+        <v>2.3203967978617018E-3</v>
       </c>
       <c r="C124">
         <f>_xlfn.POISSON.DIST(A124,Scrobbles!$R$9,FALSE)</f>
-        <v>6.8182399391493313E-12</v>
+        <v>5.1633642849161693E-11</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -16214,11 +16716,11 @@
       </c>
       <c r="B125">
         <f>_xlfn.NORM.DIST(A125,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.798306527486153E-3</v>
+        <v>2.1857688194904033E-3</v>
       </c>
       <c r="C125">
         <f>_xlfn.POISSON.DIST(A125,Scrobbles!$R$9,FALSE)</f>
-        <v>3.4477770851903142E-12</v>
+        <v>2.7025514774148171E-11</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -16227,11 +16729,11 @@
       </c>
       <c r="B126">
         <f>_xlfn.NORM.DIST(A126,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.6838316525746193E-3</v>
+        <v>2.0568355612048997E-3</v>
       </c>
       <c r="C126">
         <f>_xlfn.POISSON.DIST(A126,Scrobbles!$R$9,FALSE)</f>
-        <v>1.72937630323586E-12</v>
+        <v>1.40313226038193E-11</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -16240,11 +16742,11 @@
       </c>
       <c r="B127">
         <f>_xlfn.NORM.DIST(A127,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.5749531875003037E-3</v>
+        <v>1.9335183381136232E-3</v>
       </c>
       <c r="C127">
         <f>_xlfn.POISSON.DIST(A127,Scrobbles!$R$9,FALSE)</f>
-        <v>8.6050124056799919E-13</v>
+        <v>7.2266149796773692E-12</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -16253,11 +16755,11 @@
       </c>
       <c r="B128">
         <f>_xlfn.NORM.DIST(A128,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.4715352252076309E-3</v>
+        <v>1.8157263476992732E-3</v>
       </c>
       <c r="C128">
         <f>_xlfn.POISSON.DIST(A128,Scrobbles!$R$9,FALSE)</f>
-        <v>4.247691483046038E-13</v>
+        <v>3.6924165755494941E-12</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -16266,11 +16768,11 @@
       </c>
       <c r="B129">
         <f>_xlfn.NORM.DIST(A129,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3734337257755014E-3</v>
+        <v>1.703357758020242E-3</v>
       </c>
       <c r="C129">
         <f>_xlfn.POISSON.DIST(A129,Scrobbles!$R$9,FALSE)</f>
-        <v>2.0802774181888063E-13</v>
+        <v>1.8717734853518328E-12</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -16279,11 +16781,11 @@
       </c>
       <c r="B130">
         <f>_xlfn.NORM.DIST(A130,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2804976474504683E-3</v>
+        <v>1.5963007851005049E-3</v>
       </c>
       <c r="C130">
         <f>_xlfn.POISSON.DIST(A130,Scrobbles!$R$9,FALSE)</f>
-        <v>1.01084203903972E-13</v>
+        <v>9.4143348522411912E-13</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -16292,11 +16794,11 @@
       </c>
       <c r="B131">
         <f>_xlfn.NORM.DIST(A131,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.192570039147535E-3</v>
+        <v>1.4944347537300927E-3</v>
       </c>
       <c r="C131">
         <f>_xlfn.POISSON.DIST(A131,Scrobbles!$R$9,FALSE)</f>
-        <v>4.8737763347009715E-14</v>
+        <v>4.6983595747484752E-13</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -16305,11 +16807,11 @@
       </c>
       <c r="B132">
         <f>_xlfn.NORM.DIST(A132,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1094890901979292E-3</v>
+        <v>1.397631136368493E-3</v>
       </c>
       <c r="C132">
         <f>_xlfn.POISSON.DIST(A132,Scrobbles!$R$9,FALSE)</f>
-        <v>2.3318158637784805E-14</v>
+        <v>2.3267473013409732E-13</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -16318,11 +16820,11 @@
       </c>
       <c r="B133">
         <f>_xlfn.NORM.DIST(A133,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0310891337162043E-3</v>
+        <v>1.3057545653265962E-3</v>
       </c>
       <c r="C133">
         <f>_xlfn.POISSON.DIST(A133,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1071206898433972E-14</v>
+        <v>1.1434686000536041E-13</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -16331,11 +16833,11 @@
       </c>
       <c r="B134">
         <f>_xlfn.NORM.DIST(A134,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.572016005421249E-4</v>
+        <v>1.2186638138941214E-3</v>
       </c>
       <c r="C134">
         <f>_xlfn.POISSON.DIST(A134,Scrobbles!$R$9,FALSE)</f>
-        <v>5.2166661691484762E-15</v>
+        <v>5.5769484751830717E-14</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -16344,11 +16846,11 @@
       </c>
       <c r="B135">
         <f>_xlfn.NORM.DIST(A135,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.8765592128094617E-4</v>
+        <v>1.1362127425739311E-3</v>
       </c>
       <c r="C135">
         <f>_xlfn.POISSON.DIST(A135,Scrobbles!$R$9,FALSE)</f>
-        <v>2.4395707342268439E-15</v>
+        <v>2.6995495989542802E-14</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -16357,11 +16859,11 @@
       </c>
       <c r="B136">
         <f>_xlfn.NORM.DIST(A136,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.2228037451481922E-4</v>
+        <v>1.0582512070775659E-3</v>
       </c>
       <c r="C136">
         <f>_xlfn.POISSON.DIST(A136,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1323498488501969E-15</v>
+        <v>1.2969786673308309E-14</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -16370,11 +16872,11 @@
       </c>
       <c r="B137">
         <f>_xlfn.NORM.DIST(A137,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.6090287978436107E-4</v>
+        <v>9.8462592522347275E-4</v>
       </c>
       <c r="C137">
         <f>_xlfn.POISSON.DIST(A137,Scrobbles!$R$9,FALSE)</f>
-        <v>5.2169763504044037E-16</v>
+        <v>6.1850808988677059E-15</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -16383,11 +16885,11 @@
       </c>
       <c r="B138">
         <f>_xlfn.NORM.DIST(A138,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.0335173443953312E-4</v>
+        <v>9.151813003567289E-4</v>
       </c>
       <c r="C138">
         <f>_xlfn.POISSON.DIST(A138,Scrobbles!$R$9,FALSE)</f>
-        <v>2.3858985302207557E-16</v>
+        <v>2.9278767845299173E-15</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -16396,11 +16898,11 @@
       </c>
       <c r="B139">
         <f>_xlfn.NORM.DIST(A139,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.4945629393029999E-4</v>
+        <v>8.4976019937305699E-4</v>
       </c>
       <c r="C139">
         <f>_xlfn.POISSON.DIST(A139,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0831869335721325E-16</v>
+        <v>1.3758736362238486E-15</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -16409,11 +16911,11 @@
       </c>
       <c r="B140">
         <f>_xlfn.NORM.DIST(A140,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.9904759554764105E-4</v>
+        <v>7.8820468387727971E-4</v>
       </c>
       <c r="C140">
         <f>_xlfn.POISSON.DIST(A140,Scrobbles!$R$9,FALSE)</f>
-        <v>4.8819838243664354E-17</v>
+        <v>6.418680856646353E-16</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -16422,11 +16924,11 @@
       </c>
       <c r="B141">
         <f>_xlfn.NORM.DIST(A141,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.5195892603273158E-4</v>
+        <v>7.3035669343426285E-4</v>
       </c>
       <c r="C141">
         <f>_xlfn.POISSON.DIST(A141,Scrobbles!$R$9,FALSE)</f>
-        <v>2.184507529134821E-17</v>
+        <v>2.9728794739168473E-16</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -16435,11 +16937,11 @@
       </c>
       <c r="B142">
         <f>_xlfn.NORM.DIST(A142,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.080263338451017E-4</v>
+        <v>6.7605868027640259E-4</v>
       </c>
       <c r="C142">
         <f>_xlfn.POISSON.DIST(A142,Scrobbles!$R$9,FALSE)</f>
-        <v>9.7050442577257747E-18</v>
+        <v>1.3670852162075814E-16</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -16448,11 +16950,11 @@
       </c>
       <c r="B143">
         <f>_xlfn.NORM.DIST(A143,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.6708908721848635E-4</v>
+        <v>6.2515419521373802E-4</v>
       </c>
       <c r="C143">
         <f>_xlfn.POISSON.DIST(A143,Scrobbles!$R$9,FALSE)</f>
-        <v>4.2810511577333538E-18</v>
+        <v>6.2419860568833411E-17</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -16461,11 +16963,11 @@
       </c>
       <c r="B144">
         <f>_xlfn.NORM.DIST(A144,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.2899007943552784E-4</v>
+        <v>5.7748842484916412E-4</v>
       </c>
       <c r="C144">
         <f>_xlfn.POISSON.DIST(A144,Scrobbles!$R$9,FALSE)</f>
-        <v>1.8751416625839008E-18</v>
+        <v>2.8299630811562107E-17</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -16474,11 +16976,11 @@
       </c>
       <c r="B145">
         <f>_xlfn.NORM.DIST(A145,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.9357618301934314E-4</v>
+        <v>5.3290868053066374E-4</v>
       </c>
       <c r="C145">
         <f>_xlfn.POISSON.DIST(A145,Scrobbles!$R$9,FALSE)</f>
-        <v>8.1558655125451367E-19</v>
+        <v>1.2740634368262676E-17</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -16487,11 +16989,11 @@
       </c>
       <c r="B146">
         <f>_xlfn.NORM.DIST(A146,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.6069855477168259E-4</v>
+        <v>4.9126483977399691E-4</v>
       </c>
       <c r="C146">
         <f>_xlfn.POISSON.DIST(A146,Scrobbles!$R$9,FALSE)</f>
-        <v>3.5227317505301159E-19</v>
+        <v>5.6960642637802855E-18</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -16500,11 +17002,11 @@
       </c>
       <c r="B147">
         <f>_xlfn.NORM.DIST(A147,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.3021289378456966E-4</v>
+        <v>4.5240974116238106E-4</v>
       </c>
       <c r="C147">
         <f>_xlfn.POISSON.DIST(A147,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5110665140431869E-19</v>
+        <v>2.5290254412551274E-18</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -16513,11 +17015,11 @@
       </c>
       <c r="B148">
         <f>_xlfn.NORM.DIST(A148,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.0197965471592721E-4</v>
+        <v>4.1619953397397383E-4</v>
       </c>
       <c r="C148">
         <f>_xlfn.POISSON.DIST(A148,Scrobbles!$R$9,FALSE)</f>
-        <v>6.4372849782641859E-20</v>
+        <v>1.1151843407707552E-18</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -16526,11 +17028,11 @@
       </c>
       <c r="B149">
         <f>_xlfn.NORM.DIST(A149,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.7586421875102951E-4</v>
+        <v>3.8249398400357537E-4</v>
       </c>
       <c r="C149">
         <f>_xlfn.POISSON.DIST(A149,Scrobbles!$R$9,FALSE)</f>
-        <v>2.7236883362204271E-20</v>
+        <v>4.8839999160661091E-19</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -16539,11 +17041,11 @@
       </c>
       <c r="B150">
         <f>_xlfn.NORM.DIST(A150,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.5173702477207353E-4</v>
+        <v>3.5115673723212288E-4</v>
       </c>
       <c r="C150">
         <f>_xlfn.POISSON.DIST(A150,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1446368034596378E-20</v>
+        <v>2.1245172048684015E-19</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -16552,11 +17054,11 @@
       </c>
       <c r="B151">
         <f>_xlfn.NORM.DIST(A151,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.2947366332948856E-4</v>
+        <v>3.2205554315691736E-4</v>
       </c>
       <c r="C151">
         <f>_xlfn.POISSON.DIST(A151,Scrobbles!$R$9,FALSE)</f>
-        <v>4.7780803337634774E-21</v>
+        <v>9.1795270110838606E-20</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -16565,11 +17067,11 @@
       </c>
       <c r="B152">
         <f>_xlfn.NORM.DIST(A152,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.0895493605252159E-4</v>
+        <v>2.9506243972781044E-4</v>
       </c>
       <c r="C152">
         <f>_xlfn.POISSON.DIST(A152,Scrobbles!$R$9,FALSE)</f>
-        <v>1.9812268190964934E-21</v>
+        <v>3.9398107884353621E-20</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -16578,11 +17080,11 @@
       </c>
       <c r="B153">
         <f>_xlfn.NORM.DIST(A153,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.9006688315518721E-4</v>
+        <v>2.7005390194087748E-4</v>
       </c>
       <c r="C153">
         <f>_xlfn.POISSON.DIST(A153,Scrobbles!$R$9,FALSE)</f>
-        <v>8.1607347280142127E-22</v>
+        <v>1.6797503407190906E-20</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -16591,11 +17093,11 @@
       </c>
       <c r="B154">
         <f>_xlfn.NORM.DIST(A154,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.7270078168882036E-4</v>
+        <v>2.4691095622249933E-4</v>
       </c>
       <c r="C154">
         <f>_xlfn.POISSON.DIST(A154,Scrobbles!$R$9,FALSE)</f>
-        <v>3.3393172662156526E-22</v>
+        <v>7.1145505583541147E-21</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -16604,11 +17106,11 @@
       </c>
       <c r="B155">
         <f>_xlfn.NORM.DIST(A155,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.5675311716635329E-4</v>
+        <v>2.2551926279469107E-4</v>
       </c>
       <c r="C155">
         <f>_xlfn.POISSON.DIST(A155,Scrobbles!$R$9,FALSE)</f>
-        <v>1.3574950737359401E-22</v>
+        <v>2.9936592049689014E-21</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -16617,11 +17119,11 @@
       </c>
       <c r="B156">
         <f>_xlfn.NORM.DIST(A156,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.4212553113818573E-4</v>
+        <v>2.0576916824830745E-4</v>
       </c>
       <c r="C156">
         <f>_xlfn.POISSON.DIST(A156,Scrobbles!$R$9,FALSE)</f>
-        <v>5.4826377422674087E-23</v>
+        <v>1.251491655995744E-21</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -16630,11 +17132,11 @@
       </c>
       <c r="B157">
         <f>_xlfn.NORM.DIST(A157,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2872474723724082E-4</v>
+        <v>1.8755573056604053E-4</v>
       </c>
       <c r="C157">
         <f>_xlfn.POISSON.DIST(A157,Scrobbles!$R$9,FALSE)</f>
-        <v>2.2000363843546752E-23</v>
+        <v>5.1980754655040824E-22</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -16643,11 +17145,11 @@
       </c>
       <c r="B158">
         <f>_xlfn.NORM.DIST(A158,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.164624781336457E-4</v>
+        <v>1.7077871883345498E-4</v>
       </c>
       <c r="C158">
         <f>_xlfn.POISSON.DIST(A158,Scrobbles!$R$9,FALSE)</f>
-        <v>8.7715688165015636E-24</v>
+        <v>2.1451827794200353E-22</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -16656,11 +17158,11 @@
       </c>
       <c r="B159">
         <f>_xlfn.NORM.DIST(A159,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0525531574950405E-4</v>
+        <v>1.5534258985540388E-4</v>
       </c>
       <c r="C159">
         <f>_xlfn.POISSON.DIST(A159,Scrobbles!$R$9,FALSE)</f>
-        <v>3.4749585815960303E-24</v>
+        <v>8.7965215224623688E-23</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -16669,11 +17171,11 @@
       </c>
       <c r="B160">
         <f>_xlfn.NORM.DIST(A160,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.5024606983448655E-5</v>
+        <v>1.4115644385866223E-4</v>
       </c>
       <c r="C160">
         <f>_xlfn.POISSON.DIST(A160,Scrobbles!$R$9,FALSE)</f>
-        <v>1.3679321465026696E-24</v>
+        <v>3.5842657534781888E-23</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -16682,11 +17184,11 @@
       </c>
       <c r="B161">
         <f>_xlfn.NORM.DIST(A161,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.5696317085036234E-5</v>
+        <v>1.2813396141125156E-4</v>
       </c>
       <c r="C161">
         <f>_xlfn.POISSON.DIST(A161,Scrobbles!$R$9,FALSE)</f>
-        <v>5.3510553264797608E-25</v>
+        <v>1.451273945292536E-23</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -16695,11 +17197,11 @@
       </c>
       <c r="B162">
         <f>_xlfn.NORM.DIST(A162,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.7200882702384052E-5</v>
+        <v>1.1619332362633347E-4</v>
       </c>
       <c r="C162">
         <f>_xlfn.POISSON.DIST(A162,Scrobbles!$R$9,FALSE)</f>
-        <v>2.0801347473906641E-25</v>
+        <v>5.8395009824592936E-24</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -16708,11 +17210,11 @@
       </c>
       <c r="B163">
         <f>_xlfn.NORM.DIST(A163,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.9473056504531431E-5</v>
+        <v>1.0525711764542695E-4</v>
       </c>
       <c r="C163">
         <f>_xlfn.POISSON.DIST(A163,Scrobbles!$R$9,FALSE)</f>
-        <v>8.0359569719807688E-26</v>
+        <v>2.33504997520924E-24</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -16721,11 +17223,11 @@
       </c>
       <c r="B164">
         <f>_xlfn.NORM.DIST(A164,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.2451745154423329E-5</v>
+        <v>9.5252229313606463E-5</v>
       </c>
       <c r="C164">
         <f>_xlfn.POISSON.DIST(A164,Scrobbles!$R$9,FALSE)</f>
-        <v>3.0852801012469654E-26</v>
+        <v>9.2795621620166119E-25</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -16734,11 +17236,11 @@
       </c>
       <c r="B165">
         <f>_xlfn.NORM.DIST(A165,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.6079842280701473E-5</v>
+        <v>8.6109724869844119E-5</v>
       </c>
       <c r="C165">
         <f>_xlfn.POISSON.DIST(A165,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1772779333705792E-26</v>
+        <v>3.6651031428994314E-25</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -16747,11 +17249,11 @@
       </c>
       <c r="B166">
         <f>_xlfn.NORM.DIST(A166,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.0304057968008748E-5</v>
+        <v>7.7764723380223448E-5</v>
       </c>
       <c r="C166">
         <f>_xlfn.POISSON.DIST(A166,Scrobbles!$R$9,FALSE)</f>
-        <v>4.4648530095014457E-27</v>
+        <v>1.438761052942213E-25</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -16760,11 +17262,11 @@
       </c>
       <c r="B167">
         <f>_xlfn.NORM.DIST(A167,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.50747461575198E-5</v>
+        <v>7.0156261541786869E-5</v>
       </c>
       <c r="C167">
         <f>_xlfn.POISSON.DIST(A167,Scrobbles!$R$9,FALSE)</f>
-        <v>1.6830430762291269E-27</v>
+        <v>5.6137238993588509E-26</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -16773,11 +17275,11 @@
       </c>
       <c r="B168">
         <f>_xlfn.NORM.DIST(A168,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.0345731223041631E-5</v>
+        <v>6.3227152381572824E-5</v>
       </c>
       <c r="C168">
         <f>_xlfn.POISSON.DIST(A168,Scrobbles!$R$9,FALSE)</f>
-        <v>6.3060753181158736E-28</v>
+        <v>2.1771546572710779E-26</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -16786,11 +17288,11 @@
       </c>
       <c r="B169">
         <f>_xlfn.NORM.DIST(A169,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.6074134864247029E-5</v>
+        <v>5.6923839270186257E-5</v>
       </c>
       <c r="C169">
         <f>_xlfn.POISSON.DIST(A169,Scrobbles!$R$9,FALSE)</f>
-        <v>2.3486304781542965E-28</v>
+        <v>8.3930368472535351E-27</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -16799,11 +17301,11 @@
       </c>
       <c r="B170">
         <f>_xlfn.NORM.DIST(A170,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.2220204338304259E-5</v>
+        <v>5.1196246563133587E-5</v>
       </c>
       <c r="C170">
         <f>_xlfn.POISSON.DIST(A170,Scrobbles!$R$9,FALSE)</f>
-        <v>8.6951568532544503E-29</v>
+        <v>3.21629716621971E-27</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -16812,11 +17314,11 @@
       </c>
       <c r="B171">
         <f>_xlfn.NORM.DIST(A171,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.8747142935067419E-5</v>
+        <v>4.5997628077163812E-5</v>
       </c>
       <c r="C171">
         <f>_xlfn.POISSON.DIST(A171,Scrobbles!$R$9,FALSE)</f>
-        <v>3.2000939306551242E-29</v>
+        <v>1.2252248131671823E-27</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -16825,11 +17327,11 @@
       </c>
       <c r="B172">
         <f>_xlfn.NORM.DIST(A172,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.5620943489722139E-5</v>
+        <v>4.128441450391249E-5</v>
       </c>
       <c r="C172">
         <f>_xlfn.POISSON.DIST(A172,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1708083599231288E-29</v>
+        <v>4.6399487346513189E-28</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -16838,11 +17340,11 @@
       </c>
       <c r="B173">
         <f>_xlfn.NORM.DIST(A173,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.2810225620851243E-5</v>
+        <v>3.7016060760056043E-5</v>
       </c>
       <c r="C173">
         <f>_xlfn.POISSON.DIST(A173,Scrobbles!$R$9,FALSE)</f>
-        <v>4.2585496440108945E-30</v>
+        <v>1.7468812840480439E-28</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -16851,11 +17353,11 @@
       </c>
       <c r="B174">
         <f>_xlfn.NORM.DIST(A174,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.0286077281682127E-5</v>
+        <v>3.3154894172675554E-5</v>
       </c>
       <c r="C174">
         <f>_xlfn.POISSON.DIST(A174,Scrobbles!$R$9,FALSE)</f>
-        <v>1.53994523923194E-30</v>
+        <v>6.5385472279823979E-29</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -16864,11 +17366,11 @@
       </c>
       <c r="B175">
         <f>_xlfn.NORM.DIST(A175,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.8021901118114557E-5</v>
+        <v>2.9665964301213673E-5</v>
       </c>
       <c r="C175">
         <f>_xlfn.POISSON.DIST(A175,Scrobbles!$R$9,FALSE)</f>
-        <v>5.5364474793499063E-31</v>
+        <v>2.4332205849398199E-29</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -16877,11 +17379,11 @@
       </c>
       <c r="B176">
         <f>_xlfn.NORM.DIST(A176,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.599326603919531E-5</v>
+        <v>2.6516895103822783E-5</v>
       </c>
       <c r="C176">
         <f>_xlfn.POISSON.DIST(A176,Scrobbles!$R$9,FALSE)</f>
-        <v>1.979037147223709E-31</v>
+        <v>9.0028197227164284E-30</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -16890,11 +17392,11 @@
       </c>
       <c r="B177">
         <f>_xlfn.NORM.DIST(A177,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.4177764324136122E-5</v>
+        <v>2.3677740066473734E-5</v>
       </c>
       <c r="C177">
         <f>_xlfn.POISSON.DIST(A177,Scrobbles!$R$9,FALSE)</f>
-        <v>7.0337658608471199E-32</v>
+        <v>3.3119732851845612E-30</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -16903,11 +17405,11 @@
       </c>
       <c r="B178">
         <f>_xlfn.NORM.DIST(A178,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2554874514798175E-5</v>
+        <v>2.1120840828280453E-5</v>
       </c>
       <c r="C178">
         <f>_xlfn.POISSON.DIST(A178,Scrobbles!$R$9,FALSE)</f>
-        <v>2.4856916286052487E-32</v>
+        <v>1.2114917953447396E-30</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -16916,11 +17418,11 @@
       </c>
       <c r="B179">
         <f>_xlfn.NORM.DIST(A179,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.11058302737657E-5</v>
+        <v>1.8820689756360609E-5</v>
       </c>
       <c r="C179">
         <f>_xlfn.POISSON.DIST(A179,Scrobbles!$R$9,FALSE)</f>
-        <v>8.734659774321454E-33</v>
+        <v>4.4064975295317193E-31</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -16929,11 +17431,11 @@
       </c>
       <c r="B180">
         <f>_xlfn.NORM.DIST(A180,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.8134953256169221E-6</v>
+        <v>1.6753796848399345E-5</v>
       </c>
       <c r="C180">
         <f>_xlfn.POISSON.DIST(A180,Scrobbles!$R$9,FALSE)</f>
-        <v>3.0520946742473447E-33</v>
+        <v>1.59374871903055E-31</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -16942,11 +17444,11 @@
       </c>
       <c r="B181">
         <f>_xlfn.NORM.DIST(A181,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.6622445426249577E-6</v>
+        <v>1.489856127103045E-5</v>
       </c>
       <c r="C181">
         <f>_xlfn.POISSON.DIST(A181,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0605154017323402E-33</v>
+        <v>5.732091809728341E-32</v>
       </c>
     </row>
   </sheetData>
@@ -22058,7 +22560,7 @@
       </c>
       <c r="F78">
         <f>IF(Scrobbles!$B78=F$1,Scrobbles!$F78,0)</f>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="G78">
         <f>IF(Scrobbles!$B78=G$1,Scrobbles!$F78,0)</f>
@@ -22086,7 +22588,7 @@
       </c>
       <c r="N78">
         <f>IF(AND(Scrobbles!$F78&gt;=Calc!M$1+1,Scrobbles!$F78&lt;=Calc!N$1,ISBLANK(Scrobbles!$F78)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O78">
         <f>IF(AND(Scrobbles!$F78&gt;=Calc!N$1+1,Scrobbles!$F78&lt;=Calc!O$1,ISBLANK(Scrobbles!$F78)=FALSE),1,0)</f>
@@ -22106,7 +22608,7 @@
       </c>
       <c r="T78">
         <f>IF(Scrobbles!F78&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="3:20" x14ac:dyDescent="0.3">
@@ -22128,7 +22630,7 @@
       </c>
       <c r="G79">
         <f>IF(Scrobbles!$B79=G$1,Scrobbles!$F79,0)</f>
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="H79">
         <f>IF(Scrobbles!$B79=H$1,Scrobbles!$F79,0)</f>
@@ -22164,7 +22666,7 @@
       </c>
       <c r="Q79">
         <f>IF(AND(Scrobbles!$F79&gt;=Calc!P$1+1,Scrobbles!$F79&lt;=Calc!Q$1,ISBLANK(Scrobbles!$F79)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79">
         <f>IF(AND(Scrobbles!$F79&gt;=Calc!Q$1+1,Scrobbles!$F79&lt;=Calc!R$1,ISBLANK(Scrobbles!$F79)=FALSE),1,0)</f>
@@ -22172,7 +22674,7 @@
       </c>
       <c r="T79">
         <f>IF(Scrobbles!F79&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="3:20" x14ac:dyDescent="0.3">
@@ -22198,7 +22700,7 @@
       </c>
       <c r="H80">
         <f>IF(Scrobbles!$B80=H$1,Scrobbles!$F80,0)</f>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I80">
         <f>IF(Scrobbles!$B80=I$1,Scrobbles!$F80,0)</f>
@@ -22218,7 +22720,7 @@
       </c>
       <c r="N80">
         <f>IF(AND(Scrobbles!$F80&gt;=Calc!M$1+1,Scrobbles!$F80&lt;=Calc!N$1,ISBLANK(Scrobbles!$F80)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O80">
         <f>IF(AND(Scrobbles!$F80&gt;=Calc!N$1+1,Scrobbles!$F80&lt;=Calc!O$1,ISBLANK(Scrobbles!$F80)=FALSE),1,0)</f>
@@ -22238,7 +22740,7 @@
       </c>
       <c r="T80">
         <f>IF(Scrobbles!F80&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="3:20" x14ac:dyDescent="0.3">
@@ -22268,7 +22770,7 @@
       </c>
       <c r="I81">
         <f>IF(Scrobbles!$B81=I$1,Scrobbles!$F81,0)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="K81">
         <f>IF(AND(Scrobbles!$F81&gt;=Calc!J$1+1,Scrobbles!$F81&lt;=Calc!K$1,ISBLANK(Scrobbles!$F81)=FALSE),1,0)</f>
@@ -22288,7 +22790,7 @@
       </c>
       <c r="O81">
         <f>IF(AND(Scrobbles!$F81&gt;=Calc!N$1+1,Scrobbles!$F81&lt;=Calc!O$1,ISBLANK(Scrobbles!$F81)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P81">
         <f>IF(AND(Scrobbles!$F81&gt;=Calc!O$1+1,Scrobbles!$F81&lt;=Calc!P$1,ISBLANK(Scrobbles!$F81)=FALSE),1,0)</f>
@@ -22304,13 +22806,13 @@
       </c>
       <c r="T81">
         <f>IF(Scrobbles!F81&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C82">
         <f>IF(Scrobbles!$B82=C$1,Scrobbles!$F82,0)</f>
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D82">
         <f>IF(Scrobbles!$B82=D$1,Scrobbles!$F82,0)</f>
@@ -22346,7 +22848,7 @@
       </c>
       <c r="M82">
         <f>IF(AND(Scrobbles!$F82&gt;=Calc!L$1+1,Scrobbles!$F82&lt;=Calc!M$1,ISBLANK(Scrobbles!$F82)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82">
         <f>IF(AND(Scrobbles!$F82&gt;=Calc!M$1+1,Scrobbles!$F82&lt;=Calc!N$1,ISBLANK(Scrobbles!$F82)=FALSE),1,0)</f>
@@ -22370,7 +22872,7 @@
       </c>
       <c r="T82">
         <f>IF(Scrobbles!F82&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="3:20" x14ac:dyDescent="0.3">
@@ -22380,7 +22882,7 @@
       </c>
       <c r="D83">
         <f>IF(Scrobbles!$B83=D$1,Scrobbles!$F83,0)</f>
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="E83">
         <f>IF(Scrobbles!$B83=E$1,Scrobbles!$F83,0)</f>
@@ -22424,7 +22926,7 @@
       </c>
       <c r="P83">
         <f>IF(AND(Scrobbles!$F83&gt;=Calc!O$1+1,Scrobbles!$F83&lt;=Calc!P$1,ISBLANK(Scrobbles!$F83)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q83">
         <f>IF(AND(Scrobbles!$F83&gt;=Calc!P$1+1,Scrobbles!$F83&lt;=Calc!Q$1,ISBLANK(Scrobbles!$F83)=FALSE),1,0)</f>
@@ -22436,7 +22938,7 @@
       </c>
       <c r="T83">
         <f>IF(Scrobbles!F83&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="3:20" x14ac:dyDescent="0.3">
@@ -22450,7 +22952,7 @@
       </c>
       <c r="E84">
         <f>IF(Scrobbles!$B84=E$1,Scrobbles!$F84,0)</f>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="F84">
         <f>IF(Scrobbles!$B84=F$1,Scrobbles!$F84,0)</f>
@@ -22490,7 +22992,7 @@
       </c>
       <c r="P84">
         <f>IF(AND(Scrobbles!$F84&gt;=Calc!O$1+1,Scrobbles!$F84&lt;=Calc!P$1,ISBLANK(Scrobbles!$F84)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q84">
         <f>IF(AND(Scrobbles!$F84&gt;=Calc!P$1+1,Scrobbles!$F84&lt;=Calc!Q$1,ISBLANK(Scrobbles!$F84)=FALSE),1,0)</f>
@@ -22502,7 +23004,7 @@
       </c>
       <c r="T84">
         <f>IF(Scrobbles!F84&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="3:20" x14ac:dyDescent="0.3">
@@ -22520,7 +23022,7 @@
       </c>
       <c r="F85">
         <f>IF(Scrobbles!$B85=F$1,Scrobbles!$F85,0)</f>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="G85">
         <f>IF(Scrobbles!$B85=G$1,Scrobbles!$F85,0)</f>
@@ -22544,7 +23046,7 @@
       </c>
       <c r="M85">
         <f>IF(AND(Scrobbles!$F85&gt;=Calc!L$1+1,Scrobbles!$F85&lt;=Calc!M$1,ISBLANK(Scrobbles!$F85)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N85">
         <f>IF(AND(Scrobbles!$F85&gt;=Calc!M$1+1,Scrobbles!$F85&lt;=Calc!N$1,ISBLANK(Scrobbles!$F85)=FALSE),1,0)</f>
@@ -22568,7 +23070,7 @@
       </c>
       <c r="T85">
         <f>IF(Scrobbles!F85&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="3:20" x14ac:dyDescent="0.3">
@@ -22590,7 +23092,7 @@
       </c>
       <c r="G86">
         <f>IF(Scrobbles!$B86=G$1,Scrobbles!$F86,0)</f>
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <f>IF(Scrobbles!$B86=H$1,Scrobbles!$F86,0)</f>
@@ -22606,7 +23108,7 @@
       </c>
       <c r="L86">
         <f>IF(AND(Scrobbles!$F86&gt;=Calc!K$1+1,Scrobbles!$F86&lt;=Calc!L$1,ISBLANK(Scrobbles!$F86)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M86">
         <f>IF(AND(Scrobbles!$F86&gt;=Calc!L$1+1,Scrobbles!$F86&lt;=Calc!M$1,ISBLANK(Scrobbles!$F86)=FALSE),1,0)</f>
@@ -22634,7 +23136,7 @@
       </c>
       <c r="T86">
         <f>IF(Scrobbles!F86&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="3:20" x14ac:dyDescent="0.3">
@@ -22660,7 +23162,7 @@
       </c>
       <c r="H87">
         <f>IF(Scrobbles!$B87=H$1,Scrobbles!$F87,0)</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="I87">
         <f>IF(Scrobbles!$B87=I$1,Scrobbles!$F87,0)</f>
@@ -22684,7 +23186,7 @@
       </c>
       <c r="O87">
         <f>IF(AND(Scrobbles!$F87&gt;=Calc!N$1+1,Scrobbles!$F87&lt;=Calc!O$1,ISBLANK(Scrobbles!$F87)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P87">
         <f>IF(AND(Scrobbles!$F87&gt;=Calc!O$1+1,Scrobbles!$F87&lt;=Calc!P$1,ISBLANK(Scrobbles!$F87)=FALSE),1,0)</f>
@@ -22700,7 +23202,7 @@
       </c>
       <c r="T87">
         <f>IF(Scrobbles!F87&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="3:20" x14ac:dyDescent="0.3">
@@ -22730,7 +23232,7 @@
       </c>
       <c r="I88">
         <f>IF(Scrobbles!$B88=I$1,Scrobbles!$F88,0)</f>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K88">
         <f>IF(AND(Scrobbles!$F88&gt;=Calc!J$1+1,Scrobbles!$F88&lt;=Calc!K$1,ISBLANK(Scrobbles!$F88)=FALSE),1,0)</f>
@@ -22746,7 +23248,7 @@
       </c>
       <c r="N88">
         <f>IF(AND(Scrobbles!$F88&gt;=Calc!M$1+1,Scrobbles!$F88&lt;=Calc!N$1,ISBLANK(Scrobbles!$F88)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O88">
         <f>IF(AND(Scrobbles!$F88&gt;=Calc!N$1+1,Scrobbles!$F88&lt;=Calc!O$1,ISBLANK(Scrobbles!$F88)=FALSE),1,0)</f>
@@ -22766,7 +23268,7 @@
       </c>
       <c r="T88">
         <f>IF(Scrobbles!F88&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="3:20" x14ac:dyDescent="0.3">

--- a/Last FM/Will's Last FM.xlsx
+++ b/Last FM/Will's Last FM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\The-Music-of-Primes\Last FM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E40C81-A0E3-4EEB-9F2E-FCE21D9A4D27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E393C56-9984-4BFF-90EC-2A345A0B0587}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{28CEC985-A661-4D7B-81F5-9225F8E12012}"/>
   </bookViews>
   <sheets>
     <sheet name="Scrobbles" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="65">
   <si>
     <t>Freq</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>P=(without Total)</t>
+  </si>
+  <si>
+    <t>Almost last exam</t>
   </si>
 </sst>
 </file>
@@ -544,14 +547,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -716,19 +719,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
@@ -829,28 +832,28 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.8421915098107933</c:v>
+                  <c:v>5.3590016878126407</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.819381347534033</c:v>
+                  <c:v>12.876712955155122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19.380662743108523</c:v>
+                  <c:v>20.898917700965612</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.354230803765116</c:v>
+                  <c:v>22.916762356830439</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15.811196217924008</c:v>
+                  <c:v>16.979125838168919</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8656922387306887</c:v>
+                  <c:v>8.4984390921493773</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6280525783632354</c:v>
+                  <c:v>2.8725424253315563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.58939872389234638</c:v>
+                  <c:v>0.65533391358473458</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1577,424 +1580,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>1.5185546125234661E-3</c:v>
+                  <c:v>1.5720903428030337E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.621662142521048E-3</c:v>
+                  <c:v>1.67696714393179E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7299905004570721E-3</c:v>
+                  <c:v>1.7870278597692049E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.8436583114147575E-3</c:v>
+                  <c:v>1.9023823512191631E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9627750549998249E-3</c:v>
+                  <c:v>2.0231310193521397E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0874400000316456E-3</c:v>
+                  <c:v>2.1493637751526531E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2177411239972084E-3</c:v>
+                  <c:v>2.2811589981538349E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3537540231566693E-3</c:v>
+                  <c:v>2.4185824897801807E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.4955408196355527E-3</c:v>
+                  <c:v>2.5616864276243366E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.643149072259739E-3</c:v>
+                  <c:v>2.7105083272618525E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.7966106982793429E-3</c:v>
+                  <c:v>2.8650700185539101E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.955940913481136E-3</c:v>
+                  <c:v>3.025376643697059E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1211371985003632E-3</c:v>
+                  <c:v>3.1914156845456805E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.2921782994065479E-3</c:v>
+                  <c:v>3.3631560269525079E-3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4690232708484928E-3</c:v>
+                  <c:v>3.5405470700399706E-3</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6516105701964795E-3</c:v>
+                  <c:v>3.7235178884262861E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8398572112096057E-3</c:v>
+                  <c:v>3.9119764554805224E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.0336579857792433E-3</c:v>
+                  <c:v>4.1058089356668668E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.23288476225163E-3</c:v>
+                  <c:v>4.3048790539565972E-3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.4373858687105534E-3</c:v>
+                  <c:v>4.5090275501339268E-3</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.6469855694020699E-3</c:v>
+                  <c:v>4.718071725597078E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8614836422052653E-3</c:v>
+                  <c:v>4.9318050899567045E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.080655064694883E-3</c:v>
+                  <c:v>5.1499971143596987E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.3042498159027373E-3</c:v>
+                  <c:v>5.3723930980169804E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.5319928003653672E-3</c:v>
+                  <c:v>5.5987141538901197E-3</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.7635839004467372E-3</c:v>
+                  <c:v>5.8286573188947111E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.9986981622486869E-3</c:v>
+                  <c:v>6.061895793310873E-3</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.2369861196716484E-3</c:v>
+                  <c:v>6.2980793133560467E-3</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.4780742603672004E-3</c:v>
+                  <c:v>6.5368346600763651E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.7215656364376592E-3</c:v>
+                  <c:v>6.7777663068552298E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>6.9670406217912191E-3</c:v>
+                  <c:v>7.0204572069266172E-3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.214057817061084E-3</c:v>
+                  <c:v>7.2644697213228252E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.4621551019506058E-3</c:v>
+                  <c:v>7.50934668668849E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.710850833781961E-3</c:v>
+                  <c:v>7.7546126213629786E-3</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.9596451899119399E-3</c:v>
+                  <c:v>7.9997750670796723E-3</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.2080216505447043E-3</c:v>
+                  <c:v>8.2443260625624272E-3</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.4554486173275024E-3</c:v>
+                  <c:v>8.4877437442259368E-3</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.7013811619719907E-3</c:v>
+                  <c:v>8.7294940681174084E-3</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.9452628980117004E-3</c:v>
+                  <c:v>8.9690326461823438E-3</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>9.1865279676961731E-3</c:v>
+                  <c:v>9.2058066889069597E-3</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.4246031349454994E-3</c:v>
+                  <c:v>9.4392570453947396E-3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>9.6589099742567883E-3</c:v>
+                  <c:v>9.6688203309844116E-3</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>9.8888671444768064E-3</c:v>
+                  <c:v>9.8939311316218383E-3</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.011389273544403E-2</c:v>
+                  <c:v>1.0114024273368199E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.0333406674668415E-2</c:v>
+                  <c:v>1.0328537144671201E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.0546833180468188E-2</c:v>
+                  <c:v>1.0536912058353212E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.0753603247329267E-2</c:v>
+                  <c:v>1.0738598639688821E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.0953157148702253E-2</c:v>
+                  <c:v>1.0933056226461492E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.1144946942012479E-2</c:v>
+                  <c:v>1.1119756266511342E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.1328438960336151E-2</c:v>
+                  <c:v>1.1298184698019487E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.1503116274995962E-2</c:v>
+                  <c:v>1.1467844297623226E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.1668481113256747E-2</c:v>
+                  <c:v>1.1628256981424194E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.1824057215358622E-2</c:v>
+                  <c:v>1.1778966044041149E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.1969392115313665E-2</c:v>
+                  <c:v>1.1919538321070938E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.210405933021237E-2</c:v>
+                  <c:v>1.2049566260655939E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.2227660443237262E-2</c:v>
+                  <c:v>1.2168669890312175E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.2339827066160649E-2</c:v>
+                  <c:v>1.2276498665747008E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.2440222667807532E-2</c:v>
+                  <c:v>1.2372733189085069E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.2528544255788763E-2</c:v>
+                  <c:v>1.245708678472063E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.2604523899746282E-2</c:v>
+                  <c:v>1.2529306921918157E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.2667930085395209E-2</c:v>
+                  <c:v>1.2589176474282657E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.2718568889786895E-2</c:v>
+                  <c:v>1.2636514807309564E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2756284969443699E-2</c:v>
+                  <c:v>1.2671178686390717E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2780962354318999E-2</c:v>
+                  <c:v>1.2693062998888744E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.279252504190337E-2</c:v>
+                  <c:v>1.2702101285185377E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.2790937387217366E-2</c:v>
+                  <c:v>1.2698266074948884E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.2776204285890266E-2</c:v>
+                  <c:v>1.2681569026239391E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.2748371149008723E-2</c:v>
+                  <c:v>1.2652060866466287E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.2707523669916244E-2</c:v>
+                  <c:v>1.260983113561619E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.2653787384639407E-2</c:v>
+                  <c:v>1.2555007733570494E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.258732702909658E-2</c:v>
+                  <c:v>1.2487756274715425E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.2508345697695419E-2</c:v>
+                  <c:v>1.2408279254402427E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.2417083809333491E-2</c:v>
+                  <c:v>1.2316815033130094E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.2313817888169426E-2</c:v>
+                  <c:v>1.2213636645579198E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.2198859167817237E-2</c:v>
+                  <c:v>1.2099050442828316E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.2072552028823107E-2</c:v>
+                  <c:v>1.197339457719866E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.193527228040088E-2</c:v>
+                  <c:v>1.1837037340213382E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.1787425298420392E-2</c:v>
+                  <c:v>1.1690375365099931E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.1629444032553251E-2</c:v>
+                  <c:v>1.153383170610657E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.1461786896276013E-2</c:v>
+                  <c:v>1.1367853807638859E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.1284935554105332E-2</c:v>
+                  <c:v>1.1192911376843712E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.1099392620988476E-2</c:v>
+                  <c:v>1.1009494173772904E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.0905679289192219E-2</c:v>
+                  <c:v>1.0818109733641907E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.0704332898321777E-2</c:v>
+                  <c:v>1.0619281035961492E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.0495904464257966E-2</c:v>
+                  <c:v>1.0413544135458544E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.028095618282629E-2</c:v>
+                  <c:v>1.0201445769719247E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.0060058923907834E-2</c:v>
+                  <c:v>9.9835409583844906E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>9.8337897314721735E-3</c:v>
+                  <c:v>9.7603906085068741E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>9.6027293446612101E-3</c:v>
+                  <c:v>9.5325591403452922E-3</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>9.3674597545859717E-3</c:v>
+                  <c:v>9.3006121474320785E-3</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>9.1285618109221579E-3</c:v>
+                  <c:v>9.0651141042052529E-3</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>8.8866128917126763E-3</c:v>
+                  <c:v>8.8266261338616342E-3</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>8.6421846490148703E-3</c:v>
+                  <c:v>8.5857038483633345E-3</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>8.3958408421758932E-3</c:v>
+                  <c:v>8.3428952717290988E-3</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>8.1481352695916814E-3</c:v>
+                  <c:v>8.0987388568721039E-3</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7.899609808813603E-3</c:v>
+                  <c:v>7.8537616053168703E-3</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>7.6507925738226509E-3</c:v>
+                  <c:v>7.6084772981497737E-3</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>7.4021961972054497E-3</c:v>
+                  <c:v>7.3633848455404091E-3</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>7.1543162438498049E-3</c:v>
+                  <c:v>7.1189667611250415E-3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>6.9076297616418461E-3</c:v>
+                  <c:v>6.8756877664787556E-3</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>6.6625939735022498E-3</c:v>
+                  <c:v>6.6339935298299754E-3</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>6.4196451139567493E-3</c:v>
+                  <c:v>6.3943095420993454E-3</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>6.179197412306328E-3</c:v>
+                  <c:v>6.1570401322844923E-3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>5.9416422233546651E-3</c:v>
+                  <c:v>5.9225676231716368E-3</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>5.7073473055745229E-3</c:v>
+                  <c:v>5.691251627343458E-3</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>5.4766562455586297E-3</c:v>
+                  <c:v>5.4634284824775442E-3</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.2498880266129283E-3</c:v>
+                  <c:v>5.2394108239990772E-3</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>5.0273367384172799E-3</c:v>
+                  <c:v>5.0194872922713985E-3</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.8092714238076924E-3</c:v>
+                  <c:v>4.8039223706847862E-3</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4.5959360579298581E-3</c:v>
+                  <c:v>4.5929563502424145E-3</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.3875496542811771E-3</c:v>
+                  <c:v>4.3868054155469828E-3</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.1843064915007798E-3</c:v>
+                  <c:v>4.185661846465895E-3</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>3.9863764541873984E-3</c:v>
+                  <c:v>3.9896943291991144E-3</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>3.7939054805248189E-3</c:v>
+                  <c:v>3.7990483699943994E-3</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>3.6070161090752595E-3</c:v>
+                  <c:v>3.6138468043499057E-3</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.4258081167622481E-3</c:v>
+                  <c:v>3.4341903942147925E-3</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>3.2503592398058869E-3</c:v>
+                  <c:v>3.2601585054437077E-3</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>3.0807259691931002E-3</c:v>
+                  <c:v>3.0918098575795617E-3</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>2.9169444121616281E-3</c:v>
+                  <c:v>2.9291833379291366E-3</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>2.7590312111459678E-3</c:v>
+                  <c:v>2.7722988718549388E-3</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>2.6069845116730699E-3</c:v>
+                  <c:v>2.6211583412315801E-3</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>2.4607849708010894E-3</c:v>
+                  <c:v>2.4757465431018777E-3</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>2.3203967978617018E-3</c:v>
+                  <c:v>2.3360321807131853E-3</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.1857688194904033E-3</c:v>
+                  <c:v>2.2019688793134561E-3</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>2.0568355612048997E-3</c:v>
+                  <c:v>2.0734962193348608E-3</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.9335183381136232E-3</c:v>
+                  <c:v>1.9505407798852362E-3</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.8157263476992732E-3</c:v>
+                  <c:v>1.8330171857994081E-3</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.703357758020242E-3</c:v>
+                  <c:v>1.7208291518681837E-3</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.5963007851005049E-3</c:v>
+                  <c:v>1.6138705182573998E-3</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>1.4944347537300927E-3</c:v>
+                  <c:v>1.5120262715477208E-3</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>1.397631136368493E-3</c:v>
+                  <c:v>1.4151735462626202E-3</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.3057545653265962E-3</c:v>
+                  <c:v>1.3231826022024342E-3</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>1.2186638138941214E-3</c:v>
+                  <c:v>1.2359177733614359E-3</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>1.1362127425739311E-3</c:v>
+                  <c:v>1.1532383846682144E-3</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.0582512070775659E-3</c:v>
+                  <c:v>1.0749996332526976E-3</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>9.8462592522347275E-4</c:v>
+                  <c:v>1.0010534314020263E-3</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>9.151813003567289E-4</c:v>
+                  <c:v>9.3124920881826182E-4</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>8.4976019937305699E-4</c:v>
+                  <c:v>8.6543467223028304E-4</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>7.8820468387727971E-4</c:v>
+                  <c:v>8.0345652083699379E-4</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>7.3035669343426285E-4</c:v>
+                  <c:v>7.4516111646649513E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2368,6 +2371,9 @@
                 <c:pt idx="76" formatCode="0.0">
                   <c:v>54.571428571428569</c:v>
                 </c:pt>
+                <c:pt idx="83" formatCode="0.0">
+                  <c:v>88.285714285714292</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2409,6 +2415,9 @@
                 </c:pt>
                 <c:pt idx="76" formatCode="0.0">
                   <c:v>28.25395041911333</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.0">
+                  <c:v>35.386976350602424</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2760,10 +2769,10 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>Scrobbles!$C$2:$C$85</c:f>
+              <c:f>Scrobbles!$C$2:$C$92</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="91"/>
                 <c:pt idx="6" formatCode="0.0">
                   <c:v>35.285714285714285</c:v>
                 </c:pt>
@@ -2796,6 +2805,12 @@
                 </c:pt>
                 <c:pt idx="76" formatCode="0.0">
                   <c:v>54.571428571428569</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="0.0">
+                  <c:v>88.285714285714292</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="0.0">
+                  <c:v>68.857142857142861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3157,10 +3172,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Scrobbles!$E$2:$E$85</c:f>
+              <c:f>Scrobbles!$E$2:$E$135</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>43539</c:v>
                 </c:pt>
@@ -3412,16 +3427,76 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>43622</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43623</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43624</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43625</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43626</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43627</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43628</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43629</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>43630</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43631</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43632</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>43633</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>43634</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>43635</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>43636</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>43637</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43638</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43639</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>43640</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43641</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scrobbles!$I$2:$I$85</c:f>
+              <c:f>Scrobbles!$I$2:$I$135</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="134"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3673,6 +3748,36 @@
                 </c:pt>
                 <c:pt idx="83">
                   <c:v>5417</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5449</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5541</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5601</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5683</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5773</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5869</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5899</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5990</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6032</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3865,17 +3970,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Scrobbles!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Moving Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -3890,522 +3984,504 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Scrobbles!$E$2:$E$85</c:f>
+              <c:f>Scrobbles!$E$20:$E$135</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="116"/>
                 <c:pt idx="0">
-                  <c:v>43539</c:v>
+                  <c:v>43557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43540</c:v>
+                  <c:v>43558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43541</c:v>
+                  <c:v>43559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43542</c:v>
+                  <c:v>43560</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43543</c:v>
+                  <c:v>43561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43544</c:v>
+                  <c:v>43562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43545</c:v>
+                  <c:v>43563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43546</c:v>
+                  <c:v>43564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43547</c:v>
+                  <c:v>43565</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43548</c:v>
+                  <c:v>43566</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43549</c:v>
+                  <c:v>43567</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43550</c:v>
+                  <c:v>43568</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43551</c:v>
+                  <c:v>43569</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43552</c:v>
+                  <c:v>43570</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43553</c:v>
+                  <c:v>43571</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43554</c:v>
+                  <c:v>43572</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43555</c:v>
+                  <c:v>43573</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43556</c:v>
+                  <c:v>43574</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43557</c:v>
+                  <c:v>43575</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43558</c:v>
+                  <c:v>43576</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43559</c:v>
+                  <c:v>43577</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43560</c:v>
+                  <c:v>43578</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43561</c:v>
+                  <c:v>43579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43562</c:v>
+                  <c:v>43580</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43563</c:v>
+                  <c:v>43581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43564</c:v>
+                  <c:v>43582</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43565</c:v>
+                  <c:v>43583</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43566</c:v>
+                  <c:v>43584</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43567</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43568</c:v>
+                  <c:v>43586</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43569</c:v>
+                  <c:v>43587</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43570</c:v>
+                  <c:v>43588</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43571</c:v>
+                  <c:v>43589</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43572</c:v>
+                  <c:v>43590</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43573</c:v>
+                  <c:v>43591</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43574</c:v>
+                  <c:v>43592</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43575</c:v>
+                  <c:v>43593</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43576</c:v>
+                  <c:v>43594</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43577</c:v>
+                  <c:v>43595</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43578</c:v>
+                  <c:v>43596</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43579</c:v>
+                  <c:v>43597</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43580</c:v>
+                  <c:v>43598</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43581</c:v>
+                  <c:v>43599</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43582</c:v>
+                  <c:v>43600</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43583</c:v>
+                  <c:v>43601</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43584</c:v>
+                  <c:v>43602</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43585</c:v>
+                  <c:v>43603</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43586</c:v>
+                  <c:v>43604</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43587</c:v>
+                  <c:v>43605</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43588</c:v>
+                  <c:v>43606</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43589</c:v>
+                  <c:v>43607</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43590</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43591</c:v>
+                  <c:v>43609</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43592</c:v>
+                  <c:v>43610</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43593</c:v>
+                  <c:v>43611</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43594</c:v>
+                  <c:v>43612</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43595</c:v>
+                  <c:v>43613</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43596</c:v>
+                  <c:v>43614</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43597</c:v>
+                  <c:v>43615</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43598</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43599</c:v>
+                  <c:v>43617</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43600</c:v>
+                  <c:v>43618</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43601</c:v>
+                  <c:v>43619</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43602</c:v>
+                  <c:v>43620</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43603</c:v>
+                  <c:v>43621</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43604</c:v>
+                  <c:v>43622</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43605</c:v>
+                  <c:v>43623</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43606</c:v>
+                  <c:v>43624</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43607</c:v>
+                  <c:v>43625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43608</c:v>
+                  <c:v>43626</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43609</c:v>
+                  <c:v>43627</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43610</c:v>
+                  <c:v>43628</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43611</c:v>
+                  <c:v>43629</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43612</c:v>
+                  <c:v>43630</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43613</c:v>
+                  <c:v>43631</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>43614</c:v>
+                  <c:v>43632</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43615</c:v>
+                  <c:v>43633</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>43616</c:v>
+                  <c:v>43634</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43617</c:v>
+                  <c:v>43635</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>43618</c:v>
+                  <c:v>43636</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>43619</c:v>
+                  <c:v>43637</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>43620</c:v>
+                  <c:v>43638</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>43621</c:v>
+                  <c:v>43639</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>43622</c:v>
+                  <c:v>43640</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43641</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scrobbles!$G$2:$G$85</c:f>
+              <c:f>Scrobbles!$G$20:$G$135</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="116"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>48.631578947368418</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23</c:v>
+                  <c:v>47.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>28.333333333333332</c:v>
+                  <c:v>47.714285714285715</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>34.25</c:v>
+                  <c:v>46.363636363636367</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.200000000000003</c:v>
+                  <c:v>44.869565217391305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>41.166666666666664</c:v>
+                  <c:v>44.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>35.285714285714285</c:v>
+                  <c:v>46.76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>41.75</c:v>
+                  <c:v>49.884615384615387</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.111111111111114</c:v>
+                  <c:v>52.407407407407405</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.4</c:v>
+                  <c:v>52.571428571428569</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45.090909090909093</c:v>
+                  <c:v>52.655172413793103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.666666666666664</c:v>
+                  <c:v>54.966666666666669</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.384615384615387</c:v>
+                  <c:v>55.58064516129032</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46.714285714285715</c:v>
+                  <c:v>56.71875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>46.666666666666664</c:v>
+                  <c:v>58.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>46.875</c:v>
+                  <c:v>58.852941176470587</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49.117647058823529</c:v>
+                  <c:v>59.457142857142856</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48.166666666666664</c:v>
+                  <c:v>59.666666666666664</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48.631578947368418</c:v>
+                  <c:v>61.351351351351354</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>47.7</c:v>
+                  <c:v>60.157894736842103</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>47.714285714285715</c:v>
+                  <c:v>59.435897435897438</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>46.363636363636367</c:v>
+                  <c:v>59.95</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>44.869565217391305</c:v>
+                  <c:v>59.926829268292686</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>44.833333333333336</c:v>
+                  <c:v>60.69047619047619</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>46.76</c:v>
+                  <c:v>61.418604651162788</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49.884615384615387</c:v>
+                  <c:v>62.045454545454547</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>52.407407407407405</c:v>
+                  <c:v>61.466666666666669</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>52.571428571428569</c:v>
+                  <c:v>61.195652173913047</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>52.655172413793103</c:v>
+                  <c:v>61.297872340425535</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>54.966666666666669</c:v>
+                  <c:v>61.833333333333336</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>55.58064516129032</c:v>
+                  <c:v>61.734693877551024</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>56.71875</c:v>
+                  <c:v>63.34</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>58.666666666666664</c:v>
+                  <c:v>64.392156862745097</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>58.852941176470587</c:v>
+                  <c:v>64.192307692307693</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>59.457142857142856</c:v>
+                  <c:v>64.094339622641513</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>59.666666666666664</c:v>
+                  <c:v>64.666666666666671</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>61.351351351351354</c:v>
+                  <c:v>64.545454545454547</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>60.157894736842103</c:v>
+                  <c:v>64.714285714285708</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>59.435897435897438</c:v>
+                  <c:v>65.05263157894737</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>59.95</c:v>
+                  <c:v>65.051724137931032</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>59.926829268292686</c:v>
+                  <c:v>64.559322033898312</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>60.69047619047619</c:v>
+                  <c:v>64.816666666666663</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>61.418604651162788</c:v>
+                  <c:v>64.836065573770497</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>62.045454545454547</c:v>
+                  <c:v>64.935483870967744</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>61.466666666666669</c:v>
+                  <c:v>64.761904761904759</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>61.195652173913047</c:v>
+                  <c:v>64.078125</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>61.297872340425535</c:v>
+                  <c:v>64.230769230769226</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>61.833333333333336</c:v>
+                  <c:v>63.803030303030305</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>61.734693877551024</c:v>
+                  <c:v>63.835820895522389</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>63.34</c:v>
+                  <c:v>63.352941176470587</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>64.392156862745097</c:v>
+                  <c:v>62.927536231884055</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>64.192307692307693</c:v>
+                  <c:v>63.1</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>64.094339622641513</c:v>
+                  <c:v>62.647887323943664</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>64.666666666666671</c:v>
+                  <c:v>62.25</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>64.545454545454547</c:v>
+                  <c:v>62.06849315068493</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>64.714285714285708</c:v>
+                  <c:v>61.797297297297298</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>65.05263157894737</c:v>
+                  <c:v>62.453333333333333</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>65.051724137931032</c:v>
+                  <c:v>62.19736842105263</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>64.559322033898312</c:v>
+                  <c:v>62.324675324675326</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>64.816666666666663</c:v>
+                  <c:v>63.307692307692307</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>64.836065573770497</c:v>
+                  <c:v>63.303797468354432</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>64.935483870967744</c:v>
+                  <c:v>63.737499999999997</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>64.761904761904759</c:v>
+                  <c:v>63.654320987654323</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>64.078125</c:v>
+                  <c:v>64.280487804878049</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>64.230769230769226</c:v>
+                  <c:v>64.771084337349393</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>63.803030303030305</c:v>
+                  <c:v>64.488095238095241</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>63.835820895522389</c:v>
+                  <c:v>64.10588235294118</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>63.352941176470587</c:v>
+                  <c:v>64.430232558139537</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>62.927536231884055</c:v>
+                  <c:v>64.379310344827587</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>63.1</c:v>
+                  <c:v>64.579545454545453</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>62.647887323943664</c:v>
+                  <c:v>64.865168539325836</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>62.25</c:v>
+                  <c:v>65.211111111111109</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>62.06849315068493</c:v>
+                  <c:v>64.824175824175825</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>61.797297297297298</c:v>
+                  <c:v>65.108695652173907</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>62.453333333333333</c:v>
+                  <c:v>64.86021505376344</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>62.19736842105263</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>62.324675324675326</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>63.307692307692307</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>63.303797468354432</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>63.737499999999997</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>63.654320987654323</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>64.280487804878049</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>64.771084337349393</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>64.488095238095241</c:v>
+                  <c:v>64.202127659574472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4420,17 +4496,6 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Scrobbles!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Moving Deviation</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -4445,522 +4510,504 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Scrobbles!$E$2:$E$85</c:f>
+              <c:f>Scrobbles!$E$20:$E$135</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="116"/>
                 <c:pt idx="0">
-                  <c:v>43539</c:v>
+                  <c:v>43557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43540</c:v>
+                  <c:v>43558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43541</c:v>
+                  <c:v>43559</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43542</c:v>
+                  <c:v>43560</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43543</c:v>
+                  <c:v>43561</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43544</c:v>
+                  <c:v>43562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43545</c:v>
+                  <c:v>43563</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43546</c:v>
+                  <c:v>43564</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43547</c:v>
+                  <c:v>43565</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43548</c:v>
+                  <c:v>43566</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43549</c:v>
+                  <c:v>43567</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43550</c:v>
+                  <c:v>43568</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43551</c:v>
+                  <c:v>43569</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43552</c:v>
+                  <c:v>43570</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43553</c:v>
+                  <c:v>43571</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43554</c:v>
+                  <c:v>43572</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43555</c:v>
+                  <c:v>43573</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43556</c:v>
+                  <c:v>43574</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43557</c:v>
+                  <c:v>43575</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43558</c:v>
+                  <c:v>43576</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43559</c:v>
+                  <c:v>43577</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43560</c:v>
+                  <c:v>43578</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43561</c:v>
+                  <c:v>43579</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43562</c:v>
+                  <c:v>43580</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43563</c:v>
+                  <c:v>43581</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43564</c:v>
+                  <c:v>43582</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43565</c:v>
+                  <c:v>43583</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>43566</c:v>
+                  <c:v>43584</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>43567</c:v>
+                  <c:v>43585</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>43568</c:v>
+                  <c:v>43586</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>43569</c:v>
+                  <c:v>43587</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>43570</c:v>
+                  <c:v>43588</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>43571</c:v>
+                  <c:v>43589</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>43572</c:v>
+                  <c:v>43590</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>43573</c:v>
+                  <c:v>43591</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>43574</c:v>
+                  <c:v>43592</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>43575</c:v>
+                  <c:v>43593</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>43576</c:v>
+                  <c:v>43594</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>43577</c:v>
+                  <c:v>43595</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>43578</c:v>
+                  <c:v>43596</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>43579</c:v>
+                  <c:v>43597</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>43580</c:v>
+                  <c:v>43598</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>43581</c:v>
+                  <c:v>43599</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>43582</c:v>
+                  <c:v>43600</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>43583</c:v>
+                  <c:v>43601</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>43584</c:v>
+                  <c:v>43602</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>43585</c:v>
+                  <c:v>43603</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>43586</c:v>
+                  <c:v>43604</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>43587</c:v>
+                  <c:v>43605</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>43588</c:v>
+                  <c:v>43606</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>43589</c:v>
+                  <c:v>43607</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>43590</c:v>
+                  <c:v>43608</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>43591</c:v>
+                  <c:v>43609</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>43592</c:v>
+                  <c:v>43610</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>43593</c:v>
+                  <c:v>43611</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>43594</c:v>
+                  <c:v>43612</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>43595</c:v>
+                  <c:v>43613</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>43596</c:v>
+                  <c:v>43614</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>43597</c:v>
+                  <c:v>43615</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>43598</c:v>
+                  <c:v>43616</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>43599</c:v>
+                  <c:v>43617</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>43600</c:v>
+                  <c:v>43618</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>43601</c:v>
+                  <c:v>43619</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>43602</c:v>
+                  <c:v>43620</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>43603</c:v>
+                  <c:v>43621</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>43604</c:v>
+                  <c:v>43622</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>43605</c:v>
+                  <c:v>43623</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>43606</c:v>
+                  <c:v>43624</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>43607</c:v>
+                  <c:v>43625</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>43608</c:v>
+                  <c:v>43626</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>43609</c:v>
+                  <c:v>43627</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>43610</c:v>
+                  <c:v>43628</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>43611</c:v>
+                  <c:v>43629</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>43612</c:v>
+                  <c:v>43630</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>43613</c:v>
+                  <c:v>43631</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>43614</c:v>
+                  <c:v>43632</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>43615</c:v>
+                  <c:v>43633</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>43616</c:v>
+                  <c:v>43634</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>43617</c:v>
+                  <c:v>43635</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>43618</c:v>
+                  <c:v>43636</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>43619</c:v>
+                  <c:v>43637</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>43620</c:v>
+                  <c:v>43638</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>43621</c:v>
+                  <c:v>43639</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>43622</c:v>
+                  <c:v>43640</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>43641</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Scrobbles!$H$2:$H$85</c:f>
+              <c:f>Scrobbles!$H$20:$H$135</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="84"/>
+                <c:ptCount val="116"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>24.660239735710494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>24.376423035384008</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.021349989749739</c:v>
+                  <c:v>23.78903880670547</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.237699957670777</c:v>
+                  <c:v>24.052112843394962</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18.093092604637828</c:v>
+                  <c:v>24.545086018122877</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16.657497477779255</c:v>
+                  <c:v>24.028917763579969</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.103244745192864</c:v>
+                  <c:v>25.364983737428258</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>26.118719340733382</c:v>
+                  <c:v>29.372052288209311</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>24.924082260801701</c:v>
+                  <c:v>31.563292391824351</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>25.004799539288452</c:v>
+                  <c:v>31.006253483806148</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28.07928562110752</c:v>
+                  <c:v>30.470195569994651</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28.208548743638374</c:v>
+                  <c:v>32.441211787203976</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.463369902299547</c:v>
+                  <c:v>32.090370572100518</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>26.491045849571165</c:v>
+                  <c:v>32.214354695345058</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.593401927493389</c:v>
+                  <c:v>33.581801228304798</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24.793837439976894</c:v>
+                  <c:v>33.101565942113211</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>25.671871429620435</c:v>
+                  <c:v>32.814929404719656</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>25.254812522676851</c:v>
+                  <c:v>32.379691852215707</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24.660239735710494</c:v>
+                  <c:v>33.500476976206009</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24.376423035384008</c:v>
+                  <c:v>33.844478921422379</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>23.78903880670547</c:v>
+                  <c:v>33.702921483193428</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24.052112843394962</c:v>
+                  <c:v>33.433478730159088</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.545086018122877</c:v>
+                  <c:v>33.023561613699052</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>24.028917763579969</c:v>
+                  <c:v>32.99241478137931</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>25.364983737428258</c:v>
+                  <c:v>32.946208842942298</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29.372052288209311</c:v>
+                  <c:v>32.82803302158257</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31.563292391824351</c:v>
+                  <c:v>32.687476364979773</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31.006253483806148</c:v>
+                  <c:v>32.381301344272472</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30.470195569994651</c:v>
+                  <c:v>32.042468424063514</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>32.441211787203976</c:v>
+                  <c:v>31.918733614533576</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>32.090370572100518</c:v>
+                  <c:v>31.598744169184229</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>32.214354695345058</c:v>
+                  <c:v>33.238297188634682</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>33.581801228304798</c:v>
+                  <c:v>33.741275375649245</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33.101565942113211</c:v>
+                  <c:v>33.44573012964922</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>32.814929404719656</c:v>
+                  <c:v>33.136233460671541</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32.379691852215707</c:v>
+                  <c:v>33.091343838487987</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>33.500476976206009</c:v>
+                  <c:v>32.801229567762014</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>33.844478921422379</c:v>
+                  <c:v>32.531146770504137</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>33.702921483193428</c:v>
+                  <c:v>32.343778952596764</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>33.433478730159088</c:v>
+                  <c:v>32.063741695412077</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>33.023561613699052</c:v>
+                  <c:v>32.011264535589355</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>32.99241478137931</c:v>
+                  <c:v>31.80486947343476</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>32.946208842942298</c:v>
+                  <c:v>31.543454454870979</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>32.82803302158257</c:v>
+                  <c:v>31.297671235506787</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>32.687476364979773</c:v>
+                  <c:v>31.078351719134517</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>32.381301344272472</c:v>
+                  <c:v>31.308597405255558</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>32.042468424063514</c:v>
+                  <c:v>31.090819436844018</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>31.918733614533576</c:v>
+                  <c:v>31.046504559494586</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31.598744169184229</c:v>
+                  <c:v>30.815094680156772</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>33.238297188634682</c:v>
+                  <c:v>30.841990430295223</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>33.741275375649245</c:v>
+                  <c:v>30.817987802429869</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>33.44573012964922</c:v>
+                  <c:v>30.630586953939638</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>33.136233460671541</c:v>
+                  <c:v>30.648437495061842</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>33.091343838487987</c:v>
+                  <c:v>30.61896198980843</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>32.801229567762014</c:v>
+                  <c:v>30.447497486802707</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>32.531146770504137</c:v>
+                  <c:v>30.329710582970446</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>32.343778952596764</c:v>
+                  <c:v>30.65084809412113</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>32.063741695412077</c:v>
+                  <c:v>30.529114549558351</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>32.011264535589355</c:v>
+                  <c:v>30.350524314965092</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>31.80486947343476</c:v>
+                  <c:v>31.364812757131848</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>31.543454454870979</c:v>
+                  <c:v>31.165688058528609</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>31.297671235506787</c:v>
+                  <c:v>31.209270958322627</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>31.078351719134517</c:v>
+                  <c:v>31.024944362352858</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>31.308597405255558</c:v>
+                  <c:v>31.345935431164428</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>31.090819436844018</c:v>
+                  <c:v>31.471664555732509</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>31.046504559494586</c:v>
+                  <c:v>31.389827760726444</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>30.815094680156772</c:v>
+                  <c:v>31.400645751850679</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>30.841990430295223</c:v>
+                  <c:v>31.360447870583595</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>30.817987802429869</c:v>
+                  <c:v>31.183270411349806</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>30.630586953939638</c:v>
+                  <c:v>31.061786516740632</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>30.648437495061842</c:v>
+                  <c:v>31.002787482953327</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>30.61896198980843</c:v>
+                  <c:v>31.002327670477491</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>30.447497486802707</c:v>
+                  <c:v>31.049267269085558</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>30.329710582970446</c:v>
+                  <c:v>30.999108164499329</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>30.65084809412113</c:v>
+                  <c:v>30.923975943041267</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>30.529114549558351</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>30.350524314965092</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>31.364812757131848</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>31.165688058528609</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>31.209270958322627</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>31.024944362352858</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>31.345935431164428</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>31.471664555732509</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>31.389827760726444</c:v>
+                  <c:v>31.406930996549168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5038,6 +5085,7 @@
         <c:axId val="402770680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="20"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5329,25 +5377,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>57.384615384615387</c:v>
+                  <c:v>63.692307692307693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.692307692307693</c:v>
+                  <c:v>84.615384615384613</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>57.46153846153846</c:v>
+                  <c:v>64.84615384615384</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>58.416666666666664</c:v>
+                  <c:v>56.230769230769234</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>63.384615384615387</c:v>
+                  <c:v>65.357142857142861</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>71.538461538461533</c:v>
+                  <c:v>69.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49.46153846153846</c:v>
+                  <c:v>46.142857142857146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6013,424 +6061,424 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="140"/>
                 <c:pt idx="0">
-                  <c:v>1.0975410396270501E-28</c:v>
+                  <c:v>1.3102984612244223E-28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0658935206334567E-27</c:v>
+                  <c:v>8.4123949079674365E-27</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2744867591418278E-25</c:v>
+                  <c:v>2.7004682590203904E-25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.8809962980664513E-24</c:v>
+                  <c:v>5.7791935968751899E-24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.8558793866293974E-23</c:v>
+                  <c:v>9.2759131268994551E-23</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0115121941266967E-21</c:v>
+                  <c:v>1.1910667174646454E-21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0853409577209975E-20</c:v>
+                  <c:v>1.274483624095588E-20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.9819289067245755E-20</c:v>
+                  <c:v>1.1689222904888883E-19</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.032871236575372E-19</c:v>
+                  <c:v>9.3809122647612089E-19</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.746119003328036E-18</c:v>
+                  <c:v>6.6919391865051746E-18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.6993117859356869E-17</c:v>
+                  <c:v>4.2963673394211656E-17</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.1650831048093765E-16</c:v>
+                  <c:v>2.5075993127085607E-16</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.1615546427238888E-15</c:v>
+                  <c:v>1.3416100932798122E-15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.7523143712612558E-15</c:v>
+                  <c:v>6.6257094213941494E-15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.6452145150602851E-14</c:v>
+                  <c:v>3.0384617293399479E-14</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.1353139079580529E-13</c:v>
+                  <c:v>1.3005047189054269E-13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5681704012019261E-13</c:v>
+                  <c:v>5.2184481240653352E-13</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7299744703943247E-12</c:v>
+                  <c:v>1.9707968979182928E-12</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.1874757398969277E-12</c:v>
+                  <c:v>7.0294085572912982E-12</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0965548468942831E-11</c:v>
+                  <c:v>2.3752788714027496E-11</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.7487377571580028E-11</c:v>
+                  <c:v>7.6248978664444756E-11</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.0689480119234756E-10</c:v>
+                  <c:v>2.3311174581556421E-10</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.0544293703152888E-10</c:v>
+                  <c:v>6.8028500289986971E-10</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.694695597358116E-9</c:v>
+                  <c:v>1.8989454174378881E-9</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.5459722417637784E-9</c:v>
+                  <c:v>5.0798473378712856E-9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.1706662310859317E-8</c:v>
+                  <c:v>1.3045480291086487E-8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.8987186385111791E-8</c:v>
+                  <c:v>3.2213368885722928E-8</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.9117595122609896E-8</c:v>
+                  <c:v>7.6598771168375962E-8</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.5891939666738123E-7</c:v>
+                  <c:v>1.7563586018280749E-7</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3.5279728130558748E-7</c:v>
+                  <c:v>3.8883434196744026E-7</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.5709485539946296E-7</c:v>
+                  <c:v>8.3213306871400996E-7</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.5722982147172417E-6</c:v>
+                  <c:v>1.7233778550751707E-6</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.1632335849968599E-6</c:v>
+                  <c:v>3.4576414080381029E-6</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6.1711150503544082E-6</c:v>
+                  <c:v>6.726907123633144E-6</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.1685062676482381E-5</c:v>
+                  <c:v>1.2702404408988075E-5</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.1493607898514881E-5</c:v>
+                  <c:v>2.3300611127125563E-5</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>3.8437323703570159E-5</c:v>
+                  <c:v>4.1554133614717288E-5</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>6.6880226798290174E-5</c:v>
+                  <c:v>7.2104426786894114E-5</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.1330797044683076E-4</c:v>
+                  <c:v>1.218225687734898E-4</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.8704330753690032E-4</c:v>
+                  <c:v>2.0054533621058815E-4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3.010429785960286E-4</c:v>
+                  <c:v>3.2188593192311105E-4</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.7270583771134134E-4</c:v>
+                  <c:v>5.0404296812557744E-4</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>7.2458275780547829E-4</c:v>
+                  <c:v>7.7049121394069317E-4</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.0848404240760444E-3</c:v>
+                  <c:v>1.1503994250697872E-3</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.5873017803683187E-3</c:v>
+                  <c:v>1.6785929715416284E-3</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.270875420649545E-3</c:v>
+                  <c:v>2.3948720054973289E-3</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.1782042056616947E-3</c:v>
+                  <c:v>3.3425190918539376E-3</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4.3534169126708587E-3</c:v>
+                  <c:v>4.5658901582930006E-3</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.8389578850262134E-3</c:v>
+                  <c:v>6.1070804754650328E-3</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>7.6715935055200165E-3</c:v>
+                  <c:v>8.0017869451653317E-3</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>9.8778379826247251E-3</c:v>
+                  <c:v>1.0274634939164445E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.246918425528086E-2</c:v>
+                  <c:v>1.293438086313253E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.5437643902260845E-2</c:v>
+                  <c:v>1.5969514834084462E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.8752167316539385E-2</c:v>
+                  <c:v>1.9344845849799213E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.2356511098326318E-2</c:v>
+                  <c:v>2.2999634496362928E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.6169032113213329E-2</c:v>
+                  <c:v>2.684773581925539E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>3.0084718568577119E-2</c:v>
+                  <c:v>3.0780031472113629E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>3.3979533918653056E-2</c:v>
+                  <c:v>3.4669184384883485E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>3.7716878612440663E-2</c:v>
+                  <c:v>3.8376472443648529E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>4.1155705651330643E-2</c:v>
+                  <c:v>4.1760189541546901E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>4.4159599109789886E-2</c:v>
+                  <c:v>4.4684883667240327E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>4.6605975996595619E-2</c:v>
+                  <c:v>4.7030567305859007E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>4.8394525687232529E-2</c:v>
+                  <c:v>4.8701007839886623E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>4.9454066479509076E-2</c:v>
+                  <c:v>4.9630290833116451E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>4.9747167089032041E-2</c:v>
+                  <c:v>4.9787035435149243E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>4.9272127827704404E-2</c:v>
+                  <c:v>4.9175901612295528E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>4.8062206193481782E-2</c:v>
+                  <c:v>4.7836325955867745E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>4.6182264005779981E-2</c:v>
+                  <c:v>4.583871501169607E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>4.3723269218453951E-2</c:v>
+                  <c:v>4.3278574013702428E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>4.0795274178337594E-2</c:v>
+                  <c:v>4.0269225126841522E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>3.7519594527564683E-2</c:v>
+                  <c:v>3.6933856176366069E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>3.4020924226791274E-2</c:v>
+                  <c:v>3.3397635904160755E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>3.0420050541867513E-2</c:v>
+                  <c:v>2.9780545608984986E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.6827696911509977E-2</c:v>
+                  <c:v>2.6191430013148411E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.3339846287879371E-2</c:v>
+                  <c:v>2.2723588287715743E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.0034709434239444E-2</c:v>
+                  <c:v>1.9452036215087197E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.6971326004412434E-2</c:v>
+                  <c:v>1.6432396214732761E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.4189639789627426E-2</c:v>
+                  <c:v>1.3701231162740024E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.171178491920177E-2</c:v>
+                  <c:v>1.1277540925686882E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>9.5442612152552165E-3</c:v>
+                  <c:v>9.1650901543927129E-3</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>7.680661934862722E-3</c:v>
+                  <c:v>7.3552286012978614E-3</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>6.1046384982497599E-3</c:v>
+                  <c:v>5.8298929089614744E-3</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.7928343466073628E-3</c:v>
+                  <c:v>4.5645308388145515E-3</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.7175827690552219E-3</c:v>
+                  <c:v>3.5307541158992408E-3</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.8492311288284612E-3</c:v>
+                  <c:v>2.6985943628991655E-3</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.1580180598469454E-3</c:v>
+                  <c:v>2.0382999975089473E-3</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.6154850512166163E-3</c:v>
+                  <c:v>1.5216650773090656E-3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.1954461318356851E-3</c:v>
+                  <c:v>1.1229210982587705E-3</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>8.7456815365878821E-4</c:v>
+                  <c:v>8.1924913297771551E-4</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6.3263027620339091E-4</c:v>
+                  <c:v>5.909835665216987E-4</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>4.5253667650257978E-4</c:v>
+                  <c:v>4.2158224869485224E-4</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>3.2015383669204789E-4</c:v>
+                  <c:v>2.9743381702986092E-4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.2403568707048504E-4</c:v>
+                  <c:v>2.0756395533940962E-4</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.5508884974438125E-4</c:v>
+                  <c:v>1.4329083395942988E-4</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.0621822541187075E-4</c:v>
+                  <c:v>9.7867834194789204E-5</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>7.1981643137554335E-5</c:v>
+                  <c:v>6.6140244049894213E-5</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.8272172319617242E-5</c:v>
+                  <c:v>4.4232754082570095E-5</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>3.203844497715104E-5</c:v>
+                  <c:v>2.9276669323130908E-5</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>2.10470713484659E-5</c:v>
+                  <c:v>1.9179841442151139E-5</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.3686827658511402E-5</c:v>
+                  <c:v>1.2438248775347202E-5</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>8.8114852546347897E-6</c:v>
+                  <c:v>7.9856203573639593E-6</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>5.6166073644257566E-6</c:v>
+                  <c:v>5.076176412122521E-6</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>3.5450324372491359E-6</c:v>
+                  <c:v>3.1951110395452021E-6</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>2.2157936258266039E-6</c:v>
+                  <c:v>1.9915818140523907E-6</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.3716467836267568E-6</c:v>
+                  <c:v>1.229459517983457E-6</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>8.4100641872943668E-7</c:v>
+                  <c:v>7.5175158977002684E-7</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>5.1078691729598849E-7</c:v>
+                  <c:v>4.5532124089342132E-7</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>3.0732812587547993E-7</c:v>
+                  <c:v>2.732017984481836E-7</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1.8319974808732996E-7</c:v>
+                  <c:v>1.6240867352588336E-7</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1.0820434346062855E-7</c:v>
+                  <c:v>9.5660388905790196E-8</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>6.3328372802818975E-8</c:v>
+                  <c:v>5.5832731822672483E-8</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>3.6730062759510309E-8</c:v>
+                  <c:v>3.2293515099658137E-8</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>2.1113000976602798E-8</c:v>
+                  <c:v>1.8511717669684411E-8</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>1.2028676479498668E-8</c:v>
+                  <c:v>1.0517625318823643E-8</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>6.7929640009751782E-9</c:v>
+                  <c:v>5.9232800297779539E-9</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>3.8028377180871567E-9</c:v>
+                  <c:v>3.3068450490018516E-9</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>2.1105523245150879E-9</c:v>
+                  <c:v>1.8302283447107748E-9</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>1.1613325051192549E-9</c:v>
+                  <c:v>1.0043124259255714E-9</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>6.3360835390346452E-10</c:v>
+                  <c:v>5.4643215745229431E-10</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>3.4278377187417643E-10</c:v>
+                  <c:v>2.9480762294158292E-10</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.8390152358881545E-10</c:v>
+                  <c:v>1.5772730535926232E-10</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>9.7846721157116887E-11</c:v>
+                  <c:v>8.3689492513025198E-11</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>5.1633642849161693E-11</c:v>
+                  <c:v>4.4041340017099654E-11</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>2.7025514774148171E-11</c:v>
+                  <c:v>2.2988192959972433E-11</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.40313226038193E-11</c:v>
+                  <c:v>1.1902345960315081E-11</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>7.2266149796773692E-12</c:v>
+                  <c:v>6.1132474783405214E-12</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>3.6924165755494941E-12</c:v>
+                  <c:v>3.1149483731665922E-12</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.8717734853518328E-12</c:v>
+                  <c:v>1.5746953787954975E-12</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>9.4143348522411912E-13</c:v>
+                  <c:v>7.8983432604976131E-13</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>4.6983595747484752E-13</c:v>
+                  <c:v>3.9309336613148441E-13</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.3267473013409732E-13</c:v>
+                  <c:v>1.9413408057311464E-13</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>1.1434686000536041E-13</c:v>
+                  <c:v>9.514367193915413E-14</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5.5769484751830717E-14</c:v>
+                  <c:v>4.6275955847260166E-14</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>2.6995495989542802E-14</c:v>
+                  <c:v>2.233845732988448E-14</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>1.2969786673308309E-14</c:v>
+                  <c:v>1.0702809620978899E-14</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>6.1850808988677059E-15</c:v>
+                  <c:v>5.0899492563126889E-15</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>2.9278767845299173E-15</c:v>
+                  <c:v>2.4028350877540293E-15</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>1.3758736362238486E-15</c:v>
+                  <c:v>1.1260374091159783E-15</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>6.418680856646353E-16</c:v>
+                  <c:v>5.2386954702551521E-16</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>2.9728794739168473E-16</c:v>
+                  <c:v>2.4196791032442343E-16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11053,7 +11101,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{A398116E-A909-4FD2-93D9-9DE6F8A17A28}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11664,8 +11712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF077D24-1D39-4E07-9755-929C3645CE83}">
   <dimension ref="A1:R105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="C1" zoomScale="82" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11816,20 +11864,20 @@
       </c>
       <c r="L4" s="26">
         <f>SUM(Calc!K2:K406)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M4" s="26">
         <f>SUM('Dist Calc'!B2:B21)*L12</f>
-        <v>4.8421915098107933</v>
+        <v>5.3590016878126407</v>
       </c>
       <c r="N4" s="27">
         <f>SUM('Dist Calc'!C2:C21)*L12</f>
-        <v>2.5358797026748639E-9</v>
-      </c>
-      <c r="Q4" s="34" t="s">
+        <v>3.1102494873660961E-9</v>
+      </c>
+      <c r="Q4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="R4" s="35"/>
+      <c r="R4" s="37"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -11861,22 +11909,22 @@
       </c>
       <c r="L5" s="26">
         <f>SUM(Calc!L2:L406)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M5" s="26">
         <f>SUM('Dist Calc'!B22:B41)*L12</f>
-        <v>11.819381347534033</v>
+        <v>12.876712955155122</v>
       </c>
       <c r="N5" s="27">
         <f>SUM('Dist Calc'!C22:C41)*L12</f>
-        <v>3.8798030486749069E-2</v>
+        <v>4.5148136807356465E-2</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="R5" s="30">
         <f ca="1">TODAY()</f>
-        <v>43629</v>
+        <v>43633</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
@@ -11909,22 +11957,22 @@
       </c>
       <c r="L6" s="26">
         <f>SUM(Calc!M2:M406)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M6" s="26">
         <f>SUM('Dist Calc'!B42:B61)*L12</f>
-        <v>19.380662743108523</v>
+        <v>20.898917700965612</v>
       </c>
       <c r="N6" s="27">
         <f>SUM('Dist Calc'!C42:C61)*L12</f>
-        <v>23.691515220950592</v>
+        <v>26.299859282270628</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="R6" s="5">
         <f ca="1">R5-E2</f>
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
@@ -11961,11 +12009,11 @@
       </c>
       <c r="M7" s="26">
         <f>SUM('Dist Calc'!B62:B81)*L12</f>
-        <v>21.354230803765116</v>
+        <v>22.916762356830439</v>
       </c>
       <c r="N7" s="27">
         <f>SUM('Dist Calc'!C62:C81)*L12</f>
-        <v>59.423962629406859</v>
+        <v>63.731772604214356</v>
       </c>
       <c r="Q7" s="4"/>
       <c r="R7" s="5"/>
@@ -12008,22 +12056,22 @@
       </c>
       <c r="L8" s="26">
         <f>SUM(Calc!O2:O406)</f>
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M8" s="26">
         <f>SUM('Dist Calc'!B82:B101)*L12</f>
-        <v>15.811196217924008</v>
+        <v>16.979125838168919</v>
       </c>
       <c r="N8" s="27">
         <f>SUM('Dist Calc'!C82:C101)*L12</f>
-        <v>2.8436893975295754</v>
+        <v>2.9212347317026133</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>17</v>
       </c>
       <c r="R8" s="6">
         <f>_xlfn.STDEV.P(F:F)</f>
-        <v>31.183270411349806</v>
+        <v>31.406930996549168</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
@@ -12060,18 +12108,18 @@
       </c>
       <c r="M9" s="26">
         <f>SUM('Dist Calc'!B102:B121)*L12</f>
-        <v>7.8656922387306887</v>
+        <v>8.4984390921493773</v>
       </c>
       <c r="N9" s="27">
         <f>SUM('Dist Calc'!C102:C121)*L12</f>
-        <v>2.034685628137814E-3</v>
+        <v>1.9852109525180881E-3</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="R9" s="6">
         <f>AVERAGE(F:F)</f>
-        <v>64.379310344827587</v>
+        <v>64.202127659574472</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
@@ -12108,18 +12156,18 @@
       </c>
       <c r="M10" s="26">
         <f>SUM('Dist Calc'!B122:B141)*L12</f>
-        <v>2.6280525783632354</v>
+        <v>2.8725424253315563</v>
       </c>
       <c r="N10" s="27">
         <f>SUM('Dist Calc'!C122:C141)*L12</f>
-        <v>3.3462168606907146E-8</v>
+        <v>3.0942260209101191E-8</v>
       </c>
       <c r="Q10" s="31" t="s">
         <v>15</v>
       </c>
       <c r="R10" s="5">
         <f>SUM(F:F)</f>
-        <v>5601</v>
+        <v>6035</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12156,18 +12204,18 @@
       </c>
       <c r="M11" s="26">
         <f>SUM('Dist Calc'!B142:B161)*L12</f>
-        <v>0.58939872389234638</v>
+        <v>0.65533391358473458</v>
       </c>
       <c r="N11" s="27">
         <f>SUM('Dist Calc'!C142:C161)*L12</f>
-        <v>2.1531819686665384E-14</v>
+        <v>1.8856723944921499E-14</v>
       </c>
       <c r="Q11" s="20" t="s">
         <v>46</v>
       </c>
       <c r="R11" s="25">
         <f ca="1">SUM(Calc!T2:T406)/Scrobbles!R6</f>
-        <v>0.9555555555555556</v>
+        <v>0.98936170212765961</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
@@ -12200,15 +12248,15 @@
       </c>
       <c r="L12" s="26">
         <f>SUM(L4:L10)</f>
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M12" s="26">
         <f>SUM(M4:M10)</f>
-        <v>83.701407439236405</v>
+        <v>90.401502056413676</v>
       </c>
       <c r="N12" s="27">
         <f>SUM(N4:N10)</f>
-        <v>85.999999999999957</v>
+        <v>92.999999999999972</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
@@ -12275,7 +12323,7 @@
       </c>
       <c r="M14" s="24">
         <f>_xlfn.CHISQ.TEST(L4:L12,M4:M12)</f>
-        <v>0.57070172345926606</v>
+        <v>0.47174164522879081</v>
       </c>
       <c r="N14" s="25">
         <f>_xlfn.CHISQ.TEST(L4:L12,N4:N12)</f>
@@ -12318,19 +12366,19 @@
         <f>SUM($F$2:F15)</f>
         <v>654</v>
       </c>
-      <c r="L15" s="36" t="s">
+      <c r="L15" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="M15" s="37">
+      <c r="M15" s="35">
         <f>_xlfn.CHISQ.TEST(L4:L11,M4:M11)</f>
-        <v>0.46901622783676322</v>
+        <v>0.3746692961044028</v>
       </c>
       <c r="P15" t="s">
         <v>18</v>
       </c>
       <c r="Q15" s="29">
         <f>294*R9</f>
-        <v>18927.517241379312</v>
+        <v>18875.425531914894</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
@@ -14140,7 +14188,7 @@
         <v>5001</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -14166,7 +14214,7 @@
         <v>5099</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -14192,7 +14240,7 @@
         <v>5156</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -14218,7 +14266,7 @@
         <v>5271</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -14244,15 +14292,21 @@
         <v>5376</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
+      <c r="C85" s="33">
+        <f>AVERAGE(F79:F85)</f>
+        <v>88.285714285714292</v>
+      </c>
+      <c r="D85" s="33">
+        <f>_xlfn.STDEV.S(F79:F85)</f>
+        <v>35.386976350602424</v>
+      </c>
       <c r="E85" s="1">
         <v>43622</v>
       </c>
@@ -14272,7 +14326,7 @@
         <v>5417</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -14298,7 +14352,7 @@
         <v>5449</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -14324,7 +14378,7 @@
         <v>5541</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -14350,7 +14404,7 @@
         <v>5601</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -14360,8 +14414,23 @@
       <c r="E89" s="1">
         <v>43626</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F89">
+        <v>82</v>
+      </c>
+      <c r="G89" s="3">
+        <f>AVERAGE(F$2:F89)</f>
+        <v>64.579545454545453</v>
+      </c>
+      <c r="H89" s="3">
+        <f>_xlfn.STDEV.P($F$2:F89)</f>
+        <v>31.061786516740632</v>
+      </c>
+      <c r="I89">
+        <f>SUM($F$2:F89)</f>
+        <v>5683</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -14371,8 +14440,23 @@
       <c r="E90" s="1">
         <v>43627</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F90">
+        <v>90</v>
+      </c>
+      <c r="G90" s="3">
+        <f>AVERAGE(F$2:F90)</f>
+        <v>64.865168539325836</v>
+      </c>
+      <c r="H90" s="3">
+        <f>_xlfn.STDEV.P($F$2:F90)</f>
+        <v>31.002787482953327</v>
+      </c>
+      <c r="I90">
+        <f>SUM($F$2:F90)</f>
+        <v>5773</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -14382,21 +14466,57 @@
       <c r="E91" s="1">
         <v>43628</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F91">
+        <v>96</v>
+      </c>
+      <c r="G91" s="3">
+        <f>AVERAGE(F$2:F91)</f>
+        <v>65.211111111111109</v>
+      </c>
+      <c r="H91" s="3">
+        <f>_xlfn.STDEV.P($F$2:F91)</f>
+        <v>31.002327670477491</v>
+      </c>
+      <c r="I91">
+        <f>SUM($F$2:F91)</f>
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
+      <c r="C92" s="33">
+        <f>AVERAGE(F86:F92)</f>
+        <v>68.857142857142861</v>
+      </c>
+      <c r="D92" s="33">
+        <f>_xlfn.STDEV.S(F86:F92)</f>
+        <v>28.398524441882376</v>
+      </c>
       <c r="E92" s="1">
         <v>43629</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F92">
+        <v>30</v>
+      </c>
+      <c r="G92" s="3">
+        <f>AVERAGE(F$2:F92)</f>
+        <v>64.824175824175825</v>
+      </c>
+      <c r="H92" s="3">
+        <f>_xlfn.STDEV.P($F$2:F92)</f>
+        <v>31.049267269085558</v>
+      </c>
+      <c r="I92">
+        <f>SUM($F$2:F92)</f>
+        <v>5899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -14406,8 +14526,26 @@
       <c r="E93" s="1">
         <v>43630</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F93">
+        <v>91</v>
+      </c>
+      <c r="G93" s="3">
+        <f>AVERAGE(F$2:F93)</f>
+        <v>65.108695652173907</v>
+      </c>
+      <c r="H93" s="3">
+        <f>_xlfn.STDEV.P($F$2:F93)</f>
+        <v>30.999108164499329</v>
+      </c>
+      <c r="I93">
+        <f>SUM($F$2:F93)</f>
+        <v>5990</v>
+      </c>
+      <c r="J93" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -14417,8 +14555,23 @@
       <c r="E94" s="1">
         <v>43631</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F94">
+        <v>42</v>
+      </c>
+      <c r="G94" s="3">
+        <f>AVERAGE(F$2:F94)</f>
+        <v>64.86021505376344</v>
+      </c>
+      <c r="H94" s="3">
+        <f>_xlfn.STDEV.P($F$2:F94)</f>
+        <v>30.923975943041267</v>
+      </c>
+      <c r="I94">
+        <f>SUM($F$2:F94)</f>
+        <v>6032</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -14428,8 +14581,23 @@
       <c r="E95" s="1">
         <v>43632</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F95">
+        <v>3</v>
+      </c>
+      <c r="G95" s="3">
+        <f>AVERAGE(F$2:F95)</f>
+        <v>64.202127659574472</v>
+      </c>
+      <c r="H95" s="3">
+        <f>_xlfn.STDEV.P($F$2:F95)</f>
+        <v>31.406930996549168</v>
+      </c>
+      <c r="I95">
+        <f>SUM($F$2:F95)</f>
+        <v>6035</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -14557,7 +14725,7 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="G3 G4:G30 I3:I30 I31 I32 I33 I34 I35 I36:I37 I38:I40 I41 I42 I43 I44:I47 I48:I50 I51 I52:I53 I54 I55:I56 G55:G56 G54 G52:G53 G51 G48:G50 G44:G47 G43 G42 G41 G38:G40 G36:G37 G35 G34 G33 G32 G31 H3:H56 G57:I58 G59:I59 G60:I60 G61:I62 G63:J64 G65:I65 G66:I67 G68:I68 G69:I71 G72:I72 G73:I74 G75:I84 G85:I87" formulaRange="1"/>
+    <ignoredError sqref="G3 G4:G30 I3:I30 I31 I32 I33 I34 I35 I36:I37 I38:I40 I41 I42 I43 I44:I47 I48:I50 I51 I52:I53 I54 I55:I56 G55:G56 G54 G52:G53 G51 G48:G50 G44:G47 G43 G42 G41 G38:G40 G36:G37 G35 G34 G33 G32 G31 H3:H56 G57:I58 G59:I59 G60:I60 G61:I62 G63:J64 G65:I65 G66:I67 G68:I68 G69:I71 G72:I72 G73:I74 G75:I84 G85:I87 G88:I91 G92:I93" formulaRange="1"/>
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -14592,15 +14760,15 @@
     <row r="2" spans="3:8" x14ac:dyDescent="0.3">
       <c r="D2">
         <f ca="1">Scrobbles!R6</f>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E2">
         <f ca="1">ROUNDDOWN(D2/7,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <f ca="1">MOD(D2,7)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="3:8" x14ac:dyDescent="0.3">
@@ -14629,7 +14797,7 @@
       </c>
       <c r="D5" s="11">
         <f>SUM(Calc!C2:C1000)</f>
-        <v>746</v>
+        <v>828</v>
       </c>
       <c r="E5" s="11">
         <f ca="1">$E$2+IF($F$2&gt;3,1,0)</f>
@@ -14637,15 +14805,15 @@
       </c>
       <c r="F5" s="12">
         <f t="shared" ref="F5:F11" ca="1" si="0">D5/E5</f>
-        <v>57.384615384615387</v>
+        <v>63.692307692307693</v>
       </c>
       <c r="G5" s="12">
         <f t="shared" ref="G5:G11" ca="1" si="1">F5-F$13</f>
-        <v>-4.8487179487179475</v>
+        <v>-0.50981996726677892</v>
       </c>
       <c r="H5" s="13">
         <f ca="1">F5/$F$13</f>
-        <v>0.92208808866548553</v>
+        <v>0.99205914218341718</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.3">
@@ -14654,7 +14822,7 @@
       </c>
       <c r="D6" s="11">
         <f>SUM(Calc!D2:D1000)</f>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="E6" s="11">
         <f ca="1">$E$2+IF($F$2&gt;4,1,0)</f>
@@ -14662,15 +14830,15 @@
       </c>
       <c r="F6" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>77.692307692307693</v>
+        <v>84.615384615384613</v>
       </c>
       <c r="G6" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>15.458974358974359</v>
+        <v>20.413256955810141</v>
       </c>
       <c r="H6" s="13">
         <f t="shared" ref="H6:H11" ca="1" si="2">F6/$F$13</f>
-        <v>1.2484034444398666</v>
+        <v>1.3179529666687908</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.3">
@@ -14679,7 +14847,7 @@
       </c>
       <c r="D7" s="11">
         <f>SUM(Calc!E2:E1000)</f>
-        <v>747</v>
+        <v>843</v>
       </c>
       <c r="E7" s="11">
         <f ca="1">$E$2+IF($F$2&gt;5,1,0)</f>
@@ -14687,15 +14855,15 @@
       </c>
       <c r="F7" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>57.46153846153846</v>
+        <v>64.84615384615384</v>
       </c>
       <c r="G7" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.7717948717948744</v>
+        <v>0.64402618657936728</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92332413167978244</v>
+        <v>1.010031228092537</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.3">
@@ -14704,23 +14872,23 @@
       </c>
       <c r="D8" s="11">
         <f>SUM(Calc!F2:F1000)</f>
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="E8" s="11">
         <f ca="1">$E$2+IF($F$2&gt;6,1,0)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>58.416666666666664</v>
+        <v>56.230769230769234</v>
       </c>
       <c r="G8" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.81666666666667</v>
+        <v>-7.9713584288052388</v>
       </c>
       <c r="H8" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93867166577396888</v>
+        <v>0.87583965330444202</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.3">
@@ -14729,23 +14897,23 @@
       </c>
       <c r="D9" s="11">
         <f>SUM(Calc!G2:G1000)</f>
-        <v>824</v>
+        <v>915</v>
       </c>
       <c r="E9" s="11">
         <f ca="1">$E$2+IF($F$2&gt;0,1,0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F9" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>63.384615384615387</v>
+        <v>65.357142857142861</v>
       </c>
       <c r="G9" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1512820512820525</v>
+        <v>1.1550151975683889</v>
       </c>
       <c r="H9" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0184994437806436</v>
+        <v>1.017990294709433</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.3">
@@ -14754,23 +14922,23 @@
       </c>
       <c r="D10" s="11">
         <f>SUM(Calc!H2:H1000)</f>
-        <v>930</v>
+        <v>972</v>
       </c>
       <c r="E10" s="11">
         <f ca="1">$E$2+IF($F$2&gt;1,1,0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F10" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>71.538461538461533</v>
+        <v>69.428571428571431</v>
       </c>
       <c r="G10" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3051282051281987</v>
+        <v>5.2264437689969583</v>
       </c>
       <c r="H10" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1495200032961146</v>
+        <v>1.0814060835601846</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.3">
@@ -14779,23 +14947,23 @@
       </c>
       <c r="D11" s="11">
         <f>SUM(Calc!I2:I1000)</f>
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="E11" s="11">
         <f ca="1">$E$2+IF($F$2&gt;2,1,0)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F11" s="12">
         <f t="shared" ca="1" si="0"/>
-        <v>49.46153846153846</v>
+        <v>46.142857142857146</v>
       </c>
       <c r="G11" s="12">
         <f t="shared" ca="1" si="1"/>
-        <v>-12.771794871794874</v>
+        <v>-18.059270516717326</v>
       </c>
       <c r="H11" s="13">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79477565819290508</v>
+        <v>0.71871227364185108</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.3">
@@ -14812,15 +14980,15 @@
       </c>
       <c r="D13" s="11">
         <f>SUM(D5:D11)</f>
-        <v>5601</v>
+        <v>6035</v>
       </c>
       <c r="E13" s="11">
         <f ca="1">SUM(E5:E11)</f>
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="F13" s="12">
         <f ca="1">D13/E13</f>
-        <v>62.233333333333334</v>
+        <v>64.202127659574472</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="18"/>
@@ -14839,12 +15007,12 @@
       </c>
       <c r="D15" s="16">
         <f>_xlfn.STDEV.P(D5:D11)</f>
-        <v>120.56465790062143</v>
+        <v>139.84014196975934</v>
       </c>
       <c r="E15" s="16"/>
       <c r="F15" s="16">
         <f ca="1">_xlfn.STDEV.P(F5:F11)</f>
-        <v>8.8708528876536938</v>
+        <v>10.925658209894481</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="17"/>
@@ -14895,22 +15063,22 @@
       </c>
       <c r="D23" s="11">
         <f t="shared" ref="D23:D29" si="3">D5</f>
-        <v>746</v>
+        <v>828</v>
       </c>
       <c r="E23" s="18">
         <f t="shared" ref="E23:E29" ca="1" si="4">$D$13/$E$13*E5</f>
-        <v>809.0333333333333</v>
+        <v>834.62765957446811</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>7</v>
       </c>
       <c r="H23" s="12">
         <f t="shared" ref="H23:H29" ca="1" si="5">F5</f>
-        <v>57.384615384615387</v>
+        <v>63.692307692307693</v>
       </c>
       <c r="I23" s="18">
         <f ca="1">E23/E5</f>
-        <v>62.233333333333334</v>
+        <v>64.202127659574472</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.3">
@@ -14919,22 +15087,22 @@
       </c>
       <c r="D24" s="11">
         <f t="shared" si="3"/>
-        <v>1010</v>
+        <v>1100</v>
       </c>
       <c r="E24" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>809.0333333333333</v>
+        <v>834.62765957446811</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>8</v>
       </c>
       <c r="H24" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>77.692307692307693</v>
+        <v>84.615384615384613</v>
       </c>
       <c r="I24" s="18">
         <f t="shared" ref="I24:I29" ca="1" si="6">E24/E6</f>
-        <v>62.233333333333334</v>
+        <v>64.202127659574472</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.3">
@@ -14943,22 +15111,22 @@
       </c>
       <c r="D25" s="11">
         <f t="shared" si="3"/>
-        <v>747</v>
+        <v>843</v>
       </c>
       <c r="E25" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>809.0333333333333</v>
+        <v>834.62765957446811</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>57.46153846153846</v>
+        <v>64.84615384615384</v>
       </c>
       <c r="I25" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>62.233333333333334</v>
+        <v>64.202127659574472</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.3">
@@ -14967,22 +15135,22 @@
       </c>
       <c r="D26" s="11">
         <f t="shared" si="3"/>
-        <v>701</v>
+        <v>731</v>
       </c>
       <c r="E26" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>746.8</v>
+        <v>834.62765957446811</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>10</v>
       </c>
       <c r="H26" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>58.416666666666664</v>
+        <v>56.230769230769234</v>
       </c>
       <c r="I26" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>62.233333333333327</v>
+        <v>64.202127659574472</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.3">
@@ -14991,22 +15159,22 @@
       </c>
       <c r="D27" s="11">
         <f t="shared" si="3"/>
-        <v>824</v>
+        <v>915</v>
       </c>
       <c r="E27" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>809.0333333333333</v>
+        <v>898.82978723404267</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>3</v>
       </c>
       <c r="H27" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>63.384615384615387</v>
+        <v>65.357142857142861</v>
       </c>
       <c r="I27" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>62.233333333333334</v>
+        <v>64.202127659574472</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.3">
@@ -15015,22 +15183,22 @@
       </c>
       <c r="D28" s="11">
         <f t="shared" si="3"/>
-        <v>930</v>
+        <v>972</v>
       </c>
       <c r="E28" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>809.0333333333333</v>
+        <v>898.82978723404267</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H28" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>71.538461538461533</v>
+        <v>69.428571428571431</v>
       </c>
       <c r="I28" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>62.233333333333334</v>
+        <v>64.202127659574472</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.3">
@@ -15039,22 +15207,22 @@
       </c>
       <c r="D29" s="11">
         <f t="shared" si="3"/>
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="E29" s="18">
         <f t="shared" ca="1" si="4"/>
-        <v>809.0333333333333</v>
+        <v>898.82978723404267</v>
       </c>
       <c r="G29" s="10" t="s">
         <v>6</v>
       </c>
       <c r="H29" s="12">
         <f t="shared" ca="1" si="5"/>
-        <v>49.46153846153846</v>
+        <v>46.142857142857146</v>
       </c>
       <c r="I29" s="18">
         <f t="shared" ca="1" si="6"/>
-        <v>62.233333333333334</v>
+        <v>64.202127659574472</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.3">
@@ -15071,7 +15239,7 @@
       </c>
       <c r="D31" s="32">
         <f ca="1">_xlfn.CHISQ.TEST(D23:D29,E23:E29)</f>
-        <v>1.9772849878888966E-22</v>
+        <v>4.4300889154122427E-35</v>
       </c>
       <c r="E31" s="17"/>
       <c r="G31" s="15" t="s">
@@ -15079,7 +15247,7 @@
       </c>
       <c r="H31" s="32">
         <f ca="1">_xlfn.CHISQ.TEST(H23:H29,I23:I29)</f>
-        <v>0.18210517477180105</v>
+        <v>4.2770164262635378E-2</v>
       </c>
       <c r="I31" s="17"/>
       <c r="N31" s="28"/>
@@ -15117,11 +15285,11 @@
       </c>
       <c r="B2">
         <f>_xlfn.NORM.DIST(A2,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.5185546125234661E-3</v>
+        <v>1.5720903428030337E-3</v>
       </c>
       <c r="C2">
         <f>_xlfn.POISSON.DIST(A2,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0975410396270501E-28</v>
+        <v>1.3102984612244223E-28</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -15130,11 +15298,11 @@
       </c>
       <c r="B3">
         <f>_xlfn.NORM.DIST(A3,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.621662142521048E-3</v>
+        <v>1.67696714393179E-3</v>
       </c>
       <c r="C3">
         <f>_xlfn.POISSON.DIST(A3,Scrobbles!$R$9,FALSE)</f>
-        <v>7.0658935206334567E-27</v>
+        <v>8.4123949079674365E-27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -15143,11 +15311,11 @@
       </c>
       <c r="B4">
         <f>_xlfn.NORM.DIST(A4,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.7299905004570721E-3</v>
+        <v>1.7870278597692049E-3</v>
       </c>
       <c r="C4">
         <f>_xlfn.POISSON.DIST(A4,Scrobbles!$R$9,FALSE)</f>
-        <v>2.2744867591418278E-25</v>
+        <v>2.7004682590203904E-25</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -15156,11 +15324,11 @@
       </c>
       <c r="B5">
         <f>_xlfn.NORM.DIST(A5,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.8436583114147575E-3</v>
+        <v>1.9023823512191631E-3</v>
       </c>
       <c r="C5">
         <f>_xlfn.POISSON.DIST(A5,Scrobbles!$R$9,FALSE)</f>
-        <v>4.8809962980664513E-24</v>
+        <v>5.7791935968751899E-24</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -15169,11 +15337,11 @@
       </c>
       <c r="B6">
         <f>_xlfn.NORM.DIST(A6,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.9627750549998249E-3</v>
+        <v>2.0231310193521397E-3</v>
       </c>
       <c r="C6">
         <f>_xlfn.POISSON.DIST(A6,Scrobbles!$R$9,FALSE)</f>
-        <v>7.8558793866293974E-23</v>
+        <v>9.2759131268994551E-23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -15182,11 +15350,11 @@
       </c>
       <c r="B7">
         <f>_xlfn.NORM.DIST(A7,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.0874400000316456E-3</v>
+        <v>2.1493637751526531E-3</v>
       </c>
       <c r="C7">
         <f>_xlfn.POISSON.DIST(A7,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0115121941266967E-21</v>
+        <v>1.1910667174646454E-21</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -15195,11 +15363,11 @@
       </c>
       <c r="B8">
         <f>_xlfn.NORM.DIST(A8,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.2177411239972084E-3</v>
+        <v>2.2811589981538349E-3</v>
       </c>
       <c r="C8">
         <f>_xlfn.POISSON.DIST(A8,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0853409577209975E-20</v>
+        <v>1.274483624095588E-20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
@@ -15208,11 +15376,11 @@
       </c>
       <c r="B9">
         <f>_xlfn.NORM.DIST(A9,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.3537540231566693E-3</v>
+        <v>2.4185824897801807E-3</v>
       </c>
       <c r="C9">
         <f>_xlfn.POISSON.DIST(A9,Scrobbles!$R$9,FALSE)</f>
-        <v>9.9819289067245755E-20</v>
+        <v>1.1689222904888883E-19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
@@ -15221,11 +15389,11 @@
       </c>
       <c r="B10">
         <f>_xlfn.NORM.DIST(A10,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.4955408196355527E-3</v>
+        <v>2.5616864276243366E-3</v>
       </c>
       <c r="C10">
         <f>_xlfn.POISSON.DIST(A10,Scrobbles!$R$9,FALSE)</f>
-        <v>8.032871236575372E-19</v>
+        <v>9.3809122647612089E-19</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -15234,11 +15402,11 @@
       </c>
       <c r="B11">
         <f>_xlfn.NORM.DIST(A11,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.643149072259739E-3</v>
+        <v>2.7105083272618525E-3</v>
       </c>
       <c r="C11">
         <f>_xlfn.POISSON.DIST(A11,Scrobbles!$R$9,FALSE)</f>
-        <v>5.746119003328036E-18</v>
+        <v>6.6919391865051746E-18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -15247,11 +15415,11 @@
       </c>
       <c r="B12">
         <f>_xlfn.NORM.DIST(A12,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.7966106982793429E-3</v>
+        <v>2.8650700185539101E-3</v>
       </c>
       <c r="C12">
         <f>_xlfn.POISSON.DIST(A12,Scrobbles!$R$9,FALSE)</f>
-        <v>3.6993117859356869E-17</v>
+        <v>4.2963673394211656E-17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -15260,11 +15428,11 @@
       </c>
       <c r="B13">
         <f>_xlfn.NORM.DIST(A13,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.955940913481136E-3</v>
+        <v>3.025376643697059E-3</v>
       </c>
       <c r="C13">
         <f>_xlfn.POISSON.DIST(A13,Scrobbles!$R$9,FALSE)</f>
-        <v>2.1650831048093765E-16</v>
+        <v>2.5075993127085607E-16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -15273,11 +15441,11 @@
       </c>
       <c r="B14">
         <f>_xlfn.NORM.DIST(A14,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.1211371985003632E-3</v>
+        <v>3.1914156845456805E-3</v>
       </c>
       <c r="C14">
         <f>_xlfn.POISSON.DIST(A14,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1615546427238888E-15</v>
+        <v>1.3416100932798122E-15</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -15286,11 +15454,11 @@
       </c>
       <c r="B15">
         <f>_xlfn.NORM.DIST(A15,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.2921782994065479E-3</v>
+        <v>3.3631560269525079E-3</v>
       </c>
       <c r="C15">
         <f>_xlfn.POISSON.DIST(A15,Scrobbles!$R$9,FALSE)</f>
-        <v>5.7523143712612558E-15</v>
+        <v>6.6257094213941494E-15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -15299,11 +15467,11 @@
       </c>
       <c r="B16">
         <f>_xlfn.NORM.DIST(A16,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.4690232708484928E-3</v>
+        <v>3.5405470700399706E-3</v>
       </c>
       <c r="C16">
         <f>_xlfn.POISSON.DIST(A16,Scrobbles!$R$9,FALSE)</f>
-        <v>2.6452145150602851E-14</v>
+        <v>3.0384617293399479E-14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -15312,11 +15480,11 @@
       </c>
       <c r="B17">
         <f>_xlfn.NORM.DIST(A17,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.6516105701964795E-3</v>
+        <v>3.7235178884262861E-3</v>
       </c>
       <c r="C17">
         <f>_xlfn.POISSON.DIST(A17,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1353139079580529E-13</v>
+        <v>1.3005047189054269E-13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -15325,11 +15493,11 @@
       </c>
       <c r="B18">
         <f>_xlfn.NORM.DIST(A18,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.8398572112096057E-3</v>
+        <v>3.9119764554805224E-3</v>
       </c>
       <c r="C18">
         <f>_xlfn.POISSON.DIST(A18,Scrobbles!$R$9,FALSE)</f>
-        <v>4.5681704012019261E-13</v>
+        <v>5.2184481240653352E-13</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -15338,11 +15506,11 @@
       </c>
       <c r="B19">
         <f>_xlfn.NORM.DIST(A19,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.0336579857792433E-3</v>
+        <v>4.1058089356668668E-3</v>
       </c>
       <c r="C19">
         <f>_xlfn.POISSON.DIST(A19,Scrobbles!$R$9,FALSE)</f>
-        <v>1.7299744703943247E-12</v>
+        <v>1.9707968979182928E-12</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -15351,11 +15519,11 @@
       </c>
       <c r="B20">
         <f>_xlfn.NORM.DIST(A20,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.23288476225163E-3</v>
+        <v>4.3048790539565972E-3</v>
       </c>
       <c r="C20">
         <f>_xlfn.POISSON.DIST(A20,Scrobbles!$R$9,FALSE)</f>
-        <v>6.1874757398969277E-12</v>
+        <v>7.0294085572912982E-12</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -15364,11 +15532,11 @@
       </c>
       <c r="B21">
         <f>_xlfn.NORM.DIST(A21,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.4373858687105534E-3</v>
+        <v>4.5090275501339268E-3</v>
       </c>
       <c r="C21">
         <f>_xlfn.POISSON.DIST(A21,Scrobbles!$R$9,FALSE)</f>
-        <v>2.0965548468942831E-11</v>
+        <v>2.3752788714027496E-11</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
@@ -15377,11 +15545,11 @@
       </c>
       <c r="B22">
         <f>_xlfn.NORM.DIST(A22,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.6469855694020699E-3</v>
+        <v>4.718071725597078E-3</v>
       </c>
       <c r="C22">
         <f>_xlfn.POISSON.DIST(A22,Scrobbles!$R$9,FALSE)</f>
-        <v>6.7487377571580028E-11</v>
+        <v>7.6248978664444756E-11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
@@ -15390,11 +15558,11 @@
       </c>
       <c r="B23">
         <f>_xlfn.NORM.DIST(A23,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.8614836422052653E-3</v>
+        <v>4.9318050899567045E-3</v>
       </c>
       <c r="C23">
         <f>_xlfn.POISSON.DIST(A23,Scrobbles!$R$9,FALSE)</f>
-        <v>2.0689480119234756E-10</v>
+        <v>2.3311174581556421E-10</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -15403,11 +15571,11 @@
       </c>
       <c r="B24">
         <f>_xlfn.NORM.DIST(A24,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.080655064694883E-3</v>
+        <v>5.1499971143596987E-3</v>
       </c>
       <c r="C24">
         <f>_xlfn.POISSON.DIST(A24,Scrobbles!$R$9,FALSE)</f>
-        <v>6.0544293703152888E-10</v>
+        <v>6.8028500289986971E-10</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -15416,11 +15584,11 @@
       </c>
       <c r="B25">
         <f>_xlfn.NORM.DIST(A25,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.3042498159027373E-3</v>
+        <v>5.3723930980169804E-3</v>
       </c>
       <c r="C25">
         <f>_xlfn.POISSON.DIST(A25,Scrobbles!$R$9,FALSE)</f>
-        <v>1.694695597358116E-9</v>
+        <v>1.8989454174378881E-9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -15429,11 +15597,11 @@
       </c>
       <c r="B26">
         <f>_xlfn.NORM.DIST(A26,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.5319928003653672E-3</v>
+        <v>5.5987141538901197E-3</v>
       </c>
       <c r="C26">
         <f>_xlfn.POISSON.DIST(A26,Scrobbles!$R$9,FALSE)</f>
-        <v>4.5459722417637784E-9</v>
+        <v>5.0798473378712856E-9</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -15442,11 +15610,11 @@
       </c>
       <c r="B27">
         <f>_xlfn.NORM.DIST(A27,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.7635839004467372E-3</v>
+        <v>5.8286573188947111E-3</v>
       </c>
       <c r="C27">
         <f>_xlfn.POISSON.DIST(A27,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1706662310859317E-8</v>
+        <v>1.3045480291086487E-8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -15455,11 +15623,11 @@
       </c>
       <c r="B28">
         <f>_xlfn.NORM.DIST(A28,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.9986981622486869E-3</v>
+        <v>6.061895793310873E-3</v>
       </c>
       <c r="C28">
         <f>_xlfn.POISSON.DIST(A28,Scrobbles!$R$9,FALSE)</f>
-        <v>2.8987186385111791E-8</v>
+        <v>3.2213368885722928E-8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -15468,11 +15636,11 @@
       </c>
       <c r="B29">
         <f>_xlfn.NORM.DIST(A29,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.2369861196716484E-3</v>
+        <v>6.2980793133560467E-3</v>
       </c>
       <c r="C29">
         <f>_xlfn.POISSON.DIST(A29,Scrobbles!$R$9,FALSE)</f>
-        <v>6.9117595122609896E-8</v>
+        <v>7.6598771168375962E-8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -15481,11 +15649,11 @@
       </c>
       <c r="B30">
         <f>_xlfn.NORM.DIST(A30,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.4780742603672004E-3</v>
+        <v>6.5368346600763651E-3</v>
       </c>
       <c r="C30">
         <f>_xlfn.POISSON.DIST(A30,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5891939666738123E-7</v>
+        <v>1.7563586018280749E-7</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -15494,11 +15662,11 @@
       </c>
       <c r="B31">
         <f>_xlfn.NORM.DIST(A31,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.7215656364376592E-3</v>
+        <v>6.7777663068552298E-3</v>
       </c>
       <c r="C31">
         <f>_xlfn.POISSON.DIST(A31,Scrobbles!$R$9,FALSE)</f>
-        <v>3.5279728130558748E-7</v>
+        <v>3.8883434196744026E-7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -15507,11 +15675,11 @@
       </c>
       <c r="B32">
         <f>_xlfn.NORM.DIST(A32,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.9670406217912191E-3</v>
+        <v>7.0204572069266172E-3</v>
       </c>
       <c r="C32">
         <f>_xlfn.POISSON.DIST(A32,Scrobbles!$R$9,FALSE)</f>
-        <v>7.5709485539946296E-7</v>
+        <v>8.3213306871400996E-7</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -15520,11 +15688,11 @@
       </c>
       <c r="B33">
         <f>_xlfn.NORM.DIST(A33,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.214057817061084E-3</v>
+        <v>7.2644697213228252E-3</v>
       </c>
       <c r="C33">
         <f>_xlfn.POISSON.DIST(A33,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5722982147172417E-6</v>
+        <v>1.7233778550751707E-6</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -15533,11 +15701,11 @@
       </c>
       <c r="B34">
         <f>_xlfn.NORM.DIST(A34,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.4621551019506058E-3</v>
+        <v>7.50934668668849E-3</v>
       </c>
       <c r="C34">
         <f>_xlfn.POISSON.DIST(A34,Scrobbles!$R$9,FALSE)</f>
-        <v>3.1632335849968599E-6</v>
+        <v>3.4576414080381029E-6</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -15546,11 +15714,11 @@
       </c>
       <c r="B35">
         <f>_xlfn.NORM.DIST(A35,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.710850833781961E-3</v>
+        <v>7.7546126213629786E-3</v>
       </c>
       <c r="C35">
         <f>_xlfn.POISSON.DIST(A35,Scrobbles!$R$9,FALSE)</f>
-        <v>6.1711150503544082E-6</v>
+        <v>6.726907123633144E-6</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -15559,11 +15727,11 @@
       </c>
       <c r="B36">
         <f>_xlfn.NORM.DIST(A36,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.9596451899119399E-3</v>
+        <v>7.9997750670796723E-3</v>
       </c>
       <c r="C36">
         <f>_xlfn.POISSON.DIST(A36,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1685062676482381E-5</v>
+        <v>1.2702404408988075E-5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -15572,11 +15740,11 @@
       </c>
       <c r="B37">
         <f>_xlfn.NORM.DIST(A37,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.2080216505447043E-3</v>
+        <v>8.2443260625624272E-3</v>
       </c>
       <c r="C37">
         <f>_xlfn.POISSON.DIST(A37,Scrobbles!$R$9,FALSE)</f>
-        <v>2.1493607898514881E-5</v>
+        <v>2.3300611127125563E-5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -15585,11 +15753,11 @@
       </c>
       <c r="B38">
         <f>_xlfn.NORM.DIST(A38,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.4554486173275024E-3</v>
+        <v>8.4877437442259368E-3</v>
       </c>
       <c r="C38">
         <f>_xlfn.POISSON.DIST(A38,Scrobbles!$R$9,FALSE)</f>
-        <v>3.8437323703570159E-5</v>
+        <v>4.1554133614717288E-5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -15598,11 +15766,11 @@
       </c>
       <c r="B39">
         <f>_xlfn.NORM.DIST(A39,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.7013811619719907E-3</v>
+        <v>8.7294940681174084E-3</v>
       </c>
       <c r="C39">
         <f>_xlfn.POISSON.DIST(A39,Scrobbles!$R$9,FALSE)</f>
-        <v>6.6880226798290174E-5</v>
+        <v>7.2104426786894114E-5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -15611,11 +15779,11 @@
       </c>
       <c r="B40">
         <f>_xlfn.NORM.DIST(A40,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.9452628980117004E-3</v>
+        <v>8.9690326461823438E-3</v>
       </c>
       <c r="C40">
         <f>_xlfn.POISSON.DIST(A40,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1330797044683076E-4</v>
+        <v>1.218225687734898E-4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -15624,11 +15792,11 @@
       </c>
       <c r="B41">
         <f>_xlfn.NORM.DIST(A41,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.1865279676961731E-3</v>
+        <v>9.2058066889069597E-3</v>
       </c>
       <c r="C41">
         <f>_xlfn.POISSON.DIST(A41,Scrobbles!$R$9,FALSE)</f>
-        <v>1.8704330753690032E-4</v>
+        <v>2.0054533621058815E-4</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -15637,11 +15805,11 @@
       </c>
       <c r="B42">
         <f>_xlfn.NORM.DIST(A42,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.4246031349454994E-3</v>
+        <v>9.4392570453947396E-3</v>
       </c>
       <c r="C42">
         <f>_xlfn.POISSON.DIST(A42,Scrobbles!$R$9,FALSE)</f>
-        <v>3.010429785960286E-4</v>
+        <v>3.2188593192311105E-4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -15650,11 +15818,11 @@
       </c>
       <c r="B43">
         <f>_xlfn.NORM.DIST(A43,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.6589099742567883E-3</v>
+        <v>9.6688203309844116E-3</v>
       </c>
       <c r="C43">
         <f>_xlfn.POISSON.DIST(A43,Scrobbles!$R$9,FALSE)</f>
-        <v>4.7270583771134134E-4</v>
+        <v>5.0404296812557744E-4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -15663,11 +15831,11 @@
       </c>
       <c r="B44">
         <f>_xlfn.NORM.DIST(A44,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.8888671444768064E-3</v>
+        <v>9.8939311316218383E-3</v>
       </c>
       <c r="C44">
         <f>_xlfn.POISSON.DIST(A44,Scrobbles!$R$9,FALSE)</f>
-        <v>7.2458275780547829E-4</v>
+        <v>7.7049121394069317E-4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -15676,11 +15844,11 @@
       </c>
       <c r="B45">
         <f>_xlfn.NORM.DIST(A45,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.011389273544403E-2</v>
+        <v>1.0114024273368199E-2</v>
       </c>
       <c r="C45">
         <f>_xlfn.POISSON.DIST(A45,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0848404240760444E-3</v>
+        <v>1.1503994250697872E-3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -15689,11 +15857,11 @@
       </c>
       <c r="B46">
         <f>_xlfn.NORM.DIST(A46,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0333406674668415E-2</v>
+        <v>1.0328537144671201E-2</v>
       </c>
       <c r="C46">
         <f>_xlfn.POISSON.DIST(A46,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5873017803683187E-3</v>
+        <v>1.6785929715416284E-3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -15702,11 +15870,11 @@
       </c>
       <c r="B47">
         <f>_xlfn.NORM.DIST(A47,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0546833180468188E-2</v>
+        <v>1.0536912058353212E-2</v>
       </c>
       <c r="C47">
         <f>_xlfn.POISSON.DIST(A47,Scrobbles!$R$9,FALSE)</f>
-        <v>2.270875420649545E-3</v>
+        <v>2.3948720054973289E-3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -15715,11 +15883,11 @@
       </c>
       <c r="B48">
         <f>_xlfn.NORM.DIST(A48,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0753603247329267E-2</v>
+        <v>1.0738598639688821E-2</v>
       </c>
       <c r="C48">
         <f>_xlfn.POISSON.DIST(A48,Scrobbles!$R$9,FALSE)</f>
-        <v>3.1782042056616947E-3</v>
+        <v>3.3425190918539376E-3</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
@@ -15728,11 +15896,11 @@
       </c>
       <c r="B49">
         <f>_xlfn.NORM.DIST(A49,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0953157148702253E-2</v>
+        <v>1.0933056226461492E-2</v>
       </c>
       <c r="C49">
         <f>_xlfn.POISSON.DIST(A49,Scrobbles!$R$9,FALSE)</f>
-        <v>4.3534169126708587E-3</v>
+        <v>4.5658901582930006E-3</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -15741,11 +15909,11 @@
       </c>
       <c r="B50">
         <f>_xlfn.NORM.DIST(A50,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1144946942012479E-2</v>
+        <v>1.1119756266511342E-2</v>
       </c>
       <c r="C50">
         <f>_xlfn.POISSON.DIST(A50,Scrobbles!$R$9,FALSE)</f>
-        <v>5.8389578850262134E-3</v>
+        <v>6.1070804754650328E-3</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
@@ -15754,11 +15922,11 @@
       </c>
       <c r="B51">
         <f>_xlfn.NORM.DIST(A51,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1328438960336151E-2</v>
+        <v>1.1298184698019487E-2</v>
       </c>
       <c r="C51">
         <f>_xlfn.POISSON.DIST(A51,Scrobbles!$R$9,FALSE)</f>
-        <v>7.6715935055200165E-3</v>
+        <v>8.0017869451653317E-3</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
@@ -15767,11 +15935,11 @@
       </c>
       <c r="B52">
         <f>_xlfn.NORM.DIST(A52,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1503116274995962E-2</v>
+        <v>1.1467844297623226E-2</v>
       </c>
       <c r="C52">
         <f>_xlfn.POISSON.DIST(A52,Scrobbles!$R$9,FALSE)</f>
-        <v>9.8778379826247251E-3</v>
+        <v>1.0274634939164445E-2</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
@@ -15780,11 +15948,11 @@
       </c>
       <c r="B53">
         <f>_xlfn.NORM.DIST(A53,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1668481113256747E-2</v>
+        <v>1.1628256981424194E-2</v>
       </c>
       <c r="C53">
         <f>_xlfn.POISSON.DIST(A53,Scrobbles!$R$9,FALSE)</f>
-        <v>1.246918425528086E-2</v>
+        <v>1.293438086313253E-2</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -15793,11 +15961,11 @@
       </c>
       <c r="B54">
         <f>_xlfn.NORM.DIST(A54,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1824057215358622E-2</v>
+        <v>1.1778966044041149E-2</v>
       </c>
       <c r="C54">
         <f>_xlfn.POISSON.DIST(A54,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5437643902260845E-2</v>
+        <v>1.5969514834084462E-2</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
@@ -15806,11 +15974,11 @@
       </c>
       <c r="B55">
         <f>_xlfn.NORM.DIST(A55,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1969392115313665E-2</v>
+        <v>1.1919538321070938E-2</v>
       </c>
       <c r="C55">
         <f>_xlfn.POISSON.DIST(A55,Scrobbles!$R$9,FALSE)</f>
-        <v>1.8752167316539385E-2</v>
+        <v>1.9344845849799213E-2</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -15819,11 +15987,11 @@
       </c>
       <c r="B56">
         <f>_xlfn.NORM.DIST(A56,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.210405933021237E-2</v>
+        <v>1.2049566260655939E-2</v>
       </c>
       <c r="C56">
         <f>_xlfn.POISSON.DIST(A56,Scrobbles!$R$9,FALSE)</f>
-        <v>2.2356511098326318E-2</v>
+        <v>2.2999634496362928E-2</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -15832,11 +16000,11 @@
       </c>
       <c r="B57">
         <f>_xlfn.NORM.DIST(A57,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2227660443237262E-2</v>
+        <v>1.2168669890312175E-2</v>
       </c>
       <c r="C57">
         <f>_xlfn.POISSON.DIST(A57,Scrobbles!$R$9,FALSE)</f>
-        <v>2.6169032113213329E-2</v>
+        <v>2.684773581925539E-2</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
@@ -15845,11 +16013,11 @@
       </c>
       <c r="B58">
         <f>_xlfn.NORM.DIST(A58,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2339827066160649E-2</v>
+        <v>1.2276498665747008E-2</v>
       </c>
       <c r="C58">
         <f>_xlfn.POISSON.DIST(A58,Scrobbles!$R$9,FALSE)</f>
-        <v>3.0084718568577119E-2</v>
+        <v>3.0780031472113629E-2</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
@@ -15858,11 +16026,11 @@
       </c>
       <c r="B59">
         <f>_xlfn.NORM.DIST(A59,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2440222667807532E-2</v>
+        <v>1.2372733189085069E-2</v>
       </c>
       <c r="C59">
         <f>_xlfn.POISSON.DIST(A59,Scrobbles!$R$9,FALSE)</f>
-        <v>3.3979533918653056E-2</v>
+        <v>3.4669184384883485E-2</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -15871,11 +16039,11 @@
       </c>
       <c r="B60">
         <f>_xlfn.NORM.DIST(A60,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2528544255788763E-2</v>
+        <v>1.245708678472063E-2</v>
       </c>
       <c r="C60">
         <f>_xlfn.POISSON.DIST(A60,Scrobbles!$R$9,FALSE)</f>
-        <v>3.7716878612440663E-2</v>
+        <v>3.8376472443648529E-2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
@@ -15884,11 +16052,11 @@
       </c>
       <c r="B61">
         <f>_xlfn.NORM.DIST(A61,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2604523899746282E-2</v>
+        <v>1.2529306921918157E-2</v>
       </c>
       <c r="C61">
         <f>_xlfn.POISSON.DIST(A61,Scrobbles!$R$9,FALSE)</f>
-        <v>4.1155705651330643E-2</v>
+        <v>4.1760189541546901E-2</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
@@ -15897,11 +16065,11 @@
       </c>
       <c r="B62">
         <f>_xlfn.NORM.DIST(A62,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2667930085395209E-2</v>
+        <v>1.2589176474282657E-2</v>
       </c>
       <c r="C62">
         <f>_xlfn.POISSON.DIST(A62,Scrobbles!$R$9,FALSE)</f>
-        <v>4.4159599109789886E-2</v>
+        <v>4.4684883667240327E-2</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
@@ -15910,11 +16078,11 @@
       </c>
       <c r="B63">
         <f>_xlfn.NORM.DIST(A63,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2718568889786895E-2</v>
+        <v>1.2636514807309564E-2</v>
       </c>
       <c r="C63">
         <f>_xlfn.POISSON.DIST(A63,Scrobbles!$R$9,FALSE)</f>
-        <v>4.6605975996595619E-2</v>
+        <v>4.7030567305859007E-2</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
@@ -15923,11 +16091,11 @@
       </c>
       <c r="B64">
         <f>_xlfn.NORM.DIST(A64,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2756284969443699E-2</v>
+        <v>1.2671178686390717E-2</v>
       </c>
       <c r="C64">
         <f>_xlfn.POISSON.DIST(A64,Scrobbles!$R$9,FALSE)</f>
-        <v>4.8394525687232529E-2</v>
+        <v>4.8701007839886623E-2</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
@@ -15936,11 +16104,11 @@
       </c>
       <c r="B65">
         <f>_xlfn.NORM.DIST(A65,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2780962354318999E-2</v>
+        <v>1.2693062998888744E-2</v>
       </c>
       <c r="C65">
         <f>_xlfn.POISSON.DIST(A65,Scrobbles!$R$9,FALSE)</f>
-        <v>4.9454066479509076E-2</v>
+        <v>4.9630290833116451E-2</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -15949,11 +16117,11 @@
       </c>
       <c r="B66">
         <f>_xlfn.NORM.DIST(A66,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.279252504190337E-2</v>
+        <v>1.2702101285185377E-2</v>
       </c>
       <c r="C66">
         <f>_xlfn.POISSON.DIST(A66,Scrobbles!$R$9,FALSE)</f>
-        <v>4.9747167089032041E-2</v>
+        <v>4.9787035435149243E-2</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
@@ -15962,11 +16130,11 @@
       </c>
       <c r="B67">
         <f>_xlfn.NORM.DIST(A67,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2790937387217366E-2</v>
+        <v>1.2698266074948884E-2</v>
       </c>
       <c r="C67">
         <f>_xlfn.POISSON.DIST(A67,Scrobbles!$R$9,FALSE)</f>
-        <v>4.9272127827704404E-2</v>
+        <v>4.9175901612295528E-2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
@@ -15975,11 +16143,11 @@
       </c>
       <c r="B68">
         <f>_xlfn.NORM.DIST(A68,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2776204285890266E-2</v>
+        <v>1.2681569026239391E-2</v>
       </c>
       <c r="C68">
         <f>_xlfn.POISSON.DIST(A68,Scrobbles!$R$9,FALSE)</f>
-        <v>4.8062206193481782E-2</v>
+        <v>4.7836325955867745E-2</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
@@ -15988,11 +16156,11 @@
       </c>
       <c r="B69">
         <f>_xlfn.NORM.DIST(A69,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2748371149008723E-2</v>
+        <v>1.2652060866466287E-2</v>
       </c>
       <c r="C69">
         <f>_xlfn.POISSON.DIST(A69,Scrobbles!$R$9,FALSE)</f>
-        <v>4.6182264005779981E-2</v>
+        <v>4.583871501169607E-2</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
@@ -16001,11 +16169,11 @@
       </c>
       <c r="B70">
         <f>_xlfn.NORM.DIST(A70,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2707523669916244E-2</v>
+        <v>1.260983113561619E-2</v>
       </c>
       <c r="C70">
         <f>_xlfn.POISSON.DIST(A70,Scrobbles!$R$9,FALSE)</f>
-        <v>4.3723269218453951E-2</v>
+        <v>4.3278574013702428E-2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -16014,11 +16182,11 @@
       </c>
       <c r="B71">
         <f>_xlfn.NORM.DIST(A71,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2653787384639407E-2</v>
+        <v>1.2555007733570494E-2</v>
       </c>
       <c r="C71">
         <f>_xlfn.POISSON.DIST(A71,Scrobbles!$R$9,FALSE)</f>
-        <v>4.0795274178337594E-2</v>
+        <v>4.0269225126841522E-2</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
@@ -16027,11 +16195,11 @@
       </c>
       <c r="B72">
         <f>_xlfn.NORM.DIST(A72,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.258732702909658E-2</v>
+        <v>1.2487756274715425E-2</v>
       </c>
       <c r="C72">
         <f>_xlfn.POISSON.DIST(A72,Scrobbles!$R$9,FALSE)</f>
-        <v>3.7519594527564683E-2</v>
+        <v>3.6933856176366069E-2</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
@@ -16040,11 +16208,11 @@
       </c>
       <c r="B73">
         <f>_xlfn.NORM.DIST(A73,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2508345697695419E-2</v>
+        <v>1.2408279254402427E-2</v>
       </c>
       <c r="C73">
         <f>_xlfn.POISSON.DIST(A73,Scrobbles!$R$9,FALSE)</f>
-        <v>3.4020924226791274E-2</v>
+        <v>3.3397635904160755E-2</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
@@ -16053,11 +16221,11 @@
       </c>
       <c r="B74">
         <f>_xlfn.NORM.DIST(A74,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2417083809333491E-2</v>
+        <v>1.2316815033130094E-2</v>
       </c>
       <c r="C74">
         <f>_xlfn.POISSON.DIST(A74,Scrobbles!$R$9,FALSE)</f>
-        <v>3.0420050541867513E-2</v>
+        <v>2.9780545608984986E-2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -16066,11 +16234,11 @@
       </c>
       <c r="B75">
         <f>_xlfn.NORM.DIST(A75,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2313817888169426E-2</v>
+        <v>1.2213636645579198E-2</v>
       </c>
       <c r="C75">
         <f>_xlfn.POISSON.DIST(A75,Scrobbles!$R$9,FALSE)</f>
-        <v>2.6827696911509977E-2</v>
+        <v>2.6191430013148411E-2</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
@@ -16079,11 +16247,11 @@
       </c>
       <c r="B76">
         <f>_xlfn.NORM.DIST(A76,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2198859167817237E-2</v>
+        <v>1.2099050442828316E-2</v>
       </c>
       <c r="C76">
         <f>_xlfn.POISSON.DIST(A76,Scrobbles!$R$9,FALSE)</f>
-        <v>2.3339846287879371E-2</v>
+        <v>2.2723588287715743E-2</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
@@ -16092,11 +16260,11 @@
       </c>
       <c r="B77">
         <f>_xlfn.NORM.DIST(A77,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2072552028823107E-2</v>
+        <v>1.197339457719866E-2</v>
       </c>
       <c r="C77">
         <f>_xlfn.POISSON.DIST(A77,Scrobbles!$R$9,FALSE)</f>
-        <v>2.0034709434239444E-2</v>
+        <v>1.9452036215087197E-2</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -16105,11 +16273,11 @@
       </c>
       <c r="B78">
         <f>_xlfn.NORM.DIST(A78,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.193527228040088E-2</v>
+        <v>1.1837037340213382E-2</v>
       </c>
       <c r="C78">
         <f>_xlfn.POISSON.DIST(A78,Scrobbles!$R$9,FALSE)</f>
-        <v>1.6971326004412434E-2</v>
+        <v>1.6432396214732761E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
@@ -16118,11 +16286,11 @@
       </c>
       <c r="B79">
         <f>_xlfn.NORM.DIST(A79,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1787425298420392E-2</v>
+        <v>1.1690375365099931E-2</v>
       </c>
       <c r="C79">
         <f>_xlfn.POISSON.DIST(A79,Scrobbles!$R$9,FALSE)</f>
-        <v>1.4189639789627426E-2</v>
+        <v>1.3701231162740024E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -16131,11 +16299,11 @@
       </c>
       <c r="B80">
         <f>_xlfn.NORM.DIST(A80,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1629444032553251E-2</v>
+        <v>1.153383170610657E-2</v>
       </c>
       <c r="C80">
         <f>_xlfn.POISSON.DIST(A80,Scrobbles!$R$9,FALSE)</f>
-        <v>1.171178491920177E-2</v>
+        <v>1.1277540925686882E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -16144,11 +16312,11 @@
       </c>
       <c r="B81">
         <f>_xlfn.NORM.DIST(A81,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1461786896276013E-2</v>
+        <v>1.1367853807638859E-2</v>
       </c>
       <c r="C81">
         <f>_xlfn.POISSON.DIST(A81,Scrobbles!$R$9,FALSE)</f>
-        <v>9.5442612152552165E-3</v>
+        <v>9.1650901543927129E-3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -16157,11 +16325,11 @@
       </c>
       <c r="B82">
         <f>_xlfn.NORM.DIST(A82,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1284935554105332E-2</v>
+        <v>1.1192911376843712E-2</v>
       </c>
       <c r="C82">
         <f>_xlfn.POISSON.DIST(A82,Scrobbles!$R$9,FALSE)</f>
-        <v>7.680661934862722E-3</v>
+        <v>7.3552286012978614E-3</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -16170,11 +16338,11 @@
       </c>
       <c r="B83">
         <f>_xlfn.NORM.DIST(A83,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1099392620988476E-2</v>
+        <v>1.1009494173772904E-2</v>
       </c>
       <c r="C83">
         <f>_xlfn.POISSON.DIST(A83,Scrobbles!$R$9,FALSE)</f>
-        <v>6.1046384982497599E-3</v>
+        <v>5.8298929089614744E-3</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -16183,11 +16351,11 @@
       </c>
       <c r="B84">
         <f>_xlfn.NORM.DIST(A84,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0905679289192219E-2</v>
+        <v>1.0818109733641907E-2</v>
       </c>
       <c r="C84">
         <f>_xlfn.POISSON.DIST(A84,Scrobbles!$R$9,FALSE)</f>
-        <v>4.7928343466073628E-3</v>
+        <v>4.5645308388145515E-3</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -16196,11 +16364,11 @@
       </c>
       <c r="B85">
         <f>_xlfn.NORM.DIST(A85,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0704332898321777E-2</v>
+        <v>1.0619281035961492E-2</v>
       </c>
       <c r="C85">
         <f>_xlfn.POISSON.DIST(A85,Scrobbles!$R$9,FALSE)</f>
-        <v>3.7175827690552219E-3</v>
+        <v>3.5307541158992408E-3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -16209,11 +16377,11 @@
       </c>
       <c r="B86">
         <f>_xlfn.NORM.DIST(A86,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0495904464257966E-2</v>
+        <v>1.0413544135458544E-2</v>
       </c>
       <c r="C86">
         <f>_xlfn.POISSON.DIST(A86,Scrobbles!$R$9,FALSE)</f>
-        <v>2.8492311288284612E-3</v>
+        <v>2.6985943628991655E-3</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -16222,11 +16390,11 @@
       </c>
       <c r="B87">
         <f>_xlfn.NORM.DIST(A87,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.028095618282629E-2</v>
+        <v>1.0201445769719247E-2</v>
       </c>
       <c r="C87">
         <f>_xlfn.POISSON.DIST(A87,Scrobbles!$R$9,FALSE)</f>
-        <v>2.1580180598469454E-3</v>
+        <v>2.0382999975089473E-3</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
@@ -16235,11 +16403,11 @@
       </c>
       <c r="B88">
         <f>_xlfn.NORM.DIST(A88,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0060058923907834E-2</v>
+        <v>9.9835409583844906E-3</v>
       </c>
       <c r="C88">
         <f>_xlfn.POISSON.DIST(A88,Scrobbles!$R$9,FALSE)</f>
-        <v>1.6154850512166163E-3</v>
+        <v>1.5216650773090656E-3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -16248,11 +16416,11 @@
       </c>
       <c r="B89">
         <f>_xlfn.NORM.DIST(A89,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.8337897314721735E-3</v>
+        <v>9.7603906085068741E-3</v>
       </c>
       <c r="C89">
         <f>_xlfn.POISSON.DIST(A89,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1954461318356851E-3</v>
+        <v>1.1229210982587705E-3</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
@@ -16261,11 +16429,11 @@
       </c>
       <c r="B90">
         <f>_xlfn.NORM.DIST(A90,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.6027293446612101E-3</v>
+        <v>9.5325591403452922E-3</v>
       </c>
       <c r="C90">
         <f>_xlfn.POISSON.DIST(A90,Scrobbles!$R$9,FALSE)</f>
-        <v>8.7456815365878821E-4</v>
+        <v>8.1924913297771551E-4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
@@ -16274,11 +16442,11 @@
       </c>
       <c r="B91">
         <f>_xlfn.NORM.DIST(A91,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.3674597545859717E-3</v>
+        <v>9.3006121474320785E-3</v>
       </c>
       <c r="C91">
         <f>_xlfn.POISSON.DIST(A91,Scrobbles!$R$9,FALSE)</f>
-        <v>6.3263027620339091E-4</v>
+        <v>5.909835665216987E-4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
@@ -16287,11 +16455,11 @@
       </c>
       <c r="B92">
         <f>_xlfn.NORM.DIST(A92,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.1285618109221579E-3</v>
+        <v>9.0651141042052529E-3</v>
       </c>
       <c r="C92">
         <f>_xlfn.POISSON.DIST(A92,Scrobbles!$R$9,FALSE)</f>
-        <v>4.5253667650257978E-4</v>
+        <v>4.2158224869485224E-4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
@@ -16300,11 +16468,11 @@
       </c>
       <c r="B93">
         <f>_xlfn.NORM.DIST(A93,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.8866128917126763E-3</v>
+        <v>8.8266261338616342E-3</v>
       </c>
       <c r="C93">
         <f>_xlfn.POISSON.DIST(A93,Scrobbles!$R$9,FALSE)</f>
-        <v>3.2015383669204789E-4</v>
+        <v>2.9743381702986092E-4</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
@@ -16313,11 +16481,11 @@
       </c>
       <c r="B94">
         <f>_xlfn.NORM.DIST(A94,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.6421846490148703E-3</v>
+        <v>8.5857038483633345E-3</v>
       </c>
       <c r="C94">
         <f>_xlfn.POISSON.DIST(A94,Scrobbles!$R$9,FALSE)</f>
-        <v>2.2403568707048504E-4</v>
+        <v>2.0756395533940962E-4</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
@@ -16326,11 +16494,11 @@
       </c>
       <c r="B95">
         <f>_xlfn.NORM.DIST(A95,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.3958408421758932E-3</v>
+        <v>8.3428952717290988E-3</v>
       </c>
       <c r="C95">
         <f>_xlfn.POISSON.DIST(A95,Scrobbles!$R$9,FALSE)</f>
-        <v>1.5508884974438125E-4</v>
+        <v>1.4329083395942988E-4</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
@@ -16339,11 +16507,11 @@
       </c>
       <c r="B96">
         <f>_xlfn.NORM.DIST(A96,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.1481352695916814E-3</v>
+        <v>8.0987388568721039E-3</v>
       </c>
       <c r="C96">
         <f>_xlfn.POISSON.DIST(A96,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0621822541187075E-4</v>
+        <v>9.7867834194789204E-5</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
@@ -16352,11 +16520,11 @@
       </c>
       <c r="B97">
         <f>_xlfn.NORM.DIST(A97,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.899609808813603E-3</v>
+        <v>7.8537616053168703E-3</v>
       </c>
       <c r="C97">
         <f>_xlfn.POISSON.DIST(A97,Scrobbles!$R$9,FALSE)</f>
-        <v>7.1981643137554335E-5</v>
+        <v>6.6140244049894213E-5</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
@@ -16365,11 +16533,11 @@
       </c>
       <c r="B98">
         <f>_xlfn.NORM.DIST(A98,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.6507925738226509E-3</v>
+        <v>7.6084772981497737E-3</v>
       </c>
       <c r="C98">
         <f>_xlfn.POISSON.DIST(A98,Scrobbles!$R$9,FALSE)</f>
-        <v>4.8272172319617242E-5</v>
+        <v>4.4232754082570095E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
@@ -16378,11 +16546,11 @@
       </c>
       <c r="B99">
         <f>_xlfn.NORM.DIST(A99,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.4021961972054497E-3</v>
+        <v>7.3633848455404091E-3</v>
       </c>
       <c r="C99">
         <f>_xlfn.POISSON.DIST(A99,Scrobbles!$R$9,FALSE)</f>
-        <v>3.203844497715104E-5</v>
+        <v>2.9276669323130908E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
@@ -16391,11 +16559,11 @@
       </c>
       <c r="B100">
         <f>_xlfn.NORM.DIST(A100,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.1543162438498049E-3</v>
+        <v>7.1189667611250415E-3</v>
       </c>
       <c r="C100">
         <f>_xlfn.POISSON.DIST(A100,Scrobbles!$R$9,FALSE)</f>
-        <v>2.10470713484659E-5</v>
+        <v>1.9179841442151139E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
@@ -16404,11 +16572,11 @@
       </c>
       <c r="B101">
         <f>_xlfn.NORM.DIST(A101,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.9076297616418461E-3</v>
+        <v>6.8756877664787556E-3</v>
       </c>
       <c r="C101">
         <f>_xlfn.POISSON.DIST(A101,Scrobbles!$R$9,FALSE)</f>
-        <v>1.3686827658511402E-5</v>
+        <v>1.2438248775347202E-5</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
@@ -16417,11 +16585,11 @@
       </c>
       <c r="B102">
         <f>_xlfn.NORM.DIST(A102,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.6625939735022498E-3</v>
+        <v>6.6339935298299754E-3</v>
       </c>
       <c r="C102">
         <f>_xlfn.POISSON.DIST(A102,Scrobbles!$R$9,FALSE)</f>
-        <v>8.8114852546347897E-6</v>
+        <v>7.9856203573639593E-6</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -16430,11 +16598,11 @@
       </c>
       <c r="B103">
         <f>_xlfn.NORM.DIST(A103,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.4196451139567493E-3</v>
+        <v>6.3943095420993454E-3</v>
       </c>
       <c r="C103">
         <f>_xlfn.POISSON.DIST(A103,Scrobbles!$R$9,FALSE)</f>
-        <v>5.6166073644257566E-6</v>
+        <v>5.076176412122521E-6</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -16443,11 +16611,11 @@
       </c>
       <c r="B104">
         <f>_xlfn.NORM.DIST(A104,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.179197412306328E-3</v>
+        <v>6.1570401322844923E-3</v>
       </c>
       <c r="C104">
         <f>_xlfn.POISSON.DIST(A104,Scrobbles!$R$9,FALSE)</f>
-        <v>3.5450324372491359E-6</v>
+        <v>3.1951110395452021E-6</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
@@ -16456,11 +16624,11 @@
       </c>
       <c r="B105">
         <f>_xlfn.NORM.DIST(A105,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.9416422233546651E-3</v>
+        <v>5.9225676231716368E-3</v>
       </c>
       <c r="C105">
         <f>_xlfn.POISSON.DIST(A105,Scrobbles!$R$9,FALSE)</f>
-        <v>2.2157936258266039E-6</v>
+        <v>1.9915818140523907E-6</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
@@ -16469,11 +16637,11 @@
       </c>
       <c r="B106">
         <f>_xlfn.NORM.DIST(A106,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.7073473055745229E-3</v>
+        <v>5.691251627343458E-3</v>
       </c>
       <c r="C106">
         <f>_xlfn.POISSON.DIST(A106,Scrobbles!$R$9,FALSE)</f>
-        <v>1.3716467836267568E-6</v>
+        <v>1.229459517983457E-6</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
@@ -16482,11 +16650,11 @@
       </c>
       <c r="B107">
         <f>_xlfn.NORM.DIST(A107,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.4766562455586297E-3</v>
+        <v>5.4634284824775442E-3</v>
       </c>
       <c r="C107">
         <f>_xlfn.POISSON.DIST(A107,Scrobbles!$R$9,FALSE)</f>
-        <v>8.4100641872943668E-7</v>
+        <v>7.5175158977002684E-7</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
@@ -16495,11 +16663,11 @@
       </c>
       <c r="B108">
         <f>_xlfn.NORM.DIST(A108,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.2498880266129283E-3</v>
+        <v>5.2394108239990772E-3</v>
       </c>
       <c r="C108">
         <f>_xlfn.POISSON.DIST(A108,Scrobbles!$R$9,FALSE)</f>
-        <v>5.1078691729598849E-7</v>
+        <v>4.5532124089342132E-7</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
@@ -16508,11 +16676,11 @@
       </c>
       <c r="B109">
         <f>_xlfn.NORM.DIST(A109,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.0273367384172799E-3</v>
+        <v>5.0194872922713985E-3</v>
       </c>
       <c r="C109">
         <f>_xlfn.POISSON.DIST(A109,Scrobbles!$R$9,FALSE)</f>
-        <v>3.0732812587547993E-7</v>
+        <v>2.732017984481836E-7</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
@@ -16521,11 +16689,11 @@
       </c>
       <c r="B110">
         <f>_xlfn.NORM.DIST(A110,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.8092714238076924E-3</v>
+        <v>4.8039223706847862E-3</v>
       </c>
       <c r="C110">
         <f>_xlfn.POISSON.DIST(A110,Scrobbles!$R$9,FALSE)</f>
-        <v>1.8319974808732996E-7</v>
+        <v>1.6240867352588336E-7</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -16534,11 +16702,11 @@
       </c>
       <c r="B111">
         <f>_xlfn.NORM.DIST(A111,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.5959360579298581E-3</v>
+        <v>4.5929563502424145E-3</v>
       </c>
       <c r="C111">
         <f>_xlfn.POISSON.DIST(A111,Scrobbles!$R$9,FALSE)</f>
-        <v>1.0820434346062855E-7</v>
+        <v>9.5660388905790196E-8</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
@@ -16547,11 +16715,11 @@
       </c>
       <c r="B112">
         <f>_xlfn.NORM.DIST(A112,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.3875496542811771E-3</v>
+        <v>4.3868054155469828E-3</v>
       </c>
       <c r="C112">
         <f>_xlfn.POISSON.DIST(A112,Scrobbles!$R$9,FALSE)</f>
-        <v>6.3328372802818975E-8</v>
+        <v>5.5832731822672483E-8</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -16560,11 +16728,11 @@
       </c>
       <c r="B113">
         <f>_xlfn.NORM.DIST(A113,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.1843064915007798E-3</v>
+        <v>4.185661846465895E-3</v>
       </c>
       <c r="C113">
         <f>_xlfn.POISSON.DIST(A113,Scrobbles!$R$9,FALSE)</f>
-        <v>3.6730062759510309E-8</v>
+        <v>3.2293515099658137E-8</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -16573,11 +16741,11 @@
       </c>
       <c r="B114">
         <f>_xlfn.NORM.DIST(A114,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.9863764541873984E-3</v>
+        <v>3.9896943291991144E-3</v>
       </c>
       <c r="C114">
         <f>_xlfn.POISSON.DIST(A114,Scrobbles!$R$9,FALSE)</f>
-        <v>2.1113000976602798E-8</v>
+        <v>1.8511717669684411E-8</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -16586,11 +16754,11 @@
       </c>
       <c r="B115">
         <f>_xlfn.NORM.DIST(A115,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.7939054805248189E-3</v>
+        <v>3.7990483699943994E-3</v>
       </c>
       <c r="C115">
         <f>_xlfn.POISSON.DIST(A115,Scrobbles!$R$9,FALSE)</f>
-        <v>1.2028676479498668E-8</v>
+        <v>1.0517625318823643E-8</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -16599,11 +16767,11 @@
       </c>
       <c r="B116">
         <f>_xlfn.NORM.DIST(A116,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.6070161090752595E-3</v>
+        <v>3.6138468043499057E-3</v>
       </c>
       <c r="C116">
         <f>_xlfn.POISSON.DIST(A116,Scrobbles!$R$9,FALSE)</f>
-        <v>6.7929640009751782E-9</v>
+        <v>5.9232800297779539E-9</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -16612,11 +16780,11 @@
       </c>
       <c r="B117">
         <f>_xlfn.NORM.DIST(A117,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.4258081167622481E-3</v>
+        <v>3.4341903942147925E-3</v>
       </c>
       <c r="C117">
         <f>_xlfn.POISSON.DIST(A117,Scrobbles!$R$9,FALSE)</f>
-        <v>3.8028377180871567E-9</v>
+        <v>3.3068450490018516E-9</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -16625,11 +16793,11 @@
       </c>
       <c r="B118">
         <f>_xlfn.NORM.DIST(A118,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.2503592398058869E-3</v>
+        <v>3.2601585054437077E-3</v>
       </c>
       <c r="C118">
         <f>_xlfn.POISSON.DIST(A118,Scrobbles!$R$9,FALSE)</f>
-        <v>2.1105523245150879E-9</v>
+        <v>1.8302283447107748E-9</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -16638,11 +16806,11 @@
       </c>
       <c r="B119">
         <f>_xlfn.NORM.DIST(A119,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.0807259691931002E-3</v>
+        <v>3.0918098575795617E-3</v>
       </c>
       <c r="C119">
         <f>_xlfn.POISSON.DIST(A119,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1613325051192549E-9</v>
+        <v>1.0043124259255714E-9</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -16651,11 +16819,11 @@
       </c>
       <c r="B120">
         <f>_xlfn.NORM.DIST(A120,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.9169444121616281E-3</v>
+        <v>2.9291833379291366E-3</v>
       </c>
       <c r="C120">
         <f>_xlfn.POISSON.DIST(A120,Scrobbles!$R$9,FALSE)</f>
-        <v>6.3360835390346452E-10</v>
+        <v>5.4643215745229431E-10</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -16664,11 +16832,11 @@
       </c>
       <c r="B121">
         <f>_xlfn.NORM.DIST(A121,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.7590312111459678E-3</v>
+        <v>2.7722988718549388E-3</v>
       </c>
       <c r="C121">
         <f>_xlfn.POISSON.DIST(A121,Scrobbles!$R$9,FALSE)</f>
-        <v>3.4278377187417643E-10</v>
+        <v>2.9480762294158292E-10</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -16677,11 +16845,11 @@
       </c>
       <c r="B122">
         <f>_xlfn.NORM.DIST(A122,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.6069845116730699E-3</v>
+        <v>2.6211583412315801E-3</v>
       </c>
       <c r="C122">
         <f>_xlfn.POISSON.DIST(A122,Scrobbles!$R$9,FALSE)</f>
-        <v>1.8390152358881545E-10</v>
+        <v>1.5772730535926232E-10</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -16690,11 +16858,11 @@
       </c>
       <c r="B123">
         <f>_xlfn.NORM.DIST(A123,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.4607849708010894E-3</v>
+        <v>2.4757465431018777E-3</v>
       </c>
       <c r="C123">
         <f>_xlfn.POISSON.DIST(A123,Scrobbles!$R$9,FALSE)</f>
-        <v>9.7846721157116887E-11</v>
+        <v>8.3689492513025198E-11</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -16703,11 +16871,11 @@
       </c>
       <c r="B124">
         <f>_xlfn.NORM.DIST(A124,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.3203967978617018E-3</v>
+        <v>2.3360321807131853E-3</v>
       </c>
       <c r="C124">
         <f>_xlfn.POISSON.DIST(A124,Scrobbles!$R$9,FALSE)</f>
-        <v>5.1633642849161693E-11</v>
+        <v>4.4041340017099654E-11</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -16716,11 +16884,11 @@
       </c>
       <c r="B125">
         <f>_xlfn.NORM.DIST(A125,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.1857688194904033E-3</v>
+        <v>2.2019688793134561E-3</v>
       </c>
       <c r="C125">
         <f>_xlfn.POISSON.DIST(A125,Scrobbles!$R$9,FALSE)</f>
-        <v>2.7025514774148171E-11</v>
+        <v>2.2988192959972433E-11</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -16729,11 +16897,11 @@
       </c>
       <c r="B126">
         <f>_xlfn.NORM.DIST(A126,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.0568355612048997E-3</v>
+        <v>2.0734962193348608E-3</v>
       </c>
       <c r="C126">
         <f>_xlfn.POISSON.DIST(A126,Scrobbles!$R$9,FALSE)</f>
-        <v>1.40313226038193E-11</v>
+        <v>1.1902345960315081E-11</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -16742,11 +16910,11 @@
       </c>
       <c r="B127">
         <f>_xlfn.NORM.DIST(A127,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.9335183381136232E-3</v>
+        <v>1.9505407798852362E-3</v>
       </c>
       <c r="C127">
         <f>_xlfn.POISSON.DIST(A127,Scrobbles!$R$9,FALSE)</f>
-        <v>7.2266149796773692E-12</v>
+        <v>6.1132474783405214E-12</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
@@ -16755,11 +16923,11 @@
       </c>
       <c r="B128">
         <f>_xlfn.NORM.DIST(A128,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.8157263476992732E-3</v>
+        <v>1.8330171857994081E-3</v>
       </c>
       <c r="C128">
         <f>_xlfn.POISSON.DIST(A128,Scrobbles!$R$9,FALSE)</f>
-        <v>3.6924165755494941E-12</v>
+        <v>3.1149483731665922E-12</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
@@ -16768,11 +16936,11 @@
       </c>
       <c r="B129">
         <f>_xlfn.NORM.DIST(A129,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.703357758020242E-3</v>
+        <v>1.7208291518681837E-3</v>
       </c>
       <c r="C129">
         <f>_xlfn.POISSON.DIST(A129,Scrobbles!$R$9,FALSE)</f>
-        <v>1.8717734853518328E-12</v>
+        <v>1.5746953787954975E-12</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
@@ -16781,11 +16949,11 @@
       </c>
       <c r="B130">
         <f>_xlfn.NORM.DIST(A130,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.5963007851005049E-3</v>
+        <v>1.6138705182573998E-3</v>
       </c>
       <c r="C130">
         <f>_xlfn.POISSON.DIST(A130,Scrobbles!$R$9,FALSE)</f>
-        <v>9.4143348522411912E-13</v>
+        <v>7.8983432604976131E-13</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
@@ -16794,11 +16962,11 @@
       </c>
       <c r="B131">
         <f>_xlfn.NORM.DIST(A131,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.4944347537300927E-3</v>
+        <v>1.5120262715477208E-3</v>
       </c>
       <c r="C131">
         <f>_xlfn.POISSON.DIST(A131,Scrobbles!$R$9,FALSE)</f>
-        <v>4.6983595747484752E-13</v>
+        <v>3.9309336613148441E-13</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -16807,11 +16975,11 @@
       </c>
       <c r="B132">
         <f>_xlfn.NORM.DIST(A132,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.397631136368493E-3</v>
+        <v>1.4151735462626202E-3</v>
       </c>
       <c r="C132">
         <f>_xlfn.POISSON.DIST(A132,Scrobbles!$R$9,FALSE)</f>
-        <v>2.3267473013409732E-13</v>
+        <v>1.9413408057311464E-13</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
@@ -16820,11 +16988,11 @@
       </c>
       <c r="B133">
         <f>_xlfn.NORM.DIST(A133,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.3057545653265962E-3</v>
+        <v>1.3231826022024342E-3</v>
       </c>
       <c r="C133">
         <f>_xlfn.POISSON.DIST(A133,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1434686000536041E-13</v>
+        <v>9.514367193915413E-14</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
@@ -16833,11 +17001,11 @@
       </c>
       <c r="B134">
         <f>_xlfn.NORM.DIST(A134,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2186638138941214E-3</v>
+        <v>1.2359177733614359E-3</v>
       </c>
       <c r="C134">
         <f>_xlfn.POISSON.DIST(A134,Scrobbles!$R$9,FALSE)</f>
-        <v>5.5769484751830717E-14</v>
+        <v>4.6275955847260166E-14</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
@@ -16846,11 +17014,11 @@
       </c>
       <c r="B135">
         <f>_xlfn.NORM.DIST(A135,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1362127425739311E-3</v>
+        <v>1.1532383846682144E-3</v>
       </c>
       <c r="C135">
         <f>_xlfn.POISSON.DIST(A135,Scrobbles!$R$9,FALSE)</f>
-        <v>2.6995495989542802E-14</v>
+        <v>2.233845732988448E-14</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
@@ -16859,11 +17027,11 @@
       </c>
       <c r="B136">
         <f>_xlfn.NORM.DIST(A136,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0582512070775659E-3</v>
+        <v>1.0749996332526976E-3</v>
       </c>
       <c r="C136">
         <f>_xlfn.POISSON.DIST(A136,Scrobbles!$R$9,FALSE)</f>
-        <v>1.2969786673308309E-14</v>
+        <v>1.0702809620978899E-14</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -16872,11 +17040,11 @@
       </c>
       <c r="B137">
         <f>_xlfn.NORM.DIST(A137,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.8462592522347275E-4</v>
+        <v>1.0010534314020263E-3</v>
       </c>
       <c r="C137">
         <f>_xlfn.POISSON.DIST(A137,Scrobbles!$R$9,FALSE)</f>
-        <v>6.1850808988677059E-15</v>
+        <v>5.0899492563126889E-15</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
@@ -16885,11 +17053,11 @@
       </c>
       <c r="B138">
         <f>_xlfn.NORM.DIST(A138,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.151813003567289E-4</v>
+        <v>9.3124920881826182E-4</v>
       </c>
       <c r="C138">
         <f>_xlfn.POISSON.DIST(A138,Scrobbles!$R$9,FALSE)</f>
-        <v>2.9278767845299173E-15</v>
+        <v>2.4028350877540293E-15</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
@@ -16898,11 +17066,11 @@
       </c>
       <c r="B139">
         <f>_xlfn.NORM.DIST(A139,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.4976019937305699E-4</v>
+        <v>8.6543467223028304E-4</v>
       </c>
       <c r="C139">
         <f>_xlfn.POISSON.DIST(A139,Scrobbles!$R$9,FALSE)</f>
-        <v>1.3758736362238486E-15</v>
+        <v>1.1260374091159783E-15</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
@@ -16911,11 +17079,11 @@
       </c>
       <c r="B140">
         <f>_xlfn.NORM.DIST(A140,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.8820468387727971E-4</v>
+        <v>8.0345652083699379E-4</v>
       </c>
       <c r="C140">
         <f>_xlfn.POISSON.DIST(A140,Scrobbles!$R$9,FALSE)</f>
-        <v>6.418680856646353E-16</v>
+        <v>5.2386954702551521E-16</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
@@ -16924,11 +17092,11 @@
       </c>
       <c r="B141">
         <f>_xlfn.NORM.DIST(A141,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.3035669343426285E-4</v>
+        <v>7.4516111646649513E-4</v>
       </c>
       <c r="C141">
         <f>_xlfn.POISSON.DIST(A141,Scrobbles!$R$9,FALSE)</f>
-        <v>2.9728794739168473E-16</v>
+        <v>2.4196791032442343E-16</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -16937,11 +17105,11 @@
       </c>
       <c r="B142">
         <f>_xlfn.NORM.DIST(A142,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.7605868027640259E-4</v>
+        <v>6.9039510772365379E-4</v>
       </c>
       <c r="C142">
         <f>_xlfn.POISSON.DIST(A142,Scrobbles!$R$9,FALSE)</f>
-        <v>1.3670852162075814E-16</v>
+        <v>1.1096324762977995E-16</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
@@ -16950,11 +17118,11 @@
       </c>
       <c r="B143">
         <f>_xlfn.NORM.DIST(A143,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.2515419521373802E-4</v>
+        <v>6.3900600776462858E-4</v>
       </c>
       <c r="C143">
         <f>_xlfn.POISSON.DIST(A143,Scrobbles!$R$9,FALSE)</f>
-        <v>6.2419860568833411E-17</v>
+        <v>5.0525365885447772E-17</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
@@ -16963,11 +17131,11 @@
       </c>
       <c r="B144">
         <f>_xlfn.NORM.DIST(A144,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.7748842484916412E-4</v>
+        <v>5.9084272567963233E-4</v>
       </c>
       <c r="C144">
         <f>_xlfn.POISSON.DIST(A144,Scrobbles!$R$9,FALSE)</f>
-        <v>2.8299630811562107E-17</v>
+        <v>2.2843915426931672E-17</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
@@ -16976,11 +17144,11 @@
       </c>
       <c r="B145">
         <f>_xlfn.NORM.DIST(A145,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.3290868053066374E-4</v>
+        <v>5.4575605178322029E-4</v>
       </c>
       <c r="C145">
         <f>_xlfn.POISSON.DIST(A145,Scrobbles!$R$9,FALSE)</f>
-        <v>1.2740634368262676E-17</v>
+        <v>1.0256139681708663E-17</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
@@ -16989,11 +17157,11 @@
       </c>
       <c r="B146">
         <f>_xlfn.NORM.DIST(A146,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.9126483977399691E-4</v>
+        <v>5.0359909740374802E-4</v>
       </c>
       <c r="C146">
         <f>_xlfn.POISSON.DIST(A146,Scrobbles!$R$9,FALSE)</f>
-        <v>5.6960642637802855E-18</v>
+        <v>4.5726804801353436E-18</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -17002,11 +17170,11 @@
       </c>
       <c r="B147">
         <f>_xlfn.NORM.DIST(A147,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.5240974116238106E-4</v>
+        <v>4.6422769002958474E-4</v>
       </c>
       <c r="C147">
         <f>_xlfn.POISSON.DIST(A147,Scrobbles!$R$9,FALSE)</f>
-        <v>2.5290254412551274E-18</v>
+        <v>2.0246607995316853E-18</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
@@ -17015,11 +17183,11 @@
       </c>
       <c r="B148">
         <f>_xlfn.NORM.DIST(A148,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.1619953397397383E-4</v>
+        <v>4.2750072490895354E-4</v>
       </c>
       <c r="C148">
         <f>_xlfn.POISSON.DIST(A148,Scrobbles!$R$9,FALSE)</f>
-        <v>1.1151843407707552E-18</v>
+        <v>8.9032555560869307E-19</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
@@ -17028,11 +17196,11 @@
       </c>
       <c r="B149">
         <f>_xlfn.NORM.DIST(A149,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.8249398400357537E-4</v>
+        <v>3.9328047441271655E-4</v>
       </c>
       <c r="C149">
         <f>_xlfn.POISSON.DIST(A149,Scrobbles!$R$9,FALSE)</f>
-        <v>4.8839999160661091E-19</v>
+        <v>3.8884894544062634E-19</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
@@ -17041,11 +17209,11 @@
       </c>
       <c r="B150">
         <f>_xlfn.NORM.DIST(A150,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.5115673723212288E-4</v>
+        <v>3.6143285665533517E-4</v>
       </c>
       <c r="C150">
         <f>_xlfn.POISSON.DIST(A150,Scrobbles!$R$9,FALSE)</f>
-        <v>2.1245172048684015E-19</v>
+        <v>1.6868195699641454E-19</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
@@ -17054,11 +17222,11 @@
       </c>
       <c r="B151">
         <f>_xlfn.NORM.DIST(A151,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.2205554315691736E-4</v>
+        <v>3.318276650289369E-4</v>
       </c>
       <c r="C151">
         <f>_xlfn.POISSON.DIST(A151,Scrobbles!$R$9,FALSE)</f>
-        <v>9.1795270110838606E-20</v>
+        <v>7.2682822395642634E-20</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -17067,11 +17235,11 @@
       </c>
       <c r="B152">
         <f>_xlfn.NORM.DIST(A152,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.9506243972781044E-4</v>
+        <v>3.0433876043966824E-4</v>
       </c>
       <c r="C152">
         <f>_xlfn.POISSON.DIST(A152,Scrobbles!$R$9,FALSE)</f>
-        <v>3.9398107884353621E-20</v>
+        <v>3.1109278947354901E-20</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
@@ -17080,11 +17248,11 @@
       </c>
       <c r="B153">
         <f>_xlfn.NORM.DIST(A153,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.7005390194087748E-4</v>
+        <v>2.7884422814511141E-4</v>
       </c>
       <c r="C153">
         <f>_xlfn.POISSON.DIST(A153,Scrobbles!$R$9,FALSE)</f>
-        <v>1.6797503407190906E-20</v>
+        <v>1.3227032439572284E-20</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
@@ -17093,11 +17261,11 @@
       </c>
       <c r="B154">
         <f>_xlfn.NORM.DIST(A154,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.4691095622249933E-4</v>
+        <v>2.5522650117750585E-4</v>
       </c>
       <c r="C154">
         <f>_xlfn.POISSON.DIST(A154,Scrobbles!$R$9,FALSE)</f>
-        <v>7.1145505583541147E-21</v>
+        <v>5.5868659555442648E-21</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
@@ -17106,11 +17274,11 @@
       </c>
       <c r="B155">
         <f>_xlfn.NORM.DIST(A155,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.2551926279469107E-4</v>
+        <v>2.3337245240106794E-4</v>
       </c>
       <c r="C155">
         <f>_xlfn.POISSON.DIST(A155,Scrobbles!$R$9,FALSE)</f>
-        <v>2.9936592049689014E-21</v>
+        <v>2.3443704659789914E-21</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
@@ -17119,11 +17287,11 @@
       </c>
       <c r="B156">
         <f>_xlfn.NORM.DIST(A156,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.0576916824830745E-4</v>
+        <v>2.1317345729406808E-4</v>
       </c>
       <c r="C156">
         <f>_xlfn.POISSON.DIST(A156,Scrobbles!$R$9,FALSE)</f>
-        <v>1.251491655995744E-21</v>
+        <v>9.773608567410589E-22</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -17132,11 +17300,11 @@
       </c>
       <c r="B157">
         <f>_xlfn.NORM.DIST(A157,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.8755573056604053E-4</v>
+        <v>1.945254295689578E-4</v>
       </c>
       <c r="C157">
         <f>_xlfn.POISSON.DIST(A157,Scrobbles!$R$9,FALSE)</f>
-        <v>5.1980754655040824E-22</v>
+        <v>4.0482997738039066E-22</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
@@ -17145,11 +17313,11 @@
       </c>
       <c r="B158">
         <f>_xlfn.NORM.DIST(A158,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.7077871883345498E-4</v>
+        <v>1.7732883174815544E-4</v>
       </c>
       <c r="C158">
         <f>_xlfn.POISSON.DIST(A158,Scrobbles!$R$9,FALSE)</f>
-        <v>2.1451827794200353E-22</v>
+        <v>1.6660862748845164E-22</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
@@ -17158,11 +17326,11 @@
       </c>
       <c r="B159">
         <f>_xlfn.NORM.DIST(A159,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.5534258985540388E-4</v>
+        <v>1.6148866280066293E-4</v>
       </c>
       <c r="C159">
         <f>_xlfn.POISSON.DIST(A159,Scrobbles!$R$9,FALSE)</f>
-        <v>8.7965215224623688E-23</v>
+        <v>6.8131390899362965E-23</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
@@ -17171,11 +17339,11 @@
       </c>
       <c r="B160">
         <f>_xlfn.NORM.DIST(A160,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.4115644385866223E-4</v>
+        <v>1.4691442491700062E-4</v>
       </c>
       <c r="C160">
         <f>_xlfn.POISSON.DIST(A160,Scrobbles!$R$9,FALSE)</f>
-        <v>3.5842657534781888E-23</v>
+        <v>2.7684685165475729E-23</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
@@ -17184,11 +17352,11 @@
       </c>
       <c r="B161">
         <f>_xlfn.NORM.DIST(A161,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.2813396141125156E-4</v>
+        <v>1.335200714586241E-4</v>
       </c>
       <c r="C161">
         <f>_xlfn.POISSON.DIST(A161,Scrobbles!$R$9,FALSE)</f>
-        <v>1.451273945292536E-23</v>
+        <v>1.1178715039050663E-23</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -17197,11 +17365,11 @@
       </c>
       <c r="B162">
         <f>_xlfn.NORM.DIST(A162,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.1619332362633347E-4</v>
+        <v>1.2122393806455426E-4</v>
       </c>
       <c r="C162">
         <f>_xlfn.POISSON.DIST(A162,Scrobbles!$R$9,FALSE)</f>
-        <v>5.8395009824592936E-24</v>
+        <v>4.4856080625445803E-24</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
@@ -17210,11 +17378,11 @@
       </c>
       <c r="B163">
         <f>_xlfn.NORM.DIST(A163,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.0525711764542695E-4</v>
+        <v>1.0994865883395637E-4</v>
       </c>
       <c r="C163">
         <f>_xlfn.POISSON.DIST(A163,Scrobbles!$R$9,FALSE)</f>
-        <v>2.33504997520924E-24</v>
+        <v>1.7887303196415839E-24</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
@@ -17223,11 +17391,11 @@
       </c>
       <c r="B164">
         <f>_xlfn.NORM.DIST(A164,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>9.5252229313606463E-5</v>
+        <v>9.9621069430364738E-5</v>
       </c>
       <c r="C164">
         <f>_xlfn.POISSON.DIST(A164,Scrobbles!$R$9,FALSE)</f>
-        <v>9.2795621620166119E-25</v>
+        <v>7.088906933961865E-25</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
@@ -17236,11 +17404,11 @@
       </c>
       <c r="B165">
         <f>_xlfn.NORM.DIST(A165,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>8.6109724869844119E-5</v>
+        <v>9.0172098872595485E-5</v>
       </c>
       <c r="C165">
         <f>_xlfn.POISSON.DIST(A165,Scrobbles!$R$9,FALSE)</f>
-        <v>3.6651031428994314E-25</v>
+        <v>2.7921650793930801E-25</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
@@ -17249,11 +17417,11 @@
       </c>
       <c r="B166">
         <f>_xlfn.NORM.DIST(A166,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.7764723380223448E-5</v>
+        <v>8.1536651690542784E-5</v>
       </c>
       <c r="C166">
         <f>_xlfn.POISSON.DIST(A166,Scrobbles!$R$9,FALSE)</f>
-        <v>1.438761052942213E-25</v>
+        <v>1.0930667004500075E-25</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -17262,11 +17430,11 @@
       </c>
       <c r="B167">
         <f>_xlfn.NORM.DIST(A167,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>7.0156261541786869E-5</v>
+        <v>7.3653482032321998E-5</v>
       </c>
       <c r="C167">
         <f>_xlfn.POISSON.DIST(A167,Scrobbles!$R$9,FALSE)</f>
-        <v>5.6137238993588509E-26</v>
+        <v>4.253164111680053E-26</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
@@ -17275,11 +17443,11 @@
       </c>
       <c r="B168">
         <f>_xlfn.NORM.DIST(A168,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>6.3227152381572824E-5</v>
+        <v>6.6465061213877251E-5</v>
       </c>
       <c r="C168">
         <f>_xlfn.POISSON.DIST(A168,Scrobbles!$R$9,FALSE)</f>
-        <v>2.1771546572710779E-26</v>
+        <v>1.6449529232240944E-26</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
@@ -17288,11 +17456,11 @@
       </c>
       <c r="B169">
         <f>_xlfn.NORM.DIST(A169,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.6923839270186257E-5</v>
+        <v>5.9917440104355217E-5</v>
       </c>
       <c r="C169">
         <f>_xlfn.POISSON.DIST(A169,Scrobbles!$R$9,FALSE)</f>
-        <v>8.3930368472535351E-27</v>
+        <v>6.3239208126242841E-27</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
@@ -17301,11 +17469,11 @@
       </c>
       <c r="B170">
         <f>_xlfn.NORM.DIST(A170,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>5.1196246563133587E-5</v>
+        <v>5.396010764136949E-5</v>
       </c>
       <c r="C170">
         <f>_xlfn.POISSON.DIST(A170,Scrobbles!$R$9,FALSE)</f>
-        <v>3.21629716621971E-27</v>
+        <v>2.4167212578638648E-27</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
@@ -17314,11 +17482,11 @@
       </c>
       <c r="B171">
         <f>_xlfn.NORM.DIST(A171,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.5997628077163812E-5</v>
+        <v>4.8545846670712066E-5</v>
       </c>
       <c r="C171">
         <f>_xlfn.POISSON.DIST(A171,Scrobbles!$R$9,FALSE)</f>
-        <v>1.2252248131671823E-27</v>
+        <v>9.1809850127210299E-28</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -17327,11 +17495,11 @@
       </c>
       <c r="B172">
         <f>_xlfn.NORM.DIST(A172,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>4.128441450391249E-5</v>
+        <v>4.3630588206020099E-5</v>
       </c>
       <c r="C172">
         <f>_xlfn.POISSON.DIST(A172,Scrobbles!$R$9,FALSE)</f>
-        <v>4.6399487346513189E-28</v>
+        <v>3.4672868931020996E-28</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
@@ -17340,11 +17508,11 @@
       </c>
       <c r="B173">
         <f>_xlfn.NORM.DIST(A173,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.7016060760056043E-5</v>
+        <v>3.9173265106181669E-5</v>
       </c>
       <c r="C173">
         <f>_xlfn.POISSON.DIST(A173,Scrobbles!$R$9,FALSE)</f>
-        <v>1.7468812840480439E-28</v>
+        <v>1.3017964663351297E-28</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
@@ -17353,11 +17521,11 @@
       </c>
       <c r="B174">
         <f>_xlfn.NORM.DIST(A174,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>3.3154894172675554E-5</v>
+        <v>3.5135666072575108E-5</v>
       </c>
       <c r="C174">
         <f>_xlfn.POISSON.DIST(A174,Scrobbles!$R$9,FALSE)</f>
-        <v>6.5385472279823979E-29</v>
+        <v>4.8591920301414293E-29</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
@@ -17366,11 +17534,11 @@
       </c>
       <c r="B175">
         <f>_xlfn.NORM.DIST(A175,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.9665964301213673E-5</v>
+        <v>3.1482290775212259E-5</v>
       </c>
       <c r="C175">
         <f>_xlfn.POISSON.DIST(A175,Scrobbles!$R$9,FALSE)</f>
-        <v>2.4332205849398199E-29</v>
+        <v>1.803297497349834E-29</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
@@ -17379,11 +17547,11 @@
       </c>
       <c r="B176">
         <f>_xlfn.NORM.DIST(A176,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.6516895103822783E-5</v>
+        <v>2.8180206827027267E-5</v>
       </c>
       <c r="C176">
         <f>_xlfn.POISSON.DIST(A176,Scrobbles!$R$9,FALSE)</f>
-        <v>9.0028197227164284E-30</v>
+        <v>6.6537664444280845E-30</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
@@ -17392,11 +17560,11 @@
       </c>
       <c r="B177">
         <f>_xlfn.NORM.DIST(A177,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.3677740066473734E-5</v>
+        <v>2.5198909239373708E-5</v>
       </c>
       <c r="C177">
         <f>_xlfn.POISSON.DIST(A177,Scrobbles!$R$9,FALSE)</f>
-        <v>3.3119732851845612E-30</v>
+        <v>2.4410626438979936E-30</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
@@ -17405,11 +17573,11 @@
       </c>
       <c r="B178">
         <f>_xlfn.NORM.DIST(A178,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>2.1120840828280453E-5</v>
+        <v>2.251018290963282E-5</v>
       </c>
       <c r="C178">
         <f>_xlfn.POISSON.DIST(A178,Scrobbles!$R$9,FALSE)</f>
-        <v>1.2114917953447396E-30</v>
+        <v>8.9046258800317691E-31</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
@@ -17418,11 +17586,11 @@
       </c>
       <c r="B179">
         <f>_xlfn.NORM.DIST(A179,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.8820689756360609E-5</v>
+        <v>2.0087968613986208E-5</v>
       </c>
       <c r="C179">
         <f>_xlfn.POISSON.DIST(A179,Scrobbles!$R$9,FALSE)</f>
-        <v>4.4064975295317193E-31</v>
+        <v>3.2299204944098502E-31</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
@@ -17431,11 +17599,11 @@
       </c>
       <c r="B180">
         <f>_xlfn.NORM.DIST(A180,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.6753796848399345E-5</v>
+        <v>1.7908232905092556E-5</v>
       </c>
       <c r="C180">
         <f>_xlfn.POISSON.DIST(A180,Scrobbles!$R$9,FALSE)</f>
-        <v>1.59374871903055E-31</v>
+        <v>1.1649874601819416E-31</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
@@ -17444,11 +17612,11 @@
       </c>
       <c r="B181">
         <f>_xlfn.NORM.DIST(A181,Scrobbles!$R$9,Scrobbles!$R$8,FALSE)</f>
-        <v>1.489856127103045E-5</v>
+        <v>1.5948842245779576E-5</v>
       </c>
       <c r="C181">
         <f>_xlfn.POISSON.DIST(A181,Scrobbles!$R$9,FALSE)</f>
-        <v>5.732091809728341E-32</v>
+        <v>4.1784733877318405E-32</v>
       </c>
     </row>
   </sheetData>
@@ -23274,7 +23442,7 @@
     <row r="89" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C89">
         <f>IF(Scrobbles!$B89=C$1,Scrobbles!$F89,0)</f>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="D89">
         <f>IF(Scrobbles!$B89=D$1,Scrobbles!$F89,0)</f>
@@ -23318,7 +23486,7 @@
       </c>
       <c r="O89">
         <f>IF(AND(Scrobbles!$F89&gt;=Calc!N$1+1,Scrobbles!$F89&lt;=Calc!O$1,ISBLANK(Scrobbles!$F89)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89">
         <f>IF(AND(Scrobbles!$F89&gt;=Calc!O$1+1,Scrobbles!$F89&lt;=Calc!P$1,ISBLANK(Scrobbles!$F89)=FALSE),1,0)</f>
@@ -23334,7 +23502,7 @@
       </c>
       <c r="T89">
         <f>IF(Scrobbles!F89&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="3:20" x14ac:dyDescent="0.3">
@@ -23344,7 +23512,7 @@
       </c>
       <c r="D90">
         <f>IF(Scrobbles!$B90=D$1,Scrobbles!$F90,0)</f>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E90">
         <f>IF(Scrobbles!$B90=E$1,Scrobbles!$F90,0)</f>
@@ -23384,7 +23552,7 @@
       </c>
       <c r="O90">
         <f>IF(AND(Scrobbles!$F90&gt;=Calc!N$1+1,Scrobbles!$F90&lt;=Calc!O$1,ISBLANK(Scrobbles!$F90)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P90">
         <f>IF(AND(Scrobbles!$F90&gt;=Calc!O$1+1,Scrobbles!$F90&lt;=Calc!P$1,ISBLANK(Scrobbles!$F90)=FALSE),1,0)</f>
@@ -23400,7 +23568,7 @@
       </c>
       <c r="T90">
         <f>IF(Scrobbles!F90&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="3:20" x14ac:dyDescent="0.3">
@@ -23414,7 +23582,7 @@
       </c>
       <c r="E91">
         <f>IF(Scrobbles!$B91=E$1,Scrobbles!$F91,0)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="F91">
         <f>IF(Scrobbles!$B91=F$1,Scrobbles!$F91,0)</f>
@@ -23450,7 +23618,7 @@
       </c>
       <c r="O91">
         <f>IF(AND(Scrobbles!$F91&gt;=Calc!N$1+1,Scrobbles!$F91&lt;=Calc!O$1,ISBLANK(Scrobbles!$F91)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P91">
         <f>IF(AND(Scrobbles!$F91&gt;=Calc!O$1+1,Scrobbles!$F91&lt;=Calc!P$1,ISBLANK(Scrobbles!$F91)=FALSE),1,0)</f>
@@ -23466,7 +23634,7 @@
       </c>
       <c r="T91">
         <f>IF(Scrobbles!F91&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="3:20" x14ac:dyDescent="0.3">
@@ -23484,7 +23652,7 @@
       </c>
       <c r="F92">
         <f>IF(Scrobbles!$B92=F$1,Scrobbles!$F92,0)</f>
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G92">
         <f>IF(Scrobbles!$B92=G$1,Scrobbles!$F92,0)</f>
@@ -23504,7 +23672,7 @@
       </c>
       <c r="L92">
         <f>IF(AND(Scrobbles!$F92&gt;=Calc!K$1+1,Scrobbles!$F92&lt;=Calc!L$1,ISBLANK(Scrobbles!$F92)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92">
         <f>IF(AND(Scrobbles!$F92&gt;=Calc!L$1+1,Scrobbles!$F92&lt;=Calc!M$1,ISBLANK(Scrobbles!$F92)=FALSE),1,0)</f>
@@ -23532,7 +23700,7 @@
       </c>
       <c r="T92">
         <f>IF(Scrobbles!F92&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="3:20" x14ac:dyDescent="0.3">
@@ -23554,7 +23722,7 @@
       </c>
       <c r="G93">
         <f>IF(Scrobbles!$B93=G$1,Scrobbles!$F93,0)</f>
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="H93">
         <f>IF(Scrobbles!$B93=H$1,Scrobbles!$F93,0)</f>
@@ -23582,7 +23750,7 @@
       </c>
       <c r="O93">
         <f>IF(AND(Scrobbles!$F93&gt;=Calc!N$1+1,Scrobbles!$F93&lt;=Calc!O$1,ISBLANK(Scrobbles!$F93)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P93">
         <f>IF(AND(Scrobbles!$F93&gt;=Calc!O$1+1,Scrobbles!$F93&lt;=Calc!P$1,ISBLANK(Scrobbles!$F93)=FALSE),1,0)</f>
@@ -23598,7 +23766,7 @@
       </c>
       <c r="T93">
         <f>IF(Scrobbles!F93&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="3:20" x14ac:dyDescent="0.3">
@@ -23624,7 +23792,7 @@
       </c>
       <c r="H94">
         <f>IF(Scrobbles!$B94=H$1,Scrobbles!$F94,0)</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="I94">
         <f>IF(Scrobbles!$B94=I$1,Scrobbles!$F94,0)</f>
@@ -23640,7 +23808,7 @@
       </c>
       <c r="M94">
         <f>IF(AND(Scrobbles!$F94&gt;=Calc!L$1+1,Scrobbles!$F94&lt;=Calc!M$1,ISBLANK(Scrobbles!$F94)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N94">
         <f>IF(AND(Scrobbles!$F94&gt;=Calc!M$1+1,Scrobbles!$F94&lt;=Calc!N$1,ISBLANK(Scrobbles!$F94)=FALSE),1,0)</f>
@@ -23664,7 +23832,7 @@
       </c>
       <c r="T94">
         <f>IF(Scrobbles!F94&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="3:20" x14ac:dyDescent="0.3">
@@ -23694,11 +23862,11 @@
       </c>
       <c r="I95">
         <f>IF(Scrobbles!$B95=I$1,Scrobbles!$F95,0)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K95">
         <f>IF(AND(Scrobbles!$F95&gt;=Calc!J$1+1,Scrobbles!$F95&lt;=Calc!K$1,ISBLANK(Scrobbles!$F95)=FALSE),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95">
         <f>IF(AND(Scrobbles!$F95&gt;=Calc!K$1+1,Scrobbles!$F95&lt;=Calc!L$1,ISBLANK(Scrobbles!$F95)=FALSE),1,0)</f>
@@ -23730,7 +23898,7 @@
       </c>
       <c r="T95">
         <f>IF(Scrobbles!F95&gt;0,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="3:20" x14ac:dyDescent="0.3">
